--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-eps\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7A360-8CAF-4007-B9AA-5C99868F5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="1785" windowWidth="28560" windowHeight="19110"/>
+    <workbookView xWindow="6915" yWindow="5640" windowWidth="21855" windowHeight="11640" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <sheet name="TTS-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="TTS-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2850,7 +2851,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -3170,17 +3171,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3210,7 +3211,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3271,94 +3271,94 @@
                   <c:v>2.4033772409275102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7990463902214007E-2</c:v>
+                  <c:v>4.4672141180370439E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4672141180370439E-2</c:v>
+                  <c:v>5.4425050578744395E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4425050578744395E-2</c:v>
+                  <c:v>6.851539693126743E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.851539693126743E-2</c:v>
+                  <c:v>8.8572975946212357E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8572975946212357E-2</c:v>
+                  <c:v>0.11653121412856901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11653121412856901</c:v>
+                  <c:v>0.15438183240150175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15438183240150175</c:v>
+                  <c:v>0.20365072293828868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20365072293828868</c:v>
+                  <c:v>0.26460310474553878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26460310474553878</c:v>
+                  <c:v>0.33543859487742256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33543859487742256</c:v>
+                  <c:v>0.41201688620463761</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41201688620463761</c:v>
+                  <c:v>0.48859517753185266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48859517753185266</c:v>
+                  <c:v>0.55943066766373639</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55943066766373639</c:v>
+                  <c:v>0.62038304947098644</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62038304947098644</c:v>
+                  <c:v>0.66965194000777339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66965194000777339</c:v>
+                  <c:v>0.70750255828070607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70750255828070607</c:v>
+                  <c:v>0.73546079646306284</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73546079646306284</c:v>
+                  <c:v>0.75551837547800771</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75551837547800771</c:v>
+                  <c:v>0.76960872183053075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76960872183053075</c:v>
+                  <c:v>0.77936163122890467</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77936163122890467</c:v>
+                  <c:v>0.78604330850706117</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78604330850706117</c:v>
+                  <c:v>0.79058874405867341</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.79058874405867341</c:v>
+                  <c:v>0.79366612045484164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79366612045484164</c:v>
+                  <c:v>0.79574281733955832</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79574281733955832</c:v>
+                  <c:v>0.79714115426369558</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79714115426369558</c:v>
+                  <c:v>0.79808132793689279</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.79808132793689279</c:v>
+                  <c:v>0.79871282638349361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.79871282638349361</c:v>
+                  <c:v>0.79913670961152272</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79913670961152272</c:v>
+                  <c:v>0.7994211068201339</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7994211068201339</c:v>
+                  <c:v>0.79961186083390279</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.79961186083390279</c:v>
+                  <c:v>0.79973977962433995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4186,16 +4186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>230982</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>121443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>235745</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4299,6 +4299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4334,6 +4351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4509,26 +4543,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="15"/>
-    <col min="2" max="2" width="56.265625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4536,511 +4570,511 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="A48" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -5048,7 +5082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5056,13 +5090,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5191,7 +5225,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +5354,7 @@
         <v>0.79121052298324024</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5449,7 +5483,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5578,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5707,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5836,7 +5870,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -5965,7 +5999,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6100,7 +6134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6108,13 +6142,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6243,7 +6277,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6372,7 +6406,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6501,7 +6535,7 @@
         <v>5.335006800310399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6630,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6759,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6888,7 +6922,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7017,7 +7051,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7152,7 +7186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7160,13 +7194,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7295,7 +7329,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7424,7 +7458,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7587,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7682,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -7811,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7940,7 +7974,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8069,7 +8103,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8204,7 +8238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8212,13 +8246,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8347,7 +8381,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8476,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8605,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8734,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8863,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8992,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9121,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9256,7 +9290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9264,13 +9298,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9399,7 +9433,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9528,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9657,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -9786,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9915,7 +9949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10044,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10173,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10308,7 +10342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10316,13 +10350,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10451,7 +10485,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10580,7 +10614,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10709,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10838,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10967,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11096,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11225,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11360,7 +11394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11368,13 +11402,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11503,7 +11537,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11632,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11761,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11890,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12019,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12148,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12277,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12412,7 +12446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12420,13 +12454,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12555,7 +12589,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12684,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12813,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12942,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13071,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13200,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13329,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13464,7 +13498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13472,13 +13506,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13607,7 +13641,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13736,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13865,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13994,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14123,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14252,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14381,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14516,7 +14550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14526,13 +14560,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14661,7 +14695,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -14790,7 +14824,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14919,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15048,7 +15082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15177,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15306,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15435,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15570,14 +15604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15675,27 +15709,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -15802,7 +15836,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -15810,7 +15844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -15818,7 +15852,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -15928,7 +15962,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -16038,7 +16072,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -16148,7 +16182,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -16156,7 +16190,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -16266,7 +16300,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -16376,7 +16410,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -16486,7 +16520,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -16596,7 +16630,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -16706,7 +16740,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -16816,7 +16850,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -16926,7 +16960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -17036,7 +17070,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -17146,7 +17180,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -17256,7 +17290,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -17366,7 +17400,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -17476,7 +17510,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -17586,7 +17620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -17696,7 +17730,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -17806,7 +17840,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -17916,7 +17950,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18026,7 +18060,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -18034,7 +18068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -18042,7 +18076,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -18152,7 +18186,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -18262,7 +18296,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -18372,7 +18406,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>237</v>
       </c>
@@ -18380,7 +18414,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -18490,7 +18524,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -18600,7 +18634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -18710,7 +18744,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -18820,7 +18854,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -18930,7 +18964,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -19040,7 +19074,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -19150,7 +19184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -19260,7 +19294,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -19370,7 +19404,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -19480,7 +19514,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>207</v>
       </c>
@@ -19590,7 +19624,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -19700,7 +19734,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -19810,7 +19844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -19920,7 +19954,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -20030,7 +20064,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20140,7 +20174,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20250,7 +20284,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20360,7 +20394,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20470,7 +20504,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20580,7 +20614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -20591,7 +20625,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>283</v>
       </c>
@@ -20701,7 +20735,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>286</v>
       </c>
@@ -20811,7 +20845,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>289</v>
       </c>
@@ -20921,7 +20955,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>292</v>
       </c>
@@ -21031,7 +21065,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>295</v>
       </c>
@@ -21141,7 +21175,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -21251,7 +21285,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>301</v>
       </c>
@@ -21361,7 +21395,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -21471,7 +21505,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21581,7 +21615,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -21691,7 +21725,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>312</v>
       </c>
@@ -21801,7 +21835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -21917,7 +21951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21925,13 +21959,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22060,7 +22094,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22158,7 +22192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22256,7 +22290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22354,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22452,7 +22486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22550,7 +22584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -22648,7 +22682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -22752,7 +22786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22762,9 +22796,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -22862,27 +22896,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -22989,7 +23023,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -22997,7 +23031,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -23005,7 +23039,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -23115,7 +23149,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -23225,7 +23259,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -23335,7 +23369,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23343,7 +23377,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -23453,7 +23487,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -23563,7 +23597,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -23673,7 +23707,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -23783,7 +23817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -23893,7 +23927,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -24003,7 +24037,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -24113,7 +24147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -24223,7 +24257,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -24333,7 +24367,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -24443,7 +24477,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -24553,7 +24587,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -24663,7 +24697,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -24773,7 +24807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -24883,7 +24917,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -24993,7 +25027,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -25103,7 +25137,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>340</v>
       </c>
@@ -25111,7 +25145,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>228</v>
       </c>
@@ -25119,7 +25153,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -25229,7 +25263,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -25339,7 +25373,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -25449,7 +25483,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -25457,7 +25491,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -25567,7 +25601,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -25677,7 +25711,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -25787,7 +25821,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -25897,7 +25931,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -26007,7 +26041,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -26117,7 +26151,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -26227,7 +26261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -26337,7 +26371,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -26447,7 +26481,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -26557,7 +26591,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -26667,7 +26701,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -26777,7 +26811,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -26887,7 +26921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -26997,7 +27031,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>267</v>
       </c>
@@ -27107,7 +27141,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -27217,7 +27251,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -27334,7 +27368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27344,9 +27378,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -27444,27 +27478,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -27571,7 +27605,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -27579,7 +27613,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>410</v>
       </c>
@@ -27587,7 +27621,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>411</v>
       </c>
@@ -27595,7 +27629,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>412</v>
       </c>
@@ -27705,7 +27739,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -27815,7 +27849,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>416</v>
       </c>
@@ -27925,7 +27959,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>418</v>
       </c>
@@ -28035,7 +28069,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>420</v>
       </c>
@@ -28145,7 +28179,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -28255,7 +28289,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -28365,7 +28399,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -28475,7 +28509,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -28585,7 +28619,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -28695,7 +28729,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>430</v>
       </c>
@@ -28703,7 +28737,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -28813,7 +28847,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>414</v>
       </c>
@@ -28923,7 +28957,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>416</v>
       </c>
@@ -29033,7 +29067,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -29143,7 +29177,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>420</v>
       </c>
@@ -29253,7 +29287,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -29363,7 +29397,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>423</v>
       </c>
@@ -29473,7 +29507,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -29583,7 +29617,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -29693,7 +29727,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>440</v>
       </c>
@@ -29803,7 +29837,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -29811,7 +29845,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>412</v>
       </c>
@@ -29921,7 +29955,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>414</v>
       </c>
@@ -30031,7 +30065,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -30141,7 +30175,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>418</v>
       </c>
@@ -30251,7 +30285,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -30361,7 +30395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>292</v>
       </c>
@@ -30471,7 +30505,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>423</v>
       </c>
@@ -30581,7 +30615,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -30691,7 +30725,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -30801,7 +30835,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -30911,7 +30945,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>454</v>
       </c>
@@ -31021,7 +31055,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>456</v>
       </c>
@@ -31029,7 +31063,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>411</v>
       </c>
@@ -31037,7 +31071,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>412</v>
       </c>
@@ -31147,7 +31181,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>414</v>
       </c>
@@ -31257,7 +31291,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>416</v>
       </c>
@@ -31367,7 +31401,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>418</v>
       </c>
@@ -31477,7 +31511,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -31587,7 +31621,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>292</v>
       </c>
@@ -31697,7 +31731,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>423</v>
       </c>
@@ -31807,7 +31841,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>425</v>
       </c>
@@ -31917,7 +31951,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>304</v>
       </c>
@@ -32027,7 +32061,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>428</v>
       </c>
@@ -32137,7 +32171,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -32145,7 +32179,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>412</v>
       </c>
@@ -32255,7 +32289,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>414</v>
       </c>
@@ -32365,7 +32399,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>416</v>
       </c>
@@ -32475,7 +32509,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>418</v>
       </c>
@@ -32585,7 +32619,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>420</v>
       </c>
@@ -32695,7 +32729,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>292</v>
       </c>
@@ -32805,7 +32839,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>423</v>
       </c>
@@ -32915,7 +32949,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>425</v>
       </c>
@@ -33025,7 +33059,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -33135,7 +33169,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>440</v>
       </c>
@@ -33245,7 +33279,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>442</v>
       </c>
@@ -33253,7 +33287,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -33363,7 +33397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -33473,7 +33507,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>416</v>
       </c>
@@ -33583,7 +33617,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>418</v>
       </c>
@@ -33693,7 +33727,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>420</v>
       </c>
@@ -33803,7 +33837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>292</v>
       </c>
@@ -33913,7 +33947,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -34023,7 +34057,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>425</v>
       </c>
@@ -34133,7 +34167,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>304</v>
       </c>
@@ -34243,7 +34277,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -34353,7 +34387,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>411</v>
       </c>
@@ -34364,7 +34398,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -34474,7 +34508,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -34584,7 +34618,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>416</v>
       </c>
@@ -34694,7 +34728,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>418</v>
       </c>
@@ -34804,7 +34838,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>420</v>
       </c>
@@ -34914,7 +34948,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -35024,7 +35058,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>423</v>
       </c>
@@ -35134,7 +35168,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>425</v>
       </c>
@@ -35244,7 +35278,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>304</v>
       </c>
@@ -35354,7 +35388,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>497</v>
       </c>
@@ -35464,7 +35498,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>499</v>
       </c>
@@ -35472,7 +35506,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>411</v>
       </c>
@@ -35480,7 +35514,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>412</v>
       </c>
@@ -35590,7 +35624,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>414</v>
       </c>
@@ -35700,7 +35734,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>416</v>
       </c>
@@ -35810,7 +35844,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>418</v>
       </c>
@@ -35920,7 +35954,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -36030,7 +36064,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>292</v>
       </c>
@@ -36140,7 +36174,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -36250,7 +36284,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>425</v>
       </c>
@@ -36360,7 +36394,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>304</v>
       </c>
@@ -36470,7 +36504,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>509</v>
       </c>
@@ -36577,7 +36611,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>430</v>
       </c>
@@ -36585,7 +36619,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>412</v>
       </c>
@@ -36695,7 +36729,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>414</v>
       </c>
@@ -36805,7 +36839,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>416</v>
       </c>
@@ -36915,7 +36949,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>418</v>
       </c>
@@ -37025,7 +37059,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>420</v>
       </c>
@@ -37135,7 +37169,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -37245,7 +37279,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>423</v>
       </c>
@@ -37355,7 +37389,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>425</v>
       </c>
@@ -37465,7 +37499,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>304</v>
       </c>
@@ -37575,7 +37609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>520</v>
       </c>
@@ -37682,7 +37716,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -37690,7 +37724,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -37800,7 +37834,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>414</v>
       </c>
@@ -37910,7 +37944,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>416</v>
       </c>
@@ -38020,7 +38054,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>418</v>
       </c>
@@ -38130,7 +38164,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>420</v>
       </c>
@@ -38240,7 +38274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -38350,7 +38384,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>423</v>
       </c>
@@ -38460,7 +38494,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>425</v>
       </c>
@@ -38570,7 +38604,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -38680,7 +38714,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>531</v>
       </c>
@@ -38787,7 +38821,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>533</v>
       </c>
@@ -38894,7 +38928,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -38902,7 +38936,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>411</v>
       </c>
@@ -38910,7 +38944,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>412</v>
       </c>
@@ -39020,7 +39054,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>414</v>
       </c>
@@ -39130,7 +39164,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>416</v>
       </c>
@@ -39240,7 +39274,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>418</v>
       </c>
@@ -39350,7 +39384,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -39460,7 +39494,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>292</v>
       </c>
@@ -39570,7 +39604,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>423</v>
       </c>
@@ -39680,7 +39714,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -39790,7 +39824,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>304</v>
       </c>
@@ -39900,7 +39934,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -40010,7 +40044,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -40018,7 +40052,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -40128,7 +40162,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>414</v>
       </c>
@@ -40238,7 +40272,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -40348,7 +40382,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -40458,7 +40492,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>420</v>
       </c>
@@ -40568,7 +40602,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -40678,7 +40712,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>423</v>
       </c>
@@ -40788,7 +40822,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>425</v>
       </c>
@@ -40898,7 +40932,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -41008,7 +41042,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -41118,7 +41152,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>442</v>
       </c>
@@ -41126,7 +41160,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -41236,7 +41270,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -41346,7 +41380,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>416</v>
       </c>
@@ -41456,7 +41490,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -41566,7 +41600,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>420</v>
       </c>
@@ -41676,7 +41710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>292</v>
       </c>
@@ -41786,7 +41820,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>423</v>
       </c>
@@ -41896,7 +41930,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>425</v>
       </c>
@@ -42006,7 +42040,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>304</v>
       </c>
@@ -42116,7 +42150,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>452</v>
       </c>
@@ -42226,7 +42260,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -42336,7 +42370,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -42344,7 +42378,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>499</v>
       </c>
@@ -42352,7 +42386,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>411</v>
       </c>
@@ -42360,7 +42394,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>412</v>
       </c>
@@ -42470,7 +42504,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>414</v>
       </c>
@@ -42580,7 +42614,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>416</v>
       </c>
@@ -42690,7 +42724,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>418</v>
       </c>
@@ -42800,7 +42834,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>420</v>
       </c>
@@ -42910,7 +42944,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>292</v>
       </c>
@@ -43020,7 +43054,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>423</v>
       </c>
@@ -43130,7 +43164,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -43240,7 +43274,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>304</v>
       </c>
@@ -43350,7 +43384,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -43457,7 +43491,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -43465,7 +43499,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -43575,7 +43609,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>414</v>
       </c>
@@ -43685,7 +43719,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>416</v>
       </c>
@@ -43795,7 +43829,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -43905,7 +43939,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>420</v>
       </c>
@@ -44015,7 +44049,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>292</v>
       </c>
@@ -44125,7 +44159,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>423</v>
       </c>
@@ -44235,7 +44269,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -44345,7 +44379,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>304</v>
       </c>
@@ -44455,7 +44489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>520</v>
       </c>
@@ -44562,7 +44596,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>442</v>
       </c>
@@ -44570,7 +44604,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>412</v>
       </c>
@@ -44680,7 +44714,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>414</v>
       </c>
@@ -44790,7 +44824,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>416</v>
       </c>
@@ -44900,7 +44934,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>418</v>
       </c>
@@ -45010,7 +45044,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>420</v>
       </c>
@@ -45120,7 +45154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>292</v>
       </c>
@@ -45230,7 +45264,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>423</v>
       </c>
@@ -45340,7 +45374,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>425</v>
       </c>
@@ -45450,7 +45484,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>304</v>
       </c>
@@ -45560,7 +45594,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>531</v>
       </c>
@@ -45667,7 +45701,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>533</v>
       </c>
@@ -45774,7 +45808,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>598</v>
       </c>
@@ -45782,7 +45816,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -45790,7 +45824,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>412</v>
       </c>
@@ -45900,7 +45934,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>414</v>
       </c>
@@ -46010,7 +46044,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>416</v>
       </c>
@@ -46120,7 +46154,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>418</v>
       </c>
@@ -46230,7 +46264,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>420</v>
       </c>
@@ -46340,7 +46374,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -46450,7 +46484,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>423</v>
       </c>
@@ -46560,7 +46594,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>425</v>
       </c>
@@ -46670,7 +46704,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>304</v>
       </c>
@@ -46780,7 +46814,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>428</v>
       </c>
@@ -46890,7 +46924,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>430</v>
       </c>
@@ -46898,7 +46932,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>412</v>
       </c>
@@ -47008,7 +47042,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>414</v>
       </c>
@@ -47118,7 +47152,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>416</v>
       </c>
@@ -47228,7 +47262,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>418</v>
       </c>
@@ -47338,7 +47372,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>420</v>
       </c>
@@ -47448,7 +47482,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -47558,7 +47592,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -47668,7 +47702,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>425</v>
       </c>
@@ -47778,7 +47812,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>304</v>
       </c>
@@ -47888,7 +47922,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>440</v>
       </c>
@@ -47998,7 +48032,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>442</v>
       </c>
@@ -48006,7 +48040,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>412</v>
       </c>
@@ -48116,7 +48150,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>414</v>
       </c>
@@ -48226,7 +48260,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>416</v>
       </c>
@@ -48336,7 +48370,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>418</v>
       </c>
@@ -48446,7 +48480,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>420</v>
       </c>
@@ -48556,7 +48590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -48666,7 +48700,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>423</v>
       </c>
@@ -48776,7 +48810,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>425</v>
       </c>
@@ -48886,7 +48920,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>304</v>
       </c>
@@ -48996,7 +49030,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>452</v>
       </c>
@@ -49106,7 +49140,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>280</v>
       </c>
@@ -49216,7 +49250,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -49224,7 +49258,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>630</v>
       </c>
@@ -49334,7 +49368,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>632</v>
       </c>
@@ -49444,7 +49478,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>634</v>
       </c>
@@ -49452,7 +49486,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>635</v>
       </c>
@@ -49562,7 +49596,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>637</v>
       </c>
@@ -49672,7 +49706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>639</v>
       </c>
@@ -49782,7 +49816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>641</v>
       </c>
@@ -49892,7 +49926,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -49900,7 +49934,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>643</v>
       </c>
@@ -50010,7 +50044,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>632</v>
       </c>
@@ -50120,7 +50154,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>634</v>
       </c>
@@ -50128,7 +50162,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>635</v>
       </c>
@@ -50238,7 +50272,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>637</v>
       </c>
@@ -50348,7 +50382,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>639</v>
       </c>
@@ -50458,7 +50492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>641</v>
       </c>
@@ -50568,7 +50602,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -50576,7 +50610,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>650</v>
       </c>
@@ -50686,7 +50720,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>652</v>
       </c>
@@ -50796,7 +50830,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>654</v>
       </c>
@@ -50906,7 +50940,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>634</v>
       </c>
@@ -50914,7 +50948,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>635</v>
       </c>
@@ -51024,7 +51058,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>637</v>
       </c>
@@ -51134,7 +51168,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>639</v>
       </c>
@@ -51244,7 +51278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>641</v>
       </c>
@@ -51361,25 +51395,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51405,7 +51439,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51432,7 +51466,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51460,7 +51494,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51486,7 +51520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51512,7 +51546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51538,7 +51572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51564,11 +51598,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -51583,26 +51617,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="8" width="23.265625" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51628,7 +51662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51656,7 +51690,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51683,7 +51717,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51709,7 +51743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51735,7 +51769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51761,7 +51795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51787,7 +51821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -51802,154 +51836,154 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E34" s="15">
         <v>2020</v>
       </c>
@@ -51984,7 +52018,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>142</v>
       </c>
@@ -52022,7 +52056,7 @@
         <v>0.23878898573568191</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>141</v>
       </c>
@@ -52060,7 +52094,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>925</v>
       </c>
@@ -52080,7 +52114,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -52103,30 +52137,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.265625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.86328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="15"/>
-    <col min="8" max="9" width="9.1328125" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -52145,7 +52179,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -52162,7 +52196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -52179,7 +52213,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -52193,15 +52227,15 @@
         <v>101</v>
       </c>
       <c r="O4" s="27">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -52215,7 +52249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -52228,8 +52262,11 @@
       <c r="F7" s="40" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="R7" s="15">
+        <v>0.33543859487742256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -52371,7 +52408,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -52398,126 +52435,126 @@
       </c>
       <c r="I9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:I$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,I$8))</f>
-        <v>3.7990463902214007E-2</v>
+        <v>4.4672141180370439E-2</v>
       </c>
       <c r="J9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:J$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,J$8))</f>
-        <v>4.4672141180370439E-2</v>
+        <v>5.4425050578744395E-2</v>
       </c>
       <c r="K9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:K$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,K$8))</f>
-        <v>5.4425050578744395E-2</v>
+        <v>6.851539693126743E-2</v>
       </c>
       <c r="L9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:L$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,L$8))</f>
-        <v>6.851539693126743E-2</v>
+        <v>8.8572975946212357E-2</v>
       </c>
       <c r="M9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:M$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,M$8))</f>
-        <v>8.8572975946212357E-2</v>
+        <v>0.11653121412856901</v>
       </c>
       <c r="N9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:N$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,N$8))</f>
-        <v>0.11653121412856901</v>
+        <v>0.15438183240150175</v>
       </c>
       <c r="O9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:O$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,O$8))</f>
-        <v>0.15438183240150175</v>
+        <v>0.20365072293828868</v>
       </c>
       <c r="P9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:P$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,P$8))</f>
-        <v>0.20365072293828868</v>
+        <v>0.26460310474553878</v>
       </c>
       <c r="Q9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Q$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Q$8))</f>
-        <v>0.26460310474553878</v>
+        <v>0.33543859487742256</v>
       </c>
       <c r="R9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:R$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,R$8))</f>
-        <v>0.33543859487742256</v>
+        <v>0.41201688620463761</v>
       </c>
       <c r="S9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:S$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,S$8))</f>
-        <v>0.41201688620463761</v>
+        <v>0.48859517753185266</v>
       </c>
       <c r="T9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:T$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,T$8))</f>
-        <v>0.48859517753185266</v>
+        <v>0.55943066766373639</v>
       </c>
       <c r="U9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:U$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,U$8))</f>
-        <v>0.55943066766373639</v>
+        <v>0.62038304947098644</v>
       </c>
       <c r="V9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:V$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,V$8))</f>
-        <v>0.62038304947098644</v>
+        <v>0.66965194000777339</v>
       </c>
       <c r="W9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:W$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,W$8))</f>
-        <v>0.66965194000777339</v>
+        <v>0.70750255828070607</v>
       </c>
       <c r="X9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:X$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,X$8))</f>
-        <v>0.70750255828070607</v>
+        <v>0.73546079646306284</v>
       </c>
       <c r="Y9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Y$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Y$8))</f>
-        <v>0.73546079646306284</v>
+        <v>0.75551837547800771</v>
       </c>
       <c r="Z9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Z$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Z$8))</f>
-        <v>0.75551837547800771</v>
+        <v>0.76960872183053075</v>
       </c>
       <c r="AA9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AA$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AA$8))</f>
-        <v>0.76960872183053075</v>
+        <v>0.77936163122890467</v>
       </c>
       <c r="AB9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AB$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AB$8))</f>
-        <v>0.77936163122890467</v>
+        <v>0.78604330850706117</v>
       </c>
       <c r="AC9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AC$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AC$8))</f>
-        <v>0.78604330850706117</v>
+        <v>0.79058874405867341</v>
       </c>
       <c r="AD9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AD$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AD$8))</f>
-        <v>0.79058874405867341</v>
+        <v>0.79366612045484164</v>
       </c>
       <c r="AE9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AE$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AE$8))</f>
-        <v>0.79366612045484164</v>
+        <v>0.79574281733955832</v>
       </c>
       <c r="AF9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AF$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AF$8))</f>
-        <v>0.79574281733955832</v>
+        <v>0.79714115426369558</v>
       </c>
       <c r="AG9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AG$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AG$8))</f>
-        <v>0.79714115426369558</v>
+        <v>0.79808132793689279</v>
       </c>
       <c r="AH9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AH$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AH$8))</f>
-        <v>0.79808132793689279</v>
+        <v>0.79871282638349361</v>
       </c>
       <c r="AI9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AI$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AI$8))</f>
-        <v>0.79871282638349361</v>
+        <v>0.79913670961152272</v>
       </c>
       <c r="AJ9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AJ$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AJ$8))</f>
-        <v>0.79913670961152272</v>
+        <v>0.7994211068201339</v>
       </c>
       <c r="AK9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AK$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AK$8))</f>
-        <v>0.7994211068201339</v>
+        <v>0.79961186083390279</v>
       </c>
       <c r="AL9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AL$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AL$8))</f>
-        <v>0.79961186083390279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+        <v>0.79973977962433995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
@@ -52658,7 +52695,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
@@ -52797,7 +52834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
@@ -52938,7 +52975,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
@@ -53079,7 +53116,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>125</v>
       </c>
@@ -53220,7 +53257,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
@@ -53363,7 +53400,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
@@ -53510,7 +53547,7 @@
         <v>0.79121052298324024</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
@@ -53650,7 +53687,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
@@ -53789,7 +53826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
@@ -53929,7 +53966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
@@ -54070,7 +54107,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>125</v>
       </c>
@@ -54211,7 +54248,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31" t="s">
@@ -54354,7 +54391,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -54500,7 +54537,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
@@ -54641,7 +54678,7 @@
         <v>5.335006800310399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>3</v>
       </c>
@@ -54782,7 +54819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>4</v>
       </c>
@@ -54921,7 +54958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>5</v>
       </c>
@@ -55062,7 +55099,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>125</v>
       </c>
@@ -55203,7 +55240,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31" t="s">
@@ -55346,7 +55383,7 @@
         <v>5.7030226513153766E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>13</v>
       </c>
@@ -55493,7 +55530,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
@@ -55634,7 +55671,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>3</v>
       </c>
@@ -55773,7 +55810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>4</v>
       </c>
@@ -55912,7 +55949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>5</v>
       </c>
@@ -56053,7 +56090,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>125</v>
       </c>
@@ -56194,7 +56231,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31" t="s">
@@ -56337,7 +56374,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
@@ -56482,7 +56519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -56621,7 +56658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
         <v>3</v>
       </c>
@@ -56760,7 +56797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="C40" s="15" t="s">
         <v>4</v>
@@ -56900,7 +56937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>5</v>
@@ -57040,7 +57077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>125</v>
@@ -57180,7 +57217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
@@ -57321,7 +57358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>14</v>
       </c>
@@ -57466,7 +57503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C45" s="15" t="s">
         <v>2</v>
       </c>
@@ -57605,7 +57642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>3</v>
       </c>
@@ -57744,7 +57781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
         <v>4</v>
       </c>
@@ -57883,7 +57920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>5</v>
       </c>
@@ -58022,7 +58059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
         <v>125</v>
       </c>
@@ -58161,7 +58198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31" t="s">
@@ -58302,7 +58339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>15</v>
       </c>
@@ -58448,7 +58485,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C52" s="15" t="s">
         <v>2</v>
       </c>
@@ -58587,7 +58624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>3</v>
       </c>
@@ -58726,7 +58763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" s="15" t="s">
         <v>4</v>
       </c>
@@ -58866,7 +58903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="C55" s="15" t="s">
         <v>5</v>
@@ -59006,7 +59043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>125</v>
@@ -59146,7 +59183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31" t="s">
@@ -59287,7 +59324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>15</v>
       </c>
@@ -59432,7 +59469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="C59" s="15" t="s">
         <v>2</v>
@@ -59572,7 +59609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>3</v>
@@ -59712,7 +59749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C61" s="15" t="s">
         <v>4</v>
       </c>
@@ -59851,7 +59888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>5</v>
       </c>
@@ -59990,7 +60027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
         <v>125</v>
       </c>
@@ -60129,7 +60166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31" t="s">
@@ -60270,7 +60307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>16</v>
       </c>
@@ -60415,7 +60452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
         <v>2</v>
       </c>
@@ -60554,7 +60591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>3</v>
       </c>
@@ -60694,7 +60731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" s="15" t="s">
         <v>4</v>
       </c>
@@ -60834,7 +60871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" s="15" t="s">
         <v>5</v>
       </c>
@@ -60973,7 +61010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" s="15" t="s">
         <v>125</v>
       </c>
@@ -61112,7 +61149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31" t="s">
@@ -61253,7 +61290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>16</v>
       </c>
@@ -61398,7 +61435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C73" s="15" t="s">
         <v>2</v>
       </c>
@@ -61537,7 +61574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" s="15" t="s">
         <v>3</v>
       </c>
@@ -61676,7 +61713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" s="15" t="s">
         <v>4</v>
       </c>
@@ -61815,7 +61852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
         <v>5</v>
       </c>
@@ -61954,7 +61991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
         <v>125</v>
       </c>
@@ -62093,7 +62130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31" t="s">
@@ -62234,7 +62271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>17</v>
       </c>
@@ -62380,7 +62417,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C80" s="15" t="s">
         <v>2</v>
       </c>
@@ -62520,7 +62557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" s="15" t="s">
         <v>3</v>
       </c>
@@ -62659,7 +62696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
         <v>4</v>
       </c>
@@ -62799,7 +62836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>5</v>
       </c>
@@ -62939,7 +62976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" s="15" t="s">
         <v>125</v>
       </c>
@@ -63079,7 +63116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31" t="s">
@@ -63221,7 +63258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>17</v>
       </c>
@@ -63366,7 +63403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C87" s="15" t="s">
         <v>2</v>
       </c>
@@ -63505,7 +63542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" s="15" t="s">
         <v>3</v>
       </c>
@@ -63644,7 +63681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" s="15" t="s">
         <v>4</v>
       </c>
@@ -63783,7 +63820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" s="15" t="s">
         <v>5</v>
       </c>
@@ -63922,7 +63959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" s="15" t="s">
         <v>125</v>
       </c>
@@ -64061,7 +64098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31" t="s">
@@ -64210,23 +64247,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -64355,136 +64392,105 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <f>Data!H9</f>
-        <v>2.4033772409275102E-2</v>
-      </c>
-      <c r="C2" s="15">
-        <f>Data!I9</f>
-        <v>3.7990463902214007E-2</v>
-      </c>
-      <c r="D2" s="15">
-        <f>Data!J9</f>
-        <v>4.4672141180370439E-2</v>
-      </c>
-      <c r="E2" s="15">
-        <f>Data!K9</f>
-        <v>5.4425050578744395E-2</v>
-      </c>
-      <c r="F2" s="15">
-        <f>Data!L9</f>
-        <v>6.851539693126743E-2</v>
-      </c>
-      <c r="G2" s="15">
-        <f>Data!M9</f>
-        <v>8.8572975946212357E-2</v>
-      </c>
-      <c r="H2" s="15">
-        <f>Data!N9</f>
-        <v>0.11653121412856901</v>
-      </c>
-      <c r="I2" s="15">
-        <f>Data!O9</f>
-        <v>0.15438183240150175</v>
-      </c>
-      <c r="J2" s="15">
-        <f>Data!P9</f>
-        <v>0.20365072293828868</v>
-      </c>
-      <c r="K2" s="15">
-        <f>Data!Q9</f>
-        <v>0.26460310474553878</v>
-      </c>
-      <c r="L2" s="15">
-        <f>Data!R9</f>
-        <v>0.33543859487742256</v>
-      </c>
-      <c r="M2" s="15">
-        <f>Data!S9</f>
-        <v>0.41201688620463761</v>
-      </c>
-      <c r="N2" s="15">
-        <f>Data!T9</f>
-        <v>0.48859517753185266</v>
-      </c>
-      <c r="O2" s="15">
-        <f>Data!U9</f>
-        <v>0.55943066766373639</v>
-      </c>
-      <c r="P2" s="15">
-        <f>Data!V9</f>
-        <v>0.62038304947098644</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>Data!W9</f>
-        <v>0.66965194000777339</v>
-      </c>
-      <c r="R2" s="15">
-        <f>Data!X9</f>
-        <v>0.70750255828070607</v>
-      </c>
-      <c r="S2" s="15">
-        <f>Data!Y9</f>
-        <v>0.73546079646306284</v>
-      </c>
-      <c r="T2" s="15">
-        <f>Data!Z9</f>
-        <v>0.75551837547800771</v>
-      </c>
-      <c r="U2" s="15">
-        <f>Data!AA9</f>
-        <v>0.76960872183053075</v>
-      </c>
-      <c r="V2" s="15">
-        <f>Data!AB9</f>
-        <v>0.77936163122890467</v>
-      </c>
-      <c r="W2" s="15">
-        <f>Data!AC9</f>
-        <v>0.78604330850706117</v>
-      </c>
-      <c r="X2" s="15">
-        <f>Data!AD9</f>
-        <v>0.79058874405867341</v>
-      </c>
-      <c r="Y2" s="15">
-        <f>Data!AE9</f>
-        <v>0.79366612045484164</v>
-      </c>
-      <c r="Z2" s="15">
-        <f>Data!AF9</f>
-        <v>0.79574281733955832</v>
-      </c>
-      <c r="AA2" s="15">
-        <f>Data!AG9</f>
-        <v>0.79714115426369558</v>
-      </c>
-      <c r="AB2" s="15">
-        <f>Data!AH9</f>
-        <v>0.79808132793689279</v>
-      </c>
-      <c r="AC2" s="15">
-        <f>Data!AI9</f>
-        <v>0.79871282638349361</v>
-      </c>
-      <c r="AD2" s="15">
-        <f>Data!AJ9</f>
-        <v>0.79913670961152272</v>
-      </c>
-      <c r="AE2" s="15">
-        <f>Data!AK9</f>
-        <v>0.7994211068201339</v>
-      </c>
-      <c r="AF2" s="15">
-        <f>Data!AL9</f>
-        <v>0.79961186083390279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -64613,7 +64619,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -64742,7 +64748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -64871,7 +64877,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -65000,7 +65006,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -65129,7 +65135,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B494E-2243-4188-9826-6551E88F9560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E1B76E-8504-4262-9456-2423C1D1900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3259,94 +3259,94 @@
                   <c:v>2.4033772409275102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8452728387264615E-2</c:v>
+                  <c:v>3.0565768877676487E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3397240750809356E-2</c:v>
+                  <c:v>3.4756657361210842E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.999153989574362E-2</c:v>
+                  <c:v>4.1587705894632315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8750051814605499E-2</c:v>
+                  <c:v>5.264151967794517E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.0319822944581098E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5493641158949502E-2</c:v>
+                  <c:v>9.806879419650627E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10520751524499683</c:v>
+                  <c:v>0.14037179853299253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13050858543369728</c:v>
+                  <c:v>0.20207492269482669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16247562109993127</c:v>
+                  <c:v>0.28651151686663684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20207492269482669</c:v>
+                  <c:v>0.39250071469828041</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24994576623848519</c:v>
+                  <c:v>0.51201688620463759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30613729591557276</c:v>
+                  <c:v>0.63153305771099466</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36986125049264856</c:v>
+                  <c:v>0.73752225554263828</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43936350389960366</c:v>
+                  <c:v>0.82195884971444833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51201688620463759</c:v>
+                  <c:v>0.88366197387628254</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58467026850967152</c:v>
+                  <c:v>0.92596497821276891</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65417252191662656</c:v>
+                  <c:v>0.95371394946469412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71789647649370236</c:v>
+                  <c:v>0.9713922527313299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.77408800617078988</c:v>
+                  <c:v>0.98244606651464272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.82195884971444833</c:v>
+                  <c:v>0.98927711504806426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.86155815130934388</c:v>
+                  <c:v>0.9934680035315987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89352518697557781</c:v>
+                  <c:v>0.99602768304764211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91882625716427835</c:v>
+                  <c:v>0.99758680330556582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93854013125032565</c:v>
+                  <c:v>0.9985348968159663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95371394946469412</c:v>
+                  <c:v>0.99911084480265877</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9652837205946696</c:v>
+                  <c:v>0.99946050671902897</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97404223251353139</c:v>
+                  <c:v>0.99967270959824672</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98063653165846576</c:v>
+                  <c:v>0.99980146213963728</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98558104402201052</c:v>
+                  <c:v>0.99987957106116954</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.98927711504806426</c:v>
+                  <c:v>0.99992695260968711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,16 +4130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67468</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>391320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>226220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4490,7 +4490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -51985,8 +51985,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:AL10"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52052,7 +52052,7 @@
         <v>100</v>
       </c>
       <c r="O3" s="26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -52069,7 +52069,7 @@
         <v>101</v>
       </c>
       <c r="O4" s="27">
-        <v>-5</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
@@ -52101,7 +52101,7 @@
         <v>2020</v>
       </c>
       <c r="E7" s="2">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -52283,128 +52283,128 @@
         <v>s-curve</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:H40" si="1">D10</f>
+        <f t="shared" ref="H10" si="1">D10</f>
         <v>2.4033772409275102E-2</v>
       </c>
       <c r="I10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>3.8452728387264615E-2</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
+        <v>3.0565768877676487E-2</v>
       </c>
       <c r="J10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>4.3397240750809356E-2</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
+        <v>3.4756657361210842E-2</v>
       </c>
       <c r="K10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>4.999153989574362E-2</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
+        <v>4.1587705894632315E-2</v>
       </c>
       <c r="L10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>5.8750051814605499E-2</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
+        <v>5.264151967794517E-2</v>
       </c>
       <c r="M10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
         <v>7.0319822944581098E-2</v>
       </c>
       <c r="N10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>8.5493641158949502E-2</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
+        <v>9.806879419650627E-2</v>
       </c>
       <c r="O10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.10520751524499683</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
+        <v>0.14037179853299253</v>
       </c>
       <c r="P10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.13050858543369728</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
+        <v>0.20207492269482669</v>
       </c>
       <c r="Q10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.16247562109993127</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
+        <v>0.28651151686663684</v>
       </c>
       <c r="R10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.20207492269482669</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
+        <v>0.39250071469828041</v>
       </c>
       <c r="S10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.24994576623848519</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
+        <v>0.51201688620463759</v>
       </c>
       <c r="T10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.30613729591557276</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
+        <v>0.63153305771099466</v>
       </c>
       <c r="U10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.36986125049264856</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
+        <v>0.73752225554263828</v>
       </c>
       <c r="V10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.43936350389960366</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
+        <v>0.82195884971444833</v>
       </c>
       <c r="W10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.51201688620463759</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
+        <v>0.88366197387628254</v>
       </c>
       <c r="X10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.58467026850967152</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
+        <v>0.92596497821276891</v>
       </c>
       <c r="Y10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.65417252191662656</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
+        <v>0.95371394946469412</v>
       </c>
       <c r="Z10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.71789647649370236</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
+        <v>0.9713922527313299</v>
       </c>
       <c r="AA10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.77408800617078988</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
+        <v>0.98244606651464272</v>
       </c>
       <c r="AB10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.82195884971444833</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
+        <v>0.98927711504806426</v>
       </c>
       <c r="AC10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.86155815130934388</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
+        <v>0.9934680035315987</v>
       </c>
       <c r="AD10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.89352518697557781</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
+        <v>0.99602768304764211</v>
       </c>
       <c r="AE10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.91882625716427835</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
+        <v>0.99758680330556582</v>
       </c>
       <c r="AF10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.93854013125032565</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
+        <v>0.9985348968159663</v>
       </c>
       <c r="AG10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.95371394946469412</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
+        <v>0.99911084480265877</v>
       </c>
       <c r="AH10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.9652837205946696</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
+        <v>0.99946050671902897</v>
       </c>
       <c r="AI10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.97404223251353139</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
+        <v>0.99967270959824672</v>
       </c>
       <c r="AJ10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.98063653165846576</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
+        <v>0.99980146213963728</v>
       </c>
       <c r="AK10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.98558104402201052</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
+        <v>0.99987957106116954</v>
       </c>
       <c r="AL10" s="15">
-        <f>IF($F10="s-curve",$D10+($E10-$D10)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.98927711504806426</v>
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
+        <v>0.99992695260968711</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
@@ -52424,7 +52424,7 @@
         <v>s-curve</v>
       </c>
       <c r="H11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H11:H40" si="2">D11</f>
         <v>3.8057610451262282E-4</v>
       </c>
       <c r="I11" s="15">
@@ -52563,7 +52563,7 @@
         <v>n/a</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="15">
@@ -52704,7 +52704,7 @@
         <v>linear</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2138566319580755E-3</v>
       </c>
       <c r="I13" s="15">
@@ -52845,7 +52845,7 @@
         <v>s-curve</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.731416359500128E-3</v>
       </c>
       <c r="I14" s="15">
@@ -52986,7 +52986,7 @@
         <v>linear</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.186067677034385E-4</v>
       </c>
       <c r="I15" s="15">
@@ -53129,7 +53129,7 @@
         <v>s-curve</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9671627040405578E-5</v>
       </c>
       <c r="I16" s="15">
@@ -53276,7 +53276,7 @@
         <v>s-curve</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0163026481612729E-6</v>
       </c>
       <c r="I17" s="15">
@@ -53416,7 +53416,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2417684632922508E-3</v>
       </c>
       <c r="I18" s="15">
@@ -53555,7 +53555,7 @@
         <v>n/a</v>
       </c>
       <c r="H19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I19" s="15">
@@ -53695,7 +53695,7 @@
         <v>linear</v>
       </c>
       <c r="H20" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82010231357952423</v>
       </c>
       <c r="I20" s="15">
@@ -53836,7 +53836,7 @@
         <v>s-curve</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="15">
@@ -53977,7 +53977,7 @@
         <v>linear</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5128616403477108E-4</v>
       </c>
       <c r="I22" s="15">
@@ -54120,7 +54120,7 @@
         <v>s-curve</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="15">
@@ -54266,7 +54266,7 @@
         <v>s-curve</v>
       </c>
       <c r="H24" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0593729231944068E-4</v>
       </c>
       <c r="I24" s="15">
@@ -54407,7 +54407,7 @@
         <v>s-curve</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9823199644587315E-2</v>
       </c>
       <c r="I25" s="15">
@@ -54548,7 +54548,7 @@
         <v>linear</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9823199644587315E-2</v>
       </c>
       <c r="I26" s="15">
@@ -54687,7 +54687,7 @@
         <v>n/a</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I27" s="15">
@@ -54828,7 +54828,7 @@
         <v>s-curve</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="15">
@@ -54969,7 +54969,7 @@
         <v>linear</v>
       </c>
       <c r="H29" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3987187287436543E-3</v>
       </c>
       <c r="I29" s="15">
@@ -55112,7 +55112,7 @@
         <v>s-curve</v>
       </c>
       <c r="H30" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2919974477595432E-4</v>
       </c>
       <c r="I30" s="15">
@@ -55259,7 +55259,7 @@
         <v>s-curve</v>
       </c>
       <c r="H31" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.455517997108405E-4</v>
       </c>
       <c r="I31" s="15">
@@ -55400,7 +55400,7 @@
         <v>s-curve</v>
       </c>
       <c r="H32" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2809767943268324E-3</v>
       </c>
       <c r="I32" s="15">
@@ -55539,7 +55539,7 @@
         <v>n/a</v>
       </c>
       <c r="H33" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="15">
@@ -55678,7 +55678,7 @@
         <v>n/a</v>
       </c>
       <c r="H34" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I34" s="15">
@@ -55819,7 +55819,7 @@
         <v>s-curve</v>
       </c>
       <c r="H35" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1604589258675129E-3</v>
       </c>
       <c r="I35" s="15">
@@ -55960,7 +55960,7 @@
         <v>linear</v>
       </c>
       <c r="H36" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9129793393846839E-4</v>
       </c>
       <c r="I36" s="15">
@@ -56103,7 +56103,7 @@
         <v>s-curve</v>
       </c>
       <c r="H37" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2506977162920506E-5</v>
       </c>
       <c r="I37" s="15">
@@ -56248,7 +56248,7 @@
         <v>n/a</v>
       </c>
       <c r="H38" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="15">
@@ -56387,7 +56387,7 @@
         <v>n/a</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="15">
@@ -56526,7 +56526,7 @@
         <v>n/a</v>
       </c>
       <c r="H40" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="15">
@@ -56666,7 +56666,7 @@
         <v>n/a</v>
       </c>
       <c r="H41" s="29">
-        <f t="shared" ref="H41:H72" si="2">D41</f>
+        <f t="shared" ref="H41:H72" si="3">D41</f>
         <v>1</v>
       </c>
       <c r="I41" s="15">
@@ -56806,7 +56806,7 @@
         <v>n/a</v>
       </c>
       <c r="H42" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="15">
@@ -56946,7 +56946,7 @@
         <v>n/a</v>
       </c>
       <c r="H43" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="15">
@@ -57087,7 +57087,7 @@
         <v>n/a</v>
       </c>
       <c r="H44" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="15">
@@ -57232,7 +57232,7 @@
         <v>n/a</v>
       </c>
       <c r="H45" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="15">
@@ -57371,7 +57371,7 @@
         <v>n/a</v>
       </c>
       <c r="H46" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="15">
@@ -57510,7 +57510,7 @@
         <v>n/a</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="15">
@@ -57649,7 +57649,7 @@
         <v>n/a</v>
       </c>
       <c r="H48" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I48" s="15">
@@ -57788,7 +57788,7 @@
         <v>n/a</v>
       </c>
       <c r="H49" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I49" s="15">
@@ -57927,7 +57927,7 @@
         <v>n/a</v>
       </c>
       <c r="H50" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="15">
@@ -58068,7 +58068,7 @@
         <v>n/a</v>
       </c>
       <c r="H51" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I51" s="15">
@@ -58214,7 +58214,7 @@
         <v>s-curve</v>
       </c>
       <c r="H52" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75216927859794647</v>
       </c>
       <c r="I52" s="15">
@@ -58353,7 +58353,7 @@
         <v>n/a</v>
       </c>
       <c r="H53" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I53" s="15">
@@ -58492,7 +58492,7 @@
         <v>n/a</v>
       </c>
       <c r="H54" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I54" s="15">
@@ -58632,7 +58632,7 @@
         <v>linear</v>
       </c>
       <c r="H55" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24783072140205353</v>
       </c>
       <c r="I55" s="15">
@@ -58772,7 +58772,7 @@
         <v>n/a</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
@@ -58912,7 +58912,7 @@
         <v>n/a</v>
       </c>
       <c r="H57" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I57" s="15">
@@ -59053,7 +59053,7 @@
         <v>n/a</v>
       </c>
       <c r="H58" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I58" s="15">
@@ -59198,7 +59198,7 @@
         <v>n/a</v>
       </c>
       <c r="H59" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I59" s="15">
@@ -59338,7 +59338,7 @@
         <v>n/a</v>
       </c>
       <c r="H60" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I60" s="15">
@@ -59478,7 +59478,7 @@
         <v>n/a</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I61" s="15">
@@ -59617,7 +59617,7 @@
         <v>n/a</v>
       </c>
       <c r="H62" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I62" s="15">
@@ -59756,7 +59756,7 @@
         <v>n/a</v>
       </c>
       <c r="H63" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I63" s="15">
@@ -59895,7 +59895,7 @@
         <v>n/a</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I64" s="15">
@@ -60036,7 +60036,7 @@
         <v>n/a</v>
       </c>
       <c r="H65" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I65" s="15">
@@ -60181,7 +60181,7 @@
         <v>n/a</v>
       </c>
       <c r="H66" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I66" s="15">
@@ -60320,7 +60320,7 @@
         <v>n/a</v>
       </c>
       <c r="H67" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I67" s="15">
@@ -60460,7 +60460,7 @@
         <v>linear</v>
       </c>
       <c r="H68" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77564463977542331</v>
       </c>
       <c r="I68" s="15">
@@ -60600,7 +60600,7 @@
         <v>linear</v>
       </c>
       <c r="H69" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22435536022457658</v>
       </c>
       <c r="I69" s="15">
@@ -60739,7 +60739,7 @@
         <v>n/a</v>
       </c>
       <c r="H70" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I70" s="15">
@@ -60878,7 +60878,7 @@
         <v>n/a</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I71" s="15">
@@ -61019,7 +61019,7 @@
         <v>n/a</v>
       </c>
       <c r="H72" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I72" s="15">
@@ -61164,7 +61164,7 @@
         <v>n/a</v>
       </c>
       <c r="H73" s="29">
-        <f t="shared" ref="H73:H93" si="3">D73</f>
+        <f t="shared" ref="H73:H93" si="4">D73</f>
         <v>0</v>
       </c>
       <c r="I73" s="15">
@@ -61303,7 +61303,7 @@
         <v>n/a</v>
       </c>
       <c r="H74" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I74" s="15">
@@ -61442,7 +61442,7 @@
         <v>n/a</v>
       </c>
       <c r="H75" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I75" s="15">
@@ -61581,7 +61581,7 @@
         <v>n/a</v>
       </c>
       <c r="H76" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I76" s="15">
@@ -61720,7 +61720,7 @@
         <v>n/a</v>
       </c>
       <c r="H77" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I77" s="15">
@@ -61859,7 +61859,7 @@
         <v>n/a</v>
       </c>
       <c r="H78" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I78" s="15">
@@ -62000,7 +62000,7 @@
         <v>n/a</v>
       </c>
       <c r="H79" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I79" s="15">
@@ -62146,7 +62146,7 @@
         <v>s-curve</v>
       </c>
       <c r="H80" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I80" s="15">
@@ -62286,7 +62286,7 @@
         <v>n/a</v>
       </c>
       <c r="H81" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81" s="15">
@@ -62425,7 +62425,7 @@
         <v>n/a</v>
       </c>
       <c r="H82" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82" s="15">
@@ -62565,7 +62565,7 @@
         <v>n/a</v>
       </c>
       <c r="H83" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I83" s="15">
@@ -62705,7 +62705,7 @@
         <v>n/a</v>
       </c>
       <c r="H84" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="15">
@@ -62845,7 +62845,7 @@
         <v>n/a</v>
       </c>
       <c r="H85" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I85" s="15">
@@ -62987,7 +62987,7 @@
         <v>n/a</v>
       </c>
       <c r="H86" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I86" s="15">
@@ -63132,7 +63132,7 @@
         <v>n/a</v>
       </c>
       <c r="H87" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87" s="15">
@@ -63271,7 +63271,7 @@
         <v>n/a</v>
       </c>
       <c r="H88" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88" s="15">
@@ -63410,7 +63410,7 @@
         <v>n/a</v>
       </c>
       <c r="H89" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I89" s="15">
@@ -63549,7 +63549,7 @@
         <v>n/a</v>
       </c>
       <c r="H90" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I90" s="15">
@@ -63688,7 +63688,7 @@
         <v>n/a</v>
       </c>
       <c r="H91" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I91" s="15">
@@ -63827,7 +63827,7 @@
         <v>n/a</v>
       </c>
       <c r="H92" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92" s="15">
@@ -63968,7 +63968,7 @@
         <v>n/a</v>
       </c>
       <c r="H93" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="15">
@@ -64255,19 +64255,19 @@
       </c>
       <c r="C2">
         <f>Data!I10</f>
-        <v>3.8452728387264615E-2</v>
+        <v>3.0565768877676487E-2</v>
       </c>
       <c r="D2">
         <f>Data!J10</f>
-        <v>4.3397240750809356E-2</v>
+        <v>3.4756657361210842E-2</v>
       </c>
       <c r="E2">
         <f>Data!K10</f>
-        <v>4.999153989574362E-2</v>
+        <v>4.1587705894632315E-2</v>
       </c>
       <c r="F2">
         <f>Data!L10</f>
-        <v>5.8750051814605499E-2</v>
+        <v>5.264151967794517E-2</v>
       </c>
       <c r="G2">
         <f>Data!M10</f>
@@ -64275,103 +64275,103 @@
       </c>
       <c r="H2">
         <f>Data!N10</f>
-        <v>8.5493641158949502E-2</v>
+        <v>9.806879419650627E-2</v>
       </c>
       <c r="I2">
         <f>Data!O10</f>
-        <v>0.10520751524499683</v>
+        <v>0.14037179853299253</v>
       </c>
       <c r="J2">
         <f>Data!P10</f>
-        <v>0.13050858543369728</v>
+        <v>0.20207492269482669</v>
       </c>
       <c r="K2">
         <f>Data!Q10</f>
-        <v>0.16247562109993127</v>
+        <v>0.28651151686663684</v>
       </c>
       <c r="L2">
         <f>Data!R10</f>
-        <v>0.20207492269482669</v>
+        <v>0.39250071469828041</v>
       </c>
       <c r="M2">
         <f>Data!S10</f>
-        <v>0.24994576623848519</v>
+        <v>0.51201688620463759</v>
       </c>
       <c r="N2">
         <f>Data!T10</f>
-        <v>0.30613729591557276</v>
+        <v>0.63153305771099466</v>
       </c>
       <c r="O2">
         <f>Data!U10</f>
-        <v>0.36986125049264856</v>
+        <v>0.73752225554263828</v>
       </c>
       <c r="P2">
         <f>Data!V10</f>
-        <v>0.43936350389960366</v>
+        <v>0.82195884971444833</v>
       </c>
       <c r="Q2">
         <f>Data!W10</f>
-        <v>0.51201688620463759</v>
+        <v>0.88366197387628254</v>
       </c>
       <c r="R2">
         <f>Data!X10</f>
-        <v>0.58467026850967152</v>
+        <v>0.92596497821276891</v>
       </c>
       <c r="S2">
         <f>Data!Y10</f>
-        <v>0.65417252191662656</v>
+        <v>0.95371394946469412</v>
       </c>
       <c r="T2">
         <f>Data!Z10</f>
-        <v>0.71789647649370236</v>
+        <v>0.9713922527313299</v>
       </c>
       <c r="U2">
         <f>Data!AA10</f>
-        <v>0.77408800617078988</v>
+        <v>0.98244606651464272</v>
       </c>
       <c r="V2">
         <f>Data!AB10</f>
-        <v>0.82195884971444833</v>
+        <v>0.98927711504806426</v>
       </c>
       <c r="W2">
         <f>Data!AC10</f>
-        <v>0.86155815130934388</v>
+        <v>0.9934680035315987</v>
       </c>
       <c r="X2">
         <f>Data!AD10</f>
-        <v>0.89352518697557781</v>
+        <v>0.99602768304764211</v>
       </c>
       <c r="Y2">
         <f>Data!AE10</f>
-        <v>0.91882625716427835</v>
+        <v>0.99758680330556582</v>
       </c>
       <c r="Z2">
         <f>Data!AF10</f>
-        <v>0.93854013125032565</v>
+        <v>0.9985348968159663</v>
       </c>
       <c r="AA2">
         <f>Data!AG10</f>
-        <v>0.95371394946469412</v>
+        <v>0.99911084480265877</v>
       </c>
       <c r="AB2">
         <f>Data!AH10</f>
-        <v>0.9652837205946696</v>
+        <v>0.99946050671902897</v>
       </c>
       <c r="AC2">
         <f>Data!AI10</f>
-        <v>0.97404223251353139</v>
+        <v>0.99967270959824672</v>
       </c>
       <c r="AD2">
         <f>Data!AJ10</f>
-        <v>0.98063653165846576</v>
+        <v>0.99980146213963728</v>
       </c>
       <c r="AE2">
         <f>Data!AK10</f>
-        <v>0.98558104402201052</v>
+        <v>0.99987957106116954</v>
       </c>
       <c r="AF2">
         <f>Data!AL10</f>
-        <v>0.98927711504806426</v>
+        <v>0.99992695260968711</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E1B76E-8504-4262-9456-2423C1D1900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C59117-3393-4404-A241-6A7581EF3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="927">
   <si>
     <t>Source:</t>
   </si>
@@ -2827,13 +2827,10 @@
     <t>Psgr LDVs only</t>
   </si>
   <si>
-    <t>We assume electric passenger Evs can reach 100% by the year 2050</t>
-  </si>
-  <si>
-    <t>This results in a sales share of 21% in 2030, in line with EEI (figure to the right)</t>
-  </si>
-  <si>
-    <t>and other research.</t>
+    <t>We assume electric passenger Evs can reach 100% by the year 2040</t>
+  </si>
+  <si>
+    <t>This results in a sales share of 25% in 2030</t>
   </si>
 </sst>
 </file>
@@ -3199,6 +3196,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TTS Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3249,6 +3271,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$H$9:$AL$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Data!$H$10:$AL$10</c:f>
@@ -3256,97 +3380,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.4033772409275102E-2</c:v>
+                  <c:v>5.225957218961489E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0565768877676487E-2</c:v>
+                  <c:v>5.860265758786775E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4756657361210842E-2</c:v>
+                  <c:v>6.2672341898661429E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1587705894632315E-2</c:v>
+                  <c:v>6.9305830513774952E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.264151967794517E-2</c:v>
+                  <c:v>8.0039958301982059E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0319822944581098E-2</c:v>
+                  <c:v>9.7206989524203091E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.806879419650627E-2</c:v>
+                  <c:v>0.12415343617586547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14037179853299253</c:v>
+                  <c:v>0.16523300050310455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20207492269482669</c:v>
+                  <c:v>0.22515161616538465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28651151686663684</c:v>
+                  <c:v>0.30714622993474716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39250071469828041</c:v>
+                  <c:v>0.41007012715218821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51201688620463759</c:v>
+                  <c:v>0.52612978609480743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63153305771099466</c:v>
+                  <c:v>0.6421894450374267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73752225554263828</c:v>
+                  <c:v>0.74511334225486781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82195884971444833</c:v>
+                  <c:v>0.82710795602423015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88366197387628254</c:v>
+                  <c:v>0.88702657168651022</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92596497821276891</c:v>
+                  <c:v>0.92810613601374947</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95371394946469412</c:v>
+                  <c:v>0.95505258266541193</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9713922527313299</c:v>
+                  <c:v>0.97221961388763278</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98244606651464272</c:v>
+                  <c:v>0.98295374167583993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98927711504806426</c:v>
+                  <c:v>0.98958723029095352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9934680035315987</c:v>
+                  <c:v>0.99365691460174721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99602768304764211</c:v>
+                  <c:v>0.99614256593988948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99758680330556582</c:v>
+                  <c:v>0.99765659507171722</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9985348968159663</c:v>
+                  <c:v>0.99857726888577869</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99911084480265877</c:v>
+                  <c:v>0.9991365599512616</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99946050671902897</c:v>
+                  <c:v>0.99947610933815767</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99967270959824672</c:v>
+                  <c:v>0.99968217512388557</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99980146213963728</c:v>
+                  <c:v>0.99980720402878975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99987957106116954</c:v>
+                  <c:v>0.99988305397176525</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99992695260968711</c:v>
+                  <c:v>0.99992906520431912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,6 +3501,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3424,6 +3549,7 @@
         <c:axId val="343203464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4079,67 +4205,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6015037" y="1766889"/>
-          <a:ext cx="5343525" cy="3361574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>111918</xdr:rowOff>
+      <xdr:colOff>225424</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226220</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537370</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4490,7 +4567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -51783,8 +51860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51910,11 +51987,6 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.35">
@@ -51974,7 +52046,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -51985,8 +52056,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52272,8 +52343,8 @@
         <v>1</v>
       </c>
       <c r="D10" s="29">
-        <f>INDEX('AEO 38'!68:68,0,MATCH(2030,'AEO 38'!1:1,0))/INDEX('AEO 38'!73:73,MATCH(2021,'AEO 38'!1:1,0))</f>
-        <v>2.4033772409275102E-2</v>
+        <f>INDEX('AEO 38'!68:68,0,MATCH(2037,'AEO 38'!1:1,0))/INDEX('AEO 38'!73:73,MATCH(2021,'AEO 38'!1:1,0))</f>
+        <v>5.225957218961489E-2</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
@@ -52284,127 +52355,127 @@
       </c>
       <c r="H10" s="29">
         <f t="shared" ref="H10" si="1">D10</f>
-        <v>2.4033772409275102E-2</v>
+        <v>5.225957218961489E-2</v>
       </c>
       <c r="I10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>3.0565768877676487E-2</v>
+        <v>5.860265758786775E-2</v>
       </c>
       <c r="J10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>3.4756657361210842E-2</v>
+        <v>6.2672341898661429E-2</v>
       </c>
       <c r="K10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>4.1587705894632315E-2</v>
+        <v>6.9305830513774952E-2</v>
       </c>
       <c r="L10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>5.264151967794517E-2</v>
+        <v>8.0039958301982059E-2</v>
       </c>
       <c r="M10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>7.0319822944581098E-2</v>
+        <v>9.7206989524203091E-2</v>
       </c>
       <c r="N10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>9.806879419650627E-2</v>
+        <v>0.12415343617586547</v>
       </c>
       <c r="O10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.14037179853299253</v>
+        <v>0.16523300050310455</v>
       </c>
       <c r="P10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.20207492269482669</v>
+        <v>0.22515161616538465</v>
       </c>
       <c r="Q10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.28651151686663684</v>
+        <v>0.30714622993474716</v>
       </c>
       <c r="R10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.39250071469828041</v>
+        <v>0.41007012715218821</v>
       </c>
       <c r="S10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.51201688620463759</v>
+        <v>0.52612978609480743</v>
       </c>
       <c r="T10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.63153305771099466</v>
+        <v>0.6421894450374267</v>
       </c>
       <c r="U10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.73752225554263828</v>
+        <v>0.74511334225486781</v>
       </c>
       <c r="V10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.82195884971444833</v>
+        <v>0.82710795602423015</v>
       </c>
       <c r="W10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.88366197387628254</v>
+        <v>0.88702657168651022</v>
       </c>
       <c r="X10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.92596497821276891</v>
+        <v>0.92810613601374947</v>
       </c>
       <c r="Y10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.95371394946469412</v>
+        <v>0.95505258266541193</v>
       </c>
       <c r="Z10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.9713922527313299</v>
+        <v>0.97221961388763278</v>
       </c>
       <c r="AA10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.98244606651464272</v>
+        <v>0.98295374167583993</v>
       </c>
       <c r="AB10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.98927711504806426</v>
+        <v>0.98958723029095352</v>
       </c>
       <c r="AC10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.9934680035315987</v>
+        <v>0.99365691460174721</v>
       </c>
       <c r="AD10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.99602768304764211</v>
+        <v>0.99614256593988948</v>
       </c>
       <c r="AE10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.99758680330556582</v>
+        <v>0.99765659507171722</v>
       </c>
       <c r="AF10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.9985348968159663</v>
+        <v>0.99857726888577869</v>
       </c>
       <c r="AG10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.99911084480265877</v>
+        <v>0.9991365599512616</v>
       </c>
       <c r="AH10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.99946050671902897</v>
+        <v>0.99947610933815767</v>
       </c>
       <c r="AI10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.99967270959824672</v>
+        <v>0.99968217512388557</v>
       </c>
       <c r="AJ10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.99980146213963728</v>
+        <v>0.99980720402878975</v>
       </c>
       <c r="AK10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.99987957106116954</v>
+        <v>0.99988305397176525</v>
       </c>
       <c r="AL10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.99992695260968711</v>
+        <v>0.99992906520431912</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
@@ -64251,127 +64322,127 @@
       </c>
       <c r="B2">
         <f>Data!H10</f>
-        <v>2.4033772409275102E-2</v>
+        <v>5.225957218961489E-2</v>
       </c>
       <c r="C2">
         <f>Data!I10</f>
-        <v>3.0565768877676487E-2</v>
+        <v>5.860265758786775E-2</v>
       </c>
       <c r="D2">
         <f>Data!J10</f>
-        <v>3.4756657361210842E-2</v>
+        <v>6.2672341898661429E-2</v>
       </c>
       <c r="E2">
         <f>Data!K10</f>
-        <v>4.1587705894632315E-2</v>
+        <v>6.9305830513774952E-2</v>
       </c>
       <c r="F2">
         <f>Data!L10</f>
-        <v>5.264151967794517E-2</v>
+        <v>8.0039958301982059E-2</v>
       </c>
       <c r="G2">
         <f>Data!M10</f>
-        <v>7.0319822944581098E-2</v>
+        <v>9.7206989524203091E-2</v>
       </c>
       <c r="H2">
         <f>Data!N10</f>
-        <v>9.806879419650627E-2</v>
+        <v>0.12415343617586547</v>
       </c>
       <c r="I2">
         <f>Data!O10</f>
-        <v>0.14037179853299253</v>
+        <v>0.16523300050310455</v>
       </c>
       <c r="J2">
         <f>Data!P10</f>
-        <v>0.20207492269482669</v>
+        <v>0.22515161616538465</v>
       </c>
       <c r="K2">
         <f>Data!Q10</f>
-        <v>0.28651151686663684</v>
+        <v>0.30714622993474716</v>
       </c>
       <c r="L2">
         <f>Data!R10</f>
-        <v>0.39250071469828041</v>
+        <v>0.41007012715218821</v>
       </c>
       <c r="M2">
         <f>Data!S10</f>
-        <v>0.51201688620463759</v>
+        <v>0.52612978609480743</v>
       </c>
       <c r="N2">
         <f>Data!T10</f>
-        <v>0.63153305771099466</v>
+        <v>0.6421894450374267</v>
       </c>
       <c r="O2">
         <f>Data!U10</f>
-        <v>0.73752225554263828</v>
+        <v>0.74511334225486781</v>
       </c>
       <c r="P2">
         <f>Data!V10</f>
-        <v>0.82195884971444833</v>
+        <v>0.82710795602423015</v>
       </c>
       <c r="Q2">
         <f>Data!W10</f>
-        <v>0.88366197387628254</v>
+        <v>0.88702657168651022</v>
       </c>
       <c r="R2">
         <f>Data!X10</f>
-        <v>0.92596497821276891</v>
+        <v>0.92810613601374947</v>
       </c>
       <c r="S2">
         <f>Data!Y10</f>
-        <v>0.95371394946469412</v>
+        <v>0.95505258266541193</v>
       </c>
       <c r="T2">
         <f>Data!Z10</f>
-        <v>0.9713922527313299</v>
+        <v>0.97221961388763278</v>
       </c>
       <c r="U2">
         <f>Data!AA10</f>
-        <v>0.98244606651464272</v>
+        <v>0.98295374167583993</v>
       </c>
       <c r="V2">
         <f>Data!AB10</f>
-        <v>0.98927711504806426</v>
+        <v>0.98958723029095352</v>
       </c>
       <c r="W2">
         <f>Data!AC10</f>
-        <v>0.9934680035315987</v>
+        <v>0.99365691460174721</v>
       </c>
       <c r="X2">
         <f>Data!AD10</f>
-        <v>0.99602768304764211</v>
+        <v>0.99614256593988948</v>
       </c>
       <c r="Y2">
         <f>Data!AE10</f>
-        <v>0.99758680330556582</v>
+        <v>0.99765659507171722</v>
       </c>
       <c r="Z2">
         <f>Data!AF10</f>
-        <v>0.9985348968159663</v>
+        <v>0.99857726888577869</v>
       </c>
       <c r="AA2">
         <f>Data!AG10</f>
-        <v>0.99911084480265877</v>
+        <v>0.9991365599512616</v>
       </c>
       <c r="AB2">
         <f>Data!AH10</f>
-        <v>0.99946050671902897</v>
+        <v>0.99947610933815767</v>
       </c>
       <c r="AC2">
         <f>Data!AI10</f>
-        <v>0.99967270959824672</v>
+        <v>0.99968217512388557</v>
       </c>
       <c r="AD2">
         <f>Data!AJ10</f>
-        <v>0.99980146213963728</v>
+        <v>0.99980720402878975</v>
       </c>
       <c r="AE2">
         <f>Data!AK10</f>
-        <v>0.99987957106116954</v>
+        <v>0.99988305397176525</v>
       </c>
       <c r="AF2">
         <f>Data!AL10</f>
-        <v>0.99992695260968711</v>
+        <v>0.99992906520431912</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C59117-3393-4404-A241-6A7581EF3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FA7FA-C1AA-4744-A597-85B60762ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3379,98 +3379,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>5.225957218961489E-2</c:v>
+                <c:pt idx="0">
+                  <c:v>0.52866208794943437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.860265758786775E-2</c:v>
+                  <c:v>0.55454841059780646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2672341898661429E-2</c:v>
+                  <c:v>0.59890805572070915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9305830513774952E-2</c:v>
+                  <c:v>0.66590611391591692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0039958301982059E-2</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7206989524203091E-2</c:v>
+                  <c:v>0.83409388608408308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12415343617586547</c:v>
+                  <c:v>0.90109194427929085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16523300050310455</c:v>
+                  <c:v>0.94545158940219354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22515161616538465</c:v>
+                  <c:v>0.97133791205056563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30714622993474716</c:v>
+                  <c:v>0.98534388462432188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41007012715218821</c:v>
+                  <c:v>0.99261298415336352</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52612978609480743</c:v>
+                  <c:v>0.996304229327859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6421894450374267</c:v>
+                  <c:v>0.99815788005028205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74511334225486781</c:v>
+                  <c:v>0.99908353052875354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82710795602423015</c:v>
+                  <c:v>0.9995444744027997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88702657168651022</c:v>
+                  <c:v>0.9997736888883797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92810613601374947</c:v>
+                  <c:v>0.99988759161488328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95505258266541193</c:v>
+                  <c:v>0.99994417332968522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97221961388763278</c:v>
+                  <c:v>0.99997227573763858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98295374167583993</c:v>
+                  <c:v>0.9999862321544426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98958723029095352</c:v>
+                  <c:v>0.99999316299545771</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99365691460174721</c:v>
+                  <c:v>0.999996604820651</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99614256593988948</c:v>
+                  <c:v>0.99999831399806816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99765659507171722</c:v>
+                  <c:v>0.99999916275479728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99857726888577869</c:v>
+                  <c:v>0.99999958423598612</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9991365599512616</c:v>
+                  <c:v>0.99999979353761448</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99947610933815767</c:v>
+                  <c:v>0.99999989747379225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99968217512388557</c:v>
+                  <c:v>0.99999994908698664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99980720402878975</c:v>
+                  <c:v>0.99999997471734448</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99988305397176525</c:v>
+                  <c:v>0.99999998744500451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99992906520431912</c:v>
+                  <c:v>0.99999999376537363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3567,7 +3567,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4208,15 +4208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225424</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>29368</xdr:rowOff>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>537370</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>451645</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4567,23 +4567,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="15"/>
-    <col min="2" max="2" width="56.26953125" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4591,502 +4591,502 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
@@ -5111,13 +5111,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0.98901313445712158</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6163,13 +6163,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>5.335006800310399E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7215,13 +7215,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8267,13 +8267,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9319,13 +9319,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10371,13 +10371,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11423,13 +11423,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12475,13 +12475,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13527,13 +13527,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14581,13 +14581,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15630,9 +15630,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15730,27 +15730,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20415,7 +20415,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -21980,13 +21980,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22213,7 +22213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -22817,9 +22817,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -22917,27 +22917,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -23060,7 +23060,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -23838,7 +23838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -24828,7 +24828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -24938,7 +24938,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -25284,7 +25284,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -25842,7 +25842,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -27399,9 +27399,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -27499,27 +27499,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -27650,7 +27650,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -27870,7 +27870,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -28200,7 +28200,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -28530,7 +28530,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -28640,7 +28640,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -28750,7 +28750,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -28978,7 +28978,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -29088,7 +29088,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -29638,7 +29638,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -29858,7 +29858,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -29976,7 +29976,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -30416,7 +30416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -30636,7 +30636,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -31092,7 +31092,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -31202,7 +31202,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -31422,7 +31422,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -31642,7 +31642,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -32082,7 +32082,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -32192,7 +32192,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -32310,7 +32310,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -32530,7 +32530,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -32640,7 +32640,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -32750,7 +32750,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -32860,7 +32860,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -33190,7 +33190,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -33300,7 +33300,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -33308,7 +33308,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -33528,7 +33528,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -33638,7 +33638,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -34078,7 +34078,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -34188,7 +34188,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -34298,7 +34298,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -34408,7 +34408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -34529,7 +34529,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -34749,7 +34749,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -34859,7 +34859,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -34969,7 +34969,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -35079,7 +35079,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -35299,7 +35299,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -35409,7 +35409,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -35519,7 +35519,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -35527,7 +35527,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -35975,7 +35975,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -36085,7 +36085,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -36195,7 +36195,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -36305,7 +36305,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -36415,7 +36415,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -36525,7 +36525,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -36632,7 +36632,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -36640,7 +36640,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -36750,7 +36750,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -36860,7 +36860,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -36970,7 +36970,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -37410,7 +37410,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -37520,7 +37520,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -37745,7 +37745,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -37965,7 +37965,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -38075,7 +38075,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -38185,7 +38185,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -38295,7 +38295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -38405,7 +38405,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -38515,7 +38515,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -38735,7 +38735,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -38842,7 +38842,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -38949,7 +38949,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -38957,7 +38957,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -38965,7 +38965,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -39075,7 +39075,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -39185,7 +39185,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -39295,7 +39295,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -39405,7 +39405,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -39515,7 +39515,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -39625,7 +39625,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -39735,7 +39735,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -39845,7 +39845,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -39955,7 +39955,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -40073,7 +40073,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -40183,7 +40183,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -40293,7 +40293,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -40403,7 +40403,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -40513,7 +40513,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -40623,7 +40623,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -40733,7 +40733,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -40953,7 +40953,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -41063,7 +41063,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -41173,7 +41173,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -41181,7 +41181,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -41291,7 +41291,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -41401,7 +41401,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -41511,7 +41511,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -41621,7 +41621,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -41731,7 +41731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -41841,7 +41841,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -41951,7 +41951,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -42061,7 +42061,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -42171,7 +42171,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -42281,7 +42281,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -42391,7 +42391,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -42399,7 +42399,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -42407,7 +42407,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -42415,7 +42415,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -42525,7 +42525,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -42635,7 +42635,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -42745,7 +42745,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -42855,7 +42855,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -42965,7 +42965,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -43075,7 +43075,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -43185,7 +43185,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -43295,7 +43295,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -43405,7 +43405,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -43512,7 +43512,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -43520,7 +43520,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -43630,7 +43630,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -43740,7 +43740,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -43850,7 +43850,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -44070,7 +44070,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -44290,7 +44290,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -44400,7 +44400,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -44510,7 +44510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -44617,7 +44617,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -44625,7 +44625,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -44735,7 +44735,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -44845,7 +44845,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -44955,7 +44955,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -45065,7 +45065,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -45175,7 +45175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -45285,7 +45285,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -45395,7 +45395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -45505,7 +45505,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -45615,7 +45615,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -45722,7 +45722,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -45829,7 +45829,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -45837,7 +45837,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -45845,7 +45845,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -46065,7 +46065,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -46175,7 +46175,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -46285,7 +46285,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -46395,7 +46395,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -46505,7 +46505,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -46615,7 +46615,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -46725,7 +46725,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -46835,7 +46835,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -46945,7 +46945,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -46953,7 +46953,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -47063,7 +47063,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -47173,7 +47173,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -47283,7 +47283,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -47393,7 +47393,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -47503,7 +47503,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -47613,7 +47613,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -47723,7 +47723,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -47833,7 +47833,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -47943,7 +47943,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -48053,7 +48053,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -48061,7 +48061,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -48171,7 +48171,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -48281,7 +48281,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -48391,7 +48391,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -48501,7 +48501,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -48611,7 +48611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -48721,7 +48721,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -48831,7 +48831,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -48941,7 +48941,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -49051,7 +49051,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -49161,7 +49161,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -49271,7 +49271,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -49279,7 +49279,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -49389,7 +49389,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -49499,7 +49499,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -49507,7 +49507,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -49617,7 +49617,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -49727,7 +49727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -49837,7 +49837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -49947,7 +49947,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -49955,7 +49955,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -50065,7 +50065,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -50175,7 +50175,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -50183,7 +50183,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -50293,7 +50293,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -50403,7 +50403,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -50513,7 +50513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -50623,7 +50623,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -50631,7 +50631,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -50741,7 +50741,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -50851,7 +50851,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -50961,7 +50961,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -50969,7 +50969,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -51079,7 +51079,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -51189,7 +51189,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -51299,7 +51299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -51423,18 +51423,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51460,7 +51460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51487,7 +51487,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51515,7 +51515,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51541,7 +51541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51567,7 +51567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51593,7 +51593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51619,11 +51619,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -51645,19 +51645,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51683,7 +51683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51711,7 +51711,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51738,7 +51738,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51764,7 +51764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51816,7 +51816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51842,7 +51842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -51864,132 +51864,132 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -52002,7 +52002,7 @@
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
     </row>
-    <row r="36" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -52015,7 +52015,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -52028,7 +52028,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -52056,24 +52056,24 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="15"/>
-    <col min="8" max="9" width="9.1796875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -52092,7 +52092,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -52109,7 +52109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -52123,10 +52123,10 @@
         <v>100</v>
       </c>
       <c r="O3" s="26">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -52140,15 +52140,15 @@
         <v>101</v>
       </c>
       <c r="O4" s="27">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -52162,7 +52162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
@@ -52176,7 +52176,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -52190,7 +52190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -52332,7 +52332,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -52343,8 +52343,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="29">
-        <f>INDEX('AEO 38'!68:68,0,MATCH(2037,'AEO 38'!1:1,0))/INDEX('AEO 38'!73:73,MATCH(2021,'AEO 38'!1:1,0))</f>
-        <v>5.225957218961489E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
@@ -52353,132 +52352,132 @@
         <f>IF(D10=E10,"n/a",IF(OR(C10="battery electric vehicle",C10="natural gas vehicle",C10="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="H10" s="29">
-        <f t="shared" ref="H10" si="1">D10</f>
-        <v>5.225957218961489E-2</v>
+      <c r="H10" s="15">
+        <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:H$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,H$9))</f>
+        <v>0.52866208794943437</v>
       </c>
       <c r="I10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>5.860265758786775E-2</v>
+        <v>0.55454841059780646</v>
       </c>
       <c r="J10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>6.2672341898661429E-2</v>
+        <v>0.59890805572070915</v>
       </c>
       <c r="K10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>6.9305830513774952E-2</v>
+        <v>0.66590611391591692</v>
       </c>
       <c r="L10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>8.0039958301982059E-2</v>
+        <v>0.75</v>
       </c>
       <c r="M10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>9.7206989524203091E-2</v>
+        <v>0.83409388608408308</v>
       </c>
       <c r="N10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>0.12415343617586547</v>
+        <v>0.90109194427929085</v>
       </c>
       <c r="O10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.16523300050310455</v>
+        <v>0.94545158940219354</v>
       </c>
       <c r="P10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.22515161616538465</v>
+        <v>0.97133791205056563</v>
       </c>
       <c r="Q10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.30714622993474716</v>
+        <v>0.98534388462432188</v>
       </c>
       <c r="R10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.41007012715218821</v>
+        <v>0.99261298415336352</v>
       </c>
       <c r="S10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.52612978609480743</v>
+        <v>0.996304229327859</v>
       </c>
       <c r="T10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.6421894450374267</v>
+        <v>0.99815788005028205</v>
       </c>
       <c r="U10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.74511334225486781</v>
+        <v>0.99908353052875354</v>
       </c>
       <c r="V10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.82710795602423015</v>
+        <v>0.9995444744027997</v>
       </c>
       <c r="W10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.88702657168651022</v>
+        <v>0.9997736888883797</v>
       </c>
       <c r="X10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.92810613601374947</v>
+        <v>0.99988759161488328</v>
       </c>
       <c r="Y10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.95505258266541193</v>
+        <v>0.99994417332968522</v>
       </c>
       <c r="Z10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.97221961388763278</v>
+        <v>0.99997227573763858</v>
       </c>
       <c r="AA10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.98295374167583993</v>
+        <v>0.9999862321544426</v>
       </c>
       <c r="AB10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.98958723029095352</v>
+        <v>0.99999316299545771</v>
       </c>
       <c r="AC10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.99365691460174721</v>
+        <v>0.999996604820651</v>
       </c>
       <c r="AD10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.99614256593988948</v>
+        <v>0.99999831399806816</v>
       </c>
       <c r="AE10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.99765659507171722</v>
+        <v>0.99999916275479728</v>
       </c>
       <c r="AF10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.99857726888577869</v>
+        <v>0.99999958423598612</v>
       </c>
       <c r="AG10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.9991365599512616</v>
+        <v>0.99999979353761448</v>
       </c>
       <c r="AH10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.99947610933815767</v>
+        <v>0.99999989747379225</v>
       </c>
       <c r="AI10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.99968217512388557</v>
+        <v>0.99999994908698664</v>
       </c>
       <c r="AJ10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.99980720402878975</v>
+        <v>0.99999997471734448</v>
       </c>
       <c r="AK10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.99988305397176525</v>
+        <v>0.99999998744500451</v>
       </c>
       <c r="AL10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.99992906520431912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.99999999376537363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
@@ -52495,7 +52494,7 @@
         <v>s-curve</v>
       </c>
       <c r="H11" s="29">
-        <f t="shared" ref="H11:H40" si="2">D11</f>
+        <f t="shared" ref="H11:H40" si="1">D11</f>
         <v>3.8057610451262282E-4</v>
       </c>
       <c r="I11" s="15">
@@ -52619,146 +52618,146 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>IF(D12=E12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>n/a</v>
       </c>
       <c r="H12" s="29">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,I$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,J$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,K$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,L$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,M$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,N$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,O$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,P$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Q$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,R$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,S$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,T$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,U$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,V$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,W$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,X$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Y$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,Z$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AA$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AB$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AC$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AD$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AE$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AF$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AG$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AH$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AI$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AJ$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AK$9))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL12" s="15">
         <f>IF($F12="s-curve",$D12+($E12-$D12)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D12:$E12,$D$9:$E$9,AL$9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
@@ -52775,7 +52774,7 @@
         <v>linear</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2138566319580755E-3</v>
       </c>
       <c r="I13" s="15">
@@ -52899,13 +52898,12 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(D$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(D$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(D$9,'AEO 39'!$1:$1,0))*2</f>
-        <v>4.731416359500128E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="29">
         <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11*2</f>
@@ -52916,131 +52914,131 @@
         <v>s-curve</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="2"/>
-        <v>4.731416359500128E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,I$9))</f>
-        <v>6.5982939484883251E-3</v>
+        <v>2.6567428891905699E-2</v>
       </c>
       <c r="J14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,J$9))</f>
-        <v>7.2384789476011274E-3</v>
+        <v>2.7104927691876762E-2</v>
       </c>
       <c r="K14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,K$9))</f>
-        <v>8.0922681753062484E-3</v>
+        <v>2.7821768426907579E-2</v>
       </c>
       <c r="L14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,L$9))</f>
-        <v>9.2262663398868933E-3</v>
+        <v>2.8773872355422291E-2</v>
       </c>
       <c r="M14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,M$9))</f>
-        <v>1.072424902776287E-2</v>
+        <v>3.0031577391039493E-2</v>
       </c>
       <c r="N14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,N$9))</f>
-        <v>1.2688861528628215E-2</v>
+        <v>3.168106443476388E-2</v>
       </c>
       <c r="O14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,O$9))</f>
-        <v>1.5241292493779727E-2</v>
+        <v>3.3824083378786625E-2</v>
       </c>
       <c r="P14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,P$9))</f>
-        <v>1.8517119189194069E-2</v>
+        <v>3.6574464784378008E-2</v>
       </c>
       <c r="Q14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Q$9))</f>
-        <v>2.2656014027542817E-2</v>
+        <v>4.0049477494613184E-2</v>
       </c>
       <c r="R14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,R$9))</f>
-        <v>2.7783087638138769E-2</v>
+        <v>4.4354164291207518E-2</v>
       </c>
       <c r="S14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,S$9))</f>
-        <v>3.3981109541668948E-2</v>
+        <v>4.9558018395815848E-2</v>
       </c>
       <c r="T14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,T$9))</f>
-        <v>4.1256442624400702E-2</v>
+        <v>5.5666382082527388E-2</v>
       </c>
       <c r="U14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,U$9))</f>
-        <v>4.9507027678078935E-2</v>
+        <v>6.2593566523832689E-2</v>
       </c>
       <c r="V14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,V$9))</f>
-        <v>5.8505751265812284E-2</v>
+        <v>7.0148887464468651E-2</v>
       </c>
       <c r="W14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,W$9))</f>
-        <v>6.7912463610069793E-2</v>
+        <v>7.8046755430319747E-2</v>
       </c>
       <c r="X14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,X$9))</f>
-        <v>7.7319175954327302E-2</v>
+        <v>8.5944623396170816E-2</v>
       </c>
       <c r="Y14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Y$9))</f>
-        <v>8.631789954206065E-2</v>
+        <v>9.3499944336806806E-2</v>
       </c>
       <c r="Z14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Z$9))</f>
-        <v>9.4568484595738883E-2</v>
+        <v>0.10042712877811208</v>
       </c>
       <c r="AA14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AA$9))</f>
-        <v>0.10184381767847063</v>
+        <v>0.10653549246482363</v>
       </c>
       <c r="AB14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AB$9))</f>
-        <v>0.10804183958200081</v>
+        <v>0.11173934656943196</v>
       </c>
       <c r="AC14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AC$9))</f>
-        <v>0.11316891319259678</v>
+        <v>0.11604403336602631</v>
       </c>
       <c r="AD14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AD$9))</f>
-        <v>0.11730780803094552</v>
+        <v>0.11951904607626149</v>
       </c>
       <c r="AE14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AE$9))</f>
-        <v>0.12058363472635987</v>
+        <v>0.12226942748185285</v>
       </c>
       <c r="AF14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AF$9))</f>
-        <v>0.12313606569151138</v>
+        <v>0.12441244642587562</v>
       </c>
       <c r="AG14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AG$9))</f>
-        <v>0.12510067819237675</v>
+        <v>0.12606193346959998</v>
       </c>
       <c r="AH14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AH$9))</f>
-        <v>0.12659866088025271</v>
+        <v>0.12731963850521719</v>
       </c>
       <c r="AI14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AI$9))</f>
-        <v>0.12773265904483333</v>
+        <v>0.12827174243373191</v>
       </c>
       <c r="AJ14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AJ$9))</f>
-        <v>0.12858644827253848</v>
+        <v>0.12898858316876272</v>
       </c>
       <c r="AK14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AK$9))</f>
-        <v>0.12922663327165126</v>
+        <v>0.12952608196873377</v>
       </c>
       <c r="AL14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AL$9))</f>
-        <v>0.12970517777767385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.12992786754333543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>125</v>
       </c>
@@ -53057,7 +53055,7 @@
         <v>linear</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.186067677034385E-4</v>
       </c>
       <c r="I15" s="15">
@@ -53181,7 +53179,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -53200,7 +53198,7 @@
         <v>s-curve</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.9671627040405578E-5</v>
       </c>
       <c r="I16" s="15">
@@ -53324,7 +53322,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -53347,7 +53345,7 @@
         <v>s-curve</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0163026481612729E-6</v>
       </c>
       <c r="I17" s="15">
@@ -53471,7 +53469,7 @@
         <v>0.98901313445712158</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
@@ -53487,7 +53485,7 @@
         <v>123</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2417684632922508E-3</v>
       </c>
       <c r="I18" s="15">
@@ -53611,7 +53609,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>3</v>
       </c>
@@ -53626,7 +53624,7 @@
         <v>n/a</v>
       </c>
       <c r="H19" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="15">
@@ -53750,7 +53748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
@@ -53766,7 +53764,7 @@
         <v>linear</v>
       </c>
       <c r="H20" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.82010231357952423</v>
       </c>
       <c r="I20" s="15">
@@ -53890,7 +53888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
@@ -53907,7 +53905,7 @@
         <v>s-curve</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="15">
@@ -54031,7 +54029,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
@@ -54048,7 +54046,7 @@
         <v>linear</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5128616403477108E-4</v>
       </c>
       <c r="I22" s="15">
@@ -54172,7 +54170,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31" t="s">
@@ -54191,7 +54189,7 @@
         <v>s-curve</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="15">
@@ -54315,7 +54313,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -54337,7 +54335,7 @@
         <v>s-curve</v>
       </c>
       <c r="H24" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0593729231944068E-4</v>
       </c>
       <c r="I24" s="15">
@@ -54461,7 +54459,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -54478,7 +54476,7 @@
         <v>s-curve</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9823199644587315E-2</v>
       </c>
       <c r="I25" s="15">
@@ -54602,7 +54600,7 @@
         <v>5.335006800310399E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
@@ -54619,7 +54617,7 @@
         <v>linear</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9823199644587315E-2</v>
       </c>
       <c r="I26" s="15">
@@ -54743,7 +54741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
@@ -54758,7 +54756,7 @@
         <v>n/a</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="15">
@@ -54882,7 +54880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -54899,7 +54897,7 @@
         <v>s-curve</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="15">
@@ -55023,7 +55021,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>125</v>
       </c>
@@ -55040,7 +55038,7 @@
         <v>linear</v>
       </c>
       <c r="H29" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.3987187287436543E-3</v>
       </c>
       <c r="I29" s="15">
@@ -55164,7 +55162,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -55183,7 +55181,7 @@
         <v>s-curve</v>
       </c>
       <c r="H30" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2919974477595432E-4</v>
       </c>
       <c r="I30" s="15">
@@ -55307,7 +55305,7 @@
         <v>5.7030226513153766E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
@@ -55330,7 +55328,7 @@
         <v>s-curve</v>
       </c>
       <c r="H31" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.455517997108405E-4</v>
       </c>
       <c r="I31" s="15">
@@ -55454,7 +55452,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -55471,7 +55469,7 @@
         <v>s-curve</v>
       </c>
       <c r="H32" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.2809767943268324E-3</v>
       </c>
       <c r="I32" s="15">
@@ -55595,7 +55593,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
@@ -55610,7 +55608,7 @@
         <v>n/a</v>
       </c>
       <c r="H33" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="15">
@@ -55734,7 +55732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>4</v>
       </c>
@@ -55749,7 +55747,7 @@
         <v>n/a</v>
       </c>
       <c r="H34" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I34" s="15">
@@ -55873,7 +55871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
@@ -55890,7 +55888,7 @@
         <v>s-curve</v>
       </c>
       <c r="H35" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1604589258675129E-3</v>
       </c>
       <c r="I35" s="15">
@@ -56014,7 +56012,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
@@ -56031,7 +56029,7 @@
         <v>linear</v>
       </c>
       <c r="H36" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9129793393846839E-4</v>
       </c>
       <c r="I36" s="15">
@@ -56155,7 +56153,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -56174,7 +56172,7 @@
         <v>s-curve</v>
       </c>
       <c r="H37" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2506977162920506E-5</v>
       </c>
       <c r="I37" s="15">
@@ -56298,7 +56296,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -56319,7 +56317,7 @@
         <v>n/a</v>
       </c>
       <c r="H38" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="15">
@@ -56443,7 +56441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -56458,7 +56456,7 @@
         <v>n/a</v>
       </c>
       <c r="H39" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="15">
@@ -56582,7 +56580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
@@ -56597,7 +56595,7 @@
         <v>n/a</v>
       </c>
       <c r="H40" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="15">
@@ -56721,7 +56719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -56737,7 +56735,7 @@
         <v>n/a</v>
       </c>
       <c r="H41" s="29">
-        <f t="shared" ref="H41:H72" si="3">D41</f>
+        <f t="shared" ref="H41:H72" si="2">D41</f>
         <v>1</v>
       </c>
       <c r="I41" s="15">
@@ -56861,7 +56859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>5</v>
@@ -56877,7 +56875,7 @@
         <v>n/a</v>
       </c>
       <c r="H42" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I42" s="15">
@@ -57001,7 +56999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="C43" s="15" t="s">
         <v>125</v>
@@ -57017,7 +57015,7 @@
         <v>n/a</v>
       </c>
       <c r="H43" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I43" s="15">
@@ -57141,7 +57139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -57158,7 +57156,7 @@
         <v>n/a</v>
       </c>
       <c r="H44" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I44" s="15">
@@ -57282,7 +57280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
@@ -57303,7 +57301,7 @@
         <v>n/a</v>
       </c>
       <c r="H45" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I45" s="15">
@@ -57427,7 +57425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -57442,7 +57440,7 @@
         <v>n/a</v>
       </c>
       <c r="H46" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I46" s="15">
@@ -57566,7 +57564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
@@ -57581,7 +57579,7 @@
         <v>n/a</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I47" s="15">
@@ -57705,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
@@ -57720,7 +57718,7 @@
         <v>n/a</v>
       </c>
       <c r="H48" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I48" s="15">
@@ -57844,7 +57842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
@@ -57859,7 +57857,7 @@
         <v>n/a</v>
       </c>
       <c r="H49" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I49" s="15">
@@ -57983,7 +57981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>125</v>
       </c>
@@ -57998,7 +57996,7 @@
         <v>n/a</v>
       </c>
       <c r="H50" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="15">
@@ -58122,7 +58120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -58139,7 +58137,7 @@
         <v>n/a</v>
       </c>
       <c r="H51" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="15">
@@ -58263,7 +58261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
@@ -58285,7 +58283,7 @@
         <v>s-curve</v>
       </c>
       <c r="H52" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.75216927859794647</v>
       </c>
       <c r="I52" s="15">
@@ -58409,7 +58407,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -58424,7 +58422,7 @@
         <v>n/a</v>
       </c>
       <c r="H53" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="15">
@@ -58548,7 +58546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" s="15" t="s">
         <v>3</v>
       </c>
@@ -58563,7 +58561,7 @@
         <v>n/a</v>
       </c>
       <c r="H54" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="15">
@@ -58687,7 +58685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -58703,7 +58701,7 @@
         <v>linear</v>
       </c>
       <c r="H55" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24783072140205353</v>
       </c>
       <c r="I55" s="15">
@@ -58827,7 +58825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>5</v>
@@ -58843,7 +58841,7 @@
         <v>n/a</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
@@ -58967,7 +58965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="C57" s="15" t="s">
         <v>125</v>
@@ -58983,7 +58981,7 @@
         <v>n/a</v>
       </c>
       <c r="H57" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I57" s="15">
@@ -59107,7 +59105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -59124,7 +59122,7 @@
         <v>n/a</v>
       </c>
       <c r="H58" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I58" s="15">
@@ -59248,7 +59246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>15</v>
       </c>
@@ -59269,7 +59267,7 @@
         <v>n/a</v>
       </c>
       <c r="H59" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I59" s="15">
@@ -59393,7 +59391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>2</v>
@@ -59409,7 +59407,7 @@
         <v>n/a</v>
       </c>
       <c r="H60" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I60" s="15">
@@ -59533,7 +59531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>3</v>
@@ -59549,7 +59547,7 @@
         <v>n/a</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I61" s="15">
@@ -59673,7 +59671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>4</v>
       </c>
@@ -59688,7 +59686,7 @@
         <v>n/a</v>
       </c>
       <c r="H62" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I62" s="15">
@@ -59812,7 +59810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
@@ -59827,7 +59825,7 @@
         <v>n/a</v>
       </c>
       <c r="H63" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I63" s="15">
@@ -59951,7 +59949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
         <v>125</v>
       </c>
@@ -59966,7 +59964,7 @@
         <v>n/a</v>
       </c>
       <c r="H64" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I64" s="15">
@@ -60090,7 +60088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31" t="s">
@@ -60107,7 +60105,7 @@
         <v>n/a</v>
       </c>
       <c r="H65" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I65" s="15">
@@ -60231,7 +60229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -60252,7 +60250,7 @@
         <v>n/a</v>
       </c>
       <c r="H66" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I66" s="15">
@@ -60376,7 +60374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
@@ -60391,7 +60389,7 @@
         <v>n/a</v>
       </c>
       <c r="H67" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I67" s="15">
@@ -60515,7 +60513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" s="15" t="s">
         <v>3</v>
       </c>
@@ -60531,7 +60529,7 @@
         <v>linear</v>
       </c>
       <c r="H68" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.77564463977542331</v>
       </c>
       <c r="I68" s="15">
@@ -60655,7 +60653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" s="15" t="s">
         <v>4</v>
       </c>
@@ -60671,7 +60669,7 @@
         <v>linear</v>
       </c>
       <c r="H69" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.22435536022457658</v>
       </c>
       <c r="I69" s="15">
@@ -60795,7 +60793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
@@ -60810,7 +60808,7 @@
         <v>n/a</v>
       </c>
       <c r="H70" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I70" s="15">
@@ -60934,7 +60932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" s="15" t="s">
         <v>125</v>
       </c>
@@ -60949,7 +60947,7 @@
         <v>n/a</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I71" s="15">
@@ -61073,7 +61071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31" t="s">
@@ -61090,7 +61088,7 @@
         <v>n/a</v>
       </c>
       <c r="H72" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I72" s="15">
@@ -61214,7 +61212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>16</v>
       </c>
@@ -61235,7 +61233,7 @@
         <v>n/a</v>
       </c>
       <c r="H73" s="29">
-        <f t="shared" ref="H73:H93" si="4">D73</f>
+        <f t="shared" ref="H73:H93" si="3">D73</f>
         <v>0</v>
       </c>
       <c r="I73" s="15">
@@ -61359,7 +61357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -61374,7 +61372,7 @@
         <v>n/a</v>
       </c>
       <c r="H74" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I74" s="15">
@@ -61498,7 +61496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" s="15" t="s">
         <v>3</v>
       </c>
@@ -61513,7 +61511,7 @@
         <v>n/a</v>
       </c>
       <c r="H75" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75" s="15">
@@ -61637,7 +61635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
         <v>4</v>
       </c>
@@ -61652,7 +61650,7 @@
         <v>n/a</v>
       </c>
       <c r="H76" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I76" s="15">
@@ -61776,7 +61774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
@@ -61791,7 +61789,7 @@
         <v>n/a</v>
       </c>
       <c r="H77" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I77" s="15">
@@ -61915,7 +61913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" s="15" t="s">
         <v>125</v>
       </c>
@@ -61930,7 +61928,7 @@
         <v>n/a</v>
       </c>
       <c r="H78" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I78" s="15">
@@ -62054,7 +62052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
@@ -62071,7 +62069,7 @@
         <v>n/a</v>
       </c>
       <c r="H79" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I79" s="15">
@@ -62195,7 +62193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>17</v>
       </c>
@@ -62217,7 +62215,7 @@
         <v>s-curve</v>
       </c>
       <c r="H80" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I80" s="15">
@@ -62341,7 +62339,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" s="15" t="s">
         <v>2</v>
       </c>
@@ -62357,7 +62355,7 @@
         <v>n/a</v>
       </c>
       <c r="H81" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I81" s="15">
@@ -62481,7 +62479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
         <v>3</v>
       </c>
@@ -62496,7 +62494,7 @@
         <v>n/a</v>
       </c>
       <c r="H82" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I82" s="15">
@@ -62620,7 +62618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
@@ -62636,7 +62634,7 @@
         <v>n/a</v>
       </c>
       <c r="H83" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I83" s="15">
@@ -62760,7 +62758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
@@ -62776,7 +62774,7 @@
         <v>n/a</v>
       </c>
       <c r="H84" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I84" s="15">
@@ -62900,7 +62898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" s="15" t="s">
         <v>125</v>
       </c>
@@ -62916,7 +62914,7 @@
         <v>n/a</v>
       </c>
       <c r="H85" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I85" s="15">
@@ -63040,7 +63038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31" t="s">
@@ -63058,7 +63056,7 @@
         <v>n/a</v>
       </c>
       <c r="H86" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I86" s="15">
@@ -63182,7 +63180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>17</v>
       </c>
@@ -63203,7 +63201,7 @@
         <v>n/a</v>
       </c>
       <c r="H87" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I87" s="15">
@@ -63327,7 +63325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" s="15" t="s">
         <v>2</v>
       </c>
@@ -63342,7 +63340,7 @@
         <v>n/a</v>
       </c>
       <c r="H88" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I88" s="15">
@@ -63466,7 +63464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" s="15" t="s">
         <v>3</v>
       </c>
@@ -63481,7 +63479,7 @@
         <v>n/a</v>
       </c>
       <c r="H89" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I89" s="15">
@@ -63605,7 +63603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
@@ -63620,7 +63618,7 @@
         <v>n/a</v>
       </c>
       <c r="H90" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I90" s="15">
@@ -63744,7 +63742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
@@ -63759,7 +63757,7 @@
         <v>n/a</v>
       </c>
       <c r="H91" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I91" s="15">
@@ -63883,7 +63881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" s="15" t="s">
         <v>125</v>
       </c>
@@ -63898,7 +63896,7 @@
         <v>n/a</v>
       </c>
       <c r="H92" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I92" s="15">
@@ -64022,7 +64020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31" t="s">
@@ -64039,7 +64037,7 @@
         <v>n/a</v>
       </c>
       <c r="H93" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I93" s="15">
@@ -64177,17 +64175,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -64316,136 +64314,136 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!H10</f>
-        <v>5.225957218961489E-2</v>
+        <v>0.52866208794943437</v>
       </c>
       <c r="C2">
         <f>Data!I10</f>
-        <v>5.860265758786775E-2</v>
+        <v>0.55454841059780646</v>
       </c>
       <c r="D2">
         <f>Data!J10</f>
-        <v>6.2672341898661429E-2</v>
+        <v>0.59890805572070915</v>
       </c>
       <c r="E2">
         <f>Data!K10</f>
-        <v>6.9305830513774952E-2</v>
+        <v>0.66590611391591692</v>
       </c>
       <c r="F2">
         <f>Data!L10</f>
-        <v>8.0039958301982059E-2</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <f>Data!M10</f>
-        <v>9.7206989524203091E-2</v>
+        <v>0.83409388608408308</v>
       </c>
       <c r="H2">
         <f>Data!N10</f>
-        <v>0.12415343617586547</v>
+        <v>0.90109194427929085</v>
       </c>
       <c r="I2">
         <f>Data!O10</f>
-        <v>0.16523300050310455</v>
+        <v>0.94545158940219354</v>
       </c>
       <c r="J2">
         <f>Data!P10</f>
-        <v>0.22515161616538465</v>
+        <v>0.97133791205056563</v>
       </c>
       <c r="K2">
         <f>Data!Q10</f>
-        <v>0.30714622993474716</v>
+        <v>0.98534388462432188</v>
       </c>
       <c r="L2">
         <f>Data!R10</f>
-        <v>0.41007012715218821</v>
+        <v>0.99261298415336352</v>
       </c>
       <c r="M2">
         <f>Data!S10</f>
-        <v>0.52612978609480743</v>
+        <v>0.996304229327859</v>
       </c>
       <c r="N2">
         <f>Data!T10</f>
-        <v>0.6421894450374267</v>
+        <v>0.99815788005028205</v>
       </c>
       <c r="O2">
         <f>Data!U10</f>
-        <v>0.74511334225486781</v>
+        <v>0.99908353052875354</v>
       </c>
       <c r="P2">
         <f>Data!V10</f>
-        <v>0.82710795602423015</v>
+        <v>0.9995444744027997</v>
       </c>
       <c r="Q2">
         <f>Data!W10</f>
-        <v>0.88702657168651022</v>
+        <v>0.9997736888883797</v>
       </c>
       <c r="R2">
         <f>Data!X10</f>
-        <v>0.92810613601374947</v>
+        <v>0.99988759161488328</v>
       </c>
       <c r="S2">
         <f>Data!Y10</f>
-        <v>0.95505258266541193</v>
+        <v>0.99994417332968522</v>
       </c>
       <c r="T2">
         <f>Data!Z10</f>
-        <v>0.97221961388763278</v>
+        <v>0.99997227573763858</v>
       </c>
       <c r="U2">
         <f>Data!AA10</f>
-        <v>0.98295374167583993</v>
+        <v>0.9999862321544426</v>
       </c>
       <c r="V2">
         <f>Data!AB10</f>
-        <v>0.98958723029095352</v>
+        <v>0.99999316299545771</v>
       </c>
       <c r="W2">
         <f>Data!AC10</f>
-        <v>0.99365691460174721</v>
+        <v>0.999996604820651</v>
       </c>
       <c r="X2">
         <f>Data!AD10</f>
-        <v>0.99614256593988948</v>
+        <v>0.99999831399806816</v>
       </c>
       <c r="Y2">
         <f>Data!AE10</f>
-        <v>0.99765659507171722</v>
+        <v>0.99999916275479728</v>
       </c>
       <c r="Z2">
         <f>Data!AF10</f>
-        <v>0.99857726888577869</v>
+        <v>0.99999958423598612</v>
       </c>
       <c r="AA2">
         <f>Data!AG10</f>
-        <v>0.9991365599512616</v>
+        <v>0.99999979353761448</v>
       </c>
       <c r="AB2">
         <f>Data!AH10</f>
-        <v>0.99947610933815767</v>
+        <v>0.99999989747379225</v>
       </c>
       <c r="AC2">
         <f>Data!AI10</f>
-        <v>0.99968217512388557</v>
+        <v>0.99999994908698664</v>
       </c>
       <c r="AD2">
         <f>Data!AJ10</f>
-        <v>0.99980720402878975</v>
+        <v>0.99999997471734448</v>
       </c>
       <c r="AE2">
         <f>Data!AK10</f>
-        <v>0.99988305397176525</v>
+        <v>0.99999998744500451</v>
       </c>
       <c r="AF2">
         <f>Data!AL10</f>
-        <v>0.99992906520431912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.99999999376537363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -64574,136 +64572,136 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="15">
         <f>Data!H12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="15">
         <f>Data!I12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="15">
         <f>Data!J12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="15">
         <f>Data!K12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15">
         <f>Data!L12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f>Data!M12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="15">
         <f>Data!N12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="15">
         <f>Data!O12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="15">
         <f>Data!P12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="15">
         <f>Data!Q12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="15">
         <f>Data!R12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="15">
         <f>Data!S12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="15">
         <f>Data!T12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="15">
         <f>Data!U12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="15">
         <f>Data!V12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="15">
         <f>Data!W12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="15">
         <f>Data!X12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="15">
         <f>Data!Y12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="15">
         <f>Data!Z12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="15">
         <f>Data!AA12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="15">
         <f>Data!AB12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="15">
         <f>Data!AC12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="15">
         <f>Data!AD12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="15">
         <f>Data!AE12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="15">
         <f>Data!AF12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="15">
         <f>Data!AG12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="15">
         <f>Data!AH12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="15">
         <f>Data!AI12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="15">
         <f>Data!AJ12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="15">
         <f>Data!AK12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="15">
         <f>Data!AL12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -64832,136 +64830,136 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="15">
         <f>Data!H14</f>
-        <v>4.731416359500128E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C6" s="15">
         <f>Data!I14</f>
-        <v>6.5982939484883251E-3</v>
+        <v>2.6567428891905699E-2</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J14</f>
-        <v>7.2384789476011274E-3</v>
+        <v>2.7104927691876762E-2</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K14</f>
-        <v>8.0922681753062484E-3</v>
+        <v>2.7821768426907579E-2</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L14</f>
-        <v>9.2262663398868933E-3</v>
+        <v>2.8773872355422291E-2</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M14</f>
-        <v>1.072424902776287E-2</v>
+        <v>3.0031577391039493E-2</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N14</f>
-        <v>1.2688861528628215E-2</v>
+        <v>3.168106443476388E-2</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O14</f>
-        <v>1.5241292493779727E-2</v>
+        <v>3.3824083378786625E-2</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P14</f>
-        <v>1.8517119189194069E-2</v>
+        <v>3.6574464784378008E-2</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q14</f>
-        <v>2.2656014027542817E-2</v>
+        <v>4.0049477494613184E-2</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R14</f>
-        <v>2.7783087638138769E-2</v>
+        <v>4.4354164291207518E-2</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S14</f>
-        <v>3.3981109541668948E-2</v>
+        <v>4.9558018395815848E-2</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T14</f>
-        <v>4.1256442624400702E-2</v>
+        <v>5.5666382082527388E-2</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U14</f>
-        <v>4.9507027678078935E-2</v>
+        <v>6.2593566523832689E-2</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V14</f>
-        <v>5.8505751265812284E-2</v>
+        <v>7.0148887464468651E-2</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W14</f>
-        <v>6.7912463610069793E-2</v>
+        <v>7.8046755430319747E-2</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X14</f>
-        <v>7.7319175954327302E-2</v>
+        <v>8.5944623396170816E-2</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y14</f>
-        <v>8.631789954206065E-2</v>
+        <v>9.3499944336806806E-2</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z14</f>
-        <v>9.4568484595738883E-2</v>
+        <v>0.10042712877811208</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA14</f>
-        <v>0.10184381767847063</v>
+        <v>0.10653549246482363</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB14</f>
-        <v>0.10804183958200081</v>
+        <v>0.11173934656943196</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC14</f>
-        <v>0.11316891319259678</v>
+        <v>0.11604403336602631</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD14</f>
-        <v>0.11730780803094552</v>
+        <v>0.11951904607626149</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE14</f>
-        <v>0.12058363472635987</v>
+        <v>0.12226942748185285</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF14</f>
-        <v>0.12313606569151138</v>
+        <v>0.12441244642587562</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG14</f>
-        <v>0.12510067819237675</v>
+        <v>0.12606193346959998</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH14</f>
-        <v>0.12659866088025271</v>
+        <v>0.12731963850521719</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI14</f>
-        <v>0.12773265904483333</v>
+        <v>0.12827174243373191</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ14</f>
-        <v>0.12858644827253848</v>
+        <v>0.12898858316876272</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK14</f>
-        <v>0.12922663327165126</v>
+        <v>0.12952608196873377</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL14</f>
-        <v>0.12970517777767385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.12992786754333543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -65090,7 +65088,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3DD02-EBCA-496B-826B-94DED77DECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123259A3-E51E-4CD2-BDCD-D3B53C79C9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="TTS-motorbikes-psgr" sheetId="17" r:id="rId20"/>
     <sheet name="TTS-motorbikes-frgt" sheetId="18" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="987">
   <si>
     <t>Source:</t>
   </si>
@@ -2964,6 +2964,54 @@
   </si>
   <si>
     <t>https://www.energy.gov/energysaver/articles/new-plug-electric-vehicle-sales-united-states-nearly-doubled-2020-2021</t>
+  </si>
+  <si>
+    <t>pixels for all PEVs, 2030</t>
+  </si>
+  <si>
+    <t>pixels for BEVs, 2030</t>
+  </si>
+  <si>
+    <t>Percentage of PEVs as BEVs</t>
+  </si>
+  <si>
+    <t>Deloitte US 2030 PEV value</t>
+  </si>
+  <si>
+    <t>Assumed BEV sales share</t>
+  </si>
+  <si>
+    <t>Assumed PHEV sales share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* We calibrate to a projection from Deloitte, which estimates 27% </t>
+  </si>
+  <si>
+    <t>of US LDV sales will be electric in 2030. From the global breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">above, they expect about 81% of PEV sales will be BEVs, with the </t>
+  </si>
+  <si>
+    <t>rest as PHEVs. We calibrate to similar numbers in the US by adjusting</t>
+  </si>
+  <si>
+    <t>the 2030 max potential sales share in the Data tab.</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>Electric vehicles: Setting a course for 2030</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/us/en/insights/focus/future-of-mobility/electric-vehicle-trends-2030.html</t>
+  </si>
+  <si>
+    <t>We use a hard coded value for PHEVs in 2020 in order to match</t>
+  </si>
+  <si>
+    <t>historical data.</t>
   </si>
 </sst>
 </file>
@@ -3768,7 +3816,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3857,6 +3905,10 @@
     <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -6100,13 +6152,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>47034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6144,13 +6196,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>335702</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:colOff>69002</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>152208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6228,6 +6280,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>216356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027899A3-F83F-F8A7-BCD4-73014DA6F3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14344650"/>
+          <a:ext cx="3943350" cy="2242006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6271,16 +6367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6647,10 +6743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6743,429 +6839,452 @@
         <v>970</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="47"/>
+    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="47" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="35" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="35" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="47" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="A52" s="14"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>906</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="19"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="16" t="s">
+      <c r="B61" s="19"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="20"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B64" s="20"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>914</v>
+      <c r="B76" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>139</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>42</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>45</v>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>142</v>
+      <c r="B93" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>111</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7840,127 +7959,127 @@
       </c>
       <c r="B6" s="15">
         <f>Data!H14</f>
-        <v>1.7500000000000002E-2</v>
+        <v>1.7641947805604345E-2</v>
       </c>
       <c r="C6" s="15">
         <f>Data!I14</f>
-        <v>2.0146623971724009E-2</v>
+        <v>5.1345518914747604E-2</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J14</f>
-        <v>2.1054197652496692E-2</v>
+        <v>7.8869239433912761E-2</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K14</f>
-        <v>2.2264592511898683E-2</v>
+        <v>0.12043936074535663</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L14</f>
-        <v>2.3872232318586158E-2</v>
+        <v>0.17261688857579932</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M14</f>
-        <v>2.5995883550110573E-2</v>
+        <v>0.22479441640624204</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N14</f>
-        <v>2.8781063773285744E-2</v>
+        <v>0.26636453771768587</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O14</f>
-        <v>3.2399578998058384E-2</v>
+        <v>0.29388825823685111</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P14</f>
-        <v>3.7043633600479256E-2</v>
+        <v>0.30994988154038999</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q14</f>
-        <v>4.2911237539929523E-2</v>
+        <v>0.31864013308886613</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R14</f>
-        <v>5.0179756912938397E-2</v>
+        <v>0.32315037349563713</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S14</f>
-        <v>5.8966531923743418E-2</v>
+        <v>0.32544067136138988</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T14</f>
-        <v>6.9280583071290994E-2</v>
+        <v>0.32659080149166408</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U14</f>
-        <v>8.0977223661233097E-2</v>
+        <v>0.3271651375801809</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V14</f>
-        <v>9.3734480860469802E-2</v>
+        <v>0.32745113829838129</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W14</f>
-        <v>0.1070701331454796</v>
+        <v>0.32759335844966003</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X14</f>
-        <v>0.1204057854304894</v>
+        <v>0.32766403139580214</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y14</f>
-        <v>0.13316304262972609</v>
+        <v>0.32769913851400356</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z14</f>
-        <v>0.14485968321966819</v>
+        <v>0.32771657514633645</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA14</f>
-        <v>0.15517373436721577</v>
+        <v>0.3277252346501377</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB14</f>
-        <v>0.16396050937802081</v>
+        <v>0.32772953501211155</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC14</f>
-        <v>0.17122902875102969</v>
+        <v>0.32773167055297159</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD14</f>
-        <v>0.17709663269047993</v>
+        <v>0.32773273104210349</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE14</f>
-        <v>0.18174068729290083</v>
+        <v>0.3277332576681154</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF14</f>
-        <v>0.18535920251767346</v>
+        <v>0.32773351918351784</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG14</f>
-        <v>0.18814438274084866</v>
+        <v>0.32773364904838725</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH14</f>
-        <v>0.19026803397237302</v>
+        <v>0.32773371353741332</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI14</f>
-        <v>0.19187567377906051</v>
+        <v>0.32773374556172585</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ14</f>
-        <v>0.1930860686384625</v>
+        <v>0.32773376146453126</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK14</f>
-        <v>0.19399364231923522</v>
+        <v>0.32773376936163134</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL14</f>
-        <v>0.19467206246239127</v>
+        <v>0.32773377328321535</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -8898,123 +9017,123 @@
       </c>
       <c r="C6" s="15">
         <f>Data!I21</f>
-        <v>2.9051695263562845E-3</v>
+        <v>4.8419492105938079E-3</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J21</f>
-        <v>3.9014030028430464E-3</v>
+        <v>6.5023383380717441E-3</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K21</f>
-        <v>5.230039899493835E-3</v>
+        <v>8.7167331658230592E-3</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L21</f>
-        <v>6.9947281308572898E-3</v>
+        <v>1.1657880218095483E-2</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M21</f>
-        <v>9.3258363307179917E-3</v>
+        <v>1.5543060551196652E-2</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N21</f>
-        <v>1.2383097504283182E-2</v>
+        <v>2.063849584047197E-2</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O21</f>
-        <v>1.6355101186702026E-2</v>
+        <v>2.7258501977836708E-2</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P21</f>
-        <v>2.1452827971402487E-2</v>
+        <v>3.5754713285670814E-2</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q21</f>
-        <v>2.789363117568806E-2</v>
+        <v>4.6489385292813434E-2</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R21</f>
-        <v>3.5872203579549629E-2</v>
+        <v>5.9787005965916053E-2</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S21</f>
-        <v>4.5517348212510605E-2</v>
+        <v>7.5862247020851009E-2</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T21</f>
-        <v>5.6838966775353432E-2</v>
+        <v>9.4731611292255713E-2</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U21</f>
-        <v>6.9678238302281689E-2</v>
+        <v>0.11613039717046947</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V21</f>
-        <v>8.368173681626577E-2</v>
+        <v>0.13946956136044295</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W21</f>
-        <v>9.8320133145479605E-2</v>
+        <v>0.16386688857579934</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X21</f>
-        <v>0.11295852947469344</v>
+        <v>0.18826421579115574</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y21</f>
-        <v>0.12696202798867751</v>
+        <v>0.21160337998112919</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z21</f>
-        <v>0.13980129951560577</v>
+        <v>0.23300216585934294</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA21</f>
-        <v>0.1511229180784486</v>
+        <v>0.25187153013074765</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB21</f>
-        <v>0.16076806271140956</v>
+        <v>0.26794677118568261</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC21</f>
-        <v>0.16874663511527116</v>
+        <v>0.2812443918587853</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD21</f>
-        <v>0.17518743831955672</v>
+        <v>0.29197906386592787</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE21</f>
-        <v>0.18028516510425718</v>
+        <v>0.30047527517376199</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF21</f>
-        <v>0.18425716878667603</v>
+        <v>0.30709528131112673</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG21</f>
-        <v>0.18731442996024122</v>
+        <v>0.31219071660040204</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH21</f>
-        <v>0.18964553816010193</v>
+        <v>0.31607589693350319</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI21</f>
-        <v>0.19141022639146535</v>
+        <v>0.31901704398577563</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ21</f>
-        <v>0.19273886328811618</v>
+        <v>0.32123143881352695</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK21</f>
-        <v>0.19373509676460293</v>
+        <v>0.32289182794100485</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL21</f>
-        <v>0.19447979096635587</v>
+        <v>0.32413298494392645</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -56144,16 +56263,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD76"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:AF68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.453125" style="15" customWidth="1"/>
-    <col min="2" max="6" width="9.1796875" style="15"/>
+    <col min="2" max="5" width="9.1796875" style="15"/>
+    <col min="6" max="6" width="13" style="15" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" style="15" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="15"/>
   </cols>
@@ -56796,97 +56916,97 @@
         <v>953</v>
       </c>
       <c r="B62" s="15">
-        <v>328761</v>
+        <v>349182</v>
       </c>
       <c r="C62" s="15">
-        <v>537999</v>
-      </c>
-      <c r="D62" s="15">
-        <v>923271</v>
+        <v>603744</v>
+      </c>
+      <c r="D62" s="58">
+        <v>1098920</v>
       </c>
       <c r="E62" s="58">
-        <v>1396960</v>
+        <v>1600640</v>
       </c>
       <c r="F62" s="58">
-        <v>1986480</v>
+        <v>2209510</v>
       </c>
       <c r="G62" s="58">
-        <v>2681780</v>
+        <v>2809740</v>
       </c>
       <c r="H62" s="58">
-        <v>3356340</v>
+        <v>3313430</v>
       </c>
       <c r="I62" s="58">
-        <v>3975250</v>
+        <v>3838830</v>
       </c>
       <c r="J62" s="58">
-        <v>4520760</v>
+        <v>4387740</v>
       </c>
       <c r="K62" s="58">
-        <v>5024490</v>
+        <v>4901270</v>
       </c>
       <c r="L62" s="58">
-        <v>5560350</v>
+        <v>5460140</v>
       </c>
       <c r="M62" s="58">
-        <v>6002870</v>
+        <v>5896040</v>
       </c>
       <c r="N62" s="58">
-        <v>6380960</v>
+        <v>6271520</v>
       </c>
       <c r="O62" s="58">
-        <v>6747030</v>
+        <v>6625100</v>
       </c>
       <c r="P62" s="58">
-        <v>7064830</v>
+        <v>6942390</v>
       </c>
       <c r="Q62" s="58">
-        <v>7362140</v>
+        <v>7274900</v>
       </c>
       <c r="R62" s="58">
-        <v>7662150</v>
+        <v>7567320</v>
       </c>
       <c r="S62" s="58">
-        <v>7954220</v>
+        <v>7866920</v>
       </c>
       <c r="T62" s="58">
-        <v>8263950</v>
+        <v>8176700</v>
       </c>
       <c r="U62" s="58">
-        <v>8541650</v>
+        <v>8461000</v>
       </c>
       <c r="V62" s="58">
-        <v>8834150</v>
+        <v>8757100</v>
       </c>
       <c r="W62" s="58">
-        <v>9135740</v>
+        <v>9060000</v>
       </c>
       <c r="X62" s="58">
-        <v>9421100</v>
+        <v>9346980</v>
       </c>
       <c r="Y62" s="58">
-        <v>9727780</v>
+        <v>9657430</v>
       </c>
       <c r="Z62" s="58">
-        <v>10043400</v>
+        <v>9970180</v>
       </c>
       <c r="AA62" s="58">
-        <v>10341400</v>
+        <v>10265600</v>
       </c>
       <c r="AB62" s="58">
-        <v>10658000</v>
+        <v>10577800</v>
       </c>
       <c r="AC62" s="58">
-        <v>10996100</v>
+        <v>10885700</v>
       </c>
       <c r="AD62" s="58">
-        <v>11299000</v>
+        <v>11185100</v>
       </c>
       <c r="AE62" s="58">
-        <v>11614300</v>
+        <v>11495700</v>
       </c>
       <c r="AF62" s="58">
-        <v>11941900</v>
+        <v>11818600</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
@@ -56894,97 +57014,97 @@
         <v>954</v>
       </c>
       <c r="B63" s="15">
-        <v>1848</v>
+        <v>1905</v>
       </c>
       <c r="C63" s="15">
-        <v>2034</v>
+        <v>2100</v>
       </c>
       <c r="D63" s="15">
-        <v>1845</v>
+        <v>1965</v>
       </c>
       <c r="E63" s="15">
-        <v>1947</v>
+        <v>2016</v>
       </c>
       <c r="F63" s="15">
-        <v>2127</v>
+        <v>2154</v>
       </c>
       <c r="G63" s="15">
-        <v>2121</v>
+        <v>2082</v>
       </c>
       <c r="H63" s="15">
-        <v>2103</v>
+        <v>1983</v>
       </c>
       <c r="I63" s="15">
-        <v>2103</v>
+        <v>1974</v>
       </c>
       <c r="J63" s="15">
-        <v>2127</v>
+        <v>1989</v>
       </c>
       <c r="K63" s="15">
-        <v>2235</v>
+        <v>2085</v>
       </c>
       <c r="L63" s="15">
-        <v>2376</v>
+        <v>2214</v>
       </c>
       <c r="M63" s="15">
-        <v>2499</v>
+        <v>2334</v>
       </c>
       <c r="N63" s="15">
+        <v>2490</v>
+      </c>
+      <c r="O63" s="15">
         <v>2664</v>
       </c>
-      <c r="O63" s="15">
-        <v>2841</v>
-      </c>
       <c r="P63" s="15">
-        <v>3048</v>
+        <v>2859</v>
       </c>
       <c r="Q63" s="15">
-        <v>3261</v>
+        <v>3060</v>
       </c>
       <c r="R63" s="15">
-        <v>3459</v>
+        <v>3255</v>
       </c>
       <c r="S63" s="15">
-        <v>3639</v>
+        <v>3432</v>
       </c>
       <c r="T63" s="15">
-        <v>3810</v>
+        <v>3594</v>
       </c>
       <c r="U63" s="15">
-        <v>3942</v>
+        <v>3723</v>
       </c>
       <c r="V63" s="15">
-        <v>4047</v>
+        <v>3822</v>
       </c>
       <c r="W63" s="15">
-        <v>4125</v>
+        <v>3900</v>
       </c>
       <c r="X63" s="15">
-        <v>4176</v>
+        <v>3948</v>
       </c>
       <c r="Y63" s="15">
-        <v>4212</v>
+        <v>3984</v>
       </c>
       <c r="Z63" s="15">
-        <v>4227</v>
+        <v>3999</v>
       </c>
       <c r="AA63" s="15">
-        <v>4227</v>
+        <v>3996</v>
       </c>
       <c r="AB63" s="15">
-        <v>4218</v>
+        <v>3990</v>
       </c>
       <c r="AC63" s="15">
-        <v>4194</v>
+        <v>3966</v>
       </c>
       <c r="AD63" s="15">
-        <v>4164</v>
+        <v>3939</v>
       </c>
       <c r="AE63" s="15">
-        <v>4128</v>
+        <v>3903</v>
       </c>
       <c r="AF63" s="15">
-        <v>4092</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
@@ -56992,97 +57112,97 @@
         <v>955</v>
       </c>
       <c r="B64" s="58">
-        <v>19477000</v>
+        <v>19452500</v>
       </c>
       <c r="C64" s="58">
-        <v>20253400</v>
+        <v>20032800</v>
       </c>
       <c r="D64" s="58">
-        <v>20805100</v>
+        <v>20303000</v>
       </c>
       <c r="E64" s="58">
-        <v>21068800</v>
+        <v>20341500</v>
       </c>
       <c r="F64" s="58">
-        <v>20826400</v>
+        <v>19837400</v>
       </c>
       <c r="G64" s="58">
-        <v>20441500</v>
+        <v>19349100</v>
       </c>
       <c r="H64" s="58">
-        <v>20029300</v>
+        <v>18994500</v>
       </c>
       <c r="I64" s="58">
-        <v>19607900</v>
+        <v>18606300</v>
       </c>
       <c r="J64" s="58">
-        <v>19210800</v>
+        <v>18204900</v>
       </c>
       <c r="K64" s="58">
-        <v>18841200</v>
+        <v>17839100</v>
       </c>
       <c r="L64" s="58">
-        <v>18447900</v>
+        <v>17460000</v>
       </c>
       <c r="M64" s="58">
-        <v>18140100</v>
+        <v>17198600</v>
       </c>
       <c r="N64" s="58">
-        <v>17853400</v>
+        <v>16970700</v>
       </c>
       <c r="O64" s="58">
-        <v>17584800</v>
+        <v>16776200</v>
       </c>
       <c r="P64" s="58">
-        <v>17348000</v>
+        <v>16604800</v>
       </c>
       <c r="Q64" s="58">
-        <v>17116600</v>
+        <v>16403800</v>
       </c>
       <c r="R64" s="58">
-        <v>16883500</v>
+        <v>16240000</v>
       </c>
       <c r="S64" s="58">
-        <v>16671400</v>
+        <v>16078700</v>
       </c>
       <c r="T64" s="58">
-        <v>16445700</v>
+        <v>15905000</v>
       </c>
       <c r="U64" s="58">
-        <v>16277600</v>
+        <v>15776400</v>
       </c>
       <c r="V64" s="58">
-        <v>16105100</v>
+        <v>15638900</v>
       </c>
       <c r="W64" s="58">
-        <v>15923300</v>
+        <v>15487900</v>
       </c>
       <c r="X64" s="58">
-        <v>15770800</v>
+        <v>15360700</v>
       </c>
       <c r="Y64" s="58">
-        <v>15600400</v>
+        <v>15207500</v>
       </c>
       <c r="Z64" s="58">
-        <v>15424200</v>
+        <v>15051800</v>
       </c>
       <c r="AA64" s="58">
-        <v>15280700</v>
+        <v>14925500</v>
       </c>
       <c r="AB64" s="58">
-        <v>15139600</v>
+        <v>14800800</v>
       </c>
       <c r="AC64" s="58">
-        <v>14981900</v>
+        <v>14683100</v>
       </c>
       <c r="AD64" s="58">
-        <v>14863800</v>
+        <v>14577500</v>
       </c>
       <c r="AE64" s="58">
-        <v>14747000</v>
+        <v>14473200</v>
       </c>
       <c r="AF64" s="58">
-        <v>14637400</v>
+        <v>14375400</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
@@ -57090,97 +57210,97 @@
         <v>956</v>
       </c>
       <c r="B65" s="15">
-        <v>21453</v>
+        <v>22110</v>
       </c>
       <c r="C65" s="15">
-        <v>27300</v>
+        <v>28173</v>
       </c>
       <c r="D65" s="15">
-        <v>30579</v>
+        <v>32691</v>
       </c>
       <c r="E65" s="15">
-        <v>36993</v>
+        <v>37941</v>
       </c>
       <c r="F65" s="15">
-        <v>40968</v>
+        <v>41217</v>
       </c>
       <c r="G65" s="15">
-        <v>44637</v>
+        <v>43569</v>
       </c>
       <c r="H65" s="15">
-        <v>48036</v>
+        <v>45132</v>
       </c>
       <c r="I65" s="15">
-        <v>51357</v>
+        <v>48126</v>
       </c>
       <c r="J65" s="15">
-        <v>54516</v>
+        <v>50952</v>
       </c>
       <c r="K65" s="15">
-        <v>57900</v>
+        <v>54015</v>
       </c>
       <c r="L65" s="15">
-        <v>61539</v>
+        <v>57375</v>
       </c>
       <c r="M65" s="15">
-        <v>64995</v>
+        <v>60678</v>
       </c>
       <c r="N65" s="15">
-        <v>68463</v>
+        <v>64011</v>
       </c>
       <c r="O65" s="15">
-        <v>71736</v>
+        <v>67245</v>
       </c>
       <c r="P65" s="15">
-        <v>75210</v>
+        <v>70590</v>
       </c>
       <c r="Q65" s="15">
-        <v>78315</v>
+        <v>73515</v>
       </c>
       <c r="R65" s="15">
-        <v>81387</v>
+        <v>76596</v>
       </c>
       <c r="S65" s="15">
-        <v>84360</v>
+        <v>79521</v>
       </c>
       <c r="T65" s="15">
-        <v>87636</v>
+        <v>82653</v>
       </c>
       <c r="U65" s="15">
-        <v>90561</v>
+        <v>85512</v>
       </c>
       <c r="V65" s="15">
-        <v>93648</v>
+        <v>88494</v>
       </c>
       <c r="W65" s="15">
-        <v>96702</v>
+        <v>91416</v>
       </c>
       <c r="X65" s="15">
-        <v>99771</v>
+        <v>94353</v>
       </c>
       <c r="Y65" s="15">
-        <v>102693</v>
+        <v>97170</v>
       </c>
       <c r="Z65" s="15">
-        <v>105336</v>
+        <v>99654</v>
       </c>
       <c r="AA65" s="15">
-        <v>108225</v>
+        <v>102369</v>
       </c>
       <c r="AB65" s="15">
-        <v>111222</v>
+        <v>105171</v>
       </c>
       <c r="AC65" s="15">
-        <v>113991</v>
+        <v>107820</v>
       </c>
       <c r="AD65" s="15">
-        <v>116880</v>
+        <v>110532</v>
       </c>
       <c r="AE65" s="15">
-        <v>119871</v>
+        <v>113328</v>
       </c>
       <c r="AF65" s="15">
-        <v>122847</v>
+        <v>116103</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.35">
@@ -57188,97 +57308,97 @@
         <v>957</v>
       </c>
       <c r="B66" s="15">
-        <v>83631</v>
+        <v>86889</v>
       </c>
       <c r="C66" s="15">
-        <v>94413</v>
+        <v>248313</v>
       </c>
       <c r="D66" s="15">
-        <v>109887</v>
+        <v>434007</v>
       </c>
       <c r="E66" s="15">
-        <v>114378</v>
+        <v>636849</v>
       </c>
       <c r="F66" s="15">
-        <v>121590</v>
-      </c>
-      <c r="G66" s="15">
-        <v>129444</v>
-      </c>
-      <c r="H66" s="15">
-        <v>140181</v>
-      </c>
-      <c r="I66" s="15">
-        <v>152049</v>
-      </c>
-      <c r="J66" s="15">
-        <v>167559</v>
-      </c>
-      <c r="K66" s="15">
-        <v>190572</v>
-      </c>
-      <c r="L66" s="15">
-        <v>218340</v>
-      </c>
-      <c r="M66" s="15">
-        <v>253572</v>
-      </c>
-      <c r="N66" s="15">
-        <v>292587</v>
-      </c>
-      <c r="O66" s="15">
-        <v>335565</v>
-      </c>
-      <c r="P66" s="15">
-        <v>382035</v>
-      </c>
-      <c r="Q66" s="15">
-        <v>430077</v>
-      </c>
-      <c r="R66" s="15">
-        <v>476250</v>
-      </c>
-      <c r="S66" s="15">
-        <v>519198</v>
-      </c>
-      <c r="T66" s="15">
-        <v>558639</v>
-      </c>
-      <c r="U66" s="15">
-        <v>590619</v>
-      </c>
-      <c r="V66" s="15">
-        <v>617439</v>
-      </c>
-      <c r="W66" s="15">
-        <v>638484</v>
-      </c>
-      <c r="X66" s="15">
-        <v>653250</v>
-      </c>
-      <c r="Y66" s="15">
-        <v>664245</v>
-      </c>
-      <c r="Z66" s="15">
-        <v>671571</v>
-      </c>
-      <c r="AA66" s="15">
-        <v>675162</v>
-      </c>
-      <c r="AB66" s="15">
-        <v>676623</v>
-      </c>
-      <c r="AC66" s="15">
-        <v>675378</v>
-      </c>
-      <c r="AD66" s="15">
-        <v>672426</v>
-      </c>
-      <c r="AE66" s="15">
-        <v>668622</v>
-      </c>
-      <c r="AF66" s="15">
-        <v>663933</v>
+        <v>887172</v>
+      </c>
+      <c r="G66" s="58">
+        <v>1095060</v>
+      </c>
+      <c r="H66" s="58">
+        <v>1221050</v>
+      </c>
+      <c r="I66" s="58">
+        <v>1293530</v>
+      </c>
+      <c r="J66" s="58">
+        <v>1310350</v>
+      </c>
+      <c r="K66" s="58">
+        <v>1320140</v>
+      </c>
+      <c r="L66" s="58">
+        <v>1310940</v>
+      </c>
+      <c r="M66" s="58">
+        <v>1306520</v>
+      </c>
+      <c r="N66" s="58">
+        <v>1289590</v>
+      </c>
+      <c r="O66" s="58">
+        <v>1270880</v>
+      </c>
+      <c r="P66" s="58">
+        <v>1252620</v>
+      </c>
+      <c r="Q66" s="58">
+        <v>1235240</v>
+      </c>
+      <c r="R66" s="58">
+        <v>1219780</v>
+      </c>
+      <c r="S66" s="58">
+        <v>1204400</v>
+      </c>
+      <c r="T66" s="58">
+        <v>1191940</v>
+      </c>
+      <c r="U66" s="58">
+        <v>1177850</v>
+      </c>
+      <c r="V66" s="58">
+        <v>1166230</v>
+      </c>
+      <c r="W66" s="58">
+        <v>1155260</v>
+      </c>
+      <c r="X66" s="58">
+        <v>1143250</v>
+      </c>
+      <c r="Y66" s="58">
+        <v>1133420</v>
+      </c>
+      <c r="Z66" s="58">
+        <v>1123340</v>
+      </c>
+      <c r="AA66" s="58">
+        <v>1112470</v>
+      </c>
+      <c r="AB66" s="58">
+        <v>1102060</v>
+      </c>
+      <c r="AC66" s="58">
+        <v>1091130</v>
+      </c>
+      <c r="AD66" s="58">
+        <v>1079340</v>
+      </c>
+      <c r="AE66" s="58">
+        <v>1067910</v>
+      </c>
+      <c r="AF66" s="58">
+        <v>1056400</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
@@ -57286,97 +57406,97 @@
         <v>958</v>
       </c>
       <c r="B67" s="15">
+        <v>1728</v>
+      </c>
+      <c r="C67" s="15">
         <v>1677</v>
       </c>
-      <c r="C67" s="15">
-        <v>1626</v>
-      </c>
       <c r="D67" s="15">
-        <v>1953</v>
+        <v>2079</v>
       </c>
       <c r="E67" s="15">
-        <v>2073</v>
+        <v>2148</v>
       </c>
       <c r="F67" s="15">
+        <v>2136</v>
+      </c>
+      <c r="G67" s="15">
+        <v>2076</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1974</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1938</v>
+      </c>
+      <c r="J67" s="15">
+        <v>1908</v>
+      </c>
+      <c r="K67" s="15">
+        <v>1932</v>
+      </c>
+      <c r="L67" s="15">
+        <v>1962</v>
+      </c>
+      <c r="M67" s="15">
+        <v>2001</v>
+      </c>
+      <c r="N67" s="15">
+        <v>2037</v>
+      </c>
+      <c r="O67" s="15">
+        <v>2070</v>
+      </c>
+      <c r="P67" s="15">
         <v>2106</v>
       </c>
-      <c r="G67" s="15">
-        <v>2115</v>
-      </c>
-      <c r="H67" s="15">
-        <v>2094</v>
-      </c>
-      <c r="I67" s="15">
-        <v>2067</v>
-      </c>
-      <c r="J67" s="15">
-        <v>2040</v>
-      </c>
-      <c r="K67" s="15">
-        <v>2073</v>
-      </c>
-      <c r="L67" s="15">
-        <v>2103</v>
-      </c>
-      <c r="M67" s="15">
-        <v>2142</v>
-      </c>
-      <c r="N67" s="15">
-        <v>2178</v>
-      </c>
-      <c r="O67" s="15">
-        <v>2211</v>
-      </c>
-      <c r="P67" s="15">
-        <v>2244</v>
-      </c>
       <c r="Q67" s="15">
+        <v>2139</v>
+      </c>
+      <c r="R67" s="15">
+        <v>2169</v>
+      </c>
+      <c r="S67" s="15">
+        <v>2196</v>
+      </c>
+      <c r="T67" s="15">
+        <v>2223</v>
+      </c>
+      <c r="U67" s="15">
+        <v>2253</v>
+      </c>
+      <c r="V67" s="15">
         <v>2277</v>
       </c>
-      <c r="R67" s="15">
-        <v>2304</v>
-      </c>
-      <c r="S67" s="15">
-        <v>2328</v>
-      </c>
-      <c r="T67" s="15">
-        <v>2358</v>
-      </c>
-      <c r="U67" s="15">
-        <v>2385</v>
-      </c>
-      <c r="V67" s="15">
-        <v>2409</v>
-      </c>
       <c r="W67" s="15">
-        <v>2436</v>
+        <v>2301</v>
       </c>
       <c r="X67" s="15">
-        <v>2466</v>
+        <v>2331</v>
       </c>
       <c r="Y67" s="15">
-        <v>2490</v>
+        <v>2355</v>
       </c>
       <c r="Z67" s="15">
+        <v>2379</v>
+      </c>
+      <c r="AA67" s="15">
+        <v>2406</v>
+      </c>
+      <c r="AB67" s="15">
+        <v>2427</v>
+      </c>
+      <c r="AC67" s="15">
+        <v>2451</v>
+      </c>
+      <c r="AD67" s="15">
+        <v>2469</v>
+      </c>
+      <c r="AE67" s="15">
+        <v>2493</v>
+      </c>
+      <c r="AF67" s="15">
         <v>2514</v>
-      </c>
-      <c r="AA67" s="15">
-        <v>2544</v>
-      </c>
-      <c r="AB67" s="15">
-        <v>2568</v>
-      </c>
-      <c r="AC67" s="15">
-        <v>2592</v>
-      </c>
-      <c r="AD67" s="15">
-        <v>2613</v>
-      </c>
-      <c r="AE67" s="15">
-        <v>2637</v>
-      </c>
-      <c r="AF67" s="15">
-        <v>2658</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
@@ -57393,7 +57513,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F68" s="15">
         <v>30</v>
@@ -57402,79 +57522,79 @@
         <v>36</v>
       </c>
       <c r="H68" s="15">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I68" s="15">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J68" s="15">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K68" s="15">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L68" s="15">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M68" s="15">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="N68" s="15">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="O68" s="15">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="P68" s="15">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="Q68" s="15">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="R68" s="15">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="S68" s="15">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="T68" s="15">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="U68" s="15">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="V68" s="15">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="W68" s="15">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="X68" s="15">
-        <v>738</v>
+        <v>699</v>
       </c>
       <c r="Y68" s="15">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="Z68" s="15">
-        <v>828</v>
+        <v>783</v>
       </c>
       <c r="AA68" s="15">
-        <v>870</v>
+        <v>822</v>
       </c>
       <c r="AB68" s="15">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="AC68" s="15">
-        <v>942</v>
+        <v>891</v>
       </c>
       <c r="AD68" s="15">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="AE68" s="15">
-        <v>1002</v>
+        <v>948</v>
       </c>
       <c r="AF68" s="15">
-        <v>1032</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
@@ -57483,127 +57603,127 @@
       </c>
       <c r="B70" s="48">
         <f>B62/SUM(B$62:B$68)</f>
-        <v>1.650872218881811E-2</v>
+        <v>1.7534211300949881E-2</v>
       </c>
       <c r="C70" s="48">
         <f t="shared" ref="C70:AF70" si="0">C62/SUM(C$62:C$68)</f>
-        <v>2.5720919756939725E-2</v>
+        <v>2.8864040627204268E-2</v>
       </c>
       <c r="D70" s="48">
         <f t="shared" si="0"/>
-        <v>4.2211197396420444E-2</v>
+        <v>5.0241664454241851E-2</v>
       </c>
       <c r="E70" s="48">
         <f t="shared" si="0"/>
-        <v>6.1754528666172294E-2</v>
+        <v>7.0758650731765238E-2</v>
       </c>
       <c r="F70" s="48">
         <f t="shared" si="0"/>
-        <v>8.6444988992676622E-2</v>
+        <v>9.6150854372302696E-2</v>
       </c>
       <c r="G70" s="48">
         <f t="shared" si="0"/>
-        <v>0.11508978791314754</v>
+        <v>0.12058109328935021</v>
       </c>
       <c r="H70" s="48">
         <f t="shared" si="0"/>
-        <v>0.1423498985223533</v>
+        <v>0.14052991776991805</v>
       </c>
       <c r="I70" s="48">
         <f t="shared" si="0"/>
-        <v>0.16709202046859911</v>
+        <v>0.16135807728986457</v>
       </c>
       <c r="J70" s="48">
         <f t="shared" si="0"/>
-        <v>0.18869620902088391</v>
+        <v>0.18314372646523142</v>
       </c>
       <c r="K70" s="48">
         <f t="shared" si="0"/>
-        <v>0.20832460043328452</v>
+        <v>0.2032151164147846</v>
       </c>
       <c r="L70" s="48">
         <f t="shared" si="0"/>
-        <v>0.22888945668562335</v>
+        <v>0.22476422487454586</v>
       </c>
       <c r="M70" s="48">
         <f t="shared" si="0"/>
-        <v>0.24535227615452435</v>
+        <v>0.24098600537220211</v>
       </c>
       <c r="N70" s="48">
         <f t="shared" si="0"/>
-        <v>0.2593839363224501</v>
+        <v>0.25493439672527313</v>
       </c>
       <c r="O70" s="48">
         <f t="shared" si="0"/>
-        <v>0.27266878019393226</v>
+        <v>0.26774162599682239</v>
       </c>
       <c r="P70" s="48">
         <f t="shared" si="0"/>
-        <v>0.28400582223935278</v>
+        <v>0.27908396458027679</v>
       </c>
       <c r="Q70" s="48">
         <f t="shared" si="0"/>
-        <v>0.29456797298796633</v>
+        <v>0.29107782779895086</v>
       </c>
       <c r="R70" s="48">
         <f t="shared" si="0"/>
-        <v>0.30515006522046739</v>
+        <v>0.30137284720381674</v>
       </c>
       <c r="S70" s="48">
         <f t="shared" si="0"/>
-        <v>0.3151983205949816</v>
+        <v>0.31173895957540304</v>
       </c>
       <c r="T70" s="48">
         <f t="shared" si="0"/>
-        <v>0.32583197661187263</v>
+        <v>0.32239200063148094</v>
       </c>
       <c r="U70" s="48">
         <f t="shared" si="0"/>
-        <v>0.33487032906925285</v>
+        <v>0.33170916981988363</v>
       </c>
       <c r="V70" s="48">
         <f t="shared" si="0"/>
-        <v>0.34431158320656369</v>
+        <v>0.34130863415238544</v>
       </c>
       <c r="W70" s="48">
         <f t="shared" si="0"/>
-        <v>0.35407817932283486</v>
+        <v>0.35114335532126362</v>
       </c>
       <c r="X70" s="48">
         <f t="shared" si="0"/>
-        <v>0.36301598074097552</v>
+        <v>0.36016052705388557</v>
       </c>
       <c r="Y70" s="48">
         <f t="shared" si="0"/>
-        <v>0.37267466704282326</v>
+        <v>0.36997957636638767</v>
       </c>
       <c r="Z70" s="48">
         <f t="shared" si="0"/>
-        <v>0.3825754580323476</v>
+        <v>0.37978549173238674</v>
       </c>
       <c r="AA70" s="48">
         <f t="shared" si="0"/>
-        <v>0.3915250022640257</v>
+        <v>0.38865470220283727</v>
       </c>
       <c r="AB70" s="48">
         <f t="shared" si="0"/>
-        <v>0.40078009600747744</v>
+        <v>0.39776474399041617</v>
       </c>
       <c r="AC70" s="48">
         <f t="shared" si="0"/>
-        <v>0.41068385298473431</v>
+        <v>0.40656121081044905</v>
       </c>
       <c r="AD70" s="48">
         <f t="shared" si="0"/>
-        <v>0.41910462797370385</v>
+        <v>0.41488065880011504</v>
       </c>
       <c r="AE70" s="48">
         <f t="shared" si="0"/>
-        <v>0.42766360453590085</v>
+        <v>0.42329771221057977</v>
       </c>
       <c r="AF70" s="48">
         <f t="shared" si="0"/>
-        <v>0.43625192528551504</v>
+        <v>0.43174767576613876</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
@@ -57612,127 +57732,127 @@
       </c>
       <c r="B71" s="48">
         <f>B66/SUM(B$62:B$68)</f>
-        <v>4.1995277583808527E-3</v>
+        <v>4.3631403844649327E-3</v>
       </c>
       <c r="C71" s="48">
         <f t="shared" ref="C71:AF71" si="1">C66/SUM(C$62:C$68)</f>
-        <v>4.5137429567935075E-3</v>
+        <v>1.1871449687720248E-2</v>
       </c>
       <c r="D71" s="48">
         <f t="shared" si="1"/>
-        <v>5.0239440514220132E-3</v>
+        <v>1.9842421709307449E-2</v>
       </c>
       <c r="E71" s="48">
         <f t="shared" si="1"/>
-        <v>5.0562360266431785E-3</v>
+        <v>2.815284883538707E-2</v>
       </c>
       <c r="F71" s="48">
         <f t="shared" si="1"/>
-        <v>5.2911915607605168E-3</v>
+        <v>3.86069064069339E-2</v>
       </c>
       <c r="G71" s="48">
         <f t="shared" si="1"/>
-        <v>5.5551471435499825E-3</v>
+        <v>4.699492907437551E-2</v>
       </c>
       <c r="H71" s="48">
         <f t="shared" si="1"/>
-        <v>5.9453902538962114E-3</v>
+        <v>5.1787439629917768E-2</v>
       </c>
       <c r="I71" s="48">
         <f t="shared" si="1"/>
-        <v>6.3910885152455889E-3</v>
+        <v>5.4371127066517276E-2</v>
       </c>
       <c r="J71" s="48">
         <f t="shared" si="1"/>
-        <v>6.9939010448089008E-3</v>
+        <v>5.4693847396089096E-2</v>
       </c>
       <c r="K71" s="48">
         <f t="shared" si="1"/>
-        <v>7.9014657714060327E-3</v>
+        <v>5.473528366807251E-2</v>
       </c>
       <c r="L71" s="48">
         <f t="shared" si="1"/>
-        <v>8.9878737800208625E-3</v>
+        <v>5.3964259699758099E-2</v>
       </c>
       <c r="M71" s="48">
         <f t="shared" si="1"/>
-        <v>1.036412039058901E-2</v>
+        <v>5.3400763179844352E-2</v>
       </c>
       <c r="N71" s="48">
         <f t="shared" si="1"/>
-        <v>1.1893565823446113E-2</v>
+        <v>5.2421238977623442E-2</v>
       </c>
       <c r="O71" s="48">
         <f t="shared" si="1"/>
-        <v>1.3561240905372715E-2</v>
+        <v>5.1360353450791936E-2</v>
       </c>
       <c r="P71" s="48">
         <f t="shared" si="1"/>
-        <v>1.5357788410932908E-2</v>
+        <v>5.0355303535604641E-2</v>
       </c>
       <c r="Q71" s="48">
         <f t="shared" si="1"/>
-        <v>1.7207892014923055E-2</v>
+        <v>4.9423493932614339E-2</v>
       </c>
       <c r="R71" s="48">
         <f t="shared" si="1"/>
-        <v>1.8966963392944226E-2</v>
+        <v>4.857843616528329E-2</v>
       </c>
       <c r="S71" s="48">
         <f t="shared" si="1"/>
-        <v>2.0574027076982186E-2</v>
+        <v>4.7726226135846733E-2</v>
       </c>
       <c r="T71" s="48">
         <f t="shared" si="1"/>
-        <v>2.2026083117937537E-2</v>
+        <v>4.699596673874392E-2</v>
       </c>
       <c r="U71" s="48">
         <f t="shared" si="1"/>
-        <v>2.315486807403172E-2</v>
+        <v>4.6177005752552881E-2</v>
       </c>
       <c r="V71" s="48">
         <f t="shared" si="1"/>
-        <v>2.4064726048740114E-2</v>
+        <v>4.5453902365798778E-2</v>
       </c>
       <c r="W71" s="48">
         <f t="shared" si="1"/>
-        <v>2.4746025198479918E-2</v>
+        <v>4.477504113338223E-2</v>
       </c>
       <c r="X71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5171178463135119E-2</v>
+        <v>4.4052038471715432E-2</v>
       </c>
       <c r="Y71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5447459154078332E-2</v>
+        <v>4.3421723113208285E-2</v>
       </c>
       <c r="Z71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5581634001059575E-2</v>
+        <v>4.2790424474047538E-2</v>
       </c>
       <c r="AA71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5561607091746194E-2</v>
+        <v>4.2118015172965088E-2</v>
       </c>
       <c r="AB71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5443519506555393E-2</v>
+        <v>4.1441567600264517E-2</v>
       </c>
       <c r="AC71" s="48">
         <f t="shared" si="1"/>
-        <v>2.5224110299208253E-2</v>
+        <v>4.0751732451896089E-2</v>
       </c>
       <c r="AD71" s="48">
         <f t="shared" si="1"/>
-        <v>2.4941751355858553E-2</v>
+        <v>4.0035161980609572E-2</v>
       </c>
       <c r="AE71" s="48">
         <f t="shared" si="1"/>
-        <v>2.4620105782699183E-2</v>
+        <v>3.9322865057960822E-2</v>
       </c>
       <c r="AF71" s="48">
         <f t="shared" si="1"/>
-        <v>2.4254268542743439E-2</v>
+        <v>3.8591562848336439E-2</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
@@ -57741,127 +57861,127 @@
       </c>
       <c r="B72" s="59">
         <f>SUM(B70:B71)</f>
-        <v>2.0708249947198963E-2</v>
+        <v>2.1897351685414814E-2</v>
       </c>
       <c r="C72" s="59">
         <f t="shared" ref="C72:AF72" si="2">SUM(C70:C71)</f>
-        <v>3.0234662713733231E-2</v>
+        <v>4.0735490314924516E-2</v>
       </c>
       <c r="D72" s="59">
         <f t="shared" si="2"/>
-        <v>4.7235141447842459E-2</v>
+        <v>7.0084086163549303E-2</v>
       </c>
       <c r="E72" s="59">
         <f t="shared" si="2"/>
-        <v>6.6810764692815466E-2</v>
+        <v>9.8911499567152311E-2</v>
       </c>
       <c r="F72" s="59">
         <f t="shared" si="2"/>
-        <v>9.1736180553437144E-2</v>
+        <v>0.1347577607792366</v>
       </c>
       <c r="G72" s="59">
         <f t="shared" si="2"/>
-        <v>0.12064493505669753</v>
+        <v>0.16757602236372571</v>
       </c>
       <c r="H72" s="59">
         <f t="shared" si="2"/>
-        <v>0.14829528877624951</v>
+        <v>0.19231735739983583</v>
       </c>
       <c r="I72" s="59">
         <f t="shared" si="2"/>
-        <v>0.1734831089838447</v>
+        <v>0.21572920435638185</v>
       </c>
       <c r="J72" s="59">
         <f t="shared" si="2"/>
-        <v>0.19569011006569281</v>
+        <v>0.23783757386132051</v>
       </c>
       <c r="K72" s="59">
         <f t="shared" si="2"/>
-        <v>0.21622606620469054</v>
+        <v>0.25795040008285708</v>
       </c>
       <c r="L72" s="59">
         <f t="shared" si="2"/>
-        <v>0.23787733046564422</v>
+        <v>0.27872848457430399</v>
       </c>
       <c r="M72" s="59">
         <f t="shared" si="2"/>
-        <v>0.25571639654511336</v>
+        <v>0.29438676855204648</v>
       </c>
       <c r="N72" s="59">
         <f t="shared" si="2"/>
-        <v>0.27127750214589624</v>
+        <v>0.30735563570289659</v>
       </c>
       <c r="O72" s="59">
         <f t="shared" si="2"/>
-        <v>0.28623002109930495</v>
+        <v>0.31910197944761431</v>
       </c>
       <c r="P72" s="59">
         <f t="shared" si="2"/>
-        <v>0.29936361065028566</v>
+        <v>0.32943926811588142</v>
       </c>
       <c r="Q72" s="59">
         <f t="shared" si="2"/>
-        <v>0.3117758650028894</v>
+        <v>0.34050132173156522</v>
       </c>
       <c r="R72" s="59">
         <f t="shared" si="2"/>
-        <v>0.32411702861341163</v>
+        <v>0.34995128336910003</v>
       </c>
       <c r="S72" s="59">
         <f t="shared" si="2"/>
-        <v>0.33577234767196379</v>
+        <v>0.35946518571124975</v>
       </c>
       <c r="T72" s="59">
         <f t="shared" si="2"/>
-        <v>0.34785805972981015</v>
+        <v>0.36938796737022483</v>
       </c>
       <c r="U72" s="59">
         <f t="shared" si="2"/>
-        <v>0.35802519714328457</v>
+        <v>0.37788617557243653</v>
       </c>
       <c r="V72" s="59">
         <f t="shared" si="2"/>
-        <v>0.36837630925530379</v>
+        <v>0.38676253651818421</v>
       </c>
       <c r="W72" s="59">
         <f t="shared" si="2"/>
-        <v>0.37882420452131477</v>
+        <v>0.39591839645464583</v>
       </c>
       <c r="X72" s="59">
         <f t="shared" si="2"/>
-        <v>0.38818715920411062</v>
+        <v>0.40421256552560103</v>
       </c>
       <c r="Y72" s="59">
         <f t="shared" si="2"/>
-        <v>0.39812212619690157</v>
+        <v>0.41340129947959597</v>
       </c>
       <c r="Z72" s="59">
         <f t="shared" si="2"/>
-        <v>0.40815709203340717</v>
+        <v>0.42257591620643425</v>
       </c>
       <c r="AA72" s="59">
         <f t="shared" si="2"/>
-        <v>0.41708660935577191</v>
+        <v>0.43077271737580236</v>
       </c>
       <c r="AB72" s="59">
         <f t="shared" si="2"/>
-        <v>0.42622361551403282</v>
+        <v>0.43920631159068069</v>
       </c>
       <c r="AC72" s="59">
         <f t="shared" si="2"/>
-        <v>0.43590796328394255</v>
+        <v>0.44731294326234516</v>
       </c>
       <c r="AD72" s="59">
         <f t="shared" si="2"/>
-        <v>0.44404637932956242</v>
+        <v>0.45491582078072462</v>
       </c>
       <c r="AE72" s="59">
         <f t="shared" si="2"/>
-        <v>0.45228371031860004</v>
+        <v>0.46262057726854061</v>
       </c>
       <c r="AF72" s="59">
         <f t="shared" si="2"/>
-        <v>0.46050619382825847</v>
+        <v>0.47033923861447519</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
@@ -57933,107 +58053,191 @@
       <c r="AE74" s="59"/>
       <c r="AF74" s="59"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76" s="47" t="s">
+    <row r="76" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="F76" s="60" t="s">
+        <v>971</v>
+      </c>
+      <c r="G76" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="F77" s="60" t="s">
+        <v>972</v>
+      </c>
+      <c r="G77" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="F78" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="G78" s="48">
+        <f>G77/G76</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F80" s="60" t="s">
+        <v>974</v>
+      </c>
+      <c r="G80" s="48">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="F81" s="60" t="s">
+        <v>975</v>
+      </c>
+      <c r="G81" s="48">
+        <f>G80*G78</f>
+        <v>0.21937500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>976</v>
+      </c>
+      <c r="G82" s="48">
+        <f>G80-G81</f>
+        <v>5.0625000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="15" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="15" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="15" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="47" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43" t="s">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43" t="s">
         <v>933</v>
       </c>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-    </row>
-    <row r="79" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-    </row>
-    <row r="80" spans="1:32" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-    </row>
-    <row r="81" spans="5:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-    </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="K88" s="15" t="s">
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+    </row>
+    <row r="94" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+    </row>
+    <row r="95" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+    </row>
+    <row r="96" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K103" s="15" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="15" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="15" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="15" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B116" s="15">
         <f>SUM('AEO 49'!E210,'AEO 49'!E221,'AEO 44'!G36)</f>
         <v>1.326343</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="15" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B117" s="15">
         <f>SUM('AEO 49'!E214,'AEO 49'!E225,'AEO 44'!K36)</f>
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="15" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="B103" s="48">
-        <f>B101/B102</f>
+      <c r="B118" s="48">
+        <f>B116/B117</f>
         <v>1.228378259059108E-3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A76" r:id="rId1" xr:uid="{21E58E80-C89D-48AA-B679-F2359EAD50AA}"/>
+    <hyperlink ref="A91" r:id="rId1" xr:uid="{21E58E80-C89D-48AA-B679-F2359EAD50AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -58051,8 +58255,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:AL10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58340,7 +58544,7 @@
       <c r="D10" s="29">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -58900,137 +59104,137 @@
       <c r="D14" s="29">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E14" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11*3</f>
-        <v>0.19664026629095921</v>
+      <c r="E14" s="61">
+        <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11*5</f>
+        <v>0.32773377715159868</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>IF(D14=E14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="H14" s="29">
-        <f t="shared" si="1"/>
-        <v>1.7500000000000002E-2</v>
+      <c r="H14" s="22">
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:H$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,H$9))/2</f>
+        <v>1.7641947805604345E-2</v>
       </c>
       <c r="I14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,I$9))</f>
-        <v>2.0146623971724009E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,I$9))</f>
+        <v>5.1345518914747604E-2</v>
       </c>
       <c r="J14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,J$9))</f>
-        <v>2.1054197652496692E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,J$9))</f>
+        <v>7.8869239433912761E-2</v>
       </c>
       <c r="K14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,K$9))</f>
-        <v>2.2264592511898683E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,K$9))</f>
+        <v>0.12043936074535663</v>
       </c>
       <c r="L14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,L$9))</f>
-        <v>2.3872232318586158E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,L$9))</f>
+        <v>0.17261688857579932</v>
       </c>
       <c r="M14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,M$9))</f>
-        <v>2.5995883550110573E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,M$9))</f>
+        <v>0.22479441640624204</v>
       </c>
       <c r="N14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,N$9))</f>
-        <v>2.8781063773285744E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,N$9))</f>
+        <v>0.26636453771768587</v>
       </c>
       <c r="O14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,O$9))</f>
-        <v>3.2399578998058384E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,O$9))</f>
+        <v>0.29388825823685111</v>
       </c>
       <c r="P14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,P$9))</f>
-        <v>3.7043633600479256E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,P$9))</f>
+        <v>0.30994988154038999</v>
       </c>
       <c r="Q14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Q$9))</f>
-        <v>4.2911237539929523E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,Q$9))</f>
+        <v>0.31864013308886613</v>
       </c>
       <c r="R14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,R$9))</f>
-        <v>5.0179756912938397E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,R$9))</f>
+        <v>0.32315037349563713</v>
       </c>
       <c r="S14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,S$9))</f>
-        <v>5.8966531923743418E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,S$9))</f>
+        <v>0.32544067136138988</v>
       </c>
       <c r="T14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,T$9))</f>
-        <v>6.9280583071290994E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,T$9))</f>
+        <v>0.32659080149166408</v>
       </c>
       <c r="U14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,U$9))</f>
-        <v>8.0977223661233097E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,U$9))</f>
+        <v>0.3271651375801809</v>
       </c>
       <c r="V14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,V$9))</f>
-        <v>9.3734480860469802E-2</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,V$9))</f>
+        <v>0.32745113829838129</v>
       </c>
       <c r="W14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,W$9))</f>
-        <v>0.1070701331454796</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,W$9))</f>
+        <v>0.32759335844966003</v>
       </c>
       <c r="X14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,X$9))</f>
-        <v>0.1204057854304894</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,X$9))</f>
+        <v>0.32766403139580214</v>
       </c>
       <c r="Y14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Y$9))</f>
-        <v>0.13316304262972609</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,Y$9))</f>
+        <v>0.32769913851400356</v>
       </c>
       <c r="Z14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Z$9))</f>
-        <v>0.14485968321966819</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,Z$9))</f>
+        <v>0.32771657514633645</v>
       </c>
       <c r="AA14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AA$9))</f>
-        <v>0.15517373436721577</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AA$9))</f>
+        <v>0.3277252346501377</v>
       </c>
       <c r="AB14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AB$9))</f>
-        <v>0.16396050937802081</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AB$9))</f>
+        <v>0.32772953501211155</v>
       </c>
       <c r="AC14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AC$9))</f>
-        <v>0.17122902875102969</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AC$9))</f>
+        <v>0.32773167055297159</v>
       </c>
       <c r="AD14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AD$9))</f>
-        <v>0.17709663269047993</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AD$9))</f>
+        <v>0.32773273104210349</v>
       </c>
       <c r="AE14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AE$9))</f>
-        <v>0.18174068729290083</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AE$9))</f>
+        <v>0.3277332576681154</v>
       </c>
       <c r="AF14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AF$9))</f>
-        <v>0.18535920251767346</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AF$9))</f>
+        <v>0.32773351918351784</v>
       </c>
       <c r="AG14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AG$9))</f>
-        <v>0.18814438274084866</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AG$9))</f>
+        <v>0.32773364904838725</v>
       </c>
       <c r="AH14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AH$9))</f>
-        <v>0.19026803397237302</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AH$9))</f>
+        <v>0.32773371353741332</v>
       </c>
       <c r="AI14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AI$9))</f>
-        <v>0.19187567377906051</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AI$9))</f>
+        <v>0.32773374556172585</v>
       </c>
       <c r="AJ14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AJ$9))</f>
-        <v>0.1930860686384625</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AJ$9))</f>
+        <v>0.32773376146453126</v>
       </c>
       <c r="AK14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AK$9))</f>
-        <v>0.19399364231923522</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AK$9))</f>
+        <v>0.32773376936163134</v>
       </c>
       <c r="AL14" s="15">
-        <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AL$9))</f>
-        <v>0.19467206246239127</v>
+        <f>IF($F14="s-curve",$D14+($E14-$D14)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D14:$E14,$D$9:$E$9,AL$9))</f>
+        <v>0.32773377328321535</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
@@ -59891,7 +60095,7 @@
       </c>
       <c r="E21" s="29">
         <f>E14</f>
-        <v>0.19664026629095921</v>
+        <v>0.32773377715159868</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>IF(D21=E21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -59903,123 +60107,123 @@
       </c>
       <c r="I21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,I$9))</f>
-        <v>2.9051695263562845E-3</v>
+        <v>4.8419492105938079E-3</v>
       </c>
       <c r="J21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,J$9))</f>
-        <v>3.9014030028430464E-3</v>
+        <v>6.5023383380717441E-3</v>
       </c>
       <c r="K21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,K$9))</f>
-        <v>5.230039899493835E-3</v>
+        <v>8.7167331658230592E-3</v>
       </c>
       <c r="L21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,L$9))</f>
-        <v>6.9947281308572898E-3</v>
+        <v>1.1657880218095483E-2</v>
       </c>
       <c r="M21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,M$9))</f>
-        <v>9.3258363307179917E-3</v>
+        <v>1.5543060551196652E-2</v>
       </c>
       <c r="N21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,N$9))</f>
-        <v>1.2383097504283182E-2</v>
+        <v>2.063849584047197E-2</v>
       </c>
       <c r="O21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,O$9))</f>
-        <v>1.6355101186702026E-2</v>
+        <v>2.7258501977836708E-2</v>
       </c>
       <c r="P21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,P$9))</f>
-        <v>2.1452827971402487E-2</v>
+        <v>3.5754713285670814E-2</v>
       </c>
       <c r="Q21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Q$9))</f>
-        <v>2.789363117568806E-2</v>
+        <v>4.6489385292813434E-2</v>
       </c>
       <c r="R21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,R$9))</f>
-        <v>3.5872203579549629E-2</v>
+        <v>5.9787005965916053E-2</v>
       </c>
       <c r="S21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,S$9))</f>
-        <v>4.5517348212510605E-2</v>
+        <v>7.5862247020851009E-2</v>
       </c>
       <c r="T21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,T$9))</f>
-        <v>5.6838966775353432E-2</v>
+        <v>9.4731611292255713E-2</v>
       </c>
       <c r="U21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,U$9))</f>
-        <v>6.9678238302281689E-2</v>
+        <v>0.11613039717046947</v>
       </c>
       <c r="V21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,V$9))</f>
-        <v>8.368173681626577E-2</v>
+        <v>0.13946956136044295</v>
       </c>
       <c r="W21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,W$9))</f>
-        <v>9.8320133145479605E-2</v>
+        <v>0.16386688857579934</v>
       </c>
       <c r="X21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,X$9))</f>
-        <v>0.11295852947469344</v>
+        <v>0.18826421579115574</v>
       </c>
       <c r="Y21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Y$9))</f>
-        <v>0.12696202798867751</v>
+        <v>0.21160337998112919</v>
       </c>
       <c r="Z21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Z$9))</f>
-        <v>0.13980129951560577</v>
+        <v>0.23300216585934294</v>
       </c>
       <c r="AA21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AA$9))</f>
-        <v>0.1511229180784486</v>
+        <v>0.25187153013074765</v>
       </c>
       <c r="AB21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AB$9))</f>
-        <v>0.16076806271140956</v>
+        <v>0.26794677118568261</v>
       </c>
       <c r="AC21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AC$9))</f>
-        <v>0.16874663511527116</v>
+        <v>0.2812443918587853</v>
       </c>
       <c r="AD21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AD$9))</f>
-        <v>0.17518743831955672</v>
+        <v>0.29197906386592787</v>
       </c>
       <c r="AE21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AE$9))</f>
-        <v>0.18028516510425718</v>
+        <v>0.30047527517376199</v>
       </c>
       <c r="AF21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AF$9))</f>
-        <v>0.18425716878667603</v>
+        <v>0.30709528131112673</v>
       </c>
       <c r="AG21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AG$9))</f>
-        <v>0.18731442996024122</v>
+        <v>0.31219071660040204</v>
       </c>
       <c r="AH21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AH$9))</f>
-        <v>0.18964553816010193</v>
+        <v>0.31607589693350319</v>
       </c>
       <c r="AI21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AI$9))</f>
-        <v>0.19141022639146535</v>
+        <v>0.31901704398577563</v>
       </c>
       <c r="AJ21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AJ$9))</f>
-        <v>0.19273886328811618</v>
+        <v>0.32123143881352695</v>
       </c>
       <c r="AK21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AK$9))</f>
-        <v>0.19373509676460293</v>
+        <v>0.32289182794100485</v>
       </c>
       <c r="AL21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AL$9))</f>
-        <v>0.19447979096635587</v>
+        <v>0.32413298494392645</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB5258-CC7F-41A7-8BF9-8F4BC542483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB84011-9CC8-416F-8102-D3BC70E67FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4228,94 +4228,94 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.3503547443254548E-2</c:v>
+                  <c:v>4.3551174405403764E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7504069685841245E-2</c:v>
+                  <c:v>6.7104788529173051E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13906798627225211</c:v>
+                  <c:v>0.13649469183970195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20891514021264002</c:v>
+                  <c:v>0.20978307669538482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31558860355651586</c:v>
+                  <c:v>0.32700739114471289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41074301477003383</c:v>
+                  <c:v>0.43096196814707272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47302268976554251</c:v>
+                  <c:v>0.50040999855895896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50789982155432922</c:v>
+                  <c:v>0.54200478255815931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54122554496754505</c:v>
+                  <c:v>0.57069304951511668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57338829601571317</c:v>
+                  <c:v>0.60494930215137077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5965691285737944</c:v>
+                  <c:v>0.63154765969033899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61350222773488305</c:v>
+                  <c:v>0.65039347382966883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61730601954822106</c:v>
+                  <c:v>0.63478548262223933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63435408178091057</c:v>
+                  <c:v>0.65397261111995664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65125632092396124</c:v>
+                  <c:v>0.67277896695420869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.65212257178641431</c:v>
+                  <c:v>0.67538779387587833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6529386362642009</c:v>
+                  <c:v>0.67785817788261993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65371071564551675</c:v>
+                  <c:v>0.6802128628782359</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65451177236934255</c:v>
+                  <c:v>0.68263793570440001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6552247932574754</c:v>
+                  <c:v>0.6848273883448216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65593489777016167</c:v>
+                  <c:v>0.68700316277339912</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6566536906950472</c:v>
+                  <c:v>0.68919240622402689</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65732905787400153</c:v>
+                  <c:v>0.69126088456688972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.65798997784064006</c:v>
+                  <c:v>0.6932879486663901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65859017076218251</c:v>
+                  <c:v>0.69515283995454014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65937920551459517</c:v>
+                  <c:v>0.69750712630207967</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65996836578968399</c:v>
+                  <c:v>0.69933113079873943</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66062884249086995</c:v>
+                  <c:v>0.70133711196934967</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.66134641657448889</c:v>
+                  <c:v>0.70348486262471299</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.66200374777246207</c:v>
+                  <c:v>0.70547564304471133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,94 +4352,94 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.5260456337111402E-2</c:v>
+                  <c:v>1.5298474046565855E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.887156038032568E-2</c:v>
+                  <c:v>3.8311292246004401E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12671535286088628</c:v>
+                  <c:v>0.12310940408091893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20891511729695972</c:v>
+                  <c:v>0.20978310188618698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31558845419994608</c:v>
+                  <c:v>0.32700734833970918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41074304259620986</c:v>
+                  <c:v>0.43096188180349648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47302261786440264</c:v>
+                  <c:v>0.50040984503907027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50714780085637323</c:v>
+                  <c:v>0.54200494199628901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52359065569529517</c:v>
+                  <c:v>0.56371320509675471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53483525345796623</c:v>
+                  <c:v>0.57780606159761128</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53746413811875382</c:v>
+                  <c:v>0.58509057023099886</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53882243184448297</c:v>
+                  <c:v>0.58905083802661262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52230312711649307</c:v>
+                  <c:v>0.54609406508120206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52381859338531389</c:v>
+                  <c:v>0.55052060968987371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52513843825141582</c:v>
+                  <c:v>0.55443151936231916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5263252246653255</c:v>
+                  <c:v>0.55798809153821372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52744001306651023</c:v>
+                  <c:v>0.56135401411498875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.52849953431814956</c:v>
+                  <c:v>0.5645684369154883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5295946034365957</c:v>
+                  <c:v>0.56787281101047427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5305705559183661</c:v>
+                  <c:v>0.57085855434973609</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53154242772839588</c:v>
+                  <c:v>0.57382409346374863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.53252491746351027</c:v>
+                  <c:v>0.57680697681097237</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.53344657553637587</c:v>
+                  <c:v>0.57962729560241311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.53434768983224523</c:v>
+                  <c:v>0.58238875313302585</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53516716344638571</c:v>
+                  <c:v>0.58492989953442687</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53624468479770826</c:v>
+                  <c:v>0.58813658412151826</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53704884307489398</c:v>
+                  <c:v>0.59062240095045115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.53794719572425487</c:v>
+                  <c:v>0.59335396463691903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53892481465056397</c:v>
+                  <c:v>0.59627932184420496</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53982153533080401</c:v>
+                  <c:v>0.59899171873557377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4849,31 +4849,31 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.35E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.12972618523294333</c:v>
+                  <c:v>0.13877269058395222</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.23604729767251131</c:v>
+                  <c:v>0.24398859395450184</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.41256505694084844</c:v>
+                  <c:v>0.41867144928034067</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.62543494305915159</c:v>
+                  <c:v>0.62932855071965943</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.80195270232748872</c:v>
+                  <c:v>0.80401140604549814</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.90827381476705671</c:v>
+                  <c:v>0.90922730941604779</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.96047019037115278</c:v>
+                  <c:v>0.96088110315315733</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>1</c:v>
@@ -5185,94 +5185,94 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.23351488053870972</c:v>
+                  <c:v>0.60036442047776029</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.23893931272062097</c:v>
+                  <c:v>0.6006004729026948</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.24771697883230115</c:v>
+                  <c:v>0.60098904926265384</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.26175505171261426</c:v>
+                  <c:v>0.60162805508635842</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.28379008951646378</c:v>
+                  <c:v>0.60267714036971387</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.31738226456714114</c:v>
+                  <c:v>0.60439477705223721</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.36637978094992618</c:v>
+                  <c:v>0.60719448398483655</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.43342960156174626</c:v>
+                  <c:v>0.6117248923005425</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.51759401831856278</c:v>
+                  <c:v>0.61897034927102668</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.61250000000000004</c:v>
+                  <c:v>0.63034327200849738</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.70740598168143731</c:v>
+                  <c:v>0.64768116880884696</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.79157039843825372</c:v>
+                  <c:v>0.6729702095225425</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.8586202190500738</c:v>
+                  <c:v>0.707576568547998</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.90761773543285884</c:v>
+                  <c:v>0.75101626751925821</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.94120991048353631</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.96324494828738583</c:v>
+                  <c:v>0.84898373248074188</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.97728302116769883</c:v>
+                  <c:v>0.89242343145200187</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.98606068727937901</c:v>
+                  <c:v>0.92702979047745737</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.99148511946129037</c:v>
+                  <c:v>0.95231883119115301</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.99481304053367936</c:v>
+                  <c:v>0.9696567279915026</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.99684564327018055</c:v>
+                  <c:v>0.9810296507289733</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.9980837170536081</c:v>
+                  <c:v>0.98827510769945737</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.99883658375102879</c:v>
+                  <c:v>0.99280551601516343</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.99929393532433952</c:v>
+                  <c:v>0.99560522294776277</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.99957159655638428</c:v>
+                  <c:v>0.99732285963028611</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.99974010364888855</c:v>
+                  <c:v>0.99837194491364156</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99984234409200723</c:v>
+                  <c:v>0.99901095073734614</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99990436920361059</c:v>
+                  <c:v>0.99939952709730528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5526,94 +5526,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.02</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7626485762849729E-2</c:v>
+                  <c:v>0.50075059112836851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0767203777981318E-2</c:v>
+                  <c:v>0.5004555255972003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7626485762849729E-2</c:v>
+                  <c:v>0.50075059112836851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8725986136329197E-2</c:v>
+                  <c:v>0.50123631157831738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6477355714015446E-2</c:v>
+                  <c:v>0.50203506885794802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4341016420818685E-2</c:v>
+                  <c:v>0.50334642546214248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13681886358167519</c:v>
+                  <c:v>0.50549347131529654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19877701333022921</c:v>
+                  <c:v>0.50899310498104577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28356259294259523</c:v>
+                  <c:v>0.51465611537567812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38998985542218251</c:v>
+                  <c:v>0.52371293658878337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51</c:v>
+                  <c:v>0.53792909001062172</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63001014457781745</c:v>
+                  <c:v>0.55960146101105879</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73643740705740479</c:v>
+                  <c:v>0.59121276190317817</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82122298666977078</c:v>
+                  <c:v>0.63447071068499761</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88318113641832474</c:v>
+                  <c:v>0.68877033439907276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92565898357918142</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95352264428598466</c:v>
+                  <c:v>0.81122966560092724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97127401386367074</c:v>
+                  <c:v>0.86552928931500239</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98237351423715025</c:v>
+                  <c:v>0.90878723809682183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98923279622201876</c:v>
+                  <c:v>0.9403985389889411</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99344100609420094</c:v>
+                  <c:v>0.96207090998937828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99601126503842186</c:v>
+                  <c:v>0.97628706341121663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99757682930649805</c:v>
+                  <c:v>0.98534388462432188</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9985288413883977</c:v>
+                  <c:v>0.99100689501895423</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99910716982948744</c:v>
+                  <c:v>0.99450652868470346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9994582769358149</c:v>
+                  <c:v>0.99665357453785763</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99967135687214292</c:v>
+                  <c:v>0.99796493114205198</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99980064156150594</c:v>
+                  <c:v>0.99876368842168262</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99987907331553338</c:v>
+                  <c:v>0.99924940887163149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8023,16 +8023,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>111498</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8100,16 +8100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1176337</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>547687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8462,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -9154,39 +9154,39 @@
       </c>
       <c r="B2">
         <f>Data!I10</f>
-        <v>1.35E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C2">
         <f>Data!J10</f>
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>0.12972618523294333</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.23604729767251131</v>
+        <v>0.24398859395450184</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.41256505694084844</v>
+        <v>0.41867144928034067</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.62543494305915159</v>
+        <v>0.62932855071965943</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.80195270232748872</v>
+        <v>0.80401140604549814</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.90827381476705671</v>
+        <v>0.90922730941604779</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.96047019037115278</v>
+        <v>0.96088110315315733</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
@@ -11114,16 +11114,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11247,141 +11249,133 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I24</f>
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <f>Data!J24</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.23351488053870972</v>
+        <v>0.60036442047776029</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>0.23893931272062097</v>
+        <v>0.6006004729026948</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>0.24771697883230115</v>
+        <v>0.60098904926265384</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>0.26175505171261426</v>
+        <v>0.60162805508635842</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.28379008951646378</v>
+        <v>0.60267714036971387</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.31738226456714114</v>
+        <v>0.60439477705223721</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.36637978094992618</v>
+        <v>0.60719448398483655</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.43342960156174626</v>
+        <v>0.6117248923005425</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.51759401831856278</v>
+        <v>0.61897034927102668</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.61250000000000004</v>
+        <v>0.63034327200849738</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.70740598168143731</v>
+        <v>0.64768116880884696</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.79157039843825372</v>
+        <v>0.6729702095225425</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.8586202190500738</v>
+        <v>0.707576568547998</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.90761773543285884</v>
+        <v>0.75101626751925821</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.94120991048353631</v>
+        <v>0.8</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.96324494828738583</v>
+        <v>0.84898373248074188</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.97728302116769883</v>
+        <v>0.89242343145200187</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.98606068727937901</v>
+        <v>0.92702979047745737</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.99148511946129037</v>
+        <v>0.95231883119115301</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.99481304053367936</v>
+        <v>0.9696567279915026</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.99684564327018055</v>
+        <v>0.9810296507289733</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.9980837170536081</v>
+        <v>0.98827510769945737</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.99883658375102879</v>
+        <v>0.99280551601516343</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.99929393532433952</v>
+        <v>0.99560522294776277</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.99957159655638428</v>
+        <v>0.99732285963028611</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.99974010364888855</v>
+        <v>0.99837194491364156</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.99984234409200723</v>
+        <v>0.99901095073734614</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>0.99990436920361059</v>
-      </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.99939952709730528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11505,12 +11499,8 @@
         <f>Data!AL25</f>
         <v>0.16062971940956564</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11634,12 +11624,8 @@
         <f>Data!AL26</f>
         <v>0.30255990331064825</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11763,12 +11749,8 @@
         <f>Data!AL27</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11892,12 +11874,8 @@
         <f>Data!AL28</f>
         <v>5.9113558098403615E-3</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12021,12 +11999,8 @@
         <f>Data!AL29</f>
         <v>0.54238648186291982</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12036,123 +12010,119 @@
       </c>
       <c r="C8">
         <f>Data!J30</f>
-        <v>2.7507988696029353E-3</v>
+        <v>8.2342485951046606E-4</v>
       </c>
       <c r="D8">
         <f>Data!K30</f>
-        <v>3.6646071844537468E-3</v>
+        <v>1.0763028936513275E-3</v>
       </c>
       <c r="E8">
         <f>Data!L30</f>
-        <v>4.8833169269316716E-3</v>
+        <v>1.4135562528708127E-3</v>
       </c>
       <c r="F8">
         <f>Data!M30</f>
-        <v>6.5020005156684385E-3</v>
+        <v>1.861494312925186E-3</v>
       </c>
       <c r="G8">
         <f>Data!N30</f>
-        <v>8.6402403019500262E-3</v>
+        <v>2.4532090794568743E-3</v>
       </c>
       <c r="H8">
         <f>Data!O30</f>
-        <v>1.144455349460306E-2</v>
+        <v>3.229246237084574E-3</v>
       </c>
       <c r="I8">
         <f>Data!P30</f>
-        <v>1.5087926335688883E-2</v>
+        <v>4.2374762419148592E-3</v>
       </c>
       <c r="J8">
         <f>Data!Q30</f>
-        <v>1.9763883561222724E-2</v>
+        <v>5.5314531643209574E-3</v>
       </c>
       <c r="K8">
         <f>Data!R30</f>
-        <v>2.5671795372367447E-2</v>
+        <v>7.1663486893455471E-3</v>
       </c>
       <c r="L8">
         <f>Data!S30</f>
-        <v>3.2990246293128904E-2</v>
+        <v>9.1915824847949544E-3</v>
       </c>
       <c r="M8">
         <f>Data!T30</f>
-        <v>4.1837382603605554E-2</v>
+        <v>1.1639849152553195E-2</v>
       </c>
       <c r="N8">
         <f>Data!U30</f>
-        <v>5.2222286769624655E-2</v>
+        <v>1.4513662081988942E-2</v>
       </c>
       <c r="O8">
         <f>Data!V30</f>
-        <v>6.3999278162555642E-2</v>
+        <v>1.7772707095192228E-2</v>
       </c>
       <c r="P8">
         <f>Data!W30</f>
-        <v>7.6844172136814382E-2</v>
+        <v>2.1327272625150932E-2</v>
       </c>
       <c r="Q8">
         <f>Data!X30</f>
-        <v>9.0271434518008772E-2</v>
+        <v>2.5042996874611631E-2</v>
       </c>
       <c r="R8">
         <f>Data!Y30</f>
-        <v>0.10369869689920316</v>
+        <v>2.8758721124072337E-2</v>
       </c>
       <c r="S8">
         <f>Data!Z30</f>
-        <v>0.11654359087346189</v>
+        <v>3.2313286654031034E-2</v>
       </c>
       <c r="T8">
         <f>Data!AA30</f>
-        <v>0.1283205822663929</v>
+        <v>3.5572331667234322E-2</v>
       </c>
       <c r="U8">
         <f>Data!AB30</f>
-        <v>0.13870548643241198</v>
+        <v>3.8446144596670069E-2</v>
       </c>
       <c r="V8">
         <f>Data!AC30</f>
-        <v>0.14755262274288866</v>
+        <v>4.0894411264428311E-2</v>
       </c>
       <c r="W8">
         <f>Data!AD30</f>
-        <v>0.15487107366365013</v>
+        <v>4.291964505987772E-2</v>
       </c>
       <c r="X8">
         <f>Data!AE30</f>
-        <v>0.16077898547479483</v>
+        <v>4.4554540584902311E-2</v>
       </c>
       <c r="Y8">
         <f>Data!AF30</f>
-        <v>0.16545494270032868</v>
+        <v>4.5848517507308409E-2</v>
       </c>
       <c r="Z8">
         <f>Data!AG30</f>
-        <v>0.16909831554141452</v>
+        <v>4.685674751213869E-2</v>
       </c>
       <c r="AA8">
         <f>Data!AH30</f>
-        <v>0.17190262873406756</v>
+        <v>4.7632784669766393E-2</v>
       </c>
       <c r="AB8">
         <f>Data!AI30</f>
-        <v>0.17404086852034914</v>
+        <v>4.8224499436298078E-2</v>
       </c>
       <c r="AC8">
         <f>Data!AJ30</f>
-        <v>0.17565955210908588</v>
+        <v>4.8672437496352451E-2</v>
       </c>
       <c r="AD8">
         <f>Data!AK30</f>
-        <v>0.17687826185156383</v>
+        <v>4.9009690855571941E-2</v>
       </c>
       <c r="AE8">
         <f>Data!AL30</f>
-        <v>0.17779207016641463</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
+        <v>4.9262568889712796E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12165,16 +12135,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12298,141 +12270,133 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I31</f>
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <f>Data!J31</f>
-        <v>3.7626485762849729E-2</v>
+        <v>0.50075059112836851</v>
       </c>
       <c r="D2">
         <f>Data!K31</f>
-        <v>3.0767203777981318E-2</v>
+        <v>0.5004555255972003</v>
       </c>
       <c r="E2">
         <f>Data!L31</f>
-        <v>3.7626485762849729E-2</v>
+        <v>0.50075059112836851</v>
       </c>
       <c r="F2">
         <f>Data!M31</f>
-        <v>4.8725986136329197E-2</v>
+        <v>0.50123631157831738</v>
       </c>
       <c r="G2">
         <f>Data!N31</f>
-        <v>6.6477355714015446E-2</v>
+        <v>0.50203506885794802</v>
       </c>
       <c r="H2">
         <f>Data!O31</f>
-        <v>9.4341016420818685E-2</v>
+        <v>0.50334642546214248</v>
       </c>
       <c r="I2">
         <f>Data!P31</f>
-        <v>0.13681886358167519</v>
+        <v>0.50549347131529654</v>
       </c>
       <c r="J2">
         <f>Data!Q31</f>
-        <v>0.19877701333022921</v>
+        <v>0.50899310498104577</v>
       </c>
       <c r="K2">
         <f>Data!R31</f>
-        <v>0.28356259294259523</v>
+        <v>0.51465611537567812</v>
       </c>
       <c r="L2">
         <f>Data!S31</f>
-        <v>0.38998985542218251</v>
+        <v>0.52371293658878337</v>
       </c>
       <c r="M2">
         <f>Data!T31</f>
-        <v>0.51</v>
+        <v>0.53792909001062172</v>
       </c>
       <c r="N2">
         <f>Data!U31</f>
-        <v>0.63001014457781745</v>
+        <v>0.55960146101105879</v>
       </c>
       <c r="O2">
         <f>Data!V31</f>
-        <v>0.73643740705740479</v>
+        <v>0.59121276190317817</v>
       </c>
       <c r="P2">
         <f>Data!W31</f>
-        <v>0.82122298666977078</v>
+        <v>0.63447071068499761</v>
       </c>
       <c r="Q2">
         <f>Data!X31</f>
-        <v>0.88318113641832474</v>
+        <v>0.68877033439907276</v>
       </c>
       <c r="R2">
         <f>Data!Y31</f>
-        <v>0.92565898357918142</v>
+        <v>0.75</v>
       </c>
       <c r="S2">
         <f>Data!Z31</f>
-        <v>0.95352264428598466</v>
+        <v>0.81122966560092724</v>
       </c>
       <c r="T2">
         <f>Data!AA31</f>
-        <v>0.97127401386367074</v>
+        <v>0.86552928931500239</v>
       </c>
       <c r="U2">
         <f>Data!AB31</f>
-        <v>0.98237351423715025</v>
+        <v>0.90878723809682183</v>
       </c>
       <c r="V2">
         <f>Data!AC31</f>
-        <v>0.98923279622201876</v>
+        <v>0.9403985389889411</v>
       </c>
       <c r="W2">
         <f>Data!AD31</f>
-        <v>0.99344100609420094</v>
+        <v>0.96207090998937828</v>
       </c>
       <c r="X2">
         <f>Data!AE31</f>
-        <v>0.99601126503842186</v>
+        <v>0.97628706341121663</v>
       </c>
       <c r="Y2">
         <f>Data!AF31</f>
-        <v>0.99757682930649805</v>
+        <v>0.98534388462432188</v>
       </c>
       <c r="Z2">
         <f>Data!AG31</f>
-        <v>0.9985288413883977</v>
+        <v>0.99100689501895423</v>
       </c>
       <c r="AA2">
         <f>Data!AH31</f>
-        <v>0.99910716982948744</v>
+        <v>0.99450652868470346</v>
       </c>
       <c r="AB2">
         <f>Data!AI31</f>
-        <v>0.9994582769358149</v>
+        <v>0.99665357453785763</v>
       </c>
       <c r="AC2">
         <f>Data!AJ31</f>
-        <v>0.99967135687214292</v>
+        <v>0.99796493114205198</v>
       </c>
       <c r="AD2">
         <f>Data!AK31</f>
-        <v>0.99980064156150594</v>
+        <v>0.99876368842168262</v>
       </c>
       <c r="AE2">
         <f>Data!AL31</f>
-        <v>0.99987907331553338</v>
-      </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.99924940887163149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12556,12 +12520,8 @@
         <f>Data!AL32</f>
         <v>5.2146832307325378E-2</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12685,12 +12645,8 @@
         <f>Data!AL33</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12814,12 +12770,8 @@
         <f>Data!AL34</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12943,12 +12895,8 @@
         <f>Data!AL35</f>
         <v>2E-3</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13072,138 +13020,130 @@
         <f>Data!AL36</f>
         <v>6.1785980743152003E-3</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
       <c r="B8">
         <f>Data!I37</f>
-        <v>5.9115618406095638E-5</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
         <f>Data!J37</f>
-        <v>1.4935407916627746E-4</v>
+        <v>0.20147740316932733</v>
       </c>
       <c r="D8">
         <f>Data!K37</f>
-        <v>1.8029842670274726E-4</v>
+        <v>0.20198403057340777</v>
       </c>
       <c r="E8">
         <f>Data!L37</f>
-        <v>2.2156767015833498E-4</v>
+        <v>0.2026596993576866</v>
       </c>
       <c r="F8">
         <f>Data!M37</f>
-        <v>2.7638125273076781E-4</v>
+        <v>0.20355711892726364</v>
       </c>
       <c r="G8">
         <f>Data!N37</f>
-        <v>3.4878859898456794E-4</v>
+        <v>0.20474258731775669</v>
       </c>
       <c r="H8">
         <f>Data!O37</f>
-        <v>4.4375123023259936E-4</v>
+        <v>0.20629733560569966</v>
       </c>
       <c r="I8">
         <f>Data!P37</f>
-        <v>5.6712699029875862E-4</v>
+        <v>0.20831726964939223</v>
       </c>
       <c r="J8">
         <f>Data!Q37</f>
-        <v>7.2546921929916906E-4</v>
+        <v>0.21090968211956129</v>
       </c>
       <c r="K8">
         <f>Data!R37</f>
-        <v>9.2552920269812025E-4</v>
+        <v>0.21418510649004879</v>
       </c>
       <c r="L8">
         <f>Data!S37</f>
-        <v>1.173354359287566E-3</v>
+        <v>0.21824255238063564</v>
       </c>
       <c r="M8">
         <f>Data!T37</f>
-        <v>1.4729454838645032E-3</v>
+        <v>0.22314752165009824</v>
       </c>
       <c r="N8">
         <f>Data!U37</f>
-        <v>1.8246101365315041E-3</v>
+        <v>0.22890504973749962</v>
       </c>
       <c r="O8">
         <f>Data!V37</f>
-        <v>2.2234151251426739E-3</v>
+        <v>0.23543436937742046</v>
       </c>
       <c r="P8">
         <f>Data!W37</f>
-        <v>2.6583825649754587E-3</v>
+        <v>0.24255574831883409</v>
       </c>
       <c r="Q8">
         <f>Data!X37</f>
-        <v>3.1130707822246968E-3</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
         <f>Data!Y37</f>
-        <v>3.5677589994739349E-3</v>
+        <v>0.25744425168116591</v>
       </c>
       <c r="S8">
         <f>Data!Z37</f>
-        <v>4.0027264393067193E-3</v>
+        <v>0.26456563062257954</v>
       </c>
       <c r="T8">
         <f>Data!AA37</f>
-        <v>4.4015314279178897E-3</v>
+        <v>0.27109495026250041</v>
       </c>
       <c r="U8">
         <f>Data!AB37</f>
-        <v>4.7531960805848898E-3</v>
+        <v>0.27685247834990179</v>
       </c>
       <c r="V8">
         <f>Data!AC37</f>
-        <v>5.0527872051618272E-3</v>
+        <v>0.28175744761936439</v>
       </c>
       <c r="W8">
         <f>Data!AD37</f>
-        <v>5.3006123617512736E-3</v>
+        <v>0.28581489350995121</v>
       </c>
       <c r="X8">
         <f>Data!AE37</f>
-        <v>5.5006723451502251E-3</v>
+        <v>0.28909031788043871</v>
       </c>
       <c r="Y8">
         <f>Data!AF37</f>
-        <v>5.6590145741506354E-3</v>
+        <v>0.29168273035060777</v>
       </c>
       <c r="Z8">
         <f>Data!AG37</f>
-        <v>5.782390334216795E-3</v>
+        <v>0.29370266439430037</v>
       </c>
       <c r="AA8">
         <f>Data!AH37</f>
-        <v>5.8773529654648259E-3</v>
+        <v>0.29525741268224331</v>
       </c>
       <c r="AB8">
         <f>Data!AI37</f>
-        <v>5.9497603117186259E-3</v>
+        <v>0.29644288107273636</v>
       </c>
       <c r="AC8">
         <f>Data!AJ37</f>
-        <v>6.0045738942910579E-3</v>
+        <v>0.29734030064231343</v>
       </c>
       <c r="AD8">
         <f>Data!AK37</f>
-        <v>6.045843137746647E-3</v>
+        <v>0.29801596942659225</v>
       </c>
       <c r="AE8">
         <f>Data!AL37</f>
-        <v>6.0767874852831159E-3</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
+        <v>0.29852259683067267</v>
       </c>
     </row>
   </sheetData>
@@ -57952,8 +57892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:AE77"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:AE131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58828,94 +58768,94 @@
         <v>953</v>
       </c>
       <c r="B62" s="39">
-        <v>550515</v>
+        <v>542736</v>
       </c>
       <c r="C62" s="39">
-        <v>981180</v>
+        <v>971589</v>
       </c>
       <c r="D62" s="39">
-        <v>2134210</v>
+        <v>2070840</v>
       </c>
       <c r="E62" s="39">
-        <v>3383300</v>
+        <v>3380780</v>
       </c>
       <c r="F62" s="39">
-        <v>5346390</v>
+        <v>5531350</v>
       </c>
       <c r="G62" s="39">
-        <v>7195450</v>
+        <v>7554820</v>
       </c>
       <c r="H62" s="39">
-        <v>8477080</v>
+        <v>8984830</v>
       </c>
       <c r="I62" s="39">
-        <v>9237380</v>
+        <v>9884360</v>
       </c>
       <c r="J62" s="39">
-        <v>9937520</v>
+        <v>10514500</v>
       </c>
       <c r="K62" s="39">
-        <v>10601700</v>
+        <v>11226000</v>
       </c>
       <c r="L62" s="39">
-        <v>11080300</v>
+        <v>11778600</v>
       </c>
       <c r="M62" s="39">
-        <v>11438000</v>
+        <v>12180600</v>
       </c>
       <c r="N62" s="39">
-        <v>11570000</v>
+        <v>11954700</v>
       </c>
       <c r="O62" s="39">
-        <v>11970800</v>
+        <v>12405800</v>
       </c>
       <c r="P62" s="39">
-        <v>12365900</v>
+        <v>12846600</v>
       </c>
       <c r="Q62" s="39">
-        <v>12444200</v>
+        <v>12964800</v>
       </c>
       <c r="R62" s="39">
-        <v>12531200</v>
+        <v>13090400</v>
       </c>
       <c r="S62" s="39">
-        <v>12626300</v>
+        <v>13223500</v>
       </c>
       <c r="T62" s="39">
-        <v>12722700</v>
+        <v>13359000</v>
       </c>
       <c r="U62" s="39">
-        <v>12828700</v>
+        <v>13502200</v>
       </c>
       <c r="V62" s="39">
-        <v>12937100</v>
+        <v>13648100</v>
       </c>
       <c r="W62" s="39">
-        <v>13049800</v>
+        <v>13799000</v>
       </c>
       <c r="X62" s="39">
-        <v>13159100</v>
+        <v>13945100</v>
       </c>
       <c r="Y62" s="39">
-        <v>13271700</v>
+        <v>14094700</v>
       </c>
       <c r="Z62" s="39">
-        <v>13389100</v>
+        <v>14247600</v>
       </c>
       <c r="AA62" s="39">
-        <v>13527800</v>
+        <v>14430200</v>
       </c>
       <c r="AB62" s="39">
-        <v>13671000</v>
+        <v>14610800</v>
       </c>
       <c r="AC62" s="39">
-        <v>13820300</v>
+        <v>14801000</v>
       </c>
       <c r="AD62" s="39">
-        <v>13972700</v>
+        <v>14996600</v>
       </c>
       <c r="AE62" s="39">
-        <v>14136600</v>
+        <v>15203400</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -58923,94 +58863,94 @@
         <v>954</v>
       </c>
       <c r="B63">
-        <v>5691</v>
+        <v>4974</v>
       </c>
       <c r="C63">
-        <v>6120</v>
+        <v>5628</v>
       </c>
       <c r="D63">
-        <v>5886</v>
+        <v>5514</v>
       </c>
       <c r="E63">
-        <v>5469</v>
+        <v>5022</v>
       </c>
       <c r="F63">
-        <v>4800</v>
+        <v>4284</v>
       </c>
       <c r="G63">
-        <v>4248</v>
+        <v>3696</v>
       </c>
       <c r="H63">
-        <v>3945</v>
+        <v>3354</v>
       </c>
       <c r="I63">
-        <v>3849</v>
+        <v>3198</v>
       </c>
       <c r="J63">
-        <v>3786</v>
+        <v>3150</v>
       </c>
       <c r="K63">
-        <v>3744</v>
+        <v>3072</v>
       </c>
       <c r="L63">
-        <v>3792</v>
+        <v>3054</v>
       </c>
       <c r="M63">
-        <v>3924</v>
+        <v>3117</v>
       </c>
       <c r="N63">
-        <v>4227</v>
+        <v>3525</v>
       </c>
       <c r="O63">
-        <v>4419</v>
+        <v>3639</v>
       </c>
       <c r="P63">
-        <v>4611</v>
+        <v>3747</v>
       </c>
       <c r="Q63">
-        <v>5007</v>
+        <v>4035</v>
       </c>
       <c r="R63">
-        <v>5409</v>
+        <v>4323</v>
       </c>
       <c r="S63">
-        <v>5799</v>
+        <v>4596</v>
       </c>
       <c r="T63">
-        <v>6162</v>
+        <v>4845</v>
       </c>
       <c r="U63">
-        <v>6489</v>
+        <v>5064</v>
       </c>
       <c r="V63">
-        <v>6774</v>
+        <v>5250</v>
       </c>
       <c r="W63">
-        <v>7017</v>
+        <v>5403</v>
       </c>
       <c r="X63">
-        <v>7218</v>
+        <v>5523</v>
       </c>
       <c r="Y63">
-        <v>7389</v>
+        <v>5622</v>
       </c>
       <c r="Z63">
-        <v>7530</v>
+        <v>5697</v>
       </c>
       <c r="AA63">
-        <v>7647</v>
+        <v>5739</v>
       </c>
       <c r="AB63">
-        <v>7761</v>
+        <v>5793</v>
       </c>
       <c r="AC63">
-        <v>7860</v>
+        <v>5835</v>
       </c>
       <c r="AD63">
-        <v>7944</v>
+        <v>5859</v>
       </c>
       <c r="AE63">
-        <v>8031</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -59018,94 +58958,94 @@
         <v>955</v>
       </c>
       <c r="B64" s="39">
-        <v>16642700</v>
+        <v>16648800</v>
       </c>
       <c r="C64" s="39">
-        <v>16790000</v>
+        <v>16803900</v>
       </c>
       <c r="D64" s="39">
-        <v>15803400</v>
+        <v>15857300</v>
       </c>
       <c r="E64" s="39">
-        <v>14613800</v>
+        <v>14604900</v>
       </c>
       <c r="F64" s="39">
-        <v>12678400</v>
+        <v>12473700</v>
       </c>
       <c r="G64" s="39">
-        <v>10983200</v>
+        <v>10612800</v>
       </c>
       <c r="H64" s="39">
-        <v>9905290</v>
+        <v>9396830</v>
       </c>
       <c r="I64" s="39">
-        <v>9320480</v>
+        <v>8680810</v>
       </c>
       <c r="J64" s="39">
-        <v>8738890</v>
+        <v>8184040</v>
       </c>
       <c r="K64" s="39">
-        <v>8159440</v>
+        <v>7562220</v>
       </c>
       <c r="L64" s="39">
-        <v>7741480</v>
+        <v>7076720</v>
       </c>
       <c r="M64" s="39">
-        <v>7435720</v>
+        <v>6732550</v>
       </c>
       <c r="N64" s="39">
-        <v>7393000</v>
+        <v>7062680</v>
       </c>
       <c r="O64" s="39">
-        <v>7102540</v>
+        <v>6728860</v>
       </c>
       <c r="P64" s="39">
-        <v>6807350</v>
+        <v>6394660</v>
       </c>
       <c r="Q64" s="39">
-        <v>6815910</v>
+        <v>6367760</v>
       </c>
       <c r="R64" s="39">
-        <v>6830590</v>
+        <v>6348110</v>
       </c>
       <c r="S64" s="39">
-        <v>6850700</v>
+        <v>6334650</v>
       </c>
       <c r="T64" s="39">
-        <v>6870350</v>
+        <v>6319480</v>
       </c>
       <c r="U64" s="39">
-        <v>6897590</v>
+        <v>6314060</v>
       </c>
       <c r="V64" s="39">
-        <v>6925950</v>
+        <v>6309550</v>
       </c>
       <c r="W64" s="39">
-        <v>6955990</v>
+        <v>6305960</v>
       </c>
       <c r="X64" s="39">
-        <v>6985320</v>
+        <v>6303050</v>
       </c>
       <c r="Y64" s="39">
-        <v>7016390</v>
+        <v>6301780</v>
       </c>
       <c r="Z64" s="39">
-        <v>7051750</v>
+        <v>6306290</v>
       </c>
       <c r="AA64" s="39">
-        <v>7091680</v>
+        <v>6307710</v>
       </c>
       <c r="AB64" s="39">
-        <v>7140140</v>
+        <v>6323600</v>
       </c>
       <c r="AC64" s="39">
-        <v>7188840</v>
+        <v>6336590</v>
       </c>
       <c r="AD64" s="39">
-        <v>7236880</v>
+        <v>6346500</v>
       </c>
       <c r="AE64" s="39">
-        <v>7292160</v>
+        <v>6364380</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -59113,94 +59053,94 @@
         <v>956</v>
       </c>
       <c r="B65">
-        <v>73620</v>
+        <v>68355</v>
       </c>
       <c r="C65">
-        <v>73860</v>
+        <v>67977</v>
       </c>
       <c r="D65">
-        <v>84006</v>
+        <v>78177</v>
       </c>
       <c r="E65">
-        <v>90720</v>
+        <v>84045</v>
       </c>
       <c r="F65">
-        <v>90099</v>
+        <v>82263</v>
       </c>
       <c r="G65">
-        <v>87912</v>
+        <v>78888</v>
       </c>
       <c r="H65">
-        <v>88155</v>
+        <v>77676</v>
       </c>
       <c r="I65">
-        <v>91404</v>
+        <v>79230</v>
       </c>
       <c r="J65">
-        <v>93561</v>
+        <v>81597</v>
       </c>
       <c r="K65">
-        <v>94728</v>
+        <v>81843</v>
       </c>
       <c r="L65">
-        <v>96843</v>
+        <v>82557</v>
       </c>
       <c r="M65">
-        <v>99741</v>
+        <v>84294</v>
       </c>
       <c r="N65">
-        <v>105876</v>
+        <v>94515</v>
       </c>
       <c r="O65">
-        <v>108183</v>
+        <v>95904</v>
       </c>
       <c r="P65">
-        <v>109869</v>
+        <v>96666</v>
       </c>
       <c r="Q65">
-        <v>116277</v>
+        <v>101949</v>
       </c>
       <c r="R65">
-        <v>122769</v>
+        <v>107208</v>
       </c>
       <c r="S65">
-        <v>129399</v>
+        <v>112566</v>
       </c>
       <c r="T65">
-        <v>136098</v>
+        <v>117966</v>
       </c>
       <c r="U65">
-        <v>142968</v>
+        <v>123474</v>
       </c>
       <c r="V65">
-        <v>149868</v>
+        <v>128889</v>
       </c>
       <c r="W65">
-        <v>156921</v>
+        <v>134466</v>
       </c>
       <c r="X65">
-        <v>163947</v>
+        <v>139899</v>
       </c>
       <c r="Y65">
-        <v>171171</v>
+        <v>145590</v>
       </c>
       <c r="Z65">
-        <v>178521</v>
+        <v>151338</v>
       </c>
       <c r="AA65">
-        <v>186102</v>
+        <v>157119</v>
       </c>
       <c r="AB65">
-        <v>193941</v>
+        <v>163161</v>
       </c>
       <c r="AC65">
-        <v>201963</v>
+        <v>169362</v>
       </c>
       <c r="AD65">
-        <v>210069</v>
+        <v>175521</v>
       </c>
       <c r="AE65">
-        <v>218508</v>
+        <v>181986</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -59208,94 +59148,94 @@
         <v>957</v>
       </c>
       <c r="B66" s="39">
-        <v>210285</v>
+        <v>218898</v>
       </c>
       <c r="C66" s="39">
-        <v>240456</v>
+        <v>242823</v>
       </c>
       <c r="D66" s="39">
-        <v>433935</v>
+        <v>449787</v>
       </c>
       <c r="E66" s="39">
-        <v>502812</v>
+        <v>521472</v>
       </c>
       <c r="F66" s="39">
-        <v>545760</v>
+        <v>573981</v>
       </c>
       <c r="G66" s="39">
-        <v>527808</v>
+        <v>548604</v>
       </c>
       <c r="H66" s="39">
-        <v>500604</v>
+        <v>512619</v>
       </c>
       <c r="I66" s="39">
-        <v>485103</v>
+        <v>490953</v>
       </c>
       <c r="J66" s="39">
-        <v>491847</v>
+        <v>482694</v>
       </c>
       <c r="K66" s="39">
-        <v>503157</v>
+        <v>490110</v>
       </c>
       <c r="L66" s="39">
-        <v>522648</v>
+        <v>504618</v>
       </c>
       <c r="M66" s="39">
-        <v>536769</v>
+        <v>514239</v>
       </c>
       <c r="N66" s="39">
-        <v>540720</v>
+        <v>498945</v>
       </c>
       <c r="O66" s="39">
-        <v>555405</v>
+        <v>507810</v>
       </c>
       <c r="P66" s="39">
-        <v>570003</v>
+        <v>516777</v>
       </c>
       <c r="Q66" s="39">
-        <v>570651</v>
+        <v>514389</v>
       </c>
       <c r="R66" s="39">
-        <v>571872</v>
+        <v>512742</v>
       </c>
       <c r="S66" s="39">
-        <v>573432</v>
+        <v>511335</v>
       </c>
       <c r="T66" s="39">
-        <v>575142</v>
+        <v>510243</v>
       </c>
       <c r="U66" s="39">
-        <v>577272</v>
+        <v>509430</v>
       </c>
       <c r="V66" s="39">
-        <v>579492</v>
+        <v>508698</v>
       </c>
       <c r="W66" s="39">
-        <v>581934</v>
+        <v>508236</v>
       </c>
       <c r="X66" s="39">
-        <v>584238</v>
+        <v>507654</v>
       </c>
       <c r="Y66" s="39">
-        <v>586575</v>
+        <v>506946</v>
       </c>
       <c r="Z66" s="39">
-        <v>589371</v>
+        <v>506937</v>
       </c>
       <c r="AA66" s="39">
-        <v>592536</v>
+        <v>506694</v>
       </c>
       <c r="AB66" s="39">
-        <v>596439</v>
+        <v>507639</v>
       </c>
       <c r="AC66" s="39">
-        <v>600312</v>
+        <v>508269</v>
       </c>
       <c r="AD66" s="39">
-        <v>604455</v>
+        <v>509403</v>
       </c>
       <c r="AE66" s="39">
-        <v>608892</v>
+        <v>510471</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -59303,94 +59243,94 @@
         <v>958</v>
       </c>
       <c r="B67">
+        <v>4125</v>
+      </c>
+      <c r="C67">
+        <v>4986</v>
+      </c>
+      <c r="D67">
+        <v>4971</v>
+      </c>
+      <c r="E67">
+        <v>4911</v>
+      </c>
+      <c r="F67">
+        <v>4503</v>
+      </c>
+      <c r="G67">
+        <v>4074</v>
+      </c>
+      <c r="H67">
+        <v>3798</v>
+      </c>
+      <c r="I67">
+        <v>3675</v>
+      </c>
+      <c r="J67">
+        <v>3627</v>
+      </c>
+      <c r="K67">
+        <v>3501</v>
+      </c>
+      <c r="L67">
+        <v>3411</v>
+      </c>
+      <c r="M67">
+        <v>3375</v>
+      </c>
+      <c r="N67">
+        <v>3678</v>
+      </c>
+      <c r="O67">
+        <v>3630</v>
+      </c>
+      <c r="P67">
+        <v>3573</v>
+      </c>
+      <c r="Q67">
+        <v>3681</v>
+      </c>
+      <c r="R67">
+        <v>3792</v>
+      </c>
+      <c r="S67">
+        <v>3900</v>
+      </c>
+      <c r="T67">
+        <v>4011</v>
+      </c>
+      <c r="U67">
+        <v>4125</v>
+      </c>
+      <c r="V67">
+        <v>4236</v>
+      </c>
+      <c r="W67">
+        <v>4353</v>
+      </c>
+      <c r="X67">
+        <v>4470</v>
+      </c>
+      <c r="Y67">
         <v>4587</v>
       </c>
-      <c r="C67">
-        <v>4950</v>
-      </c>
-      <c r="D67">
+      <c r="Z67">
+        <v>4710</v>
+      </c>
+      <c r="AA67">
+        <v>4827</v>
+      </c>
+      <c r="AB67">
         <v>4959</v>
       </c>
-      <c r="E67">
-        <v>4896</v>
-      </c>
-      <c r="F67">
-        <v>4524</v>
-      </c>
-      <c r="G67">
-        <v>4155</v>
-      </c>
-      <c r="H67">
-        <v>3948</v>
-      </c>
-      <c r="I67">
-        <v>3900</v>
-      </c>
-      <c r="J67">
-        <v>3831</v>
-      </c>
-      <c r="K67">
-        <v>3741</v>
-      </c>
-      <c r="L67">
-        <v>3702</v>
-      </c>
-      <c r="M67">
-        <v>3705</v>
-      </c>
-      <c r="N67">
-        <v>3831</v>
-      </c>
-      <c r="O67">
-        <v>3822</v>
-      </c>
-      <c r="P67">
-        <v>3798</v>
-      </c>
-      <c r="Q67">
-        <v>3939</v>
-      </c>
-      <c r="R67">
-        <v>4083</v>
-      </c>
-      <c r="S67">
-        <v>4227</v>
-      </c>
-      <c r="T67">
-        <v>4377</v>
-      </c>
-      <c r="U67">
-        <v>4530</v>
-      </c>
-      <c r="V67">
-        <v>4683</v>
-      </c>
-      <c r="W67">
-        <v>4839</v>
-      </c>
-      <c r="X67">
-        <v>4998</v>
-      </c>
-      <c r="Y67">
-        <v>5160</v>
-      </c>
-      <c r="Z67">
-        <v>5325</v>
-      </c>
-      <c r="AA67">
-        <v>5493</v>
-      </c>
-      <c r="AB67">
-        <v>5673</v>
-      </c>
       <c r="AC67">
-        <v>5853</v>
+        <v>5085</v>
       </c>
       <c r="AD67">
-        <v>6030</v>
+        <v>5205</v>
       </c>
       <c r="AE67">
-        <v>6222</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -59398,94 +59338,94 @@
         <v>959</v>
       </c>
       <c r="B68">
-        <v>831</v>
+        <v>366</v>
       </c>
       <c r="C68">
-        <v>654</v>
+        <v>345</v>
       </c>
       <c r="D68">
-        <v>435</v>
+        <v>261</v>
       </c>
       <c r="E68">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="F68">
-        <v>378</v>
+        <v>234</v>
       </c>
       <c r="G68">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="H68">
-        <v>372</v>
+        <v>228</v>
       </c>
       <c r="I68">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="J68">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="K68">
-        <v>570</v>
+        <v>348</v>
       </c>
       <c r="L68">
-        <v>696</v>
+        <v>432</v>
       </c>
       <c r="M68">
-        <v>846</v>
+        <v>531</v>
       </c>
       <c r="N68">
-        <v>1011</v>
+        <v>624</v>
       </c>
       <c r="O68">
-        <v>1224</v>
+        <v>765</v>
       </c>
       <c r="P68">
-        <v>1467</v>
+        <v>930</v>
       </c>
       <c r="Q68">
-        <v>1692</v>
+        <v>1089</v>
       </c>
       <c r="R68">
-        <v>1923</v>
+        <v>1254</v>
       </c>
       <c r="S68">
-        <v>2151</v>
+        <v>1419</v>
       </c>
       <c r="T68">
-        <v>2364</v>
+        <v>1584</v>
       </c>
       <c r="U68">
-        <v>2562</v>
+        <v>1737</v>
       </c>
       <c r="V68">
-        <v>2739</v>
+        <v>1875</v>
       </c>
       <c r="W68">
-        <v>2895</v>
+        <v>2004</v>
       </c>
       <c r="X68">
-        <v>3030</v>
+        <v>2118</v>
       </c>
       <c r="Y68">
-        <v>3144</v>
+        <v>2220</v>
       </c>
       <c r="Z68">
-        <v>3243</v>
+        <v>2310</v>
       </c>
       <c r="AA68">
-        <v>3333</v>
+        <v>2394</v>
       </c>
       <c r="AB68">
-        <v>3414</v>
+        <v>2475</v>
       </c>
       <c r="AC68">
-        <v>3486</v>
+        <v>2547</v>
       </c>
       <c r="AD68">
-        <v>3555</v>
+        <v>2613</v>
       </c>
       <c r="AE68">
-        <v>3618</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -59588,94 +59528,94 @@
         <v>960</v>
       </c>
       <c r="B71">
-        <v>193113</v>
+        <v>190651</v>
       </c>
       <c r="C71" s="39">
-        <v>565004</v>
+        <v>554697</v>
       </c>
       <c r="D71" s="39">
-        <v>1944640</v>
+        <v>1867760</v>
       </c>
       <c r="E71" s="39">
-        <v>3383300</v>
+        <v>3380780</v>
       </c>
       <c r="F71" s="39">
-        <v>5346390</v>
+        <v>5531350</v>
       </c>
       <c r="G71" s="39">
-        <v>7195450</v>
+        <v>7554820</v>
       </c>
       <c r="H71" s="39">
-        <v>8477080</v>
+        <v>8984830</v>
       </c>
       <c r="I71" s="39">
-        <v>9223710</v>
+        <v>9884370</v>
       </c>
       <c r="J71" s="39">
-        <v>9613730</v>
+        <v>10385900</v>
       </c>
       <c r="K71" s="39">
-        <v>9888900</v>
+        <v>10722300</v>
       </c>
       <c r="L71" s="39">
-        <v>9982530</v>
+        <v>10912200</v>
       </c>
       <c r="M71" s="39">
-        <v>10045700</v>
+        <v>11031800</v>
       </c>
       <c r="N71" s="39">
-        <v>9789410</v>
+        <v>10284400</v>
       </c>
       <c r="O71" s="39">
-        <v>9884900</v>
+        <v>10443300</v>
       </c>
       <c r="P71" s="39">
-        <v>9971200</v>
+        <v>10586800</v>
       </c>
       <c r="Q71" s="39">
-        <v>10043700</v>
+        <v>10711200</v>
       </c>
       <c r="R71" s="39">
-        <v>10122600</v>
+        <v>10840500</v>
       </c>
       <c r="S71" s="39">
-        <v>10207900</v>
+        <v>10975400</v>
       </c>
       <c r="T71" s="39">
-        <v>10294500</v>
+        <v>11113100</v>
       </c>
       <c r="U71" s="39">
-        <v>10388100</v>
+        <v>11255200</v>
       </c>
       <c r="V71" s="39">
-        <v>10483700</v>
+        <v>11399700</v>
       </c>
       <c r="W71" s="39">
-        <v>10583000</v>
+        <v>11548800</v>
       </c>
       <c r="X71" s="39">
-        <v>10679100</v>
+        <v>11693100</v>
       </c>
       <c r="Y71" s="39">
-        <v>10777800</v>
+        <v>11840100</v>
       </c>
       <c r="Z71" s="39">
-        <v>10879900</v>
+        <v>11988500</v>
       </c>
       <c r="AA71" s="39">
-        <v>11001600</v>
+        <v>12167500</v>
       </c>
       <c r="AB71" s="39">
-        <v>11124800</v>
+        <v>12339600</v>
       </c>
       <c r="AC71" s="39">
-        <v>11253800</v>
+        <v>12522100</v>
       </c>
       <c r="AD71" s="39">
-        <v>11386200</v>
+        <v>12711200</v>
       </c>
       <c r="AE71" s="39">
-        <v>11527500</v>
+        <v>12908600</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -59683,94 +59623,94 @@
         <v>961</v>
       </c>
       <c r="B72">
-        <v>5860.18</v>
+        <v>5121.7299999999996</v>
       </c>
       <c r="C72">
-        <v>6310.03</v>
+        <v>5802.78</v>
       </c>
       <c r="D72">
-        <v>5970.68</v>
+        <v>5602.4</v>
       </c>
       <c r="E72">
-        <v>5470.6</v>
+        <v>5023.2</v>
       </c>
       <c r="F72">
-        <v>4802.6899999999996</v>
+        <v>4286.3500000000004</v>
       </c>
       <c r="G72">
-        <v>4248.8999999999996</v>
+        <v>3698.46</v>
       </c>
       <c r="H72">
-        <v>3945.12</v>
+        <v>3354.68</v>
       </c>
       <c r="I72">
-        <v>3857.88</v>
+        <v>3198.27</v>
       </c>
       <c r="J72">
-        <v>3932.42</v>
+        <v>3202.21</v>
       </c>
       <c r="K72">
-        <v>4082.56</v>
+        <v>3285.06</v>
       </c>
       <c r="L72">
-        <v>4349.43</v>
+        <v>3442.11</v>
       </c>
       <c r="M72">
-        <v>4683.51</v>
+        <v>3664.91</v>
       </c>
       <c r="N72">
-        <v>5280.23</v>
+        <v>4384.26</v>
       </c>
       <c r="O72">
-        <v>5758.36</v>
+        <v>4728.83</v>
       </c>
       <c r="P72">
-        <v>6279.63</v>
+        <v>5105.38</v>
       </c>
       <c r="Q72">
-        <v>6821.53</v>
+        <v>5497.21</v>
       </c>
       <c r="R72">
-        <v>7369.48</v>
+        <v>5888.37</v>
       </c>
       <c r="S72">
-        <v>7900.8</v>
+        <v>6261.31</v>
       </c>
       <c r="T72">
-        <v>8393.26</v>
+        <v>6601.47</v>
       </c>
       <c r="U72">
-        <v>8838.26</v>
+        <v>6899.98</v>
       </c>
       <c r="V72">
-        <v>9225.56</v>
+        <v>7151.55</v>
       </c>
       <c r="W72">
-        <v>9557.86</v>
+        <v>7361</v>
       </c>
       <c r="X72">
-        <v>9831.9500000000007</v>
+        <v>7523.48</v>
       </c>
       <c r="Y72">
-        <v>10062.9</v>
+        <v>7656.06</v>
       </c>
       <c r="Z72">
-        <v>10256.5</v>
+        <v>7758.49</v>
       </c>
       <c r="AA72">
-        <v>10416.9</v>
+        <v>7818.44</v>
       </c>
       <c r="AB72">
-        <v>10570.1</v>
+        <v>7889.42</v>
       </c>
       <c r="AC72">
-        <v>10706.1</v>
+        <v>7947.36</v>
       </c>
       <c r="AD72">
-        <v>10820.3</v>
+        <v>7979.9</v>
       </c>
       <c r="AE72">
-        <v>10937.5</v>
+        <v>8022.02</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -59778,94 +59718,94 @@
         <v>962</v>
       </c>
       <c r="B73" s="39">
-        <v>17134700</v>
+        <v>17140900</v>
       </c>
       <c r="C73" s="39">
-        <v>17305900</v>
+        <v>17322700</v>
       </c>
       <c r="D73" s="39">
-        <v>16030200</v>
+        <v>16103100</v>
       </c>
       <c r="E73" s="39">
-        <v>14613800</v>
+        <v>14604900</v>
       </c>
       <c r="F73" s="39">
-        <v>12678400</v>
+        <v>12473700</v>
       </c>
       <c r="G73" s="39">
-        <v>10983200</v>
+        <v>10612800</v>
       </c>
       <c r="H73" s="39">
-        <v>9905290</v>
+        <v>9396830</v>
       </c>
       <c r="I73" s="39">
-        <v>9334730</v>
+        <v>8680810</v>
       </c>
       <c r="J73" s="39">
-        <v>9074840</v>
+        <v>8317100</v>
       </c>
       <c r="K73" s="39">
-        <v>8896920</v>
+        <v>8081840</v>
       </c>
       <c r="L73" s="39">
-        <v>8875820</v>
+        <v>7969110</v>
       </c>
       <c r="M73" s="39">
-        <v>8872730</v>
+        <v>7914010</v>
       </c>
       <c r="N73" s="39">
-        <v>9228710</v>
+        <v>8778060</v>
       </c>
       <c r="O73" s="39">
-        <v>9250220</v>
+        <v>8740910</v>
       </c>
       <c r="P73" s="39">
-        <v>9269920</v>
+        <v>8707950</v>
       </c>
       <c r="Q73" s="39">
-        <v>9281590</v>
+        <v>8671310</v>
       </c>
       <c r="R73" s="39">
-        <v>9301570</v>
+        <v>8644560</v>
       </c>
       <c r="S73" s="39">
-        <v>9328960</v>
+        <v>8626220</v>
       </c>
       <c r="T73" s="39">
-        <v>9355710</v>
+        <v>8605570</v>
       </c>
       <c r="U73" s="39">
-        <v>9392820</v>
+        <v>8598190</v>
       </c>
       <c r="V73" s="39">
-        <v>9431420</v>
+        <v>8592050</v>
       </c>
       <c r="W73" s="39">
-        <v>9472340</v>
+        <v>8587150</v>
       </c>
       <c r="X73" s="39">
-        <v>9512280</v>
+        <v>8583200</v>
       </c>
       <c r="Y73" s="39">
-        <v>9554590</v>
+        <v>8581470</v>
       </c>
       <c r="Z73" s="39">
-        <v>9602740</v>
+        <v>8587600</v>
       </c>
       <c r="AA73" s="39">
-        <v>9657110</v>
+        <v>8589540</v>
       </c>
       <c r="AB73" s="39">
-        <v>9723100</v>
+        <v>8611180</v>
       </c>
       <c r="AC73" s="39">
-        <v>9789420</v>
+        <v>8628870</v>
       </c>
       <c r="AD73" s="39">
-        <v>9854840</v>
+        <v>8642360</v>
       </c>
       <c r="AE73" s="39">
-        <v>9930120</v>
+        <v>8666710</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -59873,94 +59813,94 @@
         <v>963</v>
       </c>
       <c r="B74">
-        <v>75797.7</v>
+        <v>70376.600000000006</v>
       </c>
       <c r="C74">
-        <v>76131</v>
+        <v>70078.2</v>
       </c>
       <c r="D74">
-        <v>85212.7</v>
+        <v>79390.600000000006</v>
       </c>
       <c r="E74">
-        <v>90722</v>
+        <v>84046.8</v>
       </c>
       <c r="F74">
-        <v>90099.6</v>
+        <v>82263.600000000006</v>
       </c>
       <c r="G74">
-        <v>87913.600000000006</v>
+        <v>78888.800000000003</v>
       </c>
       <c r="H74">
-        <v>88157.4</v>
+        <v>77678.5</v>
       </c>
       <c r="I74">
-        <v>91544.4</v>
+        <v>79231.8</v>
       </c>
       <c r="J74">
-        <v>97160.4</v>
+        <v>82924.5</v>
       </c>
       <c r="K74">
-        <v>103293</v>
+        <v>87467.3</v>
       </c>
       <c r="L74">
-        <v>111035</v>
+        <v>92970</v>
       </c>
       <c r="M74">
-        <v>119020</v>
+        <v>99088.9</v>
       </c>
       <c r="N74">
-        <v>132167</v>
+        <v>117472</v>
       </c>
       <c r="O74">
-        <v>140898</v>
+        <v>124582</v>
       </c>
       <c r="P74">
-        <v>149616</v>
+        <v>131636</v>
       </c>
       <c r="Q74">
-        <v>158343</v>
+        <v>138832</v>
       </c>
       <c r="R74">
-        <v>167181</v>
+        <v>145992</v>
       </c>
       <c r="S74">
-        <v>176210</v>
+        <v>153287</v>
       </c>
       <c r="T74">
-        <v>185335</v>
+        <v>160643</v>
       </c>
       <c r="U74">
-        <v>194689</v>
+        <v>168142</v>
       </c>
       <c r="V74">
-        <v>204085</v>
+        <v>175519</v>
       </c>
       <c r="W74">
-        <v>213690</v>
+        <v>183110</v>
       </c>
       <c r="X74">
-        <v>223259</v>
+        <v>190510</v>
       </c>
       <c r="Y74">
-        <v>233093</v>
+        <v>198261</v>
       </c>
       <c r="Z74">
-        <v>243104</v>
+        <v>206088</v>
       </c>
       <c r="AA74">
-        <v>253429</v>
+        <v>213960</v>
       </c>
       <c r="AB74">
-        <v>264100</v>
+        <v>222188</v>
       </c>
       <c r="AC74">
-        <v>275027</v>
+        <v>230631</v>
       </c>
       <c r="AD74">
-        <v>286065</v>
+        <v>239020</v>
       </c>
       <c r="AE74">
-        <v>297556</v>
+        <v>247823</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -59968,94 +59908,94 @@
         <v>964</v>
       </c>
       <c r="B75">
-        <v>73765.7</v>
+        <v>76893.600000000006</v>
       </c>
       <c r="C75" s="39">
-        <v>138466</v>
+        <v>138632</v>
       </c>
       <c r="D75" s="39">
-        <v>395393</v>
+        <v>405679</v>
       </c>
       <c r="E75" s="39">
-        <v>502813</v>
+        <v>521474</v>
       </c>
       <c r="F75" s="39">
-        <v>545760</v>
+        <v>573983</v>
       </c>
       <c r="G75" s="39">
-        <v>527811</v>
+        <v>548606</v>
       </c>
       <c r="H75" s="39">
-        <v>500605</v>
+        <v>512620</v>
       </c>
       <c r="I75" s="39">
-        <v>484388</v>
+        <v>490955</v>
       </c>
       <c r="J75" s="39">
-        <v>475823</v>
+        <v>476792</v>
       </c>
       <c r="K75" s="39">
-        <v>469328</v>
+        <v>468123</v>
       </c>
       <c r="L75" s="39">
-        <v>470867</v>
+        <v>467498</v>
       </c>
       <c r="M75" s="39">
-        <v>471431</v>
+        <v>465739</v>
       </c>
       <c r="N75" s="39">
-        <v>457505</v>
+        <v>429234</v>
       </c>
       <c r="O75" s="39">
-        <v>458629</v>
+        <v>427482</v>
       </c>
       <c r="P75" s="39">
-        <v>459622</v>
+        <v>425872</v>
       </c>
       <c r="Q75" s="39">
-        <v>460571</v>
+        <v>424976</v>
       </c>
       <c r="R75" s="39">
-        <v>461956</v>
+        <v>424619</v>
       </c>
       <c r="S75" s="39">
-        <v>463599</v>
+        <v>424401</v>
       </c>
       <c r="T75" s="39">
-        <v>465373</v>
+        <v>424462</v>
       </c>
       <c r="U75" s="39">
-        <v>467449</v>
+        <v>424651</v>
       </c>
       <c r="V75" s="39">
-        <v>469597</v>
+        <v>424894</v>
       </c>
       <c r="W75" s="39">
-        <v>471930</v>
+        <v>425360</v>
       </c>
       <c r="X75" s="39">
-        <v>474132</v>
+        <v>425672</v>
       </c>
       <c r="Y75" s="39">
-        <v>476354</v>
+        <v>425855</v>
       </c>
       <c r="Z75" s="39">
-        <v>478923</v>
+        <v>426558</v>
       </c>
       <c r="AA75" s="39">
-        <v>481885</v>
+        <v>427246</v>
       </c>
       <c r="AB75" s="39">
-        <v>485351</v>
+        <v>428730</v>
       </c>
       <c r="AC75" s="39">
-        <v>488833</v>
+        <v>430013</v>
       </c>
       <c r="AD75" s="39">
-        <v>492567</v>
+        <v>431776</v>
       </c>
       <c r="AE75" s="39">
-        <v>496515</v>
+        <v>433423</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -60063,94 +60003,94 @@
         <v>965</v>
       </c>
       <c r="B76">
-        <v>4722.76</v>
+        <v>4247.71</v>
       </c>
       <c r="C76">
-        <v>5103.62</v>
+        <v>5141.01</v>
       </c>
       <c r="D76">
-        <v>5031.4799999999996</v>
+        <v>5049.1400000000003</v>
       </c>
       <c r="E76">
-        <v>4897.12</v>
+        <v>4912.4799999999996</v>
       </c>
       <c r="F76">
-        <v>4526.8999999999996</v>
+        <v>4504.68</v>
       </c>
       <c r="G76">
-        <v>4155.04</v>
+        <v>4075.7</v>
       </c>
       <c r="H76">
-        <v>3948.49</v>
+        <v>3800.14</v>
       </c>
       <c r="I76">
-        <v>3906.2</v>
+        <v>3676.14</v>
       </c>
       <c r="J76">
-        <v>3980.47</v>
+        <v>3688.27</v>
       </c>
       <c r="K76">
-        <v>4080.76</v>
+        <v>3742.68</v>
       </c>
       <c r="L76">
-        <v>4247.62</v>
+        <v>3843.69</v>
       </c>
       <c r="M76">
-        <v>4423</v>
+        <v>3970.21</v>
       </c>
       <c r="N76">
-        <v>4783.87</v>
+        <v>4572.1499999999996</v>
       </c>
       <c r="O76">
-        <v>4977.83</v>
+        <v>4717.97</v>
       </c>
       <c r="P76">
-        <v>5172.6000000000004</v>
+        <v>4867.13</v>
       </c>
       <c r="Q76">
-        <v>5364.51</v>
+        <v>5015.43</v>
       </c>
       <c r="R76">
-        <v>5560.16</v>
+        <v>5164.0200000000004</v>
       </c>
       <c r="S76">
-        <v>5759.53</v>
+        <v>5312.75</v>
       </c>
       <c r="T76">
-        <v>5961.65</v>
+        <v>5464.43</v>
       </c>
       <c r="U76">
-        <v>6168.94</v>
+        <v>5617.48</v>
       </c>
       <c r="V76">
-        <v>6378.33</v>
+        <v>5770.25</v>
       </c>
       <c r="W76">
-        <v>6592.88</v>
+        <v>5928.54</v>
       </c>
       <c r="X76">
-        <v>6808.21</v>
+        <v>6087.04</v>
       </c>
       <c r="Y76">
-        <v>7027.5</v>
+        <v>6248.52</v>
       </c>
       <c r="Z76">
-        <v>7252.36</v>
+        <v>6414.62</v>
       </c>
       <c r="AA76">
-        <v>7483.53</v>
+        <v>6576.79</v>
       </c>
       <c r="AB76">
-        <v>7725.72</v>
+        <v>6753.64</v>
       </c>
       <c r="AC76">
-        <v>7970.76</v>
+        <v>6928.15</v>
       </c>
       <c r="AD76">
-        <v>8213.8799999999992</v>
+        <v>7091.17</v>
       </c>
       <c r="AE76">
-        <v>8476.07</v>
+        <v>7282.41</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -60158,94 +60098,94 @@
         <v>966</v>
       </c>
       <c r="B77">
-        <v>292.26299999999998</v>
+        <v>128.72999999999999</v>
       </c>
       <c r="C77">
-        <v>377.89800000000002</v>
+        <v>198.13300000000001</v>
       </c>
       <c r="D77">
-        <v>398.87299999999999</v>
+        <v>237.191</v>
       </c>
       <c r="E77">
-        <v>394.10700000000003</v>
+        <v>237.82</v>
       </c>
       <c r="F77">
-        <v>380.64600000000002</v>
+        <v>235.93</v>
       </c>
       <c r="G77">
-        <v>366.49</v>
+        <v>226.44800000000001</v>
       </c>
       <c r="H77">
-        <v>372.98899999999998</v>
+        <v>229.501</v>
       </c>
       <c r="I77">
-        <v>405.36599999999999</v>
+        <v>250.29900000000001</v>
       </c>
       <c r="J77">
-        <v>459.34800000000001</v>
+        <v>283.98899999999998</v>
       </c>
       <c r="K77">
-        <v>533.37900000000002</v>
+        <v>333.69499999999999</v>
       </c>
       <c r="L77">
-        <v>629.08000000000004</v>
+        <v>400.23</v>
       </c>
       <c r="M77">
-        <v>745.15300000000002</v>
+        <v>481.99700000000001</v>
       </c>
       <c r="N77">
-        <v>856.61300000000006</v>
+        <v>537.97299999999996</v>
       </c>
       <c r="O77">
-        <v>1012.09</v>
+        <v>646.20000000000005</v>
       </c>
       <c r="P77">
-        <v>1184.44</v>
+        <v>767.20100000000002</v>
       </c>
       <c r="Q77">
-        <v>1367.08</v>
+        <v>899.94399999999996</v>
       </c>
       <c r="R77">
-        <v>1554.46</v>
+        <v>1039.05</v>
       </c>
       <c r="S77">
-        <v>1739.55</v>
+        <v>1180.1500000000001</v>
       </c>
       <c r="T77">
-        <v>1914.86</v>
+        <v>1317.76</v>
       </c>
       <c r="U77">
-        <v>2076.96</v>
+        <v>1448.4</v>
       </c>
       <c r="V77">
-        <v>2221.9699999999998</v>
+        <v>1568.24</v>
       </c>
       <c r="W77">
-        <v>2349.7800000000002</v>
+        <v>1678.75</v>
       </c>
       <c r="X77">
-        <v>2459.4899999999998</v>
+        <v>1777.23</v>
       </c>
       <c r="Y77">
-        <v>2554.13</v>
+        <v>1865.25</v>
       </c>
       <c r="Z77">
-        <v>2637.2</v>
+        <v>1945.63</v>
       </c>
       <c r="AA77">
-        <v>2712.07</v>
+        <v>2020.5</v>
       </c>
       <c r="AB77">
-        <v>2779.79</v>
+        <v>2090.58</v>
       </c>
       <c r="AC77">
-        <v>2840.99</v>
+        <v>2155.4</v>
       </c>
       <c r="AD77">
-        <v>2897.17</v>
+        <v>2216.0300000000002</v>
       </c>
       <c r="AE77">
-        <v>2951.23</v>
+        <v>2275.56</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
@@ -60254,123 +60194,123 @@
       </c>
       <c r="B79" s="46">
         <f>B62/SUM(B$62:B$68)</f>
-        <v>3.1479173791697262E-2</v>
+        <v>3.1034315947149442E-2</v>
       </c>
       <c r="C79" s="46">
         <f t="shared" ref="C79:AE79" si="0">C62/SUM(C$62:C$68)</f>
-        <v>5.421716705659764E-2</v>
+        <v>5.3687113090343901E-2</v>
       </c>
       <c r="D79" s="32">
         <f>D62/SUM(D$62:D$68)</f>
-        <v>0.1155699101811242</v>
+        <v>0.11213823689476007</v>
       </c>
       <c r="E79" s="32">
         <f t="shared" si="0"/>
-        <v>0.18188425703670533</v>
+        <v>0.18174900801645386</v>
       </c>
       <c r="F79" s="32">
         <f t="shared" si="0"/>
-        <v>0.28635723024168103</v>
+        <v>0.29626441760623751</v>
       </c>
       <c r="G79" s="32">
         <f t="shared" si="0"/>
-        <v>0.38267280798168857</v>
+        <v>0.40178572615685271</v>
       </c>
       <c r="H79" s="32">
         <f t="shared" si="0"/>
-        <v>0.44664650515185045</v>
+        <v>0.47340067499730626</v>
       </c>
       <c r="I79" s="32">
         <f t="shared" si="0"/>
-        <v>0.48255817507004434</v>
+        <v>0.51635747206147586</v>
       </c>
       <c r="J79" s="32">
         <f t="shared" si="0"/>
-        <v>0.51570144934259943</v>
+        <v>0.54564392236116721</v>
       </c>
       <c r="K79" s="32">
         <f t="shared" si="0"/>
-        <v>0.54740828250825624</v>
+        <v>0.57964297586411262</v>
       </c>
       <c r="L79" s="32">
         <f t="shared" si="0"/>
-        <v>0.56969702142388423</v>
+        <v>0.60560247847336313</v>
       </c>
       <c r="M79" s="32">
         <f t="shared" si="0"/>
-        <v>0.58600199142309906</v>
+        <v>0.62404751626465405</v>
       </c>
       <c r="N79" s="32">
         <f t="shared" si="0"/>
-        <v>0.58974451115812421</v>
+        <v>0.60935332660470765</v>
       </c>
       <c r="O79" s="32">
         <f t="shared" si="0"/>
-        <v>0.60622717272972337</v>
+        <v>0.62825603522422913</v>
       </c>
       <c r="P79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62255959548503204</v>
+        <v>0.64676183848393543</v>
       </c>
       <c r="Q79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62352951315574012</v>
+        <v>0.64961383582068533</v>
       </c>
       <c r="R79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62444170639938135</v>
+        <v>0.65230773094588357</v>
       </c>
       <c r="S79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62531175700802022</v>
+        <v>0.65488917721038165</v>
       </c>
       <c r="T79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62620362960572362</v>
+        <v>0.65752400351447293</v>
       </c>
       <c r="U79" s="32">
         <f t="shared" si="0"/>
-        <v>0.6270102835707978</v>
+        <v>0.65992867089049956</v>
       </c>
       <c r="V79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62781323620202178</v>
+        <v>0.66231699186833271</v>
       </c>
       <c r="W79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62862137222104153</v>
+        <v>0.66471022170077765</v>
       </c>
       <c r="X79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62938558343466289</v>
+        <v>0.66698029741416298</v>
       </c>
       <c r="Y79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63013943574561937</v>
+        <v>0.66921809021175893</v>
       </c>
       <c r="Z79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63082218758775099</v>
+        <v>0.67126874957420257</v>
       </c>
       <c r="AA79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63170947322785664</v>
+        <v>0.6738460709411388</v>
       </c>
       <c r="AB79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63237891037843375</v>
+        <v>0.67584935758739528</v>
       </c>
       <c r="AC79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63312769193683116</v>
+        <v>0.6780526617082987</v>
       </c>
       <c r="AD79" s="32">
         <f t="shared" si="0"/>
-        <v>0.63392308546286025</v>
+        <v>0.68037398747038624</v>
       </c>
       <c r="AE79" s="32">
         <f t="shared" si="0"/>
-        <v>0.6346673397374728</v>
+        <v>0.68255800187401083</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -60379,123 +60319,123 @@
       </c>
       <c r="B80" s="46">
         <f>B66/SUM(B$62:B$68)</f>
-        <v>1.2024373651557285E-2</v>
+        <v>1.2516858458254324E-2</v>
       </c>
       <c r="C80" s="46">
         <f t="shared" ref="C80:AE80" si="1">C66/SUM(C$62:C$68)</f>
-        <v>1.3286902629243608E-2</v>
+        <v>1.3417675438829152E-2</v>
       </c>
       <c r="D80" s="32">
         <f t="shared" si="1"/>
-        <v>2.3498076091127924E-2</v>
+        <v>2.4356454944941881E-2</v>
       </c>
       <c r="E80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7030883175934703E-2</v>
+        <v>2.8034068678930962E-2</v>
       </c>
       <c r="F80" s="32">
         <f t="shared" si="1"/>
-        <v>2.923137331483484E-2</v>
+        <v>3.0742973538475382E-2</v>
       </c>
       <c r="G80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8070206788345285E-2</v>
+        <v>2.9176241990220019E-2</v>
       </c>
       <c r="H80" s="32">
         <f t="shared" si="1"/>
-        <v>2.6376184613692091E-2</v>
+        <v>2.7009323561652712E-2</v>
       </c>
       <c r="I80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5341646484284906E-2</v>
+        <v>2.5647310496683423E-2</v>
       </c>
       <c r="J80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5524095624945609E-2</v>
+        <v>2.5049127153949427E-2</v>
       </c>
       <c r="K80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5980013507456982E-2</v>
+        <v>2.5306326287258173E-2</v>
       </c>
       <c r="L80" s="32">
         <f t="shared" si="1"/>
-        <v>2.6872107149910222E-2</v>
+        <v>2.5945181216975831E-2</v>
       </c>
       <c r="M80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7500236311784006E-2</v>
+        <v>2.6345957565014812E-2</v>
       </c>
       <c r="N80" s="32">
         <f t="shared" si="1"/>
-        <v>2.756150839009688E-2</v>
+        <v>2.5432156017531671E-2</v>
       </c>
       <c r="O80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8126909051187223E-2</v>
+        <v>2.5716575895727466E-2</v>
       </c>
       <c r="P80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8696725438929208E-2</v>
+        <v>2.6017128470273276E-2</v>
       </c>
       <c r="Q80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8593058630674233E-2</v>
+        <v>2.5773958055193023E-2</v>
       </c>
       <c r="R80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8496929864819574E-2</v>
+        <v>2.5550446936736405E-2</v>
       </c>
       <c r="S80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8398958637496578E-2</v>
+        <v>2.5323685667854236E-2</v>
       </c>
       <c r="T80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8308142763618972E-2</v>
+        <v>2.5113932189927031E-2</v>
       </c>
       <c r="U80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8214509686677654E-2</v>
+        <v>2.4898717454322049E-2</v>
       </c>
       <c r="V80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8121661568139847E-2</v>
+        <v>2.4686170905066425E-2</v>
       </c>
       <c r="W80" s="32">
         <f t="shared" si="1"/>
-        <v>2.80323184740057E-2</v>
+        <v>2.448218452324925E-2</v>
       </c>
       <c r="X80" s="32">
         <f t="shared" si="1"/>
-        <v>2.79434744393386E-2</v>
+        <v>2.4280587152726726E-2</v>
       </c>
       <c r="Y80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7850542095020737E-2</v>
+        <v>2.40698584546312E-2</v>
       </c>
       <c r="Z80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7767983174431469E-2</v>
+        <v>2.3884090380337567E-2</v>
       </c>
       <c r="AA80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7669732286738514E-2</v>
+        <v>2.3661055360940902E-2</v>
       </c>
       <c r="AB80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7589455411250286E-2</v>
+        <v>2.3481773211344193E-2</v>
       </c>
       <c r="AC80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7501150554038841E-2</v>
+        <v>2.328445026105096E-2</v>
       </c>
       <c r="AD80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7423331111628618E-2</v>
+        <v>2.311087515432679E-2</v>
       </c>
       <c r="AE80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7336408034989264E-2</v>
+        <v>2.2917641170700512E-2</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -60504,123 +60444,123 @@
       </c>
       <c r="B81" s="40">
         <f t="shared" ref="B81:AE81" si="2">SUM(B79:B80)</f>
-        <v>4.3503547443254548E-2</v>
+        <v>4.3551174405403764E-2</v>
       </c>
       <c r="C81" s="40">
         <f t="shared" si="2"/>
-        <v>6.7504069685841245E-2</v>
+        <v>6.7104788529173051E-2</v>
       </c>
       <c r="D81" s="40">
         <f t="shared" si="2"/>
-        <v>0.13906798627225211</v>
+        <v>0.13649469183970195</v>
       </c>
       <c r="E81" s="40">
         <f t="shared" si="2"/>
-        <v>0.20891514021264002</v>
+        <v>0.20978307669538482</v>
       </c>
       <c r="F81" s="40">
         <f t="shared" si="2"/>
-        <v>0.31558860355651586</v>
+        <v>0.32700739114471289</v>
       </c>
       <c r="G81" s="40">
         <f t="shared" si="2"/>
-        <v>0.41074301477003383</v>
+        <v>0.43096196814707272</v>
       </c>
       <c r="H81" s="40">
         <f t="shared" si="2"/>
-        <v>0.47302268976554251</v>
+        <v>0.50040999855895896</v>
       </c>
       <c r="I81" s="40">
         <f t="shared" si="2"/>
-        <v>0.50789982155432922</v>
+        <v>0.54200478255815931</v>
       </c>
       <c r="J81" s="40">
         <f t="shared" si="2"/>
-        <v>0.54122554496754505</v>
+        <v>0.57069304951511668</v>
       </c>
       <c r="K81" s="40">
         <f t="shared" si="2"/>
-        <v>0.57338829601571317</v>
+        <v>0.60494930215137077</v>
       </c>
       <c r="L81" s="40">
         <f t="shared" si="2"/>
-        <v>0.5965691285737944</v>
+        <v>0.63154765969033899</v>
       </c>
       <c r="M81" s="40">
         <f t="shared" si="2"/>
-        <v>0.61350222773488305</v>
+        <v>0.65039347382966883</v>
       </c>
       <c r="N81" s="40">
         <f t="shared" si="2"/>
-        <v>0.61730601954822106</v>
+        <v>0.63478548262223933</v>
       </c>
       <c r="O81" s="40">
         <f t="shared" si="2"/>
-        <v>0.63435408178091057</v>
+        <v>0.65397261111995664</v>
       </c>
       <c r="P81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65125632092396124</v>
+        <v>0.67277896695420869</v>
       </c>
       <c r="Q81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65212257178641431</v>
+        <v>0.67538779387587833</v>
       </c>
       <c r="R81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6529386362642009</v>
+        <v>0.67785817788261993</v>
       </c>
       <c r="S81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65371071564551675</v>
+        <v>0.6802128628782359</v>
       </c>
       <c r="T81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65451177236934255</v>
+        <v>0.68263793570440001</v>
       </c>
       <c r="U81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6552247932574754</v>
+        <v>0.6848273883448216</v>
       </c>
       <c r="V81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65593489777016167</v>
+        <v>0.68700316277339912</v>
       </c>
       <c r="W81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6566536906950472</v>
+        <v>0.68919240622402689</v>
       </c>
       <c r="X81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65732905787400153</v>
+        <v>0.69126088456688972</v>
       </c>
       <c r="Y81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65798997784064006</v>
+        <v>0.6932879486663901</v>
       </c>
       <c r="Z81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65859017076218251</v>
+        <v>0.69515283995454014</v>
       </c>
       <c r="AA81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65937920551459517</v>
+        <v>0.69750712630207967</v>
       </c>
       <c r="AB81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65996836578968399</v>
+        <v>0.69933113079873943</v>
       </c>
       <c r="AC81" s="40">
         <f t="shared" si="2"/>
-        <v>0.66062884249086995</v>
+        <v>0.70133711196934967</v>
       </c>
       <c r="AD81" s="40">
         <f t="shared" si="2"/>
-        <v>0.66134641657448889</v>
+        <v>0.70348486262471299</v>
       </c>
       <c r="AE81" s="40">
         <f t="shared" si="2"/>
-        <v>0.66200374777246207</v>
+        <v>0.70547564304471133</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -60629,123 +60569,123 @@
       </c>
       <c r="B83" s="32">
         <f>B71/SUM(B71:B77)</f>
-        <v>1.1042441770844185E-2</v>
+        <v>1.0901619301798006E-2</v>
       </c>
       <c r="C83" s="32">
         <f t="shared" ref="C83:AE83" si="3">C71/SUM(C71:C77)</f>
-        <v>3.1220360642423318E-2</v>
+        <v>3.065090148397356E-2</v>
       </c>
       <c r="D83" s="32">
         <f t="shared" si="3"/>
-        <v>0.10530438835152919</v>
+        <v>0.10114140760591207</v>
       </c>
       <c r="E83" s="32">
         <f t="shared" si="3"/>
-        <v>0.1818841902823731</v>
+        <v>0.18174893669012401</v>
       </c>
       <c r="F83" s="32">
         <f t="shared" si="3"/>
-        <v>0.28635709471925352</v>
+        <v>0.29626428177445036</v>
       </c>
       <c r="G83" s="32">
         <f t="shared" si="3"/>
-        <v>0.38267268526195064</v>
+        <v>0.40178554649437059</v>
       </c>
       <c r="H83" s="32">
         <f t="shared" si="3"/>
-        <v>0.44664638750924879</v>
+        <v>0.47340047991854545</v>
       </c>
       <c r="I83" s="32">
         <f t="shared" si="3"/>
-        <v>0.48184353333031232</v>
+        <v>0.51635754913892906</v>
       </c>
       <c r="J83" s="32">
         <f t="shared" si="3"/>
-        <v>0.4988981369519076</v>
+        <v>0.53897035622609801</v>
       </c>
       <c r="K83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51060203906696033</v>
+        <v>0.55363500863801729</v>
       </c>
       <c r="L83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51325438828111125</v>
+        <v>0.56105402098321988</v>
       </c>
       <c r="M83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51466968544749725</v>
+        <v>0.5651897362506868</v>
       </c>
       <c r="N83" s="32">
         <f t="shared" si="3"/>
-        <v>0.49898329942479946</v>
+        <v>0.52421520120260912</v>
       </c>
       <c r="O83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50059263272278631</v>
+        <v>0.5288719692083107</v>
       </c>
       <c r="P83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50199882573899901</v>
+        <v>0.53299104969121036</v>
       </c>
       <c r="Q83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50324793210029806</v>
+        <v>0.53669428770559258</v>
       </c>
       <c r="R83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50442023985390194</v>
+        <v>0.54019475426877739</v>
       </c>
       <c r="S83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50554007420759151</v>
+        <v>0.54355022710679335</v>
       </c>
       <c r="T83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50668921882981655</v>
+        <v>0.54698101176318714</v>
       </c>
       <c r="U83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50772374496541617</v>
+        <v>0.55010352451560807</v>
       </c>
       <c r="V83" s="32">
         <f t="shared" si="3"/>
-        <v>0.5087537888889696</v>
+        <v>0.55320483039491208</v>
       </c>
       <c r="W83" s="32">
         <f t="shared" si="3"/>
-        <v>0.50979166774609419</v>
+        <v>0.55631697035905292</v>
       </c>
       <c r="X83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51076937382908483</v>
+        <v>0.55926788045922282</v>
       </c>
       <c r="Y83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51173038253021708</v>
+        <v>0.56216911573296491</v>
       </c>
       <c r="Z83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51260286577054082</v>
+        <v>0.56483281033149235</v>
       </c>
       <c r="AA83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51374208476524919</v>
+        <v>0.56818548681319758</v>
       </c>
       <c r="AB83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51459804178598367</v>
+        <v>0.57079071254958069</v>
       </c>
       <c r="AC83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51555304089309606</v>
+        <v>0.57365448252188378</v>
       </c>
       <c r="AD83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51657766539020855</v>
+        <v>0.57669021961434441</v>
       </c>
       <c r="AE83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51753035475470077</v>
+        <v>0.57953314129873912</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -60754,123 +60694,123 @@
       </c>
       <c r="B84" s="32">
         <f>B75/SUM(B71:B77)</f>
-        <v>4.2180145662672162E-3</v>
+        <v>4.3968547447678493E-3</v>
       </c>
       <c r="C84" s="32">
         <f t="shared" ref="C84:AE84" si="4">C75/SUM(C71:C77)</f>
-        <v>7.6511997379023634E-3</v>
+        <v>7.6603907620308425E-3</v>
       </c>
       <c r="D84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1410964509357096E-2</v>
+        <v>2.1967996475006857E-2</v>
       </c>
       <c r="E84" s="32">
         <f t="shared" si="4"/>
-        <v>2.7030927014586609E-2</v>
+        <v>2.8034165196062957E-2</v>
       </c>
       <c r="F84" s="32">
         <f t="shared" si="4"/>
-        <v>2.9231359480692547E-2</v>
+        <v>3.0743066565258815E-2</v>
       </c>
       <c r="G84" s="32">
         <f t="shared" si="4"/>
-        <v>2.8070357334259208E-2</v>
+        <v>2.9176335309125917E-2</v>
       </c>
       <c r="H84" s="32">
         <f t="shared" si="4"/>
-        <v>2.6376230355153837E-2</v>
+        <v>2.7009365120524792E-2</v>
       </c>
       <c r="I84" s="32">
         <f t="shared" si="4"/>
-        <v>2.5304267526060915E-2</v>
+        <v>2.5647392857359945E-2</v>
       </c>
       <c r="J84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4692518743387588E-2</v>
+        <v>2.4742848870656732E-2</v>
       </c>
       <c r="K84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4233214391005911E-2</v>
+        <v>2.4171052959593983E-2</v>
       </c>
       <c r="L84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4209749837642559E-2</v>
+        <v>2.4036549247778937E-2</v>
       </c>
       <c r="M84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4152746396985683E-2</v>
+        <v>2.3861101775925833E-2</v>
       </c>
       <c r="N84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3319827691693662E-2</v>
+        <v>2.1878863878592891E-2</v>
       </c>
       <c r="O84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3225960662527568E-2</v>
+        <v>2.1648640481563019E-2</v>
       </c>
       <c r="P84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3139612512416783E-2</v>
+        <v>2.1440469671108846E-2</v>
       </c>
       <c r="Q84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3077292565027465E-2</v>
+        <v>2.1293803832621173E-2</v>
       </c>
       <c r="R84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3019773212608334E-2</v>
+        <v>2.1159259846211337E-2</v>
       </c>
       <c r="S84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2959460110558019E-2</v>
+        <v>2.101820980869492E-2</v>
       </c>
       <c r="T84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2905384606779173E-2</v>
+        <v>2.0891799247287072E-2</v>
       </c>
       <c r="U84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2846810952949898E-2</v>
+        <v>2.0755029834128001E-2</v>
       </c>
       <c r="V84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2788638839426299E-2</v>
+        <v>2.0619263068836529E-2</v>
       </c>
       <c r="W84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2733249717416068E-2</v>
+        <v>2.0490006451919399E-2</v>
       </c>
       <c r="X84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2677201707291032E-2</v>
+        <v>2.0359415143190281E-2</v>
       </c>
       <c r="Y84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2617307302028152E-2</v>
+        <v>2.0219637400060962E-2</v>
       </c>
       <c r="Z84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2564297675844877E-2</v>
+        <v>2.0097089202934536E-2</v>
       </c>
       <c r="AA84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2502600032459109E-2</v>
+        <v>1.9951097308320641E-2</v>
       </c>
       <c r="AB84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2450801288910267E-2</v>
+        <v>1.9831688400870507E-2</v>
       </c>
       <c r="AC84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2394154831158794E-2</v>
+        <v>1.9699482115035243E-2</v>
       </c>
       <c r="AD84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2347149260355418E-2</v>
+        <v>1.9589102229860531E-2</v>
       </c>
       <c r="AE84" s="32">
         <f t="shared" si="4"/>
-        <v>2.2291180576103253E-2</v>
+        <v>1.9458577436834622E-2</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -60879,123 +60819,123 @@
       </c>
       <c r="B85" s="40">
         <f>SUM(B83:B84)</f>
-        <v>1.5260456337111402E-2</v>
+        <v>1.5298474046565855E-2</v>
       </c>
       <c r="C85" s="40">
         <f t="shared" ref="C85:AE85" si="5">SUM(C83:C84)</f>
-        <v>3.887156038032568E-2</v>
+        <v>3.8311292246004401E-2</v>
       </c>
       <c r="D85" s="40">
         <f t="shared" si="5"/>
-        <v>0.12671535286088628</v>
+        <v>0.12310940408091893</v>
       </c>
       <c r="E85" s="40">
         <f t="shared" si="5"/>
-        <v>0.20891511729695972</v>
+        <v>0.20978310188618698</v>
       </c>
       <c r="F85" s="40">
         <f t="shared" si="5"/>
-        <v>0.31558845419994608</v>
+        <v>0.32700734833970918</v>
       </c>
       <c r="G85" s="40">
         <f t="shared" si="5"/>
-        <v>0.41074304259620986</v>
+        <v>0.43096188180349648</v>
       </c>
       <c r="H85" s="40">
         <f t="shared" si="5"/>
-        <v>0.47302261786440264</v>
+        <v>0.50040984503907027</v>
       </c>
       <c r="I85" s="40">
         <f t="shared" si="5"/>
-        <v>0.50714780085637323</v>
+        <v>0.54200494199628901</v>
       </c>
       <c r="J85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52359065569529517</v>
+        <v>0.56371320509675471</v>
       </c>
       <c r="K85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53483525345796623</v>
+        <v>0.57780606159761128</v>
       </c>
       <c r="L85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53746413811875382</v>
+        <v>0.58509057023099886</v>
       </c>
       <c r="M85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53882243184448297</v>
+        <v>0.58905083802661262</v>
       </c>
       <c r="N85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52230312711649307</v>
+        <v>0.54609406508120206</v>
       </c>
       <c r="O85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52381859338531389</v>
+        <v>0.55052060968987371</v>
       </c>
       <c r="P85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52513843825141582</v>
+        <v>0.55443151936231916</v>
       </c>
       <c r="Q85" s="40">
         <f t="shared" si="5"/>
-        <v>0.5263252246653255</v>
+        <v>0.55798809153821372</v>
       </c>
       <c r="R85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52744001306651023</v>
+        <v>0.56135401411498875</v>
       </c>
       <c r="S85" s="40">
         <f t="shared" si="5"/>
-        <v>0.52849953431814956</v>
+        <v>0.5645684369154883</v>
       </c>
       <c r="T85" s="40">
         <f t="shared" si="5"/>
-        <v>0.5295946034365957</v>
+        <v>0.56787281101047427</v>
       </c>
       <c r="U85" s="40">
         <f t="shared" si="5"/>
-        <v>0.5305705559183661</v>
+        <v>0.57085855434973609</v>
       </c>
       <c r="V85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53154242772839588</v>
+        <v>0.57382409346374863</v>
       </c>
       <c r="W85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53252491746351027</v>
+        <v>0.57680697681097237</v>
       </c>
       <c r="X85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53344657553637587</v>
+        <v>0.57962729560241311</v>
       </c>
       <c r="Y85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53434768983224523</v>
+        <v>0.58238875313302585</v>
       </c>
       <c r="Z85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53516716344638571</v>
+        <v>0.58492989953442687</v>
       </c>
       <c r="AA85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53624468479770826</v>
+        <v>0.58813658412151826</v>
       </c>
       <c r="AB85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53704884307489398</v>
+        <v>0.59062240095045115</v>
       </c>
       <c r="AC85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53794719572425487</v>
+        <v>0.59335396463691903</v>
       </c>
       <c r="AD85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53892481465056397</v>
+        <v>0.59627932184420496</v>
       </c>
       <c r="AE85" s="40">
         <f t="shared" si="5"/>
-        <v>0.53982153533080401</v>
+        <v>0.59899171873557377</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -61055,7 +60995,7 @@
       </c>
       <c r="C90" s="44">
         <f>B94/SUM(B94:B100)</f>
-        <v>9.8883955358214336E-3</v>
+        <v>1.0567375886524823E-2</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
@@ -61067,7 +61007,7 @@
       </c>
       <c r="C91" s="44">
         <f>C94/SUM(C94:C100)</f>
-        <v>1.7404605399148374E-2</v>
+        <v>1.6308663341138147E-2</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
@@ -61170,94 +61110,94 @@
         <v>969</v>
       </c>
       <c r="B94">
-        <v>1236</v>
+        <v>1341</v>
       </c>
       <c r="C94">
-        <v>2526</v>
+        <v>2403</v>
       </c>
       <c r="D94">
-        <v>6969</v>
+        <v>8448</v>
       </c>
       <c r="E94">
-        <v>11241</v>
+        <v>16236</v>
       </c>
       <c r="F94">
-        <v>15927</v>
+        <v>25251</v>
       </c>
       <c r="G94">
-        <v>22338</v>
+        <v>37533</v>
       </c>
       <c r="H94">
-        <v>31821</v>
+        <v>54609</v>
       </c>
       <c r="I94">
-        <v>42909</v>
+        <v>70872</v>
       </c>
       <c r="J94">
-        <v>56868</v>
+        <v>87666</v>
       </c>
       <c r="K94">
-        <v>71589</v>
+        <v>101334</v>
       </c>
       <c r="L94">
-        <v>78534</v>
+        <v>101784</v>
       </c>
       <c r="M94">
-        <v>85590</v>
+        <v>102861</v>
       </c>
       <c r="N94">
-        <v>69240</v>
+        <v>69453</v>
       </c>
       <c r="O94">
-        <v>75120</v>
+        <v>73293</v>
       </c>
       <c r="P94">
-        <v>79716</v>
+        <v>77598</v>
       </c>
       <c r="Q94">
-        <v>82257</v>
+        <v>81168</v>
       </c>
       <c r="R94">
-        <v>83826</v>
+        <v>84807</v>
       </c>
       <c r="S94">
-        <v>84633</v>
+        <v>88116</v>
       </c>
       <c r="T94">
-        <v>84939</v>
+        <v>90855</v>
       </c>
       <c r="U94">
-        <v>84912</v>
+        <v>92955</v>
       </c>
       <c r="V94">
-        <v>84693</v>
+        <v>94524</v>
       </c>
       <c r="W94">
-        <v>84363</v>
+        <v>95562</v>
       </c>
       <c r="X94">
-        <v>83943</v>
+        <v>96252</v>
       </c>
       <c r="Y94">
-        <v>83448</v>
+        <v>96645</v>
       </c>
       <c r="Z94">
-        <v>82947</v>
+        <v>96918</v>
       </c>
       <c r="AA94">
-        <v>82683</v>
+        <v>97446</v>
       </c>
       <c r="AB94">
-        <v>82164</v>
+        <v>97485</v>
       </c>
       <c r="AC94">
-        <v>81669</v>
+        <v>97509</v>
       </c>
       <c r="AD94">
-        <v>81180</v>
+        <v>97443</v>
       </c>
       <c r="AE94">
-        <v>80685</v>
+        <v>97356</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -61265,94 +61205,94 @@
         <v>970</v>
       </c>
       <c r="B95">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="C95">
-        <v>963</v>
+        <v>180</v>
       </c>
       <c r="D95">
-        <v>948</v>
+        <v>165</v>
       </c>
       <c r="E95">
-        <v>891</v>
+        <v>147</v>
       </c>
       <c r="F95">
-        <v>753</v>
+        <v>111</v>
       </c>
       <c r="G95">
-        <v>681</v>
+        <v>93</v>
       </c>
       <c r="H95">
-        <v>630</v>
+        <v>81</v>
       </c>
       <c r="I95">
-        <v>510</v>
+        <v>57</v>
       </c>
       <c r="J95">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="L95">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="M95">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="N95">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="O95">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="P95">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="Q95">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="R95">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="S95">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="T95">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="U95">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="V95">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="W95">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="X95">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="Y95">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="Z95">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="AA95">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="AB95">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="AC95">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="AD95">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="AE95">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -61360,94 +61300,94 @@
         <v>971</v>
       </c>
       <c r="B96">
-        <v>27708</v>
+        <v>28122</v>
       </c>
       <c r="C96">
-        <v>33168</v>
+        <v>34467</v>
       </c>
       <c r="D96">
-        <v>33408</v>
+        <v>33903</v>
       </c>
       <c r="E96">
-        <v>33771</v>
+        <v>33543</v>
       </c>
       <c r="F96">
-        <v>33588</v>
+        <v>32439</v>
       </c>
       <c r="G96">
-        <v>32751</v>
+        <v>30276</v>
       </c>
       <c r="H96">
-        <v>31023</v>
+        <v>26826</v>
       </c>
       <c r="I96">
-        <v>28806</v>
+        <v>23427</v>
       </c>
       <c r="J96">
-        <v>25785</v>
+        <v>19773</v>
       </c>
       <c r="K96">
-        <v>22419</v>
+        <v>16725</v>
       </c>
       <c r="L96">
-        <v>20727</v>
+        <v>16722</v>
       </c>
       <c r="M96">
-        <v>19062</v>
+        <v>16527</v>
       </c>
       <c r="N96">
-        <v>22965</v>
+        <v>24450</v>
       </c>
       <c r="O96">
-        <v>21543</v>
+        <v>23589</v>
       </c>
       <c r="P96">
-        <v>20415</v>
+        <v>22650</v>
       </c>
       <c r="Q96">
-        <v>19593</v>
+        <v>21735</v>
       </c>
       <c r="R96">
-        <v>19014</v>
+        <v>20889</v>
       </c>
       <c r="S96">
-        <v>18546</v>
+        <v>20061</v>
       </c>
       <c r="T96">
-        <v>18141</v>
+        <v>19317</v>
       </c>
       <c r="U96">
-        <v>17808</v>
+        <v>18732</v>
       </c>
       <c r="V96">
-        <v>17529</v>
+        <v>18285</v>
       </c>
       <c r="W96">
-        <v>17241</v>
+        <v>17898</v>
       </c>
       <c r="X96">
-        <v>17010</v>
+        <v>17637</v>
       </c>
       <c r="Y96">
-        <v>16740</v>
+        <v>17337</v>
       </c>
       <c r="Z96">
-        <v>16515</v>
+        <v>17118</v>
       </c>
       <c r="AA96">
-        <v>16218</v>
+        <v>16800</v>
       </c>
       <c r="AB96">
-        <v>16011</v>
+        <v>16620</v>
       </c>
       <c r="AC96">
-        <v>15786</v>
+        <v>16404</v>
       </c>
       <c r="AD96">
-        <v>15588</v>
+        <v>16236</v>
       </c>
       <c r="AE96">
-        <v>15357</v>
+        <v>16023</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
@@ -61455,94 +61395,94 @@
         <v>972</v>
       </c>
       <c r="B97">
-        <v>95427</v>
+        <v>97344</v>
       </c>
       <c r="C97">
-        <v>108393</v>
+        <v>110283</v>
       </c>
       <c r="D97">
-        <v>113106</v>
+        <v>114387</v>
       </c>
       <c r="E97">
-        <v>113808</v>
+        <v>112407</v>
       </c>
       <c r="F97">
-        <v>112692</v>
+        <v>107904</v>
       </c>
       <c r="G97">
-        <v>109506</v>
+        <v>100251</v>
       </c>
       <c r="H97">
-        <v>103449</v>
+        <v>88470</v>
       </c>
       <c r="I97">
-        <v>95895</v>
+        <v>77025</v>
       </c>
       <c r="J97">
-        <v>85704</v>
+        <v>64908</v>
       </c>
       <c r="K97">
-        <v>74589</v>
+        <v>54978</v>
       </c>
       <c r="L97">
-        <v>68823</v>
+        <v>54813</v>
       </c>
       <c r="M97">
-        <v>63321</v>
+        <v>54201</v>
       </c>
       <c r="N97">
-        <v>76236</v>
+        <v>80094</v>
       </c>
       <c r="O97">
-        <v>71580</v>
+        <v>77343</v>
       </c>
       <c r="P97">
-        <v>67740</v>
+        <v>74106</v>
       </c>
       <c r="Q97">
-        <v>65202</v>
+        <v>71430</v>
       </c>
       <c r="R97">
-        <v>63204</v>
+        <v>68535</v>
       </c>
       <c r="S97">
-        <v>61614</v>
+        <v>65793</v>
       </c>
       <c r="T97">
-        <v>60324</v>
+        <v>63441</v>
       </c>
       <c r="U97">
-        <v>59202</v>
+        <v>61494</v>
       </c>
       <c r="V97">
-        <v>58161</v>
+        <v>59859</v>
       </c>
       <c r="W97">
-        <v>57243</v>
+        <v>58650</v>
       </c>
       <c r="X97">
-        <v>56334</v>
+        <v>57576</v>
       </c>
       <c r="Y97">
-        <v>55590</v>
+        <v>56826</v>
       </c>
       <c r="Z97">
-        <v>54819</v>
+        <v>56070</v>
       </c>
       <c r="AA97">
-        <v>53931</v>
+        <v>55170</v>
       </c>
       <c r="AB97">
-        <v>53241</v>
+        <v>54561</v>
       </c>
       <c r="AC97">
-        <v>52581</v>
+        <v>54003</v>
       </c>
       <c r="AD97">
-        <v>51921</v>
+        <v>53454</v>
       </c>
       <c r="AE97">
-        <v>51303</v>
+        <v>52962</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
@@ -61607,37 +61547,37 @@
         <v>0</v>
       </c>
       <c r="U98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -61645,94 +61585,94 @@
         <v>974</v>
       </c>
       <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99">
         <v>21</v>
       </c>
-      <c r="C99">
-        <v>81</v>
-      </c>
-      <c r="D99">
-        <v>132</v>
-      </c>
       <c r="E99">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="F99">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="G99">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="H99">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="I99">
-        <v>345</v>
+        <v>48</v>
       </c>
       <c r="J99">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="L99">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="M99">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="N99">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="O99">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="P99">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="Q99">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="R99">
-        <v>432</v>
+        <v>75</v>
       </c>
       <c r="S99">
-        <v>438</v>
+        <v>72</v>
       </c>
       <c r="T99">
-        <v>441</v>
+        <v>72</v>
       </c>
       <c r="U99">
-        <v>447</v>
+        <v>72</v>
       </c>
       <c r="V99">
-        <v>453</v>
+        <v>69</v>
       </c>
       <c r="W99">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="X99">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="Y99">
-        <v>474</v>
+        <v>72</v>
       </c>
       <c r="Z99">
-        <v>483</v>
+        <v>72</v>
       </c>
       <c r="AA99">
-        <v>489</v>
+        <v>72</v>
       </c>
       <c r="AB99">
-        <v>498</v>
+        <v>75</v>
       </c>
       <c r="AC99">
-        <v>504</v>
+        <v>75</v>
       </c>
       <c r="AD99">
-        <v>498</v>
+        <v>72</v>
       </c>
       <c r="AE99">
-        <v>507</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -61743,91 +61683,91 @@
         <v>0</v>
       </c>
       <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>3</v>
       </c>
-      <c r="D100">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>21</v>
-      </c>
-      <c r="F100">
-        <v>48</v>
-      </c>
       <c r="G100">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="H100">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="I100">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="J100">
-        <v>813</v>
+        <v>93</v>
       </c>
       <c r="K100">
-        <v>1431</v>
+        <v>192</v>
       </c>
       <c r="L100">
-        <v>2526</v>
+        <v>447</v>
       </c>
       <c r="M100">
-        <v>3108</v>
+        <v>609</v>
       </c>
       <c r="N100">
-        <v>2898</v>
+        <v>549</v>
       </c>
       <c r="O100">
-        <v>3501</v>
+        <v>699</v>
       </c>
       <c r="P100">
-        <v>4200</v>
+        <v>870</v>
       </c>
       <c r="Q100">
-        <v>5292</v>
+        <v>1155</v>
       </c>
       <c r="R100">
-        <v>6537</v>
+        <v>1485</v>
       </c>
       <c r="S100">
-        <v>7899</v>
+        <v>1851</v>
       </c>
       <c r="T100">
-        <v>9342</v>
+        <v>2253</v>
       </c>
       <c r="U100">
-        <v>10827</v>
+        <v>2688</v>
       </c>
       <c r="V100">
-        <v>12327</v>
+        <v>3156</v>
       </c>
       <c r="W100">
-        <v>13800</v>
+        <v>3651</v>
       </c>
       <c r="X100">
-        <v>15234</v>
+        <v>4170</v>
       </c>
       <c r="Y100">
-        <v>16614</v>
+        <v>4701</v>
       </c>
       <c r="Z100">
-        <v>17958</v>
+        <v>5253</v>
       </c>
       <c r="AA100">
-        <v>19305</v>
+        <v>5844</v>
       </c>
       <c r="AB100">
-        <v>20550</v>
+        <v>6417</v>
       </c>
       <c r="AC100">
-        <v>21768</v>
+        <v>7011</v>
       </c>
       <c r="AD100">
-        <v>22938</v>
+        <v>7605</v>
       </c>
       <c r="AE100">
-        <v>24111</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
@@ -61836,123 +61776,123 @@
       </c>
       <c r="B102" s="47">
         <f>B94/SUM(B94:B100)</f>
-        <v>9.8883955358214336E-3</v>
+        <v>1.0567375886524823E-2</v>
       </c>
       <c r="C102" s="47">
         <f t="shared" ref="C102:AE102" si="6">C94/SUM(C94:C100)</f>
-        <v>1.7404605399148374E-2</v>
+        <v>1.6308663341138147E-2</v>
       </c>
       <c r="D102" s="47">
         <f t="shared" si="6"/>
-        <v>4.5085785265119166E-2</v>
+        <v>5.3834977441309169E-2</v>
       </c>
       <c r="E102" s="47">
         <f t="shared" si="6"/>
-        <v>7.028568212939168E-2</v>
+        <v>9.9994457070007203E-2</v>
       </c>
       <c r="F102" s="47">
         <f t="shared" si="6"/>
-        <v>9.7556045571481079E-2</v>
+        <v>0.15234389140271493</v>
       </c>
       <c r="G102" s="47">
         <f t="shared" si="6"/>
-        <v>0.13482047475058392</v>
+        <v>0.22313577912928712</v>
       </c>
       <c r="H102" s="47">
         <f t="shared" si="6"/>
-        <v>0.18997044864332407</v>
+        <v>0.32111985322654624</v>
       </c>
       <c r="I102" s="47">
         <f t="shared" si="6"/>
-        <v>0.25404973357015986</v>
+        <v>0.41331770386829259</v>
       </c>
       <c r="J102" s="47">
         <f t="shared" si="6"/>
-        <v>0.33463378466644306</v>
+        <v>0.50812916239197348</v>
       </c>
       <c r="K102" s="47">
         <f t="shared" si="6"/>
-        <v>0.41937014516185722</v>
+        <v>0.58471818307713608</v>
       </c>
       <c r="L102" s="47">
         <f t="shared" si="6"/>
-        <v>0.45864358673371058</v>
+        <v>0.58551064784454487</v>
       </c>
       <c r="M102" s="47">
         <f t="shared" si="6"/>
-        <v>0.49861060137366958</v>
+        <v>0.59024944481743535</v>
       </c>
       <c r="N102" s="47">
         <f t="shared" si="6"/>
-        <v>0.40248325892857145</v>
+        <v>0.39766734802549086</v>
       </c>
       <c r="O102" s="47">
         <f t="shared" si="6"/>
-        <v>0.43573591340966833</v>
+        <v>0.41875492783929247</v>
       </c>
       <c r="P102" s="47">
         <f t="shared" si="6"/>
-        <v>0.46160794941282746</v>
+        <v>0.44260022929107989</v>
       </c>
       <c r="Q102" s="47">
         <f t="shared" si="6"/>
-        <v>0.47561969852035596</v>
+        <v>0.46227446692181517</v>
       </c>
       <c r="R102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48407886074633588</v>
+        <v>0.48238144804873473</v>
       </c>
       <c r="S102" s="47">
         <f t="shared" si="6"/>
-        <v>0.4884514163030681</v>
+        <v>0.50092093594378884</v>
       </c>
       <c r="T102" s="47">
         <f t="shared" si="6"/>
-        <v>0.49009866712826727</v>
+        <v>0.51636828644501276</v>
       </c>
       <c r="U102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48994287692574001</v>
+        <v>0.52829448773251952</v>
       </c>
       <c r="V102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48879770067179168</v>
+        <v>0.53736739775556841</v>
       </c>
       <c r="W102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48707023469299388</v>
+        <v>0.54346305427123676</v>
       </c>
       <c r="X102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48499818002183975</v>
+        <v>0.54777026565594478</v>
       </c>
       <c r="Y102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48248946245511787</v>
+        <v>0.55041090741341903</v>
       </c>
       <c r="Z102" s="47">
         <f t="shared" si="6"/>
-        <v>0.48000069442033261</v>
+        <v>0.55243762718240741</v>
       </c>
       <c r="AA102" s="47">
         <f t="shared" si="6"/>
-        <v>0.47875555864369096</v>
+        <v>0.55576087328474144</v>
       </c>
       <c r="AB102" s="47">
         <f t="shared" si="6"/>
-        <v>0.47620537965329579</v>
+        <v>0.55653558950469273</v>
       </c>
       <c r="AC102" s="47">
         <f t="shared" si="6"/>
-        <v>0.47377305951966586</v>
+        <v>0.55716881513987937</v>
       </c>
       <c r="AD102" s="47">
         <f t="shared" si="6"/>
-        <v>0.47144499808355694</v>
+        <v>0.55740321252059311</v>
       </c>
       <c r="AE102" s="47">
         <f t="shared" si="6"/>
-        <v>0.46901157924107145</v>
+        <v>0.55742210312961626</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
@@ -61965,119 +61905,119 @@
       </c>
       <c r="C103" s="47">
         <f t="shared" ref="C103:AE103" si="7">C100/SUM(C94:C100)</f>
-        <v>2.0670552730580015E-5</v>
+        <v>0</v>
       </c>
       <c r="D103" s="47">
         <f t="shared" si="7"/>
-        <v>5.8225293067308437E-5</v>
+        <v>0</v>
       </c>
       <c r="E103" s="47">
         <f t="shared" si="7"/>
-        <v>1.3130498396203411E-4</v>
+        <v>0</v>
       </c>
       <c r="F103" s="47">
         <f t="shared" si="7"/>
-        <v>2.9400955531054757E-4</v>
+        <v>1.8099547511312218E-5</v>
       </c>
       <c r="G103" s="47">
         <f t="shared" si="7"/>
-        <v>6.3372503576019843E-4</v>
+        <v>3.5670334766091783E-5</v>
       </c>
       <c r="H103" s="47">
         <f t="shared" si="7"/>
-        <v>1.3432434852690964E-3</v>
+        <v>1.0584624069435133E-4</v>
       </c>
       <c r="I103" s="47">
         <f t="shared" si="7"/>
-        <v>2.575488454706927E-3</v>
+        <v>2.4493937750406773E-4</v>
       </c>
       <c r="J103" s="47">
         <f t="shared" si="7"/>
-        <v>4.7840132751955089E-3</v>
+        <v>5.3904606235545744E-4</v>
       </c>
       <c r="K103" s="47">
         <f t="shared" si="7"/>
-        <v>8.3828336438086532E-3</v>
+        <v>1.107879795042238E-3</v>
       </c>
       <c r="L103" s="47">
         <f t="shared" si="7"/>
-        <v>1.4752001681938434E-2</v>
+        <v>2.5713595416422185E-3</v>
       </c>
       <c r="M103" s="47">
         <f t="shared" si="7"/>
-        <v>1.8105873922997607E-2</v>
+        <v>3.4946375389488544E-3</v>
       </c>
       <c r="N103" s="47">
         <f t="shared" si="7"/>
-        <v>1.6845703125E-2</v>
+        <v>3.1434117182266349E-3</v>
       </c>
       <c r="O103" s="47">
         <f t="shared" si="7"/>
-        <v>2.030766018167264E-2</v>
+        <v>3.9936923657056663E-3</v>
       </c>
       <c r="P103" s="47">
         <f t="shared" si="7"/>
-        <v>2.4320756028073102E-2</v>
+        <v>4.9622696394654442E-3</v>
       </c>
       <c r="Q103" s="47">
         <f t="shared" si="7"/>
-        <v>3.0598969626532985E-2</v>
+        <v>6.5780481137233462E-3</v>
       </c>
       <c r="R103" s="47">
         <f t="shared" si="7"/>
-        <v>3.7749904715706314E-2</v>
+        <v>8.4466665529068473E-3</v>
       </c>
       <c r="S103" s="47">
         <f t="shared" si="7"/>
-        <v>4.558833714246139E-2</v>
+        <v>1.0522545876253496E-2</v>
       </c>
       <c r="T103" s="47">
         <f t="shared" si="7"/>
-        <v>5.3903410074433097E-2</v>
+        <v>1.2804774083546463E-2</v>
       </c>
       <c r="U103" s="47">
         <f t="shared" si="7"/>
-        <v>6.2471871213432575E-2</v>
+        <v>1.5276806874563094E-2</v>
       </c>
       <c r="V103" s="47">
         <f t="shared" si="7"/>
-        <v>7.1144123554262764E-2</v>
+        <v>1.7941808507009584E-2</v>
       </c>
       <c r="W103" s="47">
         <f t="shared" si="7"/>
-        <v>7.9674374296354031E-2</v>
+        <v>2.0763311893265999E-2</v>
       </c>
       <c r="X103" s="47">
         <f t="shared" si="7"/>
-        <v>8.8017610455341205E-2</v>
+        <v>2.3731475790480093E-2</v>
       </c>
       <c r="Y103" s="47">
         <f t="shared" si="7"/>
-        <v>9.6060779518134978E-2</v>
+        <v>2.6773052674742434E-2</v>
       </c>
       <c r="Z103" s="47">
         <f t="shared" si="7"/>
-        <v>0.10392000277768133</v>
+        <v>2.9942372475589528E-2</v>
       </c>
       <c r="AA103" s="47">
         <f t="shared" si="7"/>
-        <v>0.11178085047248472</v>
+        <v>3.3329911371180236E-2</v>
       </c>
       <c r="AB103" s="47">
         <f t="shared" si="7"/>
-        <v>0.1191035070331925</v>
+        <v>3.6634239912310747E-2</v>
       </c>
       <c r="AC103" s="47">
         <f t="shared" si="7"/>
-        <v>0.12627915071353984</v>
+        <v>4.0061025781678548E-2</v>
       </c>
       <c r="AD103" s="47">
         <f t="shared" si="7"/>
-        <v>0.13321021638384611</v>
+        <v>4.3502883031301481E-2</v>
       </c>
       <c r="AE103" s="47">
         <f t="shared" si="7"/>
-        <v>0.14015415736607142</v>
+        <v>4.7133189048060735E-2</v>
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
@@ -62086,123 +62026,123 @@
       </c>
       <c r="B104" s="48">
         <f>SUM(B102:B103)</f>
-        <v>9.8883955358214336E-3</v>
+        <v>1.0567375886524823E-2</v>
       </c>
       <c r="C104" s="48">
         <f t="shared" ref="C104:AE104" si="8">SUM(C102:C103)</f>
-        <v>1.7425275951878955E-2</v>
+        <v>1.6308663341138147E-2</v>
       </c>
       <c r="D104" s="48">
         <f t="shared" si="8"/>
-        <v>4.5144010558186475E-2</v>
+        <v>5.3834977441309169E-2</v>
       </c>
       <c r="E104" s="48">
         <f t="shared" si="8"/>
-        <v>7.0416987113353716E-2</v>
+        <v>9.9994457070007203E-2</v>
       </c>
       <c r="F104" s="48">
         <f t="shared" si="8"/>
-        <v>9.7850055126791624E-2</v>
+        <v>0.15236199095022623</v>
       </c>
       <c r="G104" s="48">
         <f t="shared" si="8"/>
-        <v>0.13545419978634413</v>
+        <v>0.22317144946405321</v>
       </c>
       <c r="H104" s="48">
         <f t="shared" si="8"/>
-        <v>0.19131369212859317</v>
+        <v>0.32122569946724061</v>
       </c>
       <c r="I104" s="48">
         <f t="shared" si="8"/>
-        <v>0.25662522202486682</v>
+        <v>0.41356264324579667</v>
       </c>
       <c r="J104" s="48">
         <f t="shared" si="8"/>
-        <v>0.33941779794163857</v>
+        <v>0.50866820845432892</v>
       </c>
       <c r="K104" s="48">
         <f t="shared" si="8"/>
-        <v>0.42775297880566587</v>
+        <v>0.58582606287217831</v>
       </c>
       <c r="L104" s="48">
         <f t="shared" si="8"/>
-        <v>0.47339558841564899</v>
+        <v>0.5880820073861871</v>
       </c>
       <c r="M104" s="48">
         <f t="shared" si="8"/>
-        <v>0.5167164752966672</v>
+        <v>0.59374408235638421</v>
       </c>
       <c r="N104" s="48">
         <f t="shared" si="8"/>
-        <v>0.41932896205357145</v>
+        <v>0.40081075974371749</v>
       </c>
       <c r="O104" s="48">
         <f t="shared" si="8"/>
-        <v>0.45604357359134096</v>
+        <v>0.42274862020499815</v>
       </c>
       <c r="P104" s="48">
         <f t="shared" si="8"/>
-        <v>0.48592870544090055</v>
+        <v>0.44756249893054534</v>
       </c>
       <c r="Q104" s="48">
         <f t="shared" si="8"/>
-        <v>0.50621866814688898</v>
+        <v>0.46885251503553854</v>
       </c>
       <c r="R104" s="48">
         <f t="shared" si="8"/>
-        <v>0.52182876546204215</v>
+        <v>0.49082811460164155</v>
       </c>
       <c r="S104" s="48">
         <f t="shared" si="8"/>
-        <v>0.53403975344552945</v>
+        <v>0.51144348182004229</v>
       </c>
       <c r="T104" s="48">
         <f t="shared" si="8"/>
-        <v>0.54400207720270033</v>
+        <v>0.52917306052855917</v>
       </c>
       <c r="U104" s="48">
         <f t="shared" si="8"/>
-        <v>0.55241474813917257</v>
+        <v>0.54357129460708264</v>
       </c>
       <c r="V104" s="48">
         <f t="shared" si="8"/>
-        <v>0.55994182422605443</v>
+        <v>0.55530920626257796</v>
       </c>
       <c r="W104" s="48">
         <f t="shared" si="8"/>
-        <v>0.56674460898934786</v>
+        <v>0.56422636616450272</v>
       </c>
       <c r="X104" s="48">
         <f t="shared" si="8"/>
-        <v>0.57301579047718099</v>
+        <v>0.57150174144642485</v>
       </c>
       <c r="Y104" s="48">
         <f t="shared" si="8"/>
-        <v>0.57855024197325289</v>
+        <v>0.57718396008816142</v>
       </c>
       <c r="Z104" s="48">
         <f t="shared" si="8"/>
-        <v>0.58392069719801398</v>
+        <v>0.58237999965799692</v>
       </c>
       <c r="AA104" s="48">
         <f t="shared" si="8"/>
-        <v>0.59053640911617566</v>
+        <v>0.58909078465592168</v>
       </c>
       <c r="AB104" s="48">
         <f t="shared" si="8"/>
-        <v>0.59530888668648829</v>
+        <v>0.59316982941700347</v>
       </c>
       <c r="AC104" s="48">
         <f t="shared" si="8"/>
-        <v>0.60005221023320576</v>
+        <v>0.59722984092155795</v>
       </c>
       <c r="AD104" s="48">
         <f t="shared" si="8"/>
-        <v>0.60465521446740311</v>
+        <v>0.60090609555189456</v>
       </c>
       <c r="AE104" s="48">
         <f t="shared" si="8"/>
-        <v>0.6091657366071429</v>
+        <v>0.60455529217767701</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -62310,94 +62250,94 @@
         <v>981</v>
       </c>
       <c r="B109">
-        <v>23619</v>
+        <v>8955</v>
       </c>
       <c r="C109">
-        <v>129741</v>
+        <v>55989</v>
       </c>
       <c r="D109">
-        <v>275328</v>
+        <v>161925</v>
       </c>
       <c r="E109">
-        <v>427830</v>
+        <v>287415</v>
       </c>
       <c r="F109">
-        <v>556365</v>
+        <v>407430</v>
       </c>
       <c r="G109">
-        <v>654186</v>
+        <v>517116</v>
       </c>
       <c r="H109">
-        <v>724191</v>
+        <v>609798</v>
       </c>
       <c r="I109">
-        <v>779235</v>
+        <v>693078</v>
       </c>
       <c r="J109">
-        <v>826290</v>
+        <v>770916</v>
       </c>
       <c r="K109">
-        <v>861915</v>
+        <v>831864</v>
       </c>
       <c r="L109">
-        <v>873060</v>
+        <v>847719</v>
       </c>
       <c r="M109">
-        <v>902070</v>
+        <v>868422</v>
       </c>
       <c r="N109">
-        <v>858324</v>
+        <v>758025</v>
       </c>
       <c r="O109">
-        <v>898575</v>
+        <v>802122</v>
       </c>
       <c r="P109">
-        <v>940968</v>
+        <v>847737</v>
       </c>
       <c r="Q109">
-        <v>952176</v>
+        <v>862479</v>
       </c>
       <c r="R109">
-        <v>965595</v>
+        <v>880197</v>
       </c>
       <c r="S109">
-        <v>977916</v>
+        <v>895728</v>
       </c>
       <c r="T109">
-        <v>990534</v>
+        <v>912513</v>
       </c>
       <c r="U109" s="39">
-        <v>1003620</v>
+        <v>928200</v>
       </c>
       <c r="V109" s="39">
-        <v>1017610</v>
+        <v>944628</v>
       </c>
       <c r="W109" s="39">
-        <v>1032670</v>
+        <v>962934</v>
       </c>
       <c r="X109" s="39">
-        <v>1046830</v>
+        <v>978864</v>
       </c>
       <c r="Y109" s="39">
-        <v>1060560</v>
+        <v>994632</v>
       </c>
       <c r="Z109" s="39">
-        <v>1074780</v>
+        <v>1011670</v>
       </c>
       <c r="AA109" s="39">
-        <v>1091930</v>
+        <v>1031980</v>
       </c>
       <c r="AB109" s="39">
-        <v>1108050</v>
+        <v>1049650</v>
       </c>
       <c r="AC109" s="39">
-        <v>1124080</v>
+        <v>1068350</v>
       </c>
       <c r="AD109" s="39">
-        <v>1140260</v>
+        <v>1085570</v>
       </c>
       <c r="AE109" s="39">
-        <v>1159880</v>
+        <v>1107250</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
@@ -62405,94 +62345,94 @@
         <v>982</v>
       </c>
       <c r="B110">
-        <v>1392</v>
+        <v>1203</v>
       </c>
       <c r="C110">
-        <v>1461</v>
+        <v>1329</v>
       </c>
       <c r="D110">
-        <v>1392</v>
+        <v>1350</v>
       </c>
       <c r="E110">
-        <v>1218</v>
+        <v>1155</v>
       </c>
       <c r="F110">
-        <v>1083</v>
+        <v>996</v>
       </c>
       <c r="G110">
-        <v>1008</v>
+        <v>906</v>
       </c>
       <c r="H110">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="I110">
-        <v>915</v>
+        <v>774</v>
       </c>
       <c r="J110">
-        <v>885</v>
+        <v>729</v>
       </c>
       <c r="K110">
-        <v>864</v>
+        <v>693</v>
       </c>
       <c r="L110">
-        <v>858</v>
+        <v>681</v>
       </c>
       <c r="M110">
-        <v>846</v>
+        <v>672</v>
       </c>
       <c r="N110">
-        <v>879</v>
+        <v>738</v>
       </c>
       <c r="O110">
-        <v>858</v>
+        <v>711</v>
       </c>
       <c r="P110">
-        <v>837</v>
+        <v>687</v>
       </c>
       <c r="Q110">
-        <v>834</v>
+        <v>684</v>
       </c>
       <c r="R110">
-        <v>831</v>
+        <v>678</v>
       </c>
       <c r="S110">
-        <v>831</v>
+        <v>672</v>
       </c>
       <c r="T110">
-        <v>831</v>
+        <v>669</v>
       </c>
       <c r="U110">
-        <v>831</v>
+        <v>663</v>
       </c>
       <c r="V110">
-        <v>831</v>
+        <v>663</v>
       </c>
       <c r="W110">
-        <v>831</v>
+        <v>660</v>
       </c>
       <c r="X110">
-        <v>834</v>
+        <v>660</v>
       </c>
       <c r="Y110">
-        <v>837</v>
+        <v>660</v>
       </c>
       <c r="Z110">
-        <v>837</v>
+        <v>660</v>
       </c>
       <c r="AA110">
-        <v>834</v>
+        <v>657</v>
       </c>
       <c r="AB110">
-        <v>837</v>
+        <v>657</v>
       </c>
       <c r="AC110">
-        <v>840</v>
+        <v>657</v>
       </c>
       <c r="AD110">
-        <v>843</v>
+        <v>657</v>
       </c>
       <c r="AE110">
-        <v>846</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
@@ -62500,94 +62440,94 @@
         <v>983</v>
       </c>
       <c r="B111" s="39">
-        <v>1098320</v>
+        <v>1144050</v>
       </c>
       <c r="C111" s="39">
-        <v>1136360</v>
+        <v>1231810</v>
       </c>
       <c r="D111" s="39">
-        <v>1034210</v>
-      </c>
-      <c r="E111">
-        <v>945393</v>
+        <v>1132760</v>
+      </c>
+      <c r="E111" s="39">
+        <v>1051230</v>
       </c>
       <c r="F111">
-        <v>878670</v>
+        <v>981048</v>
       </c>
       <c r="G111">
-        <v>836754</v>
+        <v>926580</v>
       </c>
       <c r="H111">
-        <v>806805</v>
+        <v>877248</v>
       </c>
       <c r="I111">
-        <v>784269</v>
+        <v>832761</v>
       </c>
       <c r="J111">
-        <v>766557</v>
+        <v>792657</v>
       </c>
       <c r="K111">
-        <v>754482</v>
+        <v>761589</v>
       </c>
       <c r="L111">
-        <v>759516</v>
+        <v>764148</v>
       </c>
       <c r="M111">
-        <v>757008</v>
+        <v>765780</v>
       </c>
       <c r="N111">
-        <v>798390</v>
+        <v>857481</v>
       </c>
       <c r="O111">
-        <v>787053</v>
+        <v>841323</v>
       </c>
       <c r="P111">
-        <v>776934</v>
+        <v>827748</v>
       </c>
       <c r="Q111">
-        <v>781761</v>
+        <v>829869</v>
       </c>
       <c r="R111">
-        <v>788877</v>
+        <v>834411</v>
       </c>
       <c r="S111">
-        <v>796542</v>
+        <v>840177</v>
       </c>
       <c r="T111">
-        <v>802854</v>
+        <v>843663</v>
       </c>
       <c r="U111">
-        <v>811236</v>
+        <v>850461</v>
       </c>
       <c r="V111">
-        <v>820356</v>
+        <v>858291</v>
       </c>
       <c r="W111">
-        <v>828699</v>
+        <v>864252</v>
       </c>
       <c r="X111">
-        <v>838212</v>
+        <v>873006</v>
       </c>
       <c r="Y111">
-        <v>845961</v>
+        <v>878880</v>
       </c>
       <c r="Z111">
-        <v>854151</v>
+        <v>885186</v>
       </c>
       <c r="AA111">
-        <v>862209</v>
+        <v>890772</v>
       </c>
       <c r="AB111">
-        <v>871926</v>
+        <v>899400</v>
       </c>
       <c r="AC111">
-        <v>880377</v>
+        <v>905601</v>
       </c>
       <c r="AD111">
-        <v>890211</v>
+        <v>914418</v>
       </c>
       <c r="AE111">
-        <v>900714</v>
+        <v>922863</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
@@ -62595,94 +62535,94 @@
         <v>984</v>
       </c>
       <c r="B112">
-        <v>815415</v>
+        <v>630591</v>
       </c>
       <c r="C112">
-        <v>806325</v>
+        <v>620205</v>
       </c>
       <c r="D112">
-        <v>758331</v>
+        <v>609021</v>
       </c>
       <c r="E112">
-        <v>691179</v>
+        <v>561897</v>
       </c>
       <c r="F112">
-        <v>642024</v>
+        <v>523770</v>
       </c>
       <c r="G112">
-        <v>607326</v>
+        <v>488124</v>
       </c>
       <c r="H112">
-        <v>584904</v>
+        <v>461058</v>
       </c>
       <c r="I112">
-        <v>567801</v>
+        <v>436497</v>
       </c>
       <c r="J112">
-        <v>552366</v>
+        <v>411576</v>
       </c>
       <c r="K112">
-        <v>543372</v>
+        <v>395019</v>
       </c>
       <c r="L112">
-        <v>544359</v>
+        <v>392532</v>
       </c>
       <c r="M112">
-        <v>542178</v>
+        <v>392817</v>
       </c>
       <c r="N112">
-        <v>567936</v>
+        <v>433905</v>
       </c>
       <c r="O112">
-        <v>559623</v>
+        <v>425346</v>
       </c>
       <c r="P112">
-        <v>549660</v>
+        <v>414303</v>
       </c>
       <c r="Q112">
-        <v>553827</v>
+        <v>416493</v>
       </c>
       <c r="R112">
-        <v>558000</v>
+        <v>417474</v>
       </c>
       <c r="S112">
-        <v>562836</v>
+        <v>419487</v>
       </c>
       <c r="T112">
-        <v>567279</v>
+        <v>421197</v>
       </c>
       <c r="U112">
-        <v>572754</v>
+        <v>423927</v>
       </c>
       <c r="V112">
-        <v>578106</v>
+        <v>426231</v>
       </c>
       <c r="W112">
-        <v>584148</v>
+        <v>429429</v>
       </c>
       <c r="X112">
-        <v>589416</v>
+        <v>431670</v>
       </c>
       <c r="Y112">
-        <v>595749</v>
+        <v>435867</v>
       </c>
       <c r="Z112">
-        <v>600996</v>
+        <v>438231</v>
       </c>
       <c r="AA112">
-        <v>606549</v>
+        <v>440829</v>
       </c>
       <c r="AB112">
-        <v>612765</v>
+        <v>444201</v>
       </c>
       <c r="AC112">
-        <v>619155</v>
+        <v>447918</v>
       </c>
       <c r="AD112">
-        <v>626157</v>
+        <v>452403</v>
       </c>
       <c r="AE112">
-        <v>634311</v>
+        <v>457686</v>
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
@@ -62690,94 +62630,94 @@
         <v>985</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C113">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="D113">
-        <v>660</v>
+        <v>540</v>
       </c>
       <c r="E113">
-        <v>846</v>
+        <v>696</v>
       </c>
       <c r="F113">
-        <v>1104</v>
+        <v>909</v>
       </c>
       <c r="G113">
-        <v>1485</v>
+        <v>1236</v>
       </c>
       <c r="H113">
-        <v>2022</v>
+        <v>1707</v>
       </c>
       <c r="I113">
-        <v>2772</v>
+        <v>2385</v>
       </c>
       <c r="J113">
-        <v>3801</v>
+        <v>3354</v>
       </c>
       <c r="K113">
-        <v>5208</v>
+        <v>4755</v>
       </c>
       <c r="L113">
-        <v>6702</v>
+        <v>6021</v>
       </c>
       <c r="M113">
-        <v>8730</v>
+        <v>7659</v>
       </c>
       <c r="N113">
-        <v>10356</v>
+        <v>8250</v>
       </c>
       <c r="O113">
-        <v>13173</v>
+        <v>10443</v>
       </c>
       <c r="P113">
-        <v>16455</v>
+        <v>13020</v>
       </c>
       <c r="Q113">
-        <v>19464</v>
+        <v>15348</v>
       </c>
       <c r="R113">
-        <v>22554</v>
+        <v>17712</v>
       </c>
       <c r="S113">
-        <v>25590</v>
+        <v>20055</v>
       </c>
       <c r="T113">
-        <v>28401</v>
+        <v>22188</v>
       </c>
       <c r="U113">
-        <v>31017</v>
+        <v>24201</v>
       </c>
       <c r="V113">
-        <v>33369</v>
+        <v>26019</v>
       </c>
       <c r="W113">
-        <v>35394</v>
+        <v>27531</v>
       </c>
       <c r="X113">
-        <v>37170</v>
+        <v>28896</v>
       </c>
       <c r="Y113">
-        <v>38652</v>
+        <v>30027</v>
       </c>
       <c r="Z113">
-        <v>39897</v>
+        <v>30942</v>
       </c>
       <c r="AA113">
-        <v>41058</v>
+        <v>31842</v>
       </c>
       <c r="AB113">
-        <v>42096</v>
+        <v>32643</v>
       </c>
       <c r="AC113">
-        <v>42948</v>
+        <v>33240</v>
       </c>
       <c r="AD113">
-        <v>43788</v>
+        <v>33882</v>
       </c>
       <c r="AE113">
-        <v>44622</v>
+        <v>34482</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
@@ -62785,94 +62725,94 @@
         <v>986</v>
       </c>
       <c r="B114">
-        <v>465</v>
+        <v>369</v>
       </c>
       <c r="C114">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="D114">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="E114">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="F114">
+        <v>399</v>
+      </c>
+      <c r="G114">
+        <v>387</v>
+      </c>
+      <c r="H114">
+        <v>375</v>
+      </c>
+      <c r="I114">
+        <v>351</v>
+      </c>
+      <c r="J114">
+        <v>339</v>
+      </c>
+      <c r="K114">
+        <v>327</v>
+      </c>
+      <c r="L114">
+        <v>327</v>
+      </c>
+      <c r="M114">
+        <v>330</v>
+      </c>
+      <c r="N114">
+        <v>369</v>
+      </c>
+      <c r="O114">
+        <v>363</v>
+      </c>
+      <c r="P114">
+        <v>360</v>
+      </c>
+      <c r="Q114">
+        <v>363</v>
+      </c>
+      <c r="R114">
+        <v>369</v>
+      </c>
+      <c r="S114">
+        <v>372</v>
+      </c>
+      <c r="T114">
+        <v>375</v>
+      </c>
+      <c r="U114">
+        <v>381</v>
+      </c>
+      <c r="V114">
+        <v>384</v>
+      </c>
+      <c r="W114">
+        <v>393</v>
+      </c>
+      <c r="X114">
+        <v>399</v>
+      </c>
+      <c r="Y114">
+        <v>408</v>
+      </c>
+      <c r="Z114">
+        <v>414</v>
+      </c>
+      <c r="AA114">
+        <v>423</v>
+      </c>
+      <c r="AB114">
         <v>429</v>
       </c>
-      <c r="G114">
-        <v>420</v>
-      </c>
-      <c r="H114">
-        <v>411</v>
-      </c>
-      <c r="I114">
-        <v>402</v>
-      </c>
-      <c r="J114">
-        <v>399</v>
-      </c>
-      <c r="K114">
-        <v>396</v>
-      </c>
-      <c r="L114">
-        <v>402</v>
-      </c>
-      <c r="M114">
-        <v>405</v>
-      </c>
-      <c r="N114">
-        <v>429</v>
-      </c>
-      <c r="O114">
-        <v>429</v>
-      </c>
-      <c r="P114">
-        <v>426</v>
-      </c>
-      <c r="Q114">
-        <v>435</v>
-      </c>
-      <c r="R114">
-        <v>444</v>
-      </c>
-      <c r="S114">
-        <v>453</v>
-      </c>
-      <c r="T114">
-        <v>462</v>
-      </c>
-      <c r="U114">
-        <v>471</v>
-      </c>
-      <c r="V114">
-        <v>480</v>
-      </c>
-      <c r="W114">
-        <v>489</v>
-      </c>
-      <c r="X114">
-        <v>501</v>
-      </c>
-      <c r="Y114">
-        <v>513</v>
-      </c>
-      <c r="Z114">
-        <v>525</v>
-      </c>
-      <c r="AA114">
-        <v>537</v>
-      </c>
-      <c r="AB114">
-        <v>549</v>
-      </c>
       <c r="AC114">
-        <v>561</v>
+        <v>438</v>
       </c>
       <c r="AD114">
-        <v>573</v>
+        <v>447</v>
       </c>
       <c r="AE114">
-        <v>588</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
@@ -62907,67 +62847,67 @@
         <v>0</v>
       </c>
       <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
         <v>3</v>
       </c>
-      <c r="L115">
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115">
         <v>6</v>
       </c>
-      <c r="M115">
+      <c r="T115">
+        <v>6</v>
+      </c>
+      <c r="U115">
+        <v>6</v>
+      </c>
+      <c r="V115">
         <v>9</v>
       </c>
-      <c r="N115">
+      <c r="W115">
+        <v>9</v>
+      </c>
+      <c r="X115">
+        <v>9</v>
+      </c>
+      <c r="Y115">
         <v>12</v>
       </c>
-      <c r="O115">
+      <c r="Z115">
+        <v>12</v>
+      </c>
+      <c r="AA115">
+        <v>12</v>
+      </c>
+      <c r="AB115">
         <v>15</v>
       </c>
-      <c r="P115">
-        <v>21</v>
-      </c>
-      <c r="Q115">
-        <v>27</v>
-      </c>
-      <c r="R115">
-        <v>33</v>
-      </c>
-      <c r="S115">
-        <v>39</v>
-      </c>
-      <c r="T115">
-        <v>45</v>
-      </c>
-      <c r="U115">
-        <v>51</v>
-      </c>
-      <c r="V115">
-        <v>57</v>
-      </c>
-      <c r="W115">
-        <v>63</v>
-      </c>
-      <c r="X115">
-        <v>66</v>
-      </c>
-      <c r="Y115">
-        <v>72</v>
-      </c>
-      <c r="Z115">
-        <v>75</v>
-      </c>
-      <c r="AA115">
-        <v>81</v>
-      </c>
-      <c r="AB115">
-        <v>84</v>
-      </c>
       <c r="AC115">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="AD115">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="AE115">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
@@ -62976,123 +62916,123 @@
       </c>
       <c r="B117" s="47">
         <f>B109/SUM(B109:B115)</f>
-        <v>1.2179695762864382E-2</v>
+        <v>5.0161407140900619E-3</v>
       </c>
       <c r="C117" s="47">
         <f t="shared" ref="C117:AE117" si="9">C109/SUM(C109:C115)</f>
-        <v>6.2530845870894608E-2</v>
+        <v>2.9312200668868305E-2</v>
       </c>
       <c r="D117" s="47">
         <f t="shared" si="9"/>
-        <v>0.13298331960809412</v>
+        <v>8.4954557116167256E-2</v>
       </c>
       <c r="E117" s="47">
         <f t="shared" si="9"/>
-        <v>0.20698954384213</v>
+        <v>0.15104813738041334</v>
       </c>
       <c r="F117" s="47">
         <f t="shared" si="9"/>
-        <v>0.2675249738540878</v>
+        <v>0.21280696476251362</v>
       </c>
       <c r="G117" s="47">
         <f t="shared" si="9"/>
-        <v>0.31134234636839603</v>
+        <v>0.26733335091030624</v>
       </c>
       <c r="H117" s="47">
         <f t="shared" si="9"/>
-        <v>0.34171348652593103</v>
+        <v>0.3125524723914494</v>
       </c>
       <c r="I117" s="47">
         <f t="shared" si="9"/>
-        <v>0.36491392220826696</v>
+        <v>0.3525596613366459</v>
       </c>
       <c r="J117" s="47">
         <f t="shared" si="9"/>
-        <v>0.38426766894635067</v>
+        <v>0.38943589292831626</v>
       </c>
       <c r="K117" s="47">
         <f t="shared" si="9"/>
-        <v>0.39788527586970973</v>
+        <v>0.41713187985239542</v>
       </c>
       <c r="L117" s="47">
         <f t="shared" si="9"/>
-        <v>0.39958753317653001</v>
+        <v>0.42145132711685429</v>
       </c>
       <c r="M117" s="47">
         <f t="shared" si="9"/>
-        <v>0.40794646999926737</v>
+        <v>0.42660044800754537</v>
       </c>
       <c r="N117" s="47">
         <f t="shared" si="9"/>
-        <v>0.38380987387348714</v>
+        <v>0.3681935021333147</v>
       </c>
       <c r="O117" s="47">
         <f t="shared" si="9"/>
-        <v>0.3976477679152251</v>
+        <v>0.38557848164790981</v>
       </c>
       <c r="P117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41174794917606039</v>
+        <v>0.40294401998613977</v>
       </c>
       <c r="Q117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41246094907395375</v>
+        <v>0.40582682700628026</v>
       </c>
       <c r="R117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41329493128978989</v>
+        <v>0.40923330562328092</v>
       </c>
       <c r="S117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41363383155535871</v>
+        <v>0.41154570853991529</v>
       </c>
       <c r="T117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41437897997243983</v>
+        <v>0.41466347300817818</v>
       </c>
       <c r="U117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41472243572260925</v>
+        <v>0.41663692932927382</v>
       </c>
       <c r="V117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41521391507865363</v>
+        <v>0.41867632882358807</v>
       </c>
       <c r="W117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41601438024665893</v>
+        <v>0.42137695999663927</v>
       </c>
       <c r="X117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41656105042958119</v>
+        <v>0.42310884269056809</v>
       </c>
       <c r="Y117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41715833891873011</v>
+        <v>0.42496814764113094</v>
       </c>
       <c r="Z117" s="47">
         <f t="shared" si="9"/>
-        <v>0.4179972394867732</v>
+        <v>0.42738523476890644</v>
       </c>
       <c r="AA117" s="47">
         <f t="shared" si="9"/>
-        <v>0.41945714463517564</v>
+        <v>0.43061695837497366</v>
       </c>
       <c r="AB117" s="47">
         <f t="shared" si="9"/>
-        <v>0.42030385687251143</v>
+        <v>0.43248956013506412</v>
       </c>
       <c r="AC117" s="47">
         <f t="shared" si="9"/>
-        <v>0.42131176050805685</v>
+        <v>0.43495714347946984</v>
       </c>
       <c r="AD117" s="47">
         <f t="shared" si="9"/>
-        <v>0.42201810414956464</v>
+        <v>0.43642899872637686</v>
       </c>
       <c r="AE117" s="47">
         <f t="shared" si="9"/>
-        <v>0.42315063130755765</v>
+        <v>0.43878976848068768</v>
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
@@ -63101,123 +63041,123 @@
       </c>
       <c r="B118" s="47">
         <f>B113/SUM(B109:B115)</f>
-        <v>0</v>
+        <v>3.8650330460325436E-5</v>
       </c>
       <c r="C118" s="47">
         <f t="shared" ref="C118:AE118" si="10">C113/SUM(C109:C115)</f>
-        <v>2.0676372834041502E-4</v>
+        <v>1.5706049760953923E-4</v>
       </c>
       <c r="D118" s="47">
         <f t="shared" si="10"/>
-        <v>3.1877974975789644E-4</v>
+        <v>2.8331302048930257E-4</v>
       </c>
       <c r="E118" s="47">
         <f t="shared" si="10"/>
-        <v>4.0930545798668162E-4</v>
+        <v>3.6577598113100455E-4</v>
       </c>
       <c r="F118" s="47">
         <f t="shared" si="10"/>
-        <v>5.3085217642179672E-4</v>
+        <v>4.747847015907638E-4</v>
       </c>
       <c r="G118" s="47">
         <f t="shared" si="10"/>
-        <v>7.0674606970657901E-4</v>
+        <v>6.3897466279352899E-4</v>
       </c>
       <c r="H118" s="47">
         <f t="shared" si="10"/>
-        <v>9.5409176550859175E-4</v>
+        <v>8.7492427061453817E-4</v>
       </c>
       <c r="I118" s="47">
         <f t="shared" si="10"/>
-        <v>1.2981210961536841E-3</v>
+        <v>1.2132181259366197E-3</v>
       </c>
       <c r="J118" s="47">
         <f t="shared" si="10"/>
-        <v>1.767661970573381E-3</v>
+        <v>1.6943064936796911E-3</v>
       </c>
       <c r="K118" s="47">
         <f t="shared" si="10"/>
-        <v>2.4041657434079326E-3</v>
+        <v>2.384358607534573E-3</v>
       </c>
       <c r="L118" s="47">
         <f t="shared" si="10"/>
-        <v>3.0674130613578725E-3</v>
+        <v>2.9933957367601523E-3</v>
       </c>
       <c r="M118" s="47">
         <f t="shared" si="10"/>
-        <v>3.9480003581691047E-3</v>
+        <v>3.762379155859467E-3</v>
       </c>
       <c r="N118" s="47">
         <f t="shared" si="10"/>
-        <v>4.6308096404549248E-3</v>
+        <v>4.0072509384253109E-3</v>
       </c>
       <c r="O118" s="47">
         <f t="shared" si="10"/>
-        <v>5.8294678204348672E-3</v>
+        <v>5.0199297411729418E-3</v>
       </c>
       <c r="P118" s="47">
         <f t="shared" si="10"/>
-        <v>7.2003644158909483E-3</v>
+        <v>6.1886306014949681E-3</v>
       </c>
       <c r="Q118" s="47">
         <f t="shared" si="10"/>
-        <v>8.4313613373740107E-3</v>
+        <v>7.2217759978995301E-3</v>
       </c>
       <c r="R118" s="47">
         <f t="shared" si="10"/>
-        <v>9.6535854890610669E-3</v>
+        <v>8.2349068551694129E-3</v>
       </c>
       <c r="S118" s="47">
         <f t="shared" si="10"/>
-        <v>1.0823925316184244E-2</v>
+        <v>9.2143476421056407E-3</v>
       </c>
       <c r="T118" s="47">
         <f t="shared" si="10"/>
-        <v>1.18812452779988E-2</v>
+        <v>1.0082654317369131E-2</v>
       </c>
       <c r="U118" s="47">
         <f t="shared" si="10"/>
-        <v>1.2817048074777477E-2</v>
+        <v>1.0862993241432617E-2</v>
       </c>
       <c r="V118" s="47">
         <f t="shared" si="10"/>
-        <v>1.3615504104971053E-2</v>
+        <v>1.153209453844364E-2</v>
       </c>
       <c r="W118" s="47">
         <f t="shared" si="10"/>
-        <v>1.4258585002421147E-2</v>
+        <v>1.2047481017045275E-2</v>
       </c>
       <c r="X118" s="47">
         <f t="shared" si="10"/>
-        <v>1.4790915663925885E-2</v>
+        <v>1.2490144819287107E-2</v>
       </c>
       <c r="Y118" s="47">
         <f t="shared" si="10"/>
-        <v>1.5203292709405179E-2</v>
+        <v>1.2829386717117726E-2</v>
       </c>
       <c r="Z118" s="47">
         <f t="shared" si="10"/>
-        <v>1.5516511159310548E-2</v>
+        <v>1.3071608265758107E-2</v>
       </c>
       <c r="AA118" s="47">
         <f t="shared" si="10"/>
-        <v>1.5772138730899454E-2</v>
+        <v>1.3286793531440445E-2</v>
       </c>
       <c r="AB118" s="47">
         <f t="shared" si="10"/>
-        <v>1.5967791308068444E-2</v>
+        <v>1.3449965904338492E-2</v>
       </c>
       <c r="AC118" s="47">
         <f t="shared" si="10"/>
-        <v>1.6097161670254809E-2</v>
+        <v>1.3532995225588597E-2</v>
       </c>
       <c r="AD118" s="47">
         <f t="shared" si="10"/>
-        <v>1.6206241334871991E-2</v>
+        <v>1.3621495928265429E-2</v>
       </c>
       <c r="AE118" s="47">
         <f t="shared" si="10"/>
-        <v>1.6279121521369313E-2</v>
+        <v>1.3664799093927364E-2</v>
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
@@ -63262,87 +63202,87 @@
       </c>
       <c r="K119" s="47">
         <f t="shared" si="11"/>
-        <v>1.3848881010414358E-6</v>
+        <v>0</v>
       </c>
       <c r="L119" s="47">
         <f t="shared" si="11"/>
-        <v>2.7461173333553023E-6</v>
+        <v>0</v>
       </c>
       <c r="M119" s="47">
         <f t="shared" si="11"/>
-        <v>4.0701034620300047E-6</v>
+        <v>0</v>
       </c>
       <c r="N119" s="47">
         <f t="shared" si="11"/>
-        <v>5.3659439634471894E-6</v>
+        <v>0</v>
       </c>
       <c r="O119" s="47">
         <f t="shared" si="11"/>
-        <v>6.6379729223808553E-6</v>
+        <v>0</v>
       </c>
       <c r="P119" s="47">
         <f t="shared" si="11"/>
-        <v>9.1891615152664794E-6</v>
+        <v>1.4259517514965364E-6</v>
       </c>
       <c r="Q119" s="47">
         <f t="shared" si="11"/>
-        <v>1.1695784839143972E-5</v>
+        <v>1.41160594173173E-6</v>
       </c>
       <c r="R119" s="47">
         <f t="shared" si="11"/>
-        <v>1.4124692787931862E-5</v>
+        <v>1.3948012966072854E-6</v>
       </c>
       <c r="S119" s="47">
         <f t="shared" si="11"/>
-        <v>1.6496017480702832E-5</v>
+        <v>2.7567233035469382E-6</v>
       </c>
       <c r="T119" s="47">
         <f t="shared" si="11"/>
-        <v>1.882525395267582E-5</v>
+        <v>2.7265154995589859E-6</v>
       </c>
       <c r="U119" s="47">
         <f t="shared" si="11"/>
-        <v>2.1074554335159794E-5</v>
+        <v>2.693192820486579E-6</v>
       </c>
       <c r="V119" s="47">
         <f t="shared" si="11"/>
-        <v>2.3257626359296052E-5</v>
+        <v>3.9889638666356417E-6</v>
       </c>
       <c r="W119" s="47">
         <f t="shared" si="11"/>
-        <v>2.5379749538128845E-5</v>
+        <v>3.9383723494754089E-6</v>
       </c>
       <c r="X119" s="47">
         <f t="shared" si="11"/>
-        <v>2.6263127086874047E-5</v>
+        <v>3.8902029129839414E-6</v>
       </c>
       <c r="Y119" s="47">
         <f t="shared" si="11"/>
-        <v>2.8320321718854726E-5</v>
+        <v>5.1271402606125399E-6</v>
       </c>
       <c r="Z119" s="47">
         <f t="shared" si="11"/>
-        <v>2.9168567484981105E-5</v>
+        <v>5.0694621934295549E-6</v>
       </c>
       <c r="AA119" s="47">
         <f t="shared" si="11"/>
-        <v>3.1115573997828824E-5</v>
+        <v>5.0072709747278862E-6</v>
       </c>
       <c r="AB119" s="47">
         <f t="shared" si="11"/>
-        <v>3.1862753465358926E-5</v>
+        <v>6.1804824484599264E-6</v>
       </c>
       <c r="AC119" s="47">
         <f t="shared" si="11"/>
-        <v>3.260810899953824E-5</v>
+        <v>6.1069473039659734E-6</v>
       </c>
       <c r="AD119" s="47">
         <f t="shared" si="11"/>
-        <v>3.3309621817358159E-5</v>
+        <v>6.0304125767068479E-6</v>
       </c>
       <c r="AE119" s="47">
         <f t="shared" si="11"/>
-        <v>3.5022985658452194E-5</v>
+        <v>7.1331820570353384E-6</v>
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
@@ -63351,123 +63291,123 @@
       </c>
       <c r="B120" s="48">
         <f>SUM(B117:B119)</f>
-        <v>1.2179695762864382E-2</v>
+        <v>5.0547910445503871E-3</v>
       </c>
       <c r="C120" s="48">
         <f t="shared" ref="C120:AE120" si="12">SUM(C117:C119)</f>
-        <v>6.2737609599235022E-2</v>
+        <v>2.9469261166477845E-2</v>
       </c>
       <c r="D120" s="48">
         <f t="shared" si="12"/>
-        <v>0.13330209935785201</v>
+        <v>8.5237870136656554E-2</v>
       </c>
       <c r="E120" s="48">
         <f t="shared" si="12"/>
-        <v>0.20739884930011668</v>
+        <v>0.15141391336154433</v>
       </c>
       <c r="F120" s="48">
         <f t="shared" si="12"/>
-        <v>0.26805582603050959</v>
+        <v>0.21328174946410439</v>
       </c>
       <c r="G120" s="48">
         <f t="shared" si="12"/>
-        <v>0.31204909243810258</v>
+        <v>0.2679723255730998</v>
       </c>
       <c r="H120" s="48">
         <f t="shared" si="12"/>
-        <v>0.34266757829143962</v>
+        <v>0.31342739666206393</v>
       </c>
       <c r="I120" s="48">
         <f t="shared" si="12"/>
-        <v>0.36621204330442064</v>
+        <v>0.35377287946258251</v>
       </c>
       <c r="J120" s="48">
         <f t="shared" si="12"/>
-        <v>0.38603533091692405</v>
+        <v>0.39113019942199595</v>
       </c>
       <c r="K120" s="48">
         <f t="shared" si="12"/>
-        <v>0.40029082650121872</v>
+        <v>0.41951623845992997</v>
       </c>
       <c r="L120" s="48">
         <f t="shared" si="12"/>
-        <v>0.40265769235522125</v>
+        <v>0.42444472285361445</v>
       </c>
       <c r="M120" s="48">
         <f t="shared" si="12"/>
-        <v>0.41189854046089852</v>
+        <v>0.43036282716340485</v>
       </c>
       <c r="N120" s="48">
         <f t="shared" si="12"/>
-        <v>0.38844604945790551</v>
+        <v>0.37220075307174</v>
       </c>
       <c r="O120" s="48">
         <f t="shared" si="12"/>
-        <v>0.40348387370858235</v>
+        <v>0.39059841138908274</v>
       </c>
       <c r="P120" s="48">
         <f t="shared" si="12"/>
-        <v>0.4189575027534666</v>
+        <v>0.40913407653938627</v>
       </c>
       <c r="Q120" s="48">
         <f t="shared" si="12"/>
-        <v>0.42090400619616686</v>
+        <v>0.41305001461012153</v>
       </c>
       <c r="R120" s="48">
         <f t="shared" si="12"/>
-        <v>0.42296264147163892</v>
+        <v>0.41746960727974697</v>
       </c>
       <c r="S120" s="48">
         <f t="shared" si="12"/>
-        <v>0.42447425288902368</v>
+        <v>0.42076281290532447</v>
       </c>
       <c r="T120" s="48">
         <f t="shared" si="12"/>
-        <v>0.4262790505043913</v>
+        <v>0.42474885384104688</v>
       </c>
       <c r="U120" s="48">
         <f t="shared" si="12"/>
-        <v>0.42756055835172185</v>
+        <v>0.42750261576352694</v>
       </c>
       <c r="V120" s="48">
         <f t="shared" si="12"/>
-        <v>0.42885267680998396</v>
+        <v>0.4302124123258983</v>
       </c>
       <c r="W120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43029834499861824</v>
+        <v>0.43342837938603401</v>
       </c>
       <c r="X120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43137822922059393</v>
+        <v>0.43560287771276818</v>
       </c>
       <c r="Y120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43238995194985413</v>
+        <v>0.43780266149850933</v>
       </c>
       <c r="Z120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43354291921356874</v>
+        <v>0.44046191249685795</v>
       </c>
       <c r="AA120" s="48">
         <f t="shared" si="12"/>
-        <v>0.4352603989400729</v>
+        <v>0.44390875917738887</v>
       </c>
       <c r="AB120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43630351093404524</v>
+        <v>0.44594570652185106</v>
       </c>
       <c r="AC120" s="48">
         <f t="shared" si="12"/>
-        <v>0.4374415302873112</v>
+        <v>0.4484962456523624</v>
       </c>
       <c r="AD120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43825765510625397</v>
+        <v>0.45005652506721899</v>
       </c>
       <c r="AE120" s="48">
         <f t="shared" si="12"/>
-        <v>0.43946477581458537</v>
+        <v>0.45246170075667208</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
@@ -63575,94 +63515,94 @@
         <v>991</v>
       </c>
       <c r="B125">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C125">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="D125">
-        <v>234</v>
+        <v>1491</v>
       </c>
       <c r="E125">
-        <v>2847</v>
+        <v>5964</v>
       </c>
       <c r="F125">
-        <v>7116</v>
+        <v>12606</v>
       </c>
       <c r="G125">
-        <v>10179</v>
+        <v>20829</v>
       </c>
       <c r="H125">
-        <v>18249</v>
+        <v>36321</v>
       </c>
       <c r="I125">
-        <v>29736</v>
+        <v>58899</v>
       </c>
       <c r="J125">
-        <v>46770</v>
+        <v>87807</v>
       </c>
       <c r="K125">
-        <v>70050</v>
+        <v>116871</v>
       </c>
       <c r="L125">
-        <v>87618</v>
+        <v>122439</v>
       </c>
       <c r="M125">
-        <v>106101</v>
+        <v>130794</v>
       </c>
       <c r="N125">
-        <v>91119</v>
+        <v>92436</v>
       </c>
       <c r="O125">
-        <v>102903</v>
+        <v>102381</v>
       </c>
       <c r="P125">
-        <v>113586</v>
+        <v>113250</v>
       </c>
       <c r="Q125">
-        <v>117363</v>
+        <v>118068</v>
       </c>
       <c r="R125">
-        <v>120360</v>
+        <v>123825</v>
       </c>
       <c r="S125">
-        <v>122274</v>
+        <v>129177</v>
       </c>
       <c r="T125">
-        <v>123435</v>
+        <v>133314</v>
       </c>
       <c r="U125" s="39">
-        <v>124323</v>
+        <v>136587</v>
       </c>
       <c r="V125" s="39">
-        <v>125160</v>
+        <v>139173</v>
       </c>
       <c r="W125" s="39">
-        <v>125784</v>
+        <v>140652</v>
       </c>
       <c r="X125" s="39">
-        <v>126414</v>
+        <v>141651</v>
       </c>
       <c r="Y125" s="39">
-        <v>126432</v>
+        <v>141558</v>
       </c>
       <c r="Z125" s="39">
-        <v>126603</v>
+        <v>141516</v>
       </c>
       <c r="AA125" s="39">
-        <v>128070</v>
+        <v>143154</v>
       </c>
       <c r="AB125" s="39">
-        <v>128271</v>
+        <v>142644</v>
       </c>
       <c r="AC125" s="39">
-        <v>128277</v>
+        <v>141927</v>
       </c>
       <c r="AD125" s="39">
-        <v>128778</v>
+        <v>141630</v>
       </c>
       <c r="AE125" s="39">
-        <v>129480</v>
+        <v>141528</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
@@ -63670,94 +63610,94 @@
         <v>992</v>
       </c>
       <c r="B126">
-        <v>723</v>
+        <v>438</v>
       </c>
       <c r="C126">
-        <v>984</v>
+        <v>642</v>
       </c>
       <c r="D126">
-        <v>1461</v>
+        <v>1149</v>
       </c>
       <c r="E126">
-        <v>1158</v>
+        <v>795</v>
       </c>
       <c r="F126">
-        <v>975</v>
+        <v>597</v>
       </c>
       <c r="G126">
-        <v>975</v>
+        <v>567</v>
       </c>
       <c r="H126">
-        <v>1020</v>
+        <v>570</v>
       </c>
       <c r="I126">
-        <v>1059</v>
+        <v>555</v>
       </c>
       <c r="J126">
-        <v>1140</v>
+        <v>555</v>
       </c>
       <c r="K126">
-        <v>1200</v>
+        <v>531</v>
       </c>
       <c r="L126">
-        <v>1260</v>
+        <v>570</v>
       </c>
       <c r="M126">
-        <v>1332</v>
+        <v>609</v>
       </c>
       <c r="N126">
-        <v>1623</v>
+        <v>879</v>
       </c>
       <c r="O126">
-        <v>1761</v>
+        <v>945</v>
       </c>
       <c r="P126">
-        <v>1893</v>
+        <v>999</v>
       </c>
       <c r="Q126">
-        <v>2064</v>
+        <v>1071</v>
       </c>
       <c r="R126">
-        <v>2250</v>
+        <v>1137</v>
       </c>
       <c r="S126">
-        <v>2418</v>
+        <v>1179</v>
       </c>
       <c r="T126">
-        <v>2583</v>
+        <v>1227</v>
       </c>
       <c r="U126">
-        <v>2715</v>
+        <v>1254</v>
       </c>
       <c r="V126">
-        <v>2829</v>
+        <v>1278</v>
       </c>
       <c r="W126">
-        <v>2931</v>
+        <v>1302</v>
       </c>
       <c r="X126">
-        <v>3024</v>
+        <v>1329</v>
       </c>
       <c r="Y126">
-        <v>3084</v>
+        <v>1341</v>
       </c>
       <c r="Z126">
-        <v>3120</v>
+        <v>1344</v>
       </c>
       <c r="AA126">
-        <v>3072</v>
+        <v>1290</v>
       </c>
       <c r="AB126">
-        <v>3093</v>
+        <v>1290</v>
       </c>
       <c r="AC126">
-        <v>3105</v>
+        <v>1290</v>
       </c>
       <c r="AD126">
-        <v>3102</v>
+        <v>1278</v>
       </c>
       <c r="AE126">
-        <v>3102</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
@@ -63860,94 +63800,94 @@
         <v>994</v>
       </c>
       <c r="B128">
-        <v>310638</v>
+        <v>310872</v>
       </c>
       <c r="C128">
-        <v>329838</v>
+        <v>329646</v>
       </c>
       <c r="D128">
-        <v>324156</v>
+        <v>323100</v>
       </c>
       <c r="E128">
-        <v>317550</v>
+        <v>314652</v>
       </c>
       <c r="F128">
-        <v>313041</v>
+        <v>307446</v>
       </c>
       <c r="G128">
-        <v>311991</v>
+        <v>300540</v>
       </c>
       <c r="H128">
-        <v>305262</v>
+        <v>284904</v>
       </c>
       <c r="I128">
-        <v>294729</v>
+        <v>260220</v>
       </c>
       <c r="J128">
-        <v>277710</v>
+        <v>225750</v>
       </c>
       <c r="K128">
-        <v>254250</v>
+        <v>186354</v>
       </c>
       <c r="L128">
-        <v>236631</v>
+        <v>178437</v>
       </c>
       <c r="M128">
-        <v>218697</v>
+        <v>167523</v>
       </c>
       <c r="N128">
-        <v>233346</v>
+        <v>212598</v>
       </c>
       <c r="O128">
-        <v>220407</v>
+        <v>200124</v>
       </c>
       <c r="P128">
-        <v>208704</v>
+        <v>187194</v>
       </c>
       <c r="Q128">
-        <v>203271</v>
+        <v>179853</v>
       </c>
       <c r="R128">
-        <v>199620</v>
+        <v>172569</v>
       </c>
       <c r="S128">
-        <v>197289</v>
+        <v>165966</v>
       </c>
       <c r="T128">
-        <v>195354</v>
+        <v>160209</v>
       </c>
       <c r="U128">
-        <v>194064</v>
+        <v>155526</v>
       </c>
       <c r="V128">
-        <v>192615</v>
+        <v>151263</v>
       </c>
       <c r="W128">
-        <v>191613</v>
+        <v>148143</v>
       </c>
       <c r="X128">
-        <v>190428</v>
+        <v>145224</v>
       </c>
       <c r="Y128">
-        <v>189699</v>
+        <v>143358</v>
       </c>
       <c r="Z128">
-        <v>188613</v>
+        <v>141144</v>
       </c>
       <c r="AA128">
-        <v>186270</v>
+        <v>137004</v>
       </c>
       <c r="AB128">
-        <v>184971</v>
+        <v>135129</v>
       </c>
       <c r="AC128">
-        <v>183762</v>
+        <v>133422</v>
       </c>
       <c r="AD128">
-        <v>182685</v>
+        <v>131586</v>
       </c>
       <c r="AE128">
-        <v>181794</v>
+        <v>130056</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
@@ -63955,94 +63895,94 @@
         <v>995</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="H129">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="I129">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="J129">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="K129">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O129">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P129">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE129">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
@@ -64050,94 +63990,94 @@
         <v>996</v>
       </c>
       <c r="B130">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C130">
-        <v>603</v>
+        <v>867</v>
       </c>
       <c r="D130">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="E130">
-        <v>552</v>
+        <v>642</v>
       </c>
       <c r="F130">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="G130">
+        <v>732</v>
+      </c>
+      <c r="H130">
+        <v>738</v>
+      </c>
+      <c r="I130">
+        <v>699</v>
+      </c>
+      <c r="J130">
         <v>666</v>
       </c>
-      <c r="H130">
-        <v>705</v>
-      </c>
-      <c r="I130">
-        <v>720</v>
-      </c>
-      <c r="J130">
-        <v>744</v>
-      </c>
       <c r="K130">
-        <v>735</v>
+        <v>594</v>
       </c>
       <c r="L130">
-        <v>732</v>
+        <v>606</v>
       </c>
       <c r="M130">
-        <v>729</v>
+        <v>615</v>
       </c>
       <c r="N130">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="O130">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="P130">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="Q130">
+        <v>861</v>
+      </c>
+      <c r="R130">
+        <v>867</v>
+      </c>
+      <c r="S130">
+        <v>870</v>
+      </c>
+      <c r="T130">
+        <v>873</v>
+      </c>
+      <c r="U130">
         <v>879</v>
       </c>
-      <c r="R130">
+      <c r="V130">
+        <v>891</v>
+      </c>
+      <c r="W130">
         <v>906</v>
       </c>
-      <c r="S130">
-        <v>936</v>
-      </c>
-      <c r="T130">
-        <v>966</v>
-      </c>
-      <c r="U130">
-        <v>999</v>
-      </c>
-      <c r="V130">
-        <v>1035</v>
-      </c>
-      <c r="W130">
-        <v>1071</v>
-      </c>
       <c r="X130">
-        <v>1107</v>
+        <v>924</v>
       </c>
       <c r="Y130">
-        <v>1140</v>
+        <v>939</v>
       </c>
       <c r="Z130">
-        <v>1173</v>
+        <v>957</v>
       </c>
       <c r="AA130">
-        <v>1221</v>
+        <v>990</v>
       </c>
       <c r="AB130">
-        <v>1254</v>
+        <v>1005</v>
       </c>
       <c r="AC130">
-        <v>1281</v>
+        <v>1020</v>
       </c>
       <c r="AD130">
-        <v>1305</v>
+        <v>1026</v>
       </c>
       <c r="AE130">
-        <v>1338</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
@@ -64145,94 +64085,94 @@
         <v>997</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="F131">
-        <v>21</v>
+        <v>624</v>
       </c>
       <c r="G131">
-        <v>33</v>
+        <v>1305</v>
       </c>
       <c r="H131">
-        <v>72</v>
+        <v>2877</v>
       </c>
       <c r="I131">
-        <v>135</v>
+        <v>6081</v>
       </c>
       <c r="J131">
-        <v>246</v>
+        <v>11889</v>
       </c>
       <c r="K131">
-        <v>462</v>
+        <v>22392</v>
       </c>
       <c r="L131">
-        <v>549</v>
+        <v>24777</v>
       </c>
       <c r="M131">
-        <v>672</v>
+        <v>28026</v>
       </c>
       <c r="N131">
-        <v>615</v>
+        <v>20808</v>
       </c>
       <c r="O131">
-        <v>732</v>
+        <v>22365</v>
       </c>
       <c r="P131">
-        <v>867</v>
+        <v>23631</v>
       </c>
       <c r="Q131">
-        <v>1026</v>
+        <v>24771</v>
       </c>
       <c r="R131">
-        <v>1212</v>
+        <v>25968</v>
       </c>
       <c r="S131">
-        <v>1410</v>
+        <v>27153</v>
       </c>
       <c r="T131">
-        <v>1611</v>
+        <v>28344</v>
       </c>
       <c r="U131">
-        <v>1815</v>
+        <v>29688</v>
       </c>
       <c r="V131">
-        <v>2013</v>
+        <v>31059</v>
       </c>
       <c r="W131">
-        <v>2199</v>
+        <v>32607</v>
       </c>
       <c r="X131">
-        <v>2373</v>
+        <v>34233</v>
       </c>
       <c r="Y131">
-        <v>2526</v>
+        <v>35694</v>
       </c>
       <c r="Z131">
-        <v>2673</v>
+        <v>37236</v>
       </c>
       <c r="AA131">
-        <v>2832</v>
+        <v>39042</v>
       </c>
       <c r="AB131">
-        <v>2949</v>
+        <v>40482</v>
       </c>
       <c r="AC131">
-        <v>3060</v>
+        <v>41841</v>
       </c>
       <c r="AD131">
-        <v>3168</v>
+        <v>43530</v>
       </c>
       <c r="AE131">
-        <v>3270</v>
+        <v>45099</v>
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
@@ -64241,123 +64181,123 @@
       </c>
       <c r="B133" s="47">
         <f>B125/SUM(B125:B131)</f>
-        <v>6.7385444743935316E-5</v>
+        <v>2.9842412807208385E-4</v>
       </c>
       <c r="C133" s="47">
         <f t="shared" ref="C133:AE133" si="13">C125/SUM(C125:C131)</f>
-        <v>3.2573879368066742E-4</v>
+        <v>1.1310272441842578E-3</v>
       </c>
       <c r="D133" s="47">
         <f t="shared" si="13"/>
-        <v>7.1698425392273119E-4</v>
+        <v>4.5685185866088168E-3</v>
       </c>
       <c r="E133" s="47">
         <f t="shared" si="13"/>
-        <v>8.833576900522196E-3</v>
+        <v>1.8505245324819182E-2</v>
       </c>
       <c r="F133" s="47">
         <f t="shared" si="13"/>
-        <v>2.2101712603194126E-2</v>
+        <v>3.9153202512066491E-2</v>
       </c>
       <c r="G133" s="47">
         <f t="shared" si="13"/>
-        <v>3.1418412134007444E-2</v>
+        <v>6.4291204059522378E-2</v>
       </c>
       <c r="H133" s="47">
         <f t="shared" si="13"/>
-        <v>5.6078471140283755E-2</v>
+        <v>0.11161405708385574</v>
       </c>
       <c r="I133" s="47">
         <f t="shared" si="13"/>
-        <v>9.1086197390185628E-2</v>
+        <v>0.18041720272008821</v>
       </c>
       <c r="J133" s="47">
         <f t="shared" si="13"/>
-        <v>0.14317332329252724</v>
+        <v>0.26879419597759208</v>
       </c>
       <c r="K133" s="47">
         <f t="shared" si="13"/>
-        <v>0.21438933470444571</v>
+        <v>0.35768259652022222</v>
       </c>
       <c r="L133" s="47">
         <f t="shared" si="13"/>
-        <v>0.26808514544302986</v>
+        <v>0.3746236598619474</v>
       </c>
       <c r="M133" s="47">
         <f t="shared" si="13"/>
-        <v>0.32390922079349377</v>
+        <v>0.39928564886894402</v>
       </c>
       <c r="N133" s="47">
         <f t="shared" si="13"/>
-        <v>0.27817414161026494</v>
+        <v>0.28219218229109427</v>
       </c>
       <c r="O133" s="47">
         <f t="shared" si="13"/>
-        <v>0.31500307647096637</v>
+        <v>0.31340802644870969</v>
       </c>
       <c r="P133" s="47">
         <f t="shared" si="13"/>
-        <v>0.34850242079490434</v>
+        <v>0.34747151193829273</v>
       </c>
       <c r="Q133" s="47">
         <f t="shared" si="13"/>
-        <v>0.3615385326272792</v>
+        <v>0.36370693479225197</v>
       </c>
       <c r="R133" s="47">
         <f t="shared" si="13"/>
-        <v>0.37106575040926371</v>
+        <v>0.38174469580658887</v>
       </c>
       <c r="S133" s="47">
         <f t="shared" si="13"/>
-        <v>0.37699095399300736</v>
+        <v>0.39827036026453316</v>
       </c>
       <c r="T133" s="47">
         <f t="shared" si="13"/>
-        <v>0.38101455717301924</v>
+        <v>0.41150487549657838</v>
       </c>
       <c r="U133" s="47">
         <f t="shared" si="13"/>
-        <v>0.38379469701880958</v>
+        <v>0.4216507066254237</v>
       </c>
       <c r="V133" s="47">
         <f t="shared" si="13"/>
-        <v>0.38669373152035891</v>
+        <v>0.42999221414800531</v>
       </c>
       <c r="W133" s="47">
         <f t="shared" si="13"/>
-        <v>0.38868648663681621</v>
+        <v>0.43463428200611848</v>
       </c>
       <c r="X133" s="47">
         <f t="shared" si="13"/>
-        <v>0.39093768265189682</v>
+        <v>0.4380583929416349</v>
       </c>
       <c r="Y133" s="47">
         <f t="shared" si="13"/>
-        <v>0.39155641444923445</v>
+        <v>0.43840936541856362</v>
       </c>
       <c r="Z133" s="47">
         <f t="shared" si="13"/>
-        <v>0.39293661952159703</v>
+        <v>0.43922196668497843</v>
       </c>
       <c r="AA133" s="47">
         <f t="shared" si="13"/>
-        <v>0.39837625979843228</v>
+        <v>0.44529675251959688</v>
       </c>
       <c r="AB133" s="47">
         <f t="shared" si="13"/>
-        <v>0.40015535652450607</v>
+        <v>0.44499766027140852</v>
       </c>
       <c r="AC133" s="47">
         <f t="shared" si="13"/>
-        <v>0.40149295774647886</v>
+        <v>0.44421596244131456</v>
       </c>
       <c r="AD133" s="47">
         <f t="shared" si="13"/>
-        <v>0.40362572989440626</v>
+        <v>0.44391161259990597</v>
       </c>
       <c r="AE133" s="47">
         <f t="shared" si="13"/>
-        <v>0.40589468932504491</v>
+        <v>0.44366283279884888</v>
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
@@ -64366,123 +64306,123 @@
       </c>
       <c r="B134" s="47">
         <f>B129/SUM(B125:B131)</f>
-        <v>3.8505968425105893E-5</v>
+        <v>0</v>
       </c>
       <c r="C134" s="47">
         <f t="shared" ref="C134:AE134" si="14">C129/SUM(C125:C131)</f>
-        <v>6.3338098771240883E-5</v>
+        <v>9.0482179534740626E-6</v>
       </c>
       <c r="D134" s="47">
         <f t="shared" si="14"/>
-        <v>1.0111316401474413E-4</v>
+        <v>9.1921903151082834E-6</v>
       </c>
       <c r="E134" s="47">
         <f t="shared" si="14"/>
-        <v>5.5849801267790489E-4</v>
+        <v>1.8616947006860347E-5</v>
       </c>
       <c r="F134" s="47">
         <f t="shared" si="14"/>
-        <v>6.5224278339948941E-4</v>
+        <v>2.7953262145692403E-5</v>
       </c>
       <c r="G134" s="47">
         <f t="shared" si="14"/>
-        <v>4.259495897920255E-4</v>
+        <v>1.8519718870667542E-5</v>
       </c>
       <c r="H134" s="47">
         <f t="shared" si="14"/>
-        <v>3.4109870659058012E-4</v>
+        <v>1.8437937901025148E-5</v>
       </c>
       <c r="I134" s="47">
         <f t="shared" si="14"/>
-        <v>2.4811615511854436E-4</v>
+        <v>1.8378974453225511E-5</v>
       </c>
       <c r="J134" s="47">
         <f t="shared" si="14"/>
-        <v>1.7448961786773688E-4</v>
+        <v>9.1835797593902099E-6</v>
       </c>
       <c r="K134" s="47">
         <f t="shared" si="14"/>
-        <v>1.3772334135189233E-4</v>
+        <v>9.1814717899279247E-6</v>
       </c>
       <c r="L134" s="47">
         <f t="shared" si="14"/>
-        <v>1.1932845616515058E-4</v>
+        <v>9.1790277573799378E-6</v>
       </c>
       <c r="M134" s="47">
         <f t="shared" si="14"/>
-        <v>1.0074367146572884E-4</v>
+        <v>9.1583478340507378E-6</v>
       </c>
       <c r="N134" s="47">
         <f t="shared" si="14"/>
-        <v>6.4110196268786577E-5</v>
+        <v>0</v>
       </c>
       <c r="O134" s="47">
         <f t="shared" si="14"/>
-        <v>6.4284467954192726E-5</v>
+        <v>0</v>
       </c>
       <c r="P134" s="47">
         <f t="shared" si="14"/>
-        <v>5.5227260175622689E-5</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="47">
         <f t="shared" si="14"/>
-        <v>5.5449277773157005E-5</v>
+        <v>0</v>
       </c>
       <c r="R134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6244485345122592E-5</v>
+        <v>0</v>
       </c>
       <c r="S134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6247479512366574E-5</v>
+        <v>0</v>
       </c>
       <c r="T134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6301440900840837E-5</v>
+        <v>0</v>
       </c>
       <c r="U134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6306157792863296E-5</v>
+        <v>0</v>
       </c>
       <c r="V134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6343927555172447E-5</v>
+        <v>0</v>
       </c>
       <c r="W134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6351660780005749E-5</v>
+        <v>0</v>
       </c>
       <c r="X134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6387783313386588E-5</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6454585996729595E-5</v>
+        <v>0</v>
       </c>
       <c r="Z134" s="47">
         <f t="shared" si="14"/>
-        <v>4.655536829951862E-5</v>
+        <v>0</v>
       </c>
       <c r="AA134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6659201194475551E-5</v>
+        <v>0</v>
       </c>
       <c r="AB134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6794133887375876E-5</v>
+        <v>0</v>
       </c>
       <c r="AC134" s="47">
         <f t="shared" si="14"/>
-        <v>4.6948356807511737E-5</v>
+        <v>0</v>
       </c>
       <c r="AD134" s="47">
         <f t="shared" si="14"/>
-        <v>4.701413244821393E-5</v>
+        <v>0</v>
       </c>
       <c r="AE134" s="47">
         <f t="shared" si="14"/>
-        <v>4.7022090978341625E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
@@ -64491,123 +64431,123 @@
       </c>
       <c r="B135" s="47">
         <f>B131/SUM(B125:B131)</f>
-        <v>0</v>
+        <v>9.6265847765188349E-6</v>
       </c>
       <c r="C135" s="47">
         <f t="shared" ref="C135:AE135" si="15">C131/SUM(C125:C131)</f>
-        <v>0</v>
+        <v>7.2385743627792501E-5</v>
       </c>
       <c r="D135" s="47">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.6545942567194912E-4</v>
       </c>
       <c r="E135" s="47">
         <f t="shared" si="15"/>
-        <v>1.861660042259683E-5</v>
+        <v>7.0744398626069311E-4</v>
       </c>
       <c r="F135" s="47">
         <f t="shared" si="15"/>
-        <v>6.5224278339948933E-5</v>
+        <v>1.9380928421013398E-3</v>
       </c>
       <c r="G135" s="47">
         <f t="shared" si="15"/>
-        <v>1.0185751060244087E-4</v>
+        <v>4.0280388543701903E-3</v>
       </c>
       <c r="H135" s="47">
         <f t="shared" si="15"/>
-        <v>2.2125321508578171E-4</v>
+        <v>8.8409912235415597E-3</v>
       </c>
       <c r="I135" s="47">
         <f t="shared" si="15"/>
-        <v>4.1352692519757399E-4</v>
+        <v>1.8627090608344055E-2</v>
       </c>
       <c r="J135" s="47">
         <f t="shared" si="15"/>
-        <v>7.5306045606075909E-4</v>
+        <v>3.6394526586463402E-2</v>
       </c>
       <c r="K135" s="47">
         <f t="shared" si="15"/>
-        <v>1.4139596378794279E-3</v>
+        <v>6.8530505440022038E-2</v>
       </c>
       <c r="L135" s="47">
         <f t="shared" si="15"/>
-        <v>1.6797774983248121E-3</v>
+        <v>7.5809590248200914E-2</v>
       </c>
       <c r="M135" s="47">
         <f t="shared" si="15"/>
-        <v>2.0515074916657508E-3</v>
+        <v>8.5557285465701988E-2</v>
       </c>
       <c r="N135" s="47">
         <f t="shared" si="15"/>
-        <v>1.8775128907287497E-3</v>
+        <v>6.3523464116935921E-2</v>
       </c>
       <c r="O135" s="47">
         <f t="shared" si="15"/>
-        <v>2.2407728829747179E-3</v>
+        <v>6.8463587106254012E-2</v>
       </c>
       <c r="P135" s="47">
         <f t="shared" si="15"/>
-        <v>2.6601130317924927E-3</v>
+        <v>7.2504188067229983E-2</v>
       </c>
       <c r="Q135" s="47">
         <f t="shared" si="15"/>
-        <v>3.1606088330699495E-3</v>
+        <v>7.6306742569865443E-2</v>
       </c>
       <c r="R135" s="47">
         <f t="shared" si="15"/>
-        <v>3.7365544158859056E-3</v>
+        <v>8.0057712583932961E-2</v>
       </c>
       <c r="S135" s="47">
         <f t="shared" si="15"/>
-        <v>4.3472630741624579E-3</v>
+        <v>8.371641307866623E-2</v>
       </c>
       <c r="T135" s="47">
         <f t="shared" si="15"/>
-        <v>4.9727747527503058E-3</v>
+        <v>8.7490392539980921E-2</v>
       </c>
       <c r="U135" s="47">
         <f t="shared" si="15"/>
-        <v>5.6030450929364589E-3</v>
+        <v>9.1648298727518562E-2</v>
       </c>
       <c r="V135" s="47">
         <f t="shared" si="15"/>
-        <v>6.2193550779041425E-3</v>
+        <v>9.5960625834198426E-2</v>
       </c>
       <c r="W135" s="47">
         <f t="shared" si="15"/>
-        <v>6.7951534703488423E-3</v>
+        <v>0.10076017428386021</v>
       </c>
       <c r="X135" s="47">
         <f t="shared" si="15"/>
-        <v>7.3385473201777584E-3</v>
+        <v>0.10586619907781086</v>
       </c>
       <c r="Y135" s="47">
         <f t="shared" si="15"/>
-        <v>7.8229522818492638E-3</v>
+        <v>0.11054538697389203</v>
       </c>
       <c r="Z135" s="47">
         <f t="shared" si="15"/>
-        <v>8.296166630974218E-3</v>
+        <v>0.11556904626672501</v>
       </c>
       <c r="AA135" s="47">
         <f t="shared" si="15"/>
-        <v>8.8092571855169846E-3</v>
+        <v>0.12144456886898096</v>
       </c>
       <c r="AB135" s="47">
         <f t="shared" si="15"/>
-        <v>9.1997267222580972E-3</v>
+        <v>0.12628919045390735</v>
       </c>
       <c r="AC135" s="47">
         <f t="shared" si="15"/>
-        <v>9.5774647887323944E-3</v>
+        <v>0.13095774647887323</v>
       </c>
       <c r="AD135" s="47">
         <f t="shared" si="15"/>
-        <v>9.9293847730627834E-3</v>
+        <v>0.13643629525152798</v>
       </c>
       <c r="AE135" s="47">
         <f t="shared" si="15"/>
-        <v>1.0250815833278474E-2</v>
+        <v>0.14137661873548193</v>
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
@@ -64615,124 +64555,124 @@
         <v>989</v>
       </c>
       <c r="B136" s="48">
-        <f>SUM(B133:B135)</f>
-        <v>1.0589141316904121E-4</v>
+        <f t="shared" ref="B136:AE136" si="16">SUM(B133:B135)</f>
+        <v>3.0805071284860266E-4</v>
       </c>
       <c r="C136" s="48">
-        <f t="shared" ref="C136" si="16">SUM(C133:C135)</f>
-        <v>3.890768924519083E-4</v>
+        <f t="shared" si="16"/>
+        <v>1.2124612057655244E-3</v>
       </c>
       <c r="D136" s="48">
-        <f t="shared" ref="D136" si="17">SUM(D133:D135)</f>
-        <v>8.1809741793747537E-4</v>
+        <f t="shared" si="16"/>
+        <v>4.7431702025958738E-3</v>
       </c>
       <c r="E136" s="48">
-        <f t="shared" ref="E136" si="18">SUM(E133:E135)</f>
-        <v>9.410691513622697E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.9231306258086736E-2</v>
       </c>
       <c r="F136" s="48">
-        <f t="shared" ref="F136" si="19">SUM(F133:F135)</f>
-        <v>2.2819179664933562E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.1119248616313525E-2</v>
       </c>
       <c r="G136" s="48">
-        <f t="shared" ref="G136" si="20">SUM(G133:G135)</f>
-        <v>3.1946219234401906E-2</v>
+        <f t="shared" si="16"/>
+        <v>6.8337762632763227E-2</v>
       </c>
       <c r="H136" s="48">
-        <f t="shared" ref="H136" si="21">SUM(H133:H135)</f>
-        <v>5.6640823061960117E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.12047348624529833</v>
       </c>
       <c r="I136" s="48">
-        <f t="shared" ref="I136" si="22">SUM(I133:I135)</f>
-        <v>9.1747840470501746E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.19906267230288549</v>
       </c>
       <c r="J136" s="48">
-        <f t="shared" ref="J136" si="23">SUM(J133:J135)</f>
-        <v>0.14410087336645575</v>
+        <f t="shared" si="16"/>
+        <v>0.30519790614381487</v>
       </c>
       <c r="K136" s="48">
-        <f t="shared" ref="K136" si="24">SUM(K133:K135)</f>
-        <v>0.21594101768367704</v>
+        <f t="shared" si="16"/>
+        <v>0.42622228343203417</v>
       </c>
       <c r="L136" s="48">
-        <f t="shared" ref="L136" si="25">SUM(L133:L135)</f>
-        <v>0.26988425139751981</v>
+        <f t="shared" si="16"/>
+        <v>0.45044242913790566</v>
       </c>
       <c r="M136" s="48">
-        <f t="shared" ref="M136" si="26">SUM(M133:M135)</f>
-        <v>0.32606147195662527</v>
+        <f t="shared" si="16"/>
+        <v>0.48485209268248008</v>
       </c>
       <c r="N136" s="48">
-        <f t="shared" ref="N136" si="27">SUM(N133:N135)</f>
-        <v>0.28011576469726246</v>
+        <f t="shared" si="16"/>
+        <v>0.34571564640803021</v>
       </c>
       <c r="O136" s="48">
-        <f t="shared" ref="O136" si="28">SUM(O133:O135)</f>
-        <v>0.31730813382189527</v>
+        <f t="shared" si="16"/>
+        <v>0.38187161355496368</v>
       </c>
       <c r="P136" s="48">
-        <f t="shared" ref="P136" si="29">SUM(P133:P135)</f>
-        <v>0.35121776108687247</v>
+        <f t="shared" si="16"/>
+        <v>0.4199757000055227</v>
       </c>
       <c r="Q136" s="48">
-        <f t="shared" ref="Q136" si="30">SUM(Q133:Q135)</f>
-        <v>0.36475459073812233</v>
+        <f t="shared" si="16"/>
+        <v>0.44001367736211738</v>
       </c>
       <c r="R136" s="48">
-        <f t="shared" ref="R136" si="31">SUM(R133:R135)</f>
-        <v>0.37484854931049472</v>
+        <f t="shared" si="16"/>
+        <v>0.46180240839052183</v>
       </c>
       <c r="S136" s="48">
-        <f t="shared" ref="S136" si="32">SUM(S133:S135)</f>
-        <v>0.38138446454668218</v>
+        <f t="shared" si="16"/>
+        <v>0.48198677334319939</v>
       </c>
       <c r="T136" s="48">
-        <f t="shared" ref="T136" si="33">SUM(T133:T135)</f>
-        <v>0.3860336333666704</v>
+        <f t="shared" si="16"/>
+        <v>0.4989952680365593</v>
       </c>
       <c r="U136" s="48">
-        <f t="shared" ref="U136" si="34">SUM(U133:U135)</f>
-        <v>0.38944404826953893</v>
+        <f t="shared" si="16"/>
+        <v>0.51329900535294226</v>
       </c>
       <c r="V136" s="48">
-        <f t="shared" ref="V136" si="35">SUM(V133:V135)</f>
-        <v>0.39295943052581822</v>
+        <f t="shared" si="16"/>
+        <v>0.52595283998220377</v>
       </c>
       <c r="W136" s="48">
-        <f t="shared" ref="W136" si="36">SUM(W133:W135)</f>
-        <v>0.39552799176794506</v>
+        <f t="shared" si="16"/>
+        <v>0.53539445628997873</v>
       </c>
       <c r="X136" s="48">
-        <f t="shared" ref="X136" si="37">SUM(X133:X135)</f>
-        <v>0.39832261775538796</v>
+        <f t="shared" si="16"/>
+        <v>0.54392459201944576</v>
       </c>
       <c r="Y136" s="48">
-        <f t="shared" ref="Y136" si="38">SUM(Y133:Y135)</f>
-        <v>0.39942582131708043</v>
+        <f t="shared" si="16"/>
+        <v>0.54895475239245561</v>
       </c>
       <c r="Z136" s="48">
-        <f t="shared" ref="Z136" si="39">SUM(Z133:Z135)</f>
-        <v>0.40127934152087075</v>
+        <f t="shared" si="16"/>
+        <v>0.55479101295170341</v>
       </c>
       <c r="AA136" s="48">
-        <f t="shared" ref="AA136" si="40">SUM(AA133:AA135)</f>
-        <v>0.40723217618514373</v>
+        <f t="shared" si="16"/>
+        <v>0.5667413213885778</v>
       </c>
       <c r="AB136" s="48">
-        <f t="shared" ref="AB136" si="41">SUM(AB133:AB135)</f>
-        <v>0.40940187738065154</v>
+        <f t="shared" si="16"/>
+        <v>0.57128685072531593</v>
       </c>
       <c r="AC136" s="48">
-        <f t="shared" ref="AC136" si="42">SUM(AC133:AC135)</f>
-        <v>0.41111737089201877</v>
+        <f t="shared" si="16"/>
+        <v>0.57517370892018782</v>
       </c>
       <c r="AD136" s="48">
-        <f t="shared" ref="AD136" si="43">SUM(AD133:AD135)</f>
-        <v>0.41360212879991726</v>
+        <f t="shared" si="16"/>
+        <v>0.58034790785143398</v>
       </c>
       <c r="AE136" s="48">
-        <f t="shared" ref="AE136" si="44">SUM(AE133:AE135)</f>
-        <v>0.41619252724930172</v>
+        <f t="shared" si="16"/>
+        <v>0.58503945153433079</v>
       </c>
     </row>
   </sheetData>
@@ -64752,8 +64692,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AL31" sqref="I31:AL31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64855,7 +64795,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="20">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -64863,7 +64803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -64893,7 +64833,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -65055,12 +64995,12 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.35E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10" s="22">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F10" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="7" t="str">
@@ -65069,39 +65009,39 @@
       </c>
       <c r="I10">
         <f>D10</f>
-        <v>1.35E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J10" s="22">
         <f>E10</f>
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>0.12972618523294333</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.23604729767251131</v>
+        <v>0.24398859395450184</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.41256505694084844</v>
+        <v>0.41867144928034067</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.62543494305915159</v>
+        <v>0.62932855071965943</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.80195270232748872</v>
+        <v>0.80401140604549814</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.90827381476705671</v>
+        <v>0.90922730941604779</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.96047019037115278</v>
+        <v>0.96088110315315733</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -66964,10 +66904,10 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="22">
-        <v>0.22500000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="29">
         <v>1</v>
@@ -66978,122 +66918,123 @@
       </c>
       <c r="I24" s="22">
         <f>D24</f>
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="J24" s="22">
-        <v>0.2</v>
+        <f>E24</f>
+        <v>0.6</v>
       </c>
       <c r="K24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.23351488053870972</v>
+        <v>0.60036442047776029</v>
       </c>
       <c r="L24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>0.23893931272062097</v>
+        <v>0.6006004729026948</v>
       </c>
       <c r="M24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>0.24771697883230115</v>
+        <v>0.60098904926265384</v>
       </c>
       <c r="N24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>0.26175505171261426</v>
+        <v>0.60162805508635842</v>
       </c>
       <c r="O24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.28379008951646378</v>
+        <v>0.60267714036971387</v>
       </c>
       <c r="P24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.31738226456714114</v>
+        <v>0.60439477705223721</v>
       </c>
       <c r="Q24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.36637978094992618</v>
+        <v>0.60719448398483655</v>
       </c>
       <c r="R24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.43342960156174626</v>
+        <v>0.6117248923005425</v>
       </c>
       <c r="S24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.51759401831856278</v>
+        <v>0.61897034927102668</v>
       </c>
       <c r="T24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.61250000000000004</v>
+        <v>0.63034327200849738</v>
       </c>
       <c r="U24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.70740598168143731</v>
+        <v>0.64768116880884696</v>
       </c>
       <c r="V24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.79157039843825372</v>
+        <v>0.6729702095225425</v>
       </c>
       <c r="W24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.8586202190500738</v>
+        <v>0.707576568547998</v>
       </c>
       <c r="X24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.90761773543285884</v>
+        <v>0.75101626751925821</v>
       </c>
       <c r="Y24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.94120991048353631</v>
+        <v>0.8</v>
       </c>
       <c r="Z24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.96324494828738583</v>
+        <v>0.84898373248074188</v>
       </c>
       <c r="AA24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.97728302116769883</v>
+        <v>0.89242343145200187</v>
       </c>
       <c r="AB24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.98606068727937901</v>
+        <v>0.92702979047745737</v>
       </c>
       <c r="AC24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.99148511946129037</v>
+        <v>0.95231883119115301</v>
       </c>
       <c r="AD24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.99481304053367936</v>
+        <v>0.9696567279915026</v>
       </c>
       <c r="AE24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.99684564327018055</v>
+        <v>0.9810296507289733</v>
       </c>
       <c r="AF24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.9980837170536081</v>
+        <v>0.98827510769945737</v>
       </c>
       <c r="AG24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.99883658375102879</v>
+        <v>0.99280551601516343</v>
       </c>
       <c r="AH24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.99929393532433952</v>
+        <v>0.99560522294776277</v>
       </c>
       <c r="AI24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.99957159655638428</v>
+        <v>0.99732285963028611</v>
       </c>
       <c r="AJ24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.99974010364888855</v>
+        <v>0.99837194491364156</v>
       </c>
       <c r="AK24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.99984234409200723</v>
+        <v>0.99901095073734614</v>
       </c>
       <c r="AL24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AL$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.99990436920361059</v>
+        <v>0.99939952709730528</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
@@ -67791,8 +67732,7 @@
         <v>8.5993749223261043E-5</v>
       </c>
       <c r="F30" s="26">
-        <f>F37*($E$29/$E$36)</f>
-        <v>0.1804568752867943</v>
+        <v>0.05</v>
       </c>
       <c r="G30" s="8" t="str">
         <f>IF(E30=F30,"n/a",IF(OR(C30="battery electric vehicle",C30="natural gas vehicle",C30="plugin hybrid vehicle",C30="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -67804,119 +67744,119 @@
       </c>
       <c r="J30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,J$9))</f>
-        <v>2.7507988696029353E-3</v>
+        <v>8.2342485951046606E-4</v>
       </c>
       <c r="K30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,K$9))</f>
-        <v>3.6646071844537468E-3</v>
+        <v>1.0763028936513275E-3</v>
       </c>
       <c r="L30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,L$9))</f>
-        <v>4.8833169269316716E-3</v>
+        <v>1.4135562528708127E-3</v>
       </c>
       <c r="M30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,M$9))</f>
-        <v>6.5020005156684385E-3</v>
+        <v>1.861494312925186E-3</v>
       </c>
       <c r="N30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,N$9))</f>
-        <v>8.6402403019500262E-3</v>
+        <v>2.4532090794568743E-3</v>
       </c>
       <c r="O30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,O$9))</f>
-        <v>1.144455349460306E-2</v>
+        <v>3.229246237084574E-3</v>
       </c>
       <c r="P30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,P$9))</f>
-        <v>1.5087926335688883E-2</v>
+        <v>4.2374762419148592E-3</v>
       </c>
       <c r="Q30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Q$9))</f>
-        <v>1.9763883561222724E-2</v>
+        <v>5.5314531643209574E-3</v>
       </c>
       <c r="R30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,R$9))</f>
-        <v>2.5671795372367447E-2</v>
+        <v>7.1663486893455471E-3</v>
       </c>
       <c r="S30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,S$9))</f>
-        <v>3.2990246293128904E-2</v>
+        <v>9.1915824847949544E-3</v>
       </c>
       <c r="T30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,T$9))</f>
-        <v>4.1837382603605554E-2</v>
+        <v>1.1639849152553195E-2</v>
       </c>
       <c r="U30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,U$9))</f>
-        <v>5.2222286769624655E-2</v>
+        <v>1.4513662081988942E-2</v>
       </c>
       <c r="V30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,V$9))</f>
-        <v>6.3999278162555642E-2</v>
+        <v>1.7772707095192228E-2</v>
       </c>
       <c r="W30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,W$9))</f>
-        <v>7.6844172136814382E-2</v>
+        <v>2.1327272625150932E-2</v>
       </c>
       <c r="X30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,X$9))</f>
-        <v>9.0271434518008772E-2</v>
+        <v>2.5042996874611631E-2</v>
       </c>
       <c r="Y30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Y$9))</f>
-        <v>0.10369869689920316</v>
+        <v>2.8758721124072337E-2</v>
       </c>
       <c r="Z30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Z$9))</f>
-        <v>0.11654359087346189</v>
+        <v>3.2313286654031034E-2</v>
       </c>
       <c r="AA30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AA$9))</f>
-        <v>0.1283205822663929</v>
+        <v>3.5572331667234322E-2</v>
       </c>
       <c r="AB30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AB$9))</f>
-        <v>0.13870548643241198</v>
+        <v>3.8446144596670069E-2</v>
       </c>
       <c r="AC30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AC$9))</f>
-        <v>0.14755262274288866</v>
+        <v>4.0894411264428311E-2</v>
       </c>
       <c r="AD30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AD$9))</f>
-        <v>0.15487107366365013</v>
+        <v>4.291964505987772E-2</v>
       </c>
       <c r="AE30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AE$9))</f>
-        <v>0.16077898547479483</v>
+        <v>4.4554540584902311E-2</v>
       </c>
       <c r="AF30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AF$9))</f>
-        <v>0.16545494270032868</v>
+        <v>4.5848517507308409E-2</v>
       </c>
       <c r="AG30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AG$9))</f>
-        <v>0.16909831554141452</v>
+        <v>4.685674751213869E-2</v>
       </c>
       <c r="AH30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AH$9))</f>
-        <v>0.17190262873406756</v>
+        <v>4.7632784669766393E-2</v>
       </c>
       <c r="AI30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AI$9))</f>
-        <v>0.17404086852034914</v>
+        <v>4.8224499436298078E-2</v>
       </c>
       <c r="AJ30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AJ$9))</f>
-        <v>0.17565955210908588</v>
+        <v>4.8672437496352451E-2</v>
       </c>
       <c r="AK30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
-        <v>0.17687826185156383</v>
+        <v>4.9009690855571941E-2</v>
       </c>
       <c r="AL30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>0.17779207016641463</v>
+        <v>4.9262568889712796E-2</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
@@ -67930,7 +67870,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="22">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="22">
         <v>1</v>
@@ -67941,123 +67881,123 @@
       </c>
       <c r="I31" s="22">
         <f>E31</f>
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT(J$9:$K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,J$9))</f>
-        <v>3.7626485762849729E-2</v>
+        <v>0.50075059112836851</v>
       </c>
       <c r="K31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,K$9))</f>
-        <v>3.0767203777981318E-2</v>
+        <v>0.5004555255972003</v>
       </c>
       <c r="L31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,L$9))</f>
-        <v>3.7626485762849729E-2</v>
+        <v>0.50075059112836851</v>
       </c>
       <c r="M31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,M$9))</f>
-        <v>4.8725986136329197E-2</v>
+        <v>0.50123631157831738</v>
       </c>
       <c r="N31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,N$9))</f>
-        <v>6.6477355714015446E-2</v>
+        <v>0.50203506885794802</v>
       </c>
       <c r="O31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,O$9))</f>
-        <v>9.4341016420818685E-2</v>
+        <v>0.50334642546214248</v>
       </c>
       <c r="P31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,P$9))</f>
-        <v>0.13681886358167519</v>
+        <v>0.50549347131529654</v>
       </c>
       <c r="Q31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Q$9))</f>
-        <v>0.19877701333022921</v>
+        <v>0.50899310498104577</v>
       </c>
       <c r="R31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,R$9))</f>
-        <v>0.28356259294259523</v>
+        <v>0.51465611537567812</v>
       </c>
       <c r="S31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,S$9))</f>
-        <v>0.38998985542218251</v>
+        <v>0.52371293658878337</v>
       </c>
       <c r="T31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,T$9))</f>
-        <v>0.51</v>
+        <v>0.53792909001062172</v>
       </c>
       <c r="U31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,U$9))</f>
-        <v>0.63001014457781745</v>
+        <v>0.55960146101105879</v>
       </c>
       <c r="V31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,V$9))</f>
-        <v>0.73643740705740479</v>
+        <v>0.59121276190317817</v>
       </c>
       <c r="W31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,W$9))</f>
-        <v>0.82122298666977078</v>
+        <v>0.63447071068499761</v>
       </c>
       <c r="X31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,X$9))</f>
-        <v>0.88318113641832474</v>
+        <v>0.68877033439907276</v>
       </c>
       <c r="Y31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Y$9))</f>
-        <v>0.92565898357918142</v>
+        <v>0.75</v>
       </c>
       <c r="Z31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,Z$9))</f>
-        <v>0.95352264428598466</v>
+        <v>0.81122966560092724</v>
       </c>
       <c r="AA31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AA$9))</f>
-        <v>0.97127401386367074</v>
+        <v>0.86552928931500239</v>
       </c>
       <c r="AB31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AB$9))</f>
-        <v>0.98237351423715025</v>
+        <v>0.90878723809682183</v>
       </c>
       <c r="AC31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AC$9))</f>
-        <v>0.98923279622201876</v>
+        <v>0.9403985389889411</v>
       </c>
       <c r="AD31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AD$9))</f>
-        <v>0.99344100609420094</v>
+        <v>0.96207090998937828</v>
       </c>
       <c r="AE31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AE$9))</f>
-        <v>0.99601126503842186</v>
+        <v>0.97628706341121663</v>
       </c>
       <c r="AF31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AF$9))</f>
-        <v>0.99757682930649805</v>
+        <v>0.98534388462432188</v>
       </c>
       <c r="AG31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AG$9))</f>
-        <v>0.9985288413883977</v>
+        <v>0.99100689501895423</v>
       </c>
       <c r="AH31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AH$9))</f>
-        <v>0.99910716982948744</v>
+        <v>0.99450652868470346</v>
       </c>
       <c r="AI31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AI$9))</f>
-        <v>0.9994582769358149</v>
+        <v>0.99665357453785763</v>
       </c>
       <c r="AJ31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AJ$9))</f>
-        <v>0.99967135687214292</v>
+        <v>0.99796493114205198</v>
       </c>
       <c r="AK31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AK$9))</f>
-        <v>0.99980064156150594</v>
+        <v>0.99876368842168262</v>
       </c>
       <c r="AL31">
         <f>IF($G31="s-curve",$E31+($F31-$E31)*$R$2/(1+EXP($R$3*(COUNT($K$9:AL$9)+$R$4))),TREND($E31:$F31,$E$9:$F$9,AL$9))</f>
-        <v>0.99987907331553338</v>
+        <v>0.99924940887163149</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
@@ -68747,12 +68687,10 @@
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="26">
-        <f>'SYVbT-freight'!H3/SUM('SYVbT-freight'!3:3)</f>
-        <v>5.9115618406095638E-5</v>
+        <v>0.2</v>
       </c>
       <c r="F37" s="26">
-        <f>SUM(SUM(INDEX('AEO 49'!142:142,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!153:153,0,MATCH(F$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!164:164,0,MATCH(F$9,'AEO 49'!$1:$1,0))))/INDEX('AEO 49'!$166:$166,MATCH(F$9,'AEO 49'!$1:$1,0))*Assumptions!A11</f>
-        <v>6.167025946043298E-3</v>
+        <v>0.3</v>
       </c>
       <c r="G37" s="8" t="str">
         <f>IF(E37=F37,"n/a",IF(OR(C37="battery electric vehicle",C37="natural gas vehicle",C37="plugin hybrid vehicle",C37="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -68760,123 +68698,123 @@
       </c>
       <c r="I37" s="22">
         <f t="shared" si="1"/>
-        <v>5.9115618406095638E-5</v>
+        <v>0.2</v>
       </c>
       <c r="J37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,J$9))</f>
-        <v>1.4935407916627746E-4</v>
+        <v>0.20147740316932733</v>
       </c>
       <c r="K37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,K$9))</f>
-        <v>1.8029842670274726E-4</v>
+        <v>0.20198403057340777</v>
       </c>
       <c r="L37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,L$9))</f>
-        <v>2.2156767015833498E-4</v>
+        <v>0.2026596993576866</v>
       </c>
       <c r="M37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,M$9))</f>
-        <v>2.7638125273076781E-4</v>
+        <v>0.20355711892726364</v>
       </c>
       <c r="N37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,N$9))</f>
-        <v>3.4878859898456794E-4</v>
+        <v>0.20474258731775669</v>
       </c>
       <c r="O37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,O$9))</f>
-        <v>4.4375123023259936E-4</v>
+        <v>0.20629733560569966</v>
       </c>
       <c r="P37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,P$9))</f>
-        <v>5.6712699029875862E-4</v>
+        <v>0.20831726964939223</v>
       </c>
       <c r="Q37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Q$9))</f>
-        <v>7.2546921929916906E-4</v>
+        <v>0.21090968211956129</v>
       </c>
       <c r="R37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,R$9))</f>
-        <v>9.2552920269812025E-4</v>
+        <v>0.21418510649004879</v>
       </c>
       <c r="S37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,S$9))</f>
-        <v>1.173354359287566E-3</v>
+        <v>0.21824255238063564</v>
       </c>
       <c r="T37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,T$9))</f>
-        <v>1.4729454838645032E-3</v>
+        <v>0.22314752165009824</v>
       </c>
       <c r="U37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,U$9))</f>
-        <v>1.8246101365315041E-3</v>
+        <v>0.22890504973749962</v>
       </c>
       <c r="V37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,V$9))</f>
-        <v>2.2234151251426739E-3</v>
+        <v>0.23543436937742046</v>
       </c>
       <c r="W37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,W$9))</f>
-        <v>2.6583825649754587E-3</v>
+        <v>0.24255574831883409</v>
       </c>
       <c r="X37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,X$9))</f>
-        <v>3.1130707822246968E-3</v>
+        <v>0.25</v>
       </c>
       <c r="Y37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Y$9))</f>
-        <v>3.5677589994739349E-3</v>
+        <v>0.25744425168116591</v>
       </c>
       <c r="Z37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Z$9))</f>
-        <v>4.0027264393067193E-3</v>
+        <v>0.26456563062257954</v>
       </c>
       <c r="AA37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AA$9))</f>
-        <v>4.4015314279178897E-3</v>
+        <v>0.27109495026250041</v>
       </c>
       <c r="AB37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AB$9))</f>
-        <v>4.7531960805848898E-3</v>
+        <v>0.27685247834990179</v>
       </c>
       <c r="AC37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AC$9))</f>
-        <v>5.0527872051618272E-3</v>
+        <v>0.28175744761936439</v>
       </c>
       <c r="AD37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AD$9))</f>
-        <v>5.3006123617512736E-3</v>
+        <v>0.28581489350995121</v>
       </c>
       <c r="AE37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AE$9))</f>
-        <v>5.5006723451502251E-3</v>
+        <v>0.28909031788043871</v>
       </c>
       <c r="AF37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AF$9))</f>
-        <v>5.6590145741506354E-3</v>
+        <v>0.29168273035060777</v>
       </c>
       <c r="AG37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AG$9))</f>
-        <v>5.782390334216795E-3</v>
+        <v>0.29370266439430037</v>
       </c>
       <c r="AH37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AH$9))</f>
-        <v>5.8773529654648259E-3</v>
+        <v>0.29525741268224331</v>
       </c>
       <c r="AI37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AI$9))</f>
-        <v>5.9497603117186259E-3</v>
+        <v>0.29644288107273636</v>
       </c>
       <c r="AJ37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AJ$9))</f>
-        <v>6.0045738942910579E-3</v>
+        <v>0.29734030064231343</v>
       </c>
       <c r="AK37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AK$9))</f>
-        <v>6.045843137746647E-3</v>
+        <v>0.29801596942659225</v>
       </c>
       <c r="AL37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AL$9))</f>
-        <v>6.0767874852831159E-3</v>
+        <v>0.29852259683067267</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB84011-9CC8-416F-8102-D3BC70E67FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E32EF9-B419-4D97-8C56-1C0A1C0EBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4228,94 +4228,94 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>4.3551174405403764E-2</c:v>
+                  <c:v>4.2989087116825836E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7104788529173051E-2</c:v>
+                  <c:v>6.610634592201016E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13649469183970195</c:v>
+                  <c:v>8.2048991297294677E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20978307669538482</c:v>
+                  <c:v>9.7938516213935262E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32700739114471289</c:v>
+                  <c:v>0.13255343166565225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43096196814707272</c:v>
+                  <c:v>0.19259695429008059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50040999855895896</c:v>
+                  <c:v>0.25323627728904263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54200478255815931</c:v>
+                  <c:v>0.33278584926987881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57069304951511668</c:v>
+                  <c:v>0.41798904086565025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60494930215137077</c:v>
+                  <c:v>0.49316617269424545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63154765969033899</c:v>
+                  <c:v>0.55116113328204885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65039347382966883</c:v>
+                  <c:v>0.58951809016318057</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63478548262223933</c:v>
+                  <c:v>0.61884597837006305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65397261111995664</c:v>
+                  <c:v>0.64278872398529041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67277896695420869</c:v>
+                  <c:v>0.66542783664592342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67538779387587833</c:v>
+                  <c:v>0.66837396397299065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67785817788261993</c:v>
+                  <c:v>0.67114522419821177</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6802128628782359</c:v>
+                  <c:v>0.67392071280267885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68263793570440001</c:v>
+                  <c:v>0.67675528198629942</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6848273883448216</c:v>
+                  <c:v>0.67906496100671743</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.68700316277339912</c:v>
+                  <c:v>0.68131425456393102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68919240622402689</c:v>
+                  <c:v>0.68364296966553328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69126088456688972</c:v>
+                  <c:v>0.68594206027321325</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6932879486663901</c:v>
+                  <c:v>0.6878492859390436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.69515283995454014</c:v>
+                  <c:v>0.68996767307949547</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.69750712630207967</c:v>
+                  <c:v>0.69173200720957029</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69933113079873943</c:v>
+                  <c:v>0.6937773997554576</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.70133711196934967</c:v>
+                  <c:v>0.69577377527787654</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.70348486262471299</c:v>
+                  <c:v>0.69812969478238196</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.70547564304471133</c:v>
+                  <c:v>0.69972120336254584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,94 +4352,94 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.5298474046565855E-2</c:v>
+                  <c:v>1.4526603899662979E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8311292246004401E-2</c:v>
+                  <c:v>3.6940999504299625E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12310940408091893</c:v>
+                  <c:v>4.6906718259392313E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20978310188618698</c:v>
+                  <c:v>5.9153804776936304E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32700734833970918</c:v>
+                  <c:v>8.1526478103565253E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43096188180349648</c:v>
+                  <c:v>0.12099755530460035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50040984503907027</c:v>
+                  <c:v>0.18396396573581036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54200494199628901</c:v>
+                  <c:v>0.268687545612392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56371320509675471</c:v>
+                  <c:v>0.35577287104298477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57780606159761128</c:v>
+                  <c:v>0.42558856222371522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58509057023099886</c:v>
+                  <c:v>0.47562504404827732</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58905083802661262</c:v>
+                  <c:v>0.50615204685715875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54609406508120206</c:v>
+                  <c:v>0.52438801632193954</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55052060968987371</c:v>
+                  <c:v>0.53529042660448245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55443151936231916</c:v>
+                  <c:v>0.54441872389763757</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55798809153821372</c:v>
+                  <c:v>0.54843243359657723</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56135401411498875</c:v>
+                  <c:v>0.55221175741745077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5645684369154883</c:v>
+                  <c:v>0.55599411583999525</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56787281101047427</c:v>
+                  <c:v>0.55985536228265298</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57085855434973609</c:v>
+                  <c:v>0.5630058933749198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57382409346374863</c:v>
+                  <c:v>0.56607040672558384</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.57680697681097237</c:v>
+                  <c:v>0.56924242851976126</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.57962729560241311</c:v>
+                  <c:v>0.57237493029080388</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58238875313302585</c:v>
+                  <c:v>0.57497498787826407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.58492989953442687</c:v>
+                  <c:v>0.57786200287835643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.58813658412151826</c:v>
+                  <c:v>0.5802651724483513</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59062240095045115</c:v>
+                  <c:v>0.58304870283176558</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59335396463691903</c:v>
+                  <c:v>0.58577004171820146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59627932184420496</c:v>
+                  <c:v>0.58897747576024373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.59899171873557377</c:v>
+                  <c:v>0.59114544632199251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4855,40 +4855,40 @@
                   <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>5.8459569384324707E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6.9874456154344386E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.3149431265043575E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>0.13877269058395222</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0.24398859395450184</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.41867144928034067</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.62932855071965943</c:v>
-                </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.80401140604549814</c:v>
+                  <c:v>0.22166909866365125</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
+                  <c:v>0.35342187838502587</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.69457812161497412</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.82633090133634868</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>0.90922730941604779</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.96088110315315733</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0.95485056873495655</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0.97812554384565553</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>1</c:v>
@@ -5180,99 +5180,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$24:$AL$24</c:f>
+              <c:f>Data!$I$10:$AL$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.60036442047776029</c:v>
+                  <c:v>5.8459569384324707E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.6006004729026948</c:v>
+                  <c:v>6.9874456154344386E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.60098904926265384</c:v>
+                  <c:v>9.3149431265043575E-2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.60162805508635842</c:v>
+                  <c:v>0.13877269058395222</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.60267714036971387</c:v>
+                  <c:v>0.22166909866365125</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.60439477705223721</c:v>
+                  <c:v>0.35342187838502587</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.60719448398483655</c:v>
+                  <c:v>0.52400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.6117248923005425</c:v>
+                  <c:v>0.69457812161497412</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.61897034927102668</c:v>
+                  <c:v>0.82633090133634868</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.63034327200849738</c:v>
+                  <c:v>0.90922730941604779</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.64768116880884696</c:v>
+                  <c:v>0.95485056873495655</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>0.6729702095225425</c:v>
+                  <c:v>0.97812554384565553</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>0.707576568547998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>0.75101626751925821</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>0.84898373248074188</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>0.89242343145200187</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>0.92702979047745737</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>0.95231883119115301</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>0.9696567279915026</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.9810296507289733</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.98827510769945737</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.99280551601516343</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.99560522294776277</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.99732285963028611</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.99837194491364156</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.99901095073734614</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.99939952709730528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,7 +5280,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA5D-4027-A3F0-5080D315718E}"/>
+              <c16:uniqueId val="{00000000-EB5A-4159-9417-DF28BAD9DBA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5293,11 +5293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="203603776"/>
-        <c:axId val="30167216"/>
+        <c:axId val="1489141072"/>
+        <c:axId val="908462080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203603776"/>
+        <c:axId val="1489141072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,7 +5339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30167216"/>
+        <c:crossAx val="908462080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5347,7 +5347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30167216"/>
+        <c:axId val="908462080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +5367,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5398,348 +5398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203603776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$I$31:$AL$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50075059112836851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5004555255972003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50075059112836851</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50123631157831738</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50203506885794802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50334642546214248</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50549347131529654</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50899310498104577</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51465611537567812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52371293658878337</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.53792909001062172</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.55960146101105879</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.59121276190317817</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63447071068499761</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.68877033439907276</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.81122966560092724</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.86552928931500239</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.90878723809682183</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9403985389889411</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.96207090998937828</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97628706341121663</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98534388462432188</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99100689501895423</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99450652868470346</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99665357453785763</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.99796493114205198</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.99876368842168262</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99924940887163149</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F86-4BAA-9216-588C301C969E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1370094816"/>
-        <c:axId val="1971818704"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1370094816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1971818704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1971818704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1370094816"/>
+        <c:crossAx val="1489141072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,46 +5535,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7503,522 +7122,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8100,23 +7203,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>547687</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E42A375-735B-EC2D-60F4-63D3B784EE4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76711D4E-A789-C8D9-97AA-2C6E9406FC81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8129,42 +7232,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26408270-FE3E-7882-B9FC-431933EF38EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9162,51 +8229,51 @@
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>0.13877269058395222</v>
+        <v>5.8459569384324707E-2</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>0.24398859395450184</v>
+        <v>6.9874456154344386E-2</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
-        <v>0.41867144928034067</v>
+        <v>9.3149431265043575E-2</v>
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.62932855071965943</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.80401140604549814</v>
+        <v>0.22166909866365125</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.90922730941604779</v>
+        <v>0.35342187838502587</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.96088110315315733</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>1</v>
+        <v>0.69457812161497412</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>1</v>
+        <v>0.82633090133634868</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>1</v>
+        <v>0.90922730941604779</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>1</v>
+        <v>0.95485056873495655</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>1</v>
+        <v>0.97812554384565553</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
@@ -9678,115 +8745,115 @@
       </c>
       <c r="D6">
         <f>Data!K14</f>
-        <v>2.435315217413268E-2</v>
+        <v>9.9918866734578053E-3</v>
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>3.3646847825867326E-2</v>
+        <v>1.2004677525762598E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>4.1353444384360213E-2</v>
+        <v>1.5661871999866968E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>4.5995322474237404E-2</v>
+        <v>2.1474494634633495E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>4.8274166315580479E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>4.9280790600739442E-2</v>
+        <v>3.6525505365366501E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>4.9704589339490207E-2</v>
+        <v>4.2338128000133035E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>4.9879391575460584E-2</v>
+        <v>4.5995322474237404E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>4.9950880568867671E-2</v>
+        <v>4.8008113326542201E-2</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>4.9980015660008786E-2</v>
+        <v>4.9034950463778926E-2</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>4.9991872678821749E-2</v>
+        <v>4.953854840951509E-2</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>4.9996695298304125E-2</v>
+        <v>4.9780754720870554E-2</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>4.9998656345816586E-2</v>
+        <v>4.9896149827421347E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>4.9999453700604407E-2</v>
+        <v>4.9950880568867671E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>4.9999777889526184E-2</v>
+        <v>4.9976783297249215E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>4.9999909696336844E-2</v>
+        <v>4.9989030006597983E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>4.9999963285223548E-2</v>
+        <v>4.9994817427808577E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>4.9999985072878089E-2</v>
+        <v>4.9997551766842237E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>4.9999993931083841E-2</v>
+        <v>4.9998843500973188E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>4.9999997532562616E-2</v>
+        <v>4.9999453700604407E-2</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>4.9999998996814787E-2</v>
+        <v>4.9999741944666706E-2</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>4.999999959213533E-2</v>
+        <v>4.9999878102896626E-2</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>4.9999999834174594E-2</v>
+        <v>4.9999942419797314E-2</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>4.9999999932580426E-2</v>
+        <v>4.9999972801018477E-2</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>4.9999999972589249E-2</v>
+        <v>4.9999987152106469E-2</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>4.9999999988855619E-2</v>
+        <v>4.9999993931083841E-2</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>4.9999999995469037E-2</v>
+        <v>4.9999997133246779E-2</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>4.9999999998157844E-2</v>
+        <v>4.9999998645841613E-2</v>
       </c>
       <c r="AF6" t="e">
         <f>Data!#REF!</f>
@@ -10211,119 +9278,119 @@
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.24557685321089995</v>
+        <v>7.1828501414524334E-2</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.4198927277482391</v>
+        <v>9.505457951868844E-2</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.63010727225176089</v>
+        <v>0.14058199165415403</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.8044231467891001</v>
+        <v>0.22330424761603851</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.90941800834584607</v>
+        <v>0.35478023578337664</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.96096328570955836</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.98373216835005872</v>
+        <v>0.69521976421662335</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.99331809220275458</v>
+        <v>0.82669575238396142</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.99727195230208454</v>
+        <v>0.90941800834584607</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.99888896524819726</v>
+        <v>0.9549454204813117</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.99954797326210354</v>
+        <v>0.97817149858547559</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.99981616773525384</v>
+        <v>0.98956240450093647</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.9999252507949743</v>
+        <v>0.9950408805911195</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.99996960782204181</v>
+        <v>0.9976510080011971</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.99998764322795686</v>
+        <v>0.99888896524819726</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.99999497607261612</v>
+        <v>0.99947486029492261</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.99999795741714281</v>
+        <v>0.9997518691968591</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.99999916954672308</v>
+        <v>0.99988277515281299</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.99999966236271853</v>
+        <v>0.9999446232976219</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.99999986272689645</v>
+        <v>0.99997384109344112</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.99999994418891625</v>
+        <v>0.99998764322795686</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.99999997730890589</v>
+        <v>0.99999416303412791</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.99999999077448953</v>
+        <v>0.99999724280361402</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.99999999624918723</v>
+        <v>0.99999869759065341</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.9999999984750334</v>
+        <v>0.99999938478494166</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99999999937999484</v>
+        <v>0.9999997093928843</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99999999974792475</v>
+        <v>0.99999986272689645</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99999999989751387</v>
+        <v>0.99999993515677243</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99999999995833211</v>
+        <v>0.99999996937022695</v>
       </c>
       <c r="AF2" t="e">
         <f>Data!#REF!</f>
@@ -25959,119 +25026,119 @@
       </c>
       <c r="C2">
         <f>Data!J80</f>
-        <v>0.20587037180094733</v>
+        <v>2.2977369910025615E-2</v>
       </c>
       <c r="D2">
         <f>Data!K80</f>
-        <v>0.38936076605077802</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="E2">
         <f>Data!L80</f>
-        <v>0.61063923394922204</v>
+        <v>9.534946489910949E-2</v>
       </c>
       <c r="F2">
         <f>Data!M80</f>
-        <v>0.79412962819905275</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="G2">
         <f>Data!N80</f>
-        <v>0.90465053510089055</v>
+        <v>0.32082130082460703</v>
       </c>
       <c r="H2">
         <f>Data!O80</f>
-        <v>0.95890872179953501</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
         <f>Data!P80</f>
-        <v>0.98287596668427235</v>
+        <v>0.67917869917539297</v>
       </c>
       <c r="J2">
         <f>Data!Q80</f>
-        <v>0.99296641284500486</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="K2">
         <f>Data!R80</f>
-        <v>0.99712837084429951</v>
+        <v>0.90465053510089055</v>
       </c>
       <c r="L2">
         <f>Data!S80</f>
-        <v>0.99883048973494448</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="M2">
         <f>Data!T80</f>
-        <v>0.99952418238116159</v>
+        <v>0.97702263008997436</v>
       </c>
       <c r="N2">
         <f>Data!U80</f>
-        <v>0.99980649235289876</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="O2">
         <f>Data!V80</f>
-        <v>0.99992131662628869</v>
+        <v>0.99477987430644166</v>
       </c>
       <c r="P2">
         <f>Data!W80</f>
-        <v>0.99996800823372822</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="Q2">
         <f>Data!X80</f>
-        <v>0.99998699287153348</v>
+        <v>0.99883048973494448</v>
       </c>
       <c r="R2">
         <f>Data!Y80</f>
-        <v>0.99999471165538534</v>
+        <v>0.9994472213630764</v>
       </c>
       <c r="S2">
         <f>Data!Z80</f>
-        <v>0.99999784991278184</v>
+        <v>0.99973880968090434</v>
       </c>
       <c r="T2">
         <f>Data!AA80</f>
-        <v>0.99999912583865591</v>
+        <v>0.99987660542401369</v>
       </c>
       <c r="U2">
         <f>Data!AB80</f>
-        <v>0.99999964459233537</v>
+        <v>0.99994170873433885</v>
       </c>
       <c r="V2">
         <f>Data!AC80</f>
-        <v>0.99999985550199622</v>
+        <v>0.99997246430888531</v>
       </c>
       <c r="W2">
         <f>Data!AD80</f>
-        <v>0.99999994125149072</v>
+        <v>0.99998699287153348</v>
       </c>
       <c r="X2">
         <f>Data!AE80</f>
-        <v>0.99999997611463776</v>
+        <v>0.99999385582539779</v>
       </c>
       <c r="Y2">
         <f>Data!AF80</f>
-        <v>0.99999999028893638</v>
+        <v>0.99999709768801481</v>
       </c>
       <c r="Z2">
         <f>Data!AG80</f>
-        <v>0.99999999605177603</v>
+        <v>0.99999862904279302</v>
       </c>
       <c r="AA2">
         <f>Data!AH80</f>
-        <v>0.99999999839477205</v>
+        <v>0.99999935240520166</v>
       </c>
       <c r="AB2">
         <f>Data!AI80</f>
-        <v>0.99999999934736294</v>
+        <v>0.99999969409777301</v>
       </c>
       <c r="AC2">
         <f>Data!AJ80</f>
-        <v>0.99999999973465759</v>
+        <v>0.99999985550199622</v>
       </c>
       <c r="AD2">
         <f>Data!AK80</f>
-        <v>0.99999999989211985</v>
+        <v>0.99999993174397095</v>
       </c>
       <c r="AE2">
         <f>Data!AL80</f>
-        <v>0.99999999995613909</v>
+        <v>0.9999999677581336</v>
       </c>
       <c r="AF2" t="e">
         <f>Data!#REF!</f>
@@ -57892,8 +56959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:AE131"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:AE68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58768,94 +57835,94 @@
         <v>953</v>
       </c>
       <c r="B62" s="39">
-        <v>542736</v>
+        <v>530475</v>
       </c>
       <c r="C62" s="39">
-        <v>971589</v>
+        <v>953916</v>
       </c>
       <c r="D62" s="39">
-        <v>2070840</v>
+        <v>1240110</v>
       </c>
       <c r="E62" s="39">
-        <v>3380780</v>
+        <v>1512200</v>
       </c>
       <c r="F62" s="39">
-        <v>5531350</v>
+        <v>2080640</v>
       </c>
       <c r="G62" s="39">
-        <v>7554820</v>
+        <v>3107430</v>
       </c>
       <c r="H62" s="39">
-        <v>8984830</v>
+        <v>4241380</v>
       </c>
       <c r="I62" s="39">
-        <v>9884360</v>
+        <v>5785970</v>
       </c>
       <c r="J62" s="39">
-        <v>10514500</v>
+        <v>7483830</v>
       </c>
       <c r="K62" s="39">
-        <v>11226000</v>
+        <v>9000360</v>
       </c>
       <c r="L62" s="39">
-        <v>11778600</v>
+        <v>10185700</v>
       </c>
       <c r="M62" s="39">
-        <v>12180600</v>
+        <v>10984900</v>
       </c>
       <c r="N62" s="39">
-        <v>11954700</v>
+        <v>11624500</v>
       </c>
       <c r="O62" s="39">
-        <v>12405800</v>
+        <v>12179700</v>
       </c>
       <c r="P62" s="39">
-        <v>12846600</v>
+        <v>12711000</v>
       </c>
       <c r="Q62" s="39">
-        <v>12964800</v>
+        <v>12842900</v>
       </c>
       <c r="R62" s="39">
-        <v>13090400</v>
+        <v>12978500</v>
       </c>
       <c r="S62" s="39">
-        <v>13223500</v>
+        <v>13124100</v>
       </c>
       <c r="T62" s="39">
-        <v>13359000</v>
+        <v>13270400</v>
       </c>
       <c r="U62" s="39">
-        <v>13502200</v>
+        <v>13416600</v>
       </c>
       <c r="V62" s="39">
-        <v>13648100</v>
+        <v>13569200</v>
       </c>
       <c r="W62" s="39">
-        <v>13799000</v>
+        <v>13727000</v>
       </c>
       <c r="X62" s="39">
-        <v>13945100</v>
+        <v>13877200</v>
       </c>
       <c r="Y62" s="39">
-        <v>14094700</v>
+        <v>14013700</v>
       </c>
       <c r="Z62" s="39">
-        <v>14247600</v>
+        <v>14159600</v>
       </c>
       <c r="AA62" s="39">
-        <v>14430200</v>
+        <v>14314300</v>
       </c>
       <c r="AB62" s="39">
-        <v>14610800</v>
+        <v>14490700</v>
       </c>
       <c r="AC62" s="39">
-        <v>14801000</v>
+        <v>14678000</v>
       </c>
       <c r="AD62" s="39">
-        <v>14996600</v>
+        <v>14882600</v>
       </c>
       <c r="AE62" s="39">
-        <v>15203400</v>
+        <v>15079600</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
@@ -58863,94 +57930,94 @@
         <v>954</v>
       </c>
       <c r="B63">
-        <v>4974</v>
+        <v>4977</v>
       </c>
       <c r="C63">
+        <v>5637</v>
+      </c>
+      <c r="D63">
+        <v>5868</v>
+      </c>
+      <c r="E63">
+        <v>5733</v>
+      </c>
+      <c r="F63">
+        <v>5520</v>
+      </c>
+      <c r="G63">
+        <v>5244</v>
+      </c>
+      <c r="H63">
+        <v>5007</v>
+      </c>
+      <c r="I63">
+        <v>4650</v>
+      </c>
+      <c r="J63">
+        <v>4260</v>
+      </c>
+      <c r="K63">
+        <v>3930</v>
+      </c>
+      <c r="L63">
+        <v>3708</v>
+      </c>
+      <c r="M63">
+        <v>3645</v>
+      </c>
+      <c r="N63">
+        <v>3660</v>
+      </c>
+      <c r="O63">
+        <v>3744</v>
+      </c>
+      <c r="P63">
+        <v>3819</v>
+      </c>
+      <c r="Q63">
+        <v>4116</v>
+      </c>
+      <c r="R63">
+        <v>4410</v>
+      </c>
+      <c r="S63">
+        <v>4683</v>
+      </c>
+      <c r="T63">
+        <v>4926</v>
+      </c>
+      <c r="U63">
+        <v>5151</v>
+      </c>
+      <c r="V63">
+        <v>5343</v>
+      </c>
+      <c r="W63">
+        <v>5505</v>
+      </c>
+      <c r="X63">
         <v>5628</v>
       </c>
-      <c r="D63">
-        <v>5514</v>
-      </c>
-      <c r="E63">
-        <v>5022</v>
-      </c>
-      <c r="F63">
-        <v>4284</v>
-      </c>
-      <c r="G63">
-        <v>3696</v>
-      </c>
-      <c r="H63">
-        <v>3354</v>
-      </c>
-      <c r="I63">
-        <v>3198</v>
-      </c>
-      <c r="J63">
-        <v>3150</v>
-      </c>
-      <c r="K63">
-        <v>3072</v>
-      </c>
-      <c r="L63">
-        <v>3054</v>
-      </c>
-      <c r="M63">
-        <v>3117</v>
-      </c>
-      <c r="N63">
-        <v>3525</v>
-      </c>
-      <c r="O63">
-        <v>3639</v>
-      </c>
-      <c r="P63">
-        <v>3747</v>
-      </c>
-      <c r="Q63">
-        <v>4035</v>
-      </c>
-      <c r="R63">
-        <v>4323</v>
-      </c>
-      <c r="S63">
-        <v>4596</v>
-      </c>
-      <c r="T63">
-        <v>4845</v>
-      </c>
-      <c r="U63">
-        <v>5064</v>
-      </c>
-      <c r="V63">
-        <v>5250</v>
-      </c>
-      <c r="W63">
-        <v>5403</v>
-      </c>
-      <c r="X63">
-        <v>5523</v>
-      </c>
       <c r="Y63">
-        <v>5622</v>
+        <v>5721</v>
       </c>
       <c r="Z63">
-        <v>5697</v>
+        <v>5793</v>
       </c>
       <c r="AA63">
-        <v>5739</v>
+        <v>5850</v>
       </c>
       <c r="AB63">
-        <v>5793</v>
+        <v>5895</v>
       </c>
       <c r="AC63">
-        <v>5835</v>
+        <v>5940</v>
       </c>
       <c r="AD63">
-        <v>5859</v>
+        <v>5970</v>
       </c>
       <c r="AE63">
-        <v>5889</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
@@ -58958,94 +58025,94 @@
         <v>955</v>
       </c>
       <c r="B64" s="39">
-        <v>16648800</v>
+        <v>16658600</v>
       </c>
       <c r="C64" s="39">
-        <v>16803900</v>
+        <v>16804100</v>
       </c>
       <c r="D64" s="39">
-        <v>15857300</v>
+        <v>16840500</v>
       </c>
       <c r="E64" s="39">
-        <v>14604900</v>
+        <v>16659500</v>
       </c>
       <c r="F64" s="39">
-        <v>12473700</v>
+        <v>16058300</v>
       </c>
       <c r="G64" s="39">
-        <v>10612800</v>
+        <v>15046400</v>
       </c>
       <c r="H64" s="39">
-        <v>9396830</v>
+        <v>14045000</v>
       </c>
       <c r="I64" s="39">
-        <v>8680810</v>
+        <v>12650700</v>
       </c>
       <c r="J64" s="39">
-        <v>8184040</v>
+        <v>11099400</v>
       </c>
       <c r="K64" s="39">
-        <v>7562220</v>
+        <v>9702360</v>
       </c>
       <c r="L64" s="39">
-        <v>7076720</v>
+        <v>8617510</v>
       </c>
       <c r="M64" s="39">
-        <v>6732550</v>
+        <v>7900440</v>
       </c>
       <c r="N64" s="39">
-        <v>7062680</v>
+        <v>7367140</v>
       </c>
       <c r="O64" s="39">
-        <v>6728860</v>
+        <v>6945590</v>
       </c>
       <c r="P64" s="39">
-        <v>6394660</v>
+        <v>6541930</v>
       </c>
       <c r="Q64" s="39">
-        <v>6367760</v>
+        <v>6513110</v>
       </c>
       <c r="R64" s="39">
-        <v>6348110</v>
+        <v>6490490</v>
       </c>
       <c r="S64" s="39">
-        <v>6334650</v>
+        <v>6471720</v>
       </c>
       <c r="T64" s="39">
-        <v>6319480</v>
+        <v>6450580</v>
       </c>
       <c r="U64" s="39">
-        <v>6314060</v>
+        <v>6444050</v>
       </c>
       <c r="V64" s="39">
-        <v>6309550</v>
+        <v>6441490</v>
       </c>
       <c r="W64" s="39">
-        <v>6305960</v>
+        <v>6437920</v>
       </c>
       <c r="X64" s="39">
-        <v>6303050</v>
+        <v>6430670</v>
       </c>
       <c r="Y64" s="39">
-        <v>6301780</v>
+        <v>6428230</v>
       </c>
       <c r="Z64" s="39">
-        <v>6306290</v>
+        <v>6422680</v>
       </c>
       <c r="AA64" s="39">
-        <v>6307710</v>
+        <v>6430990</v>
       </c>
       <c r="AB64" s="39">
-        <v>6323600</v>
+        <v>6439640</v>
       </c>
       <c r="AC64" s="39">
-        <v>6336590</v>
+        <v>6453160</v>
       </c>
       <c r="AD64" s="39">
-        <v>6346500</v>
+        <v>6461940</v>
       </c>
       <c r="AE64" s="39">
-        <v>6364380</v>
+        <v>6490060</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -59053,94 +58120,94 @@
         <v>956</v>
       </c>
       <c r="B65">
-        <v>68355</v>
+        <v>68394</v>
       </c>
       <c r="C65">
-        <v>67977</v>
+        <v>68052</v>
       </c>
       <c r="D65">
-        <v>78177</v>
+        <v>83058</v>
       </c>
       <c r="E65">
-        <v>84045</v>
+        <v>95838</v>
       </c>
       <c r="F65">
-        <v>82263</v>
+        <v>105849</v>
       </c>
       <c r="G65">
-        <v>78888</v>
+        <v>111786</v>
       </c>
       <c r="H65">
-        <v>77676</v>
+        <v>115974</v>
       </c>
       <c r="I65">
-        <v>79230</v>
+        <v>115320</v>
       </c>
       <c r="J65">
-        <v>81597</v>
+        <v>110553</v>
       </c>
       <c r="K65">
-        <v>81843</v>
+        <v>104958</v>
       </c>
       <c r="L65">
-        <v>82557</v>
+        <v>100497</v>
       </c>
       <c r="M65">
-        <v>84294</v>
+        <v>98901</v>
       </c>
       <c r="N65">
-        <v>94515</v>
+        <v>98550</v>
       </c>
       <c r="O65">
-        <v>95904</v>
+        <v>98994</v>
       </c>
       <c r="P65">
-        <v>96666</v>
+        <v>98847</v>
       </c>
       <c r="Q65">
-        <v>101949</v>
+        <v>104247</v>
       </c>
       <c r="R65">
-        <v>107208</v>
+        <v>109626</v>
       </c>
       <c r="S65">
-        <v>112566</v>
+        <v>115041</v>
       </c>
       <c r="T65">
-        <v>117966</v>
+        <v>120453</v>
       </c>
       <c r="U65">
-        <v>123474</v>
+        <v>126012</v>
       </c>
       <c r="V65">
-        <v>128889</v>
+        <v>131622</v>
       </c>
       <c r="W65">
-        <v>134466</v>
+        <v>137355</v>
       </c>
       <c r="X65">
-        <v>139899</v>
+        <v>142974</v>
       </c>
       <c r="Y65">
-        <v>145590</v>
+        <v>148506</v>
       </c>
       <c r="Z65">
-        <v>151338</v>
+        <v>154158</v>
       </c>
       <c r="AA65">
-        <v>157119</v>
+        <v>160161</v>
       </c>
       <c r="AB65">
-        <v>163161</v>
+        <v>166140</v>
       </c>
       <c r="AC65">
-        <v>169362</v>
+        <v>172509</v>
       </c>
       <c r="AD65">
-        <v>175521</v>
+        <v>178875</v>
       </c>
       <c r="AE65">
-        <v>181986</v>
+        <v>185550</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -59148,94 +58215,94 @@
         <v>957</v>
       </c>
       <c r="B66" s="39">
-        <v>218898</v>
+        <v>221328</v>
       </c>
       <c r="C66" s="39">
-        <v>242823</v>
+        <v>241161</v>
       </c>
       <c r="D66" s="39">
-        <v>449787</v>
+        <v>273591</v>
       </c>
       <c r="E66" s="39">
-        <v>521472</v>
+        <v>308226</v>
       </c>
       <c r="F66" s="39">
-        <v>573981</v>
+        <v>391170</v>
       </c>
       <c r="G66" s="39">
-        <v>548604</v>
+        <v>511107</v>
       </c>
       <c r="H66" s="39">
-        <v>512619</v>
+        <v>564513</v>
       </c>
       <c r="I66" s="39">
-        <v>490953</v>
+        <v>586482</v>
       </c>
       <c r="J66" s="39">
-        <v>482694</v>
+        <v>573774</v>
       </c>
       <c r="K66" s="39">
-        <v>490110</v>
+        <v>551025</v>
       </c>
       <c r="L66" s="39">
-        <v>504618</v>
+        <v>529902</v>
       </c>
       <c r="M66" s="39">
-        <v>514239</v>
+        <v>515031</v>
       </c>
       <c r="N66" s="39">
-        <v>498945</v>
+        <v>509952</v>
       </c>
       <c r="O66" s="39">
-        <v>507810</v>
+        <v>511473</v>
       </c>
       <c r="P66" s="39">
-        <v>516777</v>
+        <v>513261</v>
       </c>
       <c r="Q66" s="39">
-        <v>514389</v>
+        <v>511812</v>
       </c>
       <c r="R66" s="39">
-        <v>512742</v>
+        <v>510519</v>
       </c>
       <c r="S66" s="39">
-        <v>511335</v>
+        <v>509469</v>
       </c>
       <c r="T66" s="39">
-        <v>510243</v>
+        <v>508659</v>
       </c>
       <c r="U66" s="39">
-        <v>509430</v>
+        <v>507936</v>
       </c>
       <c r="V66" s="39">
-        <v>508698</v>
+        <v>507489</v>
       </c>
       <c r="W66" s="39">
-        <v>508236</v>
+        <v>507267</v>
       </c>
       <c r="X66" s="39">
-        <v>507654</v>
+        <v>506649</v>
       </c>
       <c r="Y66" s="39">
-        <v>506946</v>
+        <v>505713</v>
       </c>
       <c r="Z66" s="39">
-        <v>506937</v>
+        <v>504837</v>
       </c>
       <c r="AA66" s="39">
-        <v>506694</v>
+        <v>504423</v>
       </c>
       <c r="AB66" s="39">
-        <v>507639</v>
+        <v>504774</v>
       </c>
       <c r="AC66" s="39">
-        <v>508269</v>
+        <v>505311</v>
       </c>
       <c r="AD66" s="39">
-        <v>509403</v>
+        <v>506520</v>
       </c>
       <c r="AE66" s="39">
-        <v>510471</v>
+        <v>507957</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -59243,94 +58310,94 @@
         <v>958</v>
       </c>
       <c r="B67">
-        <v>4125</v>
+        <v>4128</v>
       </c>
       <c r="C67">
-        <v>4986</v>
+        <v>4944</v>
       </c>
       <c r="D67">
-        <v>4971</v>
+        <v>5286</v>
       </c>
       <c r="E67">
+        <v>5595</v>
+      </c>
+      <c r="F67">
+        <v>5793</v>
+      </c>
+      <c r="G67">
+        <v>5763</v>
+      </c>
+      <c r="H67">
+        <v>5652</v>
+      </c>
+      <c r="I67">
+        <v>5325</v>
+      </c>
+      <c r="J67">
+        <v>4893</v>
+      </c>
+      <c r="K67">
+        <v>4467</v>
+      </c>
+      <c r="L67">
+        <v>4134</v>
+      </c>
+      <c r="M67">
+        <v>3945</v>
+      </c>
+      <c r="N67">
+        <v>3822</v>
+      </c>
+      <c r="O67">
+        <v>3738</v>
+      </c>
+      <c r="P67">
+        <v>3645</v>
+      </c>
+      <c r="Q67">
+        <v>3756</v>
+      </c>
+      <c r="R67">
+        <v>3867</v>
+      </c>
+      <c r="S67">
+        <v>3975</v>
+      </c>
+      <c r="T67">
+        <v>4083</v>
+      </c>
+      <c r="U67">
+        <v>4203</v>
+      </c>
+      <c r="V67">
+        <v>4320</v>
+      </c>
+      <c r="W67">
+        <v>4443</v>
+      </c>
+      <c r="X67">
+        <v>4563</v>
+      </c>
+      <c r="Y67">
+        <v>4677</v>
+      </c>
+      <c r="Z67">
+        <v>4794</v>
+      </c>
+      <c r="AA67">
         <v>4911</v>
       </c>
-      <c r="F67">
-        <v>4503</v>
-      </c>
-      <c r="G67">
-        <v>4074</v>
-      </c>
-      <c r="H67">
-        <v>3798</v>
-      </c>
-      <c r="I67">
-        <v>3675</v>
-      </c>
-      <c r="J67">
-        <v>3627</v>
-      </c>
-      <c r="K67">
-        <v>3501</v>
-      </c>
-      <c r="L67">
-        <v>3411</v>
-      </c>
-      <c r="M67">
-        <v>3375</v>
-      </c>
-      <c r="N67">
-        <v>3678</v>
-      </c>
-      <c r="O67">
-        <v>3630</v>
-      </c>
-      <c r="P67">
-        <v>3573</v>
-      </c>
-      <c r="Q67">
-        <v>3681</v>
-      </c>
-      <c r="R67">
-        <v>3792</v>
-      </c>
-      <c r="S67">
-        <v>3900</v>
-      </c>
-      <c r="T67">
-        <v>4011</v>
-      </c>
-      <c r="U67">
-        <v>4125</v>
-      </c>
-      <c r="V67">
-        <v>4236</v>
-      </c>
-      <c r="W67">
-        <v>4353</v>
-      </c>
-      <c r="X67">
-        <v>4470</v>
-      </c>
-      <c r="Y67">
-        <v>4587</v>
-      </c>
-      <c r="Z67">
-        <v>4710</v>
-      </c>
-      <c r="AA67">
-        <v>4827</v>
-      </c>
       <c r="AB67">
-        <v>4959</v>
+        <v>5037</v>
       </c>
       <c r="AC67">
-        <v>5085</v>
+        <v>5166</v>
       </c>
       <c r="AD67">
-        <v>5205</v>
+        <v>5292</v>
       </c>
       <c r="AE67">
-        <v>5346</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -59338,94 +58405,94 @@
         <v>959</v>
       </c>
       <c r="B68">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="C68">
+        <v>288</v>
+      </c>
+      <c r="D68">
+        <v>333</v>
+      </c>
+      <c r="E68">
         <v>345</v>
       </c>
-      <c r="D68">
-        <v>261</v>
-      </c>
-      <c r="E68">
-        <v>237</v>
-      </c>
       <c r="F68">
-        <v>234</v>
+        <v>378</v>
       </c>
       <c r="G68">
-        <v>225</v>
+        <v>402</v>
       </c>
       <c r="H68">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="I68">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="J68">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="K68">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="L68">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="M68">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="N68">
-        <v>624</v>
+        <v>570</v>
       </c>
       <c r="O68">
-        <v>765</v>
+        <v>687</v>
       </c>
       <c r="P68">
-        <v>930</v>
+        <v>819</v>
       </c>
       <c r="Q68">
-        <v>1089</v>
+        <v>957</v>
       </c>
       <c r="R68">
-        <v>1254</v>
+        <v>1098</v>
       </c>
       <c r="S68">
-        <v>1419</v>
+        <v>1239</v>
       </c>
       <c r="T68">
-        <v>1584</v>
+        <v>1374</v>
       </c>
       <c r="U68">
-        <v>1737</v>
+        <v>1503</v>
       </c>
       <c r="V68">
+        <v>1617</v>
+      </c>
+      <c r="W68">
+        <v>1710</v>
+      </c>
+      <c r="X68">
+        <v>1797</v>
+      </c>
+      <c r="Y68">
         <v>1875</v>
       </c>
-      <c r="W68">
-        <v>2004</v>
-      </c>
-      <c r="X68">
-        <v>2118</v>
-      </c>
-      <c r="Y68">
-        <v>2220</v>
-      </c>
       <c r="Z68">
-        <v>2310</v>
+        <v>1941</v>
       </c>
       <c r="AA68">
-        <v>2394</v>
+        <v>2001</v>
       </c>
       <c r="AB68">
-        <v>2475</v>
+        <v>2058</v>
       </c>
       <c r="AC68">
-        <v>2547</v>
+        <v>2109</v>
       </c>
       <c r="AD68">
-        <v>2613</v>
+        <v>2157</v>
       </c>
       <c r="AE68">
-        <v>2679</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
@@ -59528,94 +58595,94 @@
         <v>960</v>
       </c>
       <c r="B71">
-        <v>190651</v>
+        <v>179255</v>
       </c>
       <c r="C71" s="39">
-        <v>554697</v>
+        <v>533061</v>
       </c>
       <c r="D71" s="39">
-        <v>1867760</v>
+        <v>708961</v>
       </c>
       <c r="E71" s="39">
-        <v>3380780</v>
+        <v>913356</v>
       </c>
       <c r="F71" s="39">
-        <v>5531350</v>
+        <v>1279690</v>
       </c>
       <c r="G71" s="39">
-        <v>7554820</v>
+        <v>1952210</v>
       </c>
       <c r="H71" s="39">
-        <v>8984830</v>
+        <v>3081160</v>
       </c>
       <c r="I71" s="39">
-        <v>9884370</v>
+        <v>4671550</v>
       </c>
       <c r="J71" s="39">
-        <v>10385900</v>
+        <v>6369890</v>
       </c>
       <c r="K71" s="39">
-        <v>10722300</v>
+        <v>7767060</v>
       </c>
       <c r="L71" s="39">
-        <v>10912200</v>
+        <v>8789770</v>
       </c>
       <c r="M71" s="39">
-        <v>11031800</v>
+        <v>9431470</v>
       </c>
       <c r="N71" s="39">
-        <v>10284400</v>
+        <v>9850200</v>
       </c>
       <c r="O71" s="39">
-        <v>10443300</v>
+        <v>10142800</v>
       </c>
       <c r="P71" s="39">
-        <v>10586800</v>
+        <v>10399500</v>
       </c>
       <c r="Q71" s="39">
-        <v>10711200</v>
+        <v>10538200</v>
       </c>
       <c r="R71" s="39">
-        <v>10840500</v>
+        <v>10678600</v>
       </c>
       <c r="S71" s="39">
-        <v>10975400</v>
+        <v>10827600</v>
       </c>
       <c r="T71" s="39">
-        <v>11113100</v>
+        <v>10978100</v>
       </c>
       <c r="U71" s="39">
-        <v>11255200</v>
+        <v>11123600</v>
       </c>
       <c r="V71" s="39">
-        <v>11399700</v>
+        <v>11274000</v>
       </c>
       <c r="W71" s="39">
-        <v>11548800</v>
+        <v>11429900</v>
       </c>
       <c r="X71" s="39">
-        <v>11693100</v>
+        <v>11579600</v>
       </c>
       <c r="Y71" s="39">
-        <v>11840100</v>
+        <v>11714100</v>
       </c>
       <c r="Z71" s="39">
-        <v>11988500</v>
+        <v>11859000</v>
       </c>
       <c r="AA71" s="39">
-        <v>12167500</v>
+        <v>12007700</v>
       </c>
       <c r="AB71" s="39">
-        <v>12339600</v>
+        <v>12177900</v>
       </c>
       <c r="AC71" s="39">
-        <v>12522100</v>
+        <v>12357400</v>
       </c>
       <c r="AD71" s="39">
-        <v>12711200</v>
+        <v>12555700</v>
       </c>
       <c r="AE71" s="39">
-        <v>12908600</v>
+        <v>12739700</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
@@ -59623,94 +58690,94 @@
         <v>961</v>
       </c>
       <c r="B72">
-        <v>5121.7299999999996</v>
+        <v>5125.75</v>
       </c>
       <c r="C72">
-        <v>5802.78</v>
+        <v>5813.34</v>
       </c>
       <c r="D72">
-        <v>5602.4</v>
+        <v>6094.45</v>
       </c>
       <c r="E72">
-        <v>5023.2</v>
+        <v>5980.64</v>
       </c>
       <c r="F72">
-        <v>4286.3500000000004</v>
+        <v>5847.48</v>
       </c>
       <c r="G72">
-        <v>3698.46</v>
+        <v>5710.01</v>
       </c>
       <c r="H72">
-        <v>3354.68</v>
+        <v>5472.75</v>
       </c>
       <c r="I72">
-        <v>3198.27</v>
+        <v>5098.3500000000004</v>
       </c>
       <c r="J72">
-        <v>3202.21</v>
+        <v>4716.99</v>
       </c>
       <c r="K72">
-        <v>3285.06</v>
+        <v>4454.26</v>
       </c>
       <c r="L72">
-        <v>3442.11</v>
+        <v>4332.96</v>
       </c>
       <c r="M72">
-        <v>3664.91</v>
+        <v>4388.53</v>
       </c>
       <c r="N72">
-        <v>4384.26</v>
+        <v>4570.5600000000004</v>
       </c>
       <c r="O72">
-        <v>4728.83</v>
+        <v>4870.9799999999996</v>
       </c>
       <c r="P72">
-        <v>5105.38</v>
+        <v>5202.38</v>
       </c>
       <c r="Q72">
-        <v>5497.21</v>
+        <v>5607.23</v>
       </c>
       <c r="R72">
-        <v>5888.37</v>
+        <v>6005.51</v>
       </c>
       <c r="S72">
-        <v>6261.31</v>
+        <v>6377.67</v>
       </c>
       <c r="T72">
-        <v>6601.47</v>
+        <v>6711.68</v>
       </c>
       <c r="U72">
-        <v>6899.98</v>
+        <v>7018.17</v>
       </c>
       <c r="V72">
-        <v>7151.55</v>
+        <v>7279.67</v>
       </c>
       <c r="W72">
-        <v>7361</v>
+        <v>7496.74</v>
       </c>
       <c r="X72">
-        <v>7523.48</v>
+        <v>7665.76</v>
       </c>
       <c r="Y72">
-        <v>7656.06</v>
+        <v>7791.09</v>
       </c>
       <c r="Z72">
-        <v>7758.49</v>
+        <v>7889.31</v>
       </c>
       <c r="AA72">
-        <v>7818.44</v>
+        <v>7966.74</v>
       </c>
       <c r="AB72">
-        <v>7889.42</v>
+        <v>8031.29</v>
       </c>
       <c r="AC72">
-        <v>7947.36</v>
+        <v>8090.72</v>
       </c>
       <c r="AD72">
-        <v>7979.9</v>
+        <v>8133.38</v>
       </c>
       <c r="AE72">
-        <v>8022.02</v>
+        <v>8181.79</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
@@ -59718,94 +58785,94 @@
         <v>962</v>
       </c>
       <c r="B73" s="39">
-        <v>17140900</v>
+        <v>17154300</v>
       </c>
       <c r="C73" s="39">
-        <v>17322700</v>
+        <v>17329100</v>
       </c>
       <c r="D73" s="39">
-        <v>16103100</v>
+        <v>17485400</v>
       </c>
       <c r="E73" s="39">
-        <v>14604900</v>
+        <v>17376000</v>
       </c>
       <c r="F73" s="39">
-        <v>12473700</v>
+        <v>17003100</v>
       </c>
       <c r="G73" s="39">
-        <v>10612800</v>
+        <v>16380800</v>
       </c>
       <c r="H73" s="39">
-        <v>9396830</v>
+        <v>15348000</v>
       </c>
       <c r="I73" s="39">
-        <v>8680810</v>
+        <v>13866200</v>
       </c>
       <c r="J73" s="39">
-        <v>8317100</v>
+        <v>12286000</v>
       </c>
       <c r="K73" s="39">
-        <v>8081840</v>
+        <v>10996100</v>
       </c>
       <c r="L73" s="39">
-        <v>7969110</v>
+        <v>10067900</v>
       </c>
       <c r="M73" s="39">
-        <v>7914010</v>
+        <v>9505110</v>
       </c>
       <c r="N73" s="39">
-        <v>8778060</v>
+        <v>9193100</v>
       </c>
       <c r="O73" s="39">
-        <v>8740910</v>
+        <v>9036090</v>
       </c>
       <c r="P73" s="39">
-        <v>8707950</v>
+        <v>8908480</v>
       </c>
       <c r="Q73" s="39">
-        <v>8671310</v>
+        <v>8869250</v>
       </c>
       <c r="R73" s="39">
-        <v>8644560</v>
+        <v>8838430</v>
       </c>
       <c r="S73" s="39">
-        <v>8626220</v>
+        <v>8812890</v>
       </c>
       <c r="T73" s="39">
-        <v>8605570</v>
+        <v>8784090</v>
       </c>
       <c r="U73" s="39">
-        <v>8598190</v>
+        <v>8775200</v>
       </c>
       <c r="V73" s="39">
-        <v>8592050</v>
+        <v>8771720</v>
       </c>
       <c r="W73" s="39">
-        <v>8587150</v>
+        <v>8766850</v>
       </c>
       <c r="X73" s="39">
-        <v>8583200</v>
+        <v>8756970</v>
       </c>
       <c r="Y73" s="39">
-        <v>8581470</v>
+        <v>8753660</v>
       </c>
       <c r="Z73" s="39">
-        <v>8587600</v>
+        <v>8746100</v>
       </c>
       <c r="AA73" s="39">
-        <v>8589540</v>
+        <v>8757410</v>
       </c>
       <c r="AB73" s="39">
-        <v>8611180</v>
+        <v>8769190</v>
       </c>
       <c r="AC73" s="39">
-        <v>8628870</v>
+        <v>8787610</v>
       </c>
       <c r="AD73" s="39">
-        <v>8642360</v>
+        <v>8799560</v>
       </c>
       <c r="AE73" s="39">
-        <v>8666710</v>
+        <v>8837860</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
@@ -59813,94 +58880,94 @@
         <v>963</v>
       </c>
       <c r="B74">
-        <v>70376.600000000006</v>
+        <v>70431.8</v>
       </c>
       <c r="C74">
-        <v>70078.2</v>
+        <v>70177.899999999994</v>
       </c>
       <c r="D74">
-        <v>79390.600000000006</v>
+        <v>86239.4</v>
       </c>
       <c r="E74">
-        <v>84046.8</v>
+        <v>99960.5</v>
       </c>
       <c r="F74">
-        <v>82263.600000000006</v>
+        <v>112078</v>
       </c>
       <c r="G74">
-        <v>78888.800000000003</v>
+        <v>121702</v>
       </c>
       <c r="H74">
-        <v>77678.5</v>
+        <v>126735</v>
       </c>
       <c r="I74">
-        <v>79231.8</v>
+        <v>126403</v>
       </c>
       <c r="J74">
-        <v>82924.5</v>
+        <v>122374</v>
       </c>
       <c r="K74">
-        <v>87467.3</v>
+        <v>118956</v>
       </c>
       <c r="L74">
-        <v>92970</v>
+        <v>117415</v>
       </c>
       <c r="M74">
-        <v>99088.9</v>
+        <v>118991</v>
       </c>
       <c r="N74">
-        <v>117472</v>
+        <v>122978</v>
       </c>
       <c r="O74">
-        <v>124582</v>
+        <v>128793</v>
       </c>
       <c r="P74">
-        <v>131636</v>
+        <v>134606</v>
       </c>
       <c r="Q74">
-        <v>138832</v>
+        <v>141960</v>
       </c>
       <c r="R74">
-        <v>145992</v>
+        <v>149284</v>
       </c>
       <c r="S74">
-        <v>153287</v>
+        <v>156658</v>
       </c>
       <c r="T74">
-        <v>160643</v>
+        <v>164030</v>
       </c>
       <c r="U74">
-        <v>168142</v>
+        <v>171601</v>
       </c>
       <c r="V74">
-        <v>175519</v>
+        <v>179241</v>
       </c>
       <c r="W74">
-        <v>183110</v>
+        <v>187047</v>
       </c>
       <c r="X74">
-        <v>190510</v>
+        <v>194695</v>
       </c>
       <c r="Y74">
-        <v>198261</v>
+        <v>202229</v>
       </c>
       <c r="Z74">
-        <v>206088</v>
+        <v>209927</v>
       </c>
       <c r="AA74">
-        <v>213960</v>
+        <v>218103</v>
       </c>
       <c r="AB74">
-        <v>222188</v>
+        <v>226245</v>
       </c>
       <c r="AC74">
-        <v>230631</v>
+        <v>234915</v>
       </c>
       <c r="AD74">
-        <v>239020</v>
+        <v>243585</v>
       </c>
       <c r="AE74">
-        <v>247823</v>
+        <v>252673</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -59908,94 +58975,94 @@
         <v>964</v>
       </c>
       <c r="B75">
-        <v>76893.600000000006</v>
+        <v>74790.100000000006</v>
       </c>
       <c r="C75" s="39">
-        <v>138632</v>
+        <v>134765</v>
       </c>
       <c r="D75" s="39">
-        <v>405679</v>
+        <v>156411</v>
       </c>
       <c r="E75" s="39">
-        <v>521474</v>
+        <v>186166</v>
       </c>
       <c r="F75" s="39">
-        <v>573983</v>
+        <v>240589</v>
       </c>
       <c r="G75" s="39">
-        <v>548606</v>
+        <v>321098</v>
       </c>
       <c r="H75" s="39">
-        <v>512620</v>
+        <v>410092</v>
       </c>
       <c r="I75" s="39">
-        <v>490955</v>
+        <v>473522</v>
       </c>
       <c r="J75" s="39">
-        <v>476792</v>
+        <v>488370</v>
       </c>
       <c r="K75" s="39">
-        <v>468123</v>
+        <v>475519</v>
       </c>
       <c r="L75" s="39">
-        <v>467498</v>
+        <v>457281</v>
       </c>
       <c r="M75" s="39">
-        <v>465739</v>
+        <v>442201</v>
       </c>
       <c r="N75" s="39">
-        <v>429234</v>
+        <v>432116</v>
       </c>
       <c r="O75" s="39">
-        <v>427482</v>
+        <v>425937</v>
       </c>
       <c r="P75" s="39">
-        <v>425872</v>
+        <v>419923</v>
       </c>
       <c r="Q75" s="39">
-        <v>424976</v>
+        <v>419967</v>
       </c>
       <c r="R75" s="39">
-        <v>424619</v>
+        <v>420051</v>
       </c>
       <c r="S75" s="39">
-        <v>424401</v>
+        <v>420320</v>
       </c>
       <c r="T75" s="39">
-        <v>424462</v>
+        <v>420797</v>
       </c>
       <c r="U75" s="39">
-        <v>424651</v>
+        <v>421126</v>
       </c>
       <c r="V75" s="39">
-        <v>424894</v>
+        <v>421650</v>
       </c>
       <c r="W75" s="39">
-        <v>425360</v>
+        <v>422384</v>
       </c>
       <c r="X75" s="39">
-        <v>425672</v>
+        <v>422769</v>
       </c>
       <c r="Y75" s="39">
-        <v>425855</v>
+        <v>422728</v>
       </c>
       <c r="Z75" s="39">
-        <v>426558</v>
+        <v>422813</v>
       </c>
       <c r="AA75" s="39">
-        <v>427246</v>
+        <v>423141</v>
       </c>
       <c r="AB75" s="39">
-        <v>428730</v>
+        <v>424213</v>
       </c>
       <c r="AC75" s="39">
-        <v>430013</v>
+        <v>425420</v>
       </c>
       <c r="AD75" s="39">
-        <v>431776</v>
+        <v>427328</v>
       </c>
       <c r="AE75" s="39">
-        <v>433423</v>
+        <v>429138</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -60003,94 +59070,94 @@
         <v>965</v>
       </c>
       <c r="B76">
-        <v>4247.71</v>
+        <v>4251.05</v>
       </c>
       <c r="C76">
-        <v>5141.01</v>
+        <v>5099.21</v>
       </c>
       <c r="D76">
-        <v>5049.1400000000003</v>
+        <v>5488.75</v>
       </c>
       <c r="E76">
-        <v>4912.4799999999996</v>
+        <v>5837.75</v>
       </c>
       <c r="F76">
-        <v>4504.68</v>
+        <v>6134.7</v>
       </c>
       <c r="G76">
-        <v>4075.7</v>
+        <v>6275.49</v>
       </c>
       <c r="H76">
-        <v>3800.14</v>
+        <v>6178.43</v>
       </c>
       <c r="I76">
-        <v>3676.14</v>
+        <v>5838.08</v>
       </c>
       <c r="J76">
-        <v>3688.27</v>
+        <v>5416.55</v>
       </c>
       <c r="K76">
-        <v>3742.68</v>
+        <v>5065.0200000000004</v>
       </c>
       <c r="L76">
-        <v>3843.69</v>
+        <v>4831.6400000000003</v>
       </c>
       <c r="M76">
-        <v>3970.21</v>
+        <v>4747.8999999999996</v>
       </c>
       <c r="N76">
-        <v>4572.1499999999996</v>
+        <v>4772.03</v>
       </c>
       <c r="O76">
-        <v>4717.97</v>
+        <v>4866.38</v>
       </c>
       <c r="P76">
-        <v>4867.13</v>
+        <v>4964.6499999999996</v>
       </c>
       <c r="Q76">
-        <v>5015.43</v>
+        <v>5117.51</v>
       </c>
       <c r="R76">
-        <v>5164.0200000000004</v>
+        <v>5266.44</v>
       </c>
       <c r="S76">
-        <v>5312.75</v>
+        <v>5416.86</v>
       </c>
       <c r="T76">
-        <v>5464.43</v>
+        <v>5564.12</v>
       </c>
       <c r="U76">
-        <v>5617.48</v>
+        <v>5723.93</v>
       </c>
       <c r="V76">
-        <v>5770.25</v>
+        <v>5886.37</v>
       </c>
       <c r="W76">
-        <v>5928.54</v>
+        <v>6051.83</v>
       </c>
       <c r="X76">
-        <v>6087.04</v>
+        <v>6216.42</v>
       </c>
       <c r="Y76">
-        <v>6248.52</v>
+        <v>6369.4</v>
       </c>
       <c r="Z76">
-        <v>6414.62</v>
+        <v>6529.31</v>
       </c>
       <c r="AA76">
-        <v>6576.79</v>
+        <v>6689.46</v>
       </c>
       <c r="AB76">
-        <v>6753.64</v>
+        <v>6859.44</v>
       </c>
       <c r="AC76">
-        <v>6928.15</v>
+        <v>7037.44</v>
       </c>
       <c r="AD76">
-        <v>7091.17</v>
+        <v>7207.5</v>
       </c>
       <c r="AE76">
-        <v>7282.41</v>
+        <v>7398.52</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -60098,94 +59165,94 @@
         <v>966</v>
       </c>
       <c r="B77">
-        <v>128.72999999999999</v>
+        <v>111.4</v>
       </c>
       <c r="C77">
-        <v>198.13300000000001</v>
+        <v>162.51</v>
       </c>
       <c r="D77">
-        <v>237.191</v>
+        <v>191.24799999999999</v>
       </c>
       <c r="E77">
-        <v>237.82</v>
+        <v>210.161</v>
       </c>
       <c r="F77">
-        <v>235.93</v>
+        <v>232.53800000000001</v>
       </c>
       <c r="G77">
-        <v>226.44800000000001</v>
+        <v>253.517</v>
       </c>
       <c r="H77">
-        <v>229.501</v>
+        <v>274.07600000000002</v>
       </c>
       <c r="I77">
-        <v>250.29900000000001</v>
+        <v>292.50700000000001</v>
       </c>
       <c r="J77">
-        <v>283.98899999999998</v>
+        <v>306.56599999999997</v>
       </c>
       <c r="K77">
-        <v>333.69499999999999</v>
+        <v>328.14699999999999</v>
       </c>
       <c r="L77">
-        <v>400.23</v>
+        <v>361.94900000000001</v>
       </c>
       <c r="M77">
-        <v>481.99700000000001</v>
+        <v>413.65100000000001</v>
       </c>
       <c r="N77">
-        <v>537.97299999999996</v>
+        <v>484.19299999999998</v>
       </c>
       <c r="O77">
-        <v>646.20000000000005</v>
+        <v>573.17700000000002</v>
       </c>
       <c r="P77">
-        <v>767.20100000000002</v>
+        <v>672.41499999999996</v>
       </c>
       <c r="Q77">
-        <v>899.94399999999996</v>
+        <v>786.20299999999997</v>
       </c>
       <c r="R77">
-        <v>1039.05</v>
+        <v>904.68899999999996</v>
       </c>
       <c r="S77">
-        <v>1180.1500000000001</v>
+        <v>1023.51</v>
       </c>
       <c r="T77">
-        <v>1317.76</v>
+        <v>1139.1400000000001</v>
       </c>
       <c r="U77">
-        <v>1448.4</v>
+        <v>1246.27</v>
       </c>
       <c r="V77">
-        <v>1568.24</v>
+        <v>1345.43</v>
       </c>
       <c r="W77">
-        <v>1678.75</v>
+        <v>1423.96</v>
       </c>
       <c r="X77">
-        <v>1777.23</v>
+        <v>1501.53</v>
       </c>
       <c r="Y77">
-        <v>1865.25</v>
+        <v>1567.67</v>
       </c>
       <c r="Z77">
-        <v>1945.63</v>
+        <v>1627.15</v>
       </c>
       <c r="AA77">
-        <v>2020.5</v>
+        <v>1679.96</v>
       </c>
       <c r="AB77">
-        <v>2090.58</v>
+        <v>1729.93</v>
       </c>
       <c r="AC77">
-        <v>2155.4</v>
+        <v>1776.34</v>
       </c>
       <c r="AD77">
-        <v>2216.0300000000002</v>
+        <v>1821.45</v>
       </c>
       <c r="AE77">
-        <v>2275.56</v>
+        <v>1864.12</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
@@ -60194,123 +59261,123 @@
       </c>
       <c r="B79" s="46">
         <f>B62/SUM(B$62:B$68)</f>
-        <v>3.1034315947149442E-2</v>
+        <v>3.033326016030554E-2</v>
       </c>
       <c r="C79" s="46">
         <f t="shared" ref="C79:AE79" si="0">C62/SUM(C$62:C$68)</f>
-        <v>5.3687113090343901E-2</v>
+        <v>5.2766391685674013E-2</v>
       </c>
       <c r="D79" s="32">
         <f>D62/SUM(D$62:D$68)</f>
-        <v>0.11213823689476007</v>
+        <v>6.7219202866146022E-2</v>
       </c>
       <c r="E79" s="32">
         <f t="shared" si="0"/>
-        <v>0.18174900801645386</v>
+        <v>8.1356025577921265E-2</v>
       </c>
       <c r="F79" s="32">
         <f t="shared" si="0"/>
-        <v>0.29626441760623751</v>
+        <v>0.111576525728443</v>
       </c>
       <c r="G79" s="32">
         <f t="shared" si="0"/>
-        <v>0.40178572615685271</v>
+        <v>0.16539323866789951</v>
       </c>
       <c r="H79" s="32">
         <f t="shared" si="0"/>
-        <v>0.47340067499730626</v>
+        <v>0.22349046925684773</v>
       </c>
       <c r="I79" s="32">
         <f t="shared" si="0"/>
-        <v>0.51635747206147586</v>
+        <v>0.30215824933636859</v>
       </c>
       <c r="J79" s="32">
         <f t="shared" si="0"/>
-        <v>0.54564392236116721</v>
+        <v>0.38822445527250771</v>
       </c>
       <c r="K79" s="32">
         <f t="shared" si="0"/>
-        <v>0.57964297586411262</v>
+        <v>0.46471512708056256</v>
       </c>
       <c r="L79" s="32">
         <f t="shared" si="0"/>
-        <v>0.60560247847336313</v>
+        <v>0.52390541896488552</v>
       </c>
       <c r="M79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62404751626465405</v>
+        <v>0.56311618466524038</v>
       </c>
       <c r="N79" s="32">
         <f t="shared" si="0"/>
-        <v>0.60935332660470765</v>
+        <v>0.59283889174087123</v>
       </c>
       <c r="O79" s="32">
         <f t="shared" si="0"/>
-        <v>0.62825603522422913</v>
+        <v>0.61688338985873425</v>
       </c>
       <c r="P79" s="32">
         <f t="shared" si="0"/>
-        <v>0.64676183848393543</v>
+        <v>0.63960120203362081</v>
       </c>
       <c r="Q79" s="32">
         <f t="shared" si="0"/>
-        <v>0.64961383582068533</v>
+        <v>0.64275889902445826</v>
       </c>
       <c r="R79" s="32">
         <f t="shared" si="0"/>
-        <v>0.65230773094588357</v>
+        <v>0.64574438602662587</v>
       </c>
       <c r="S79" s="32">
         <f t="shared" si="0"/>
-        <v>0.65488917721038165</v>
+        <v>0.64873715949900113</v>
       </c>
       <c r="T79" s="32">
         <f t="shared" si="0"/>
-        <v>0.65752400351447293</v>
+        <v>0.65177261335995351</v>
       </c>
       <c r="U79" s="32">
         <f t="shared" si="0"/>
-        <v>0.65992867089049956</v>
+        <v>0.65429418659571315</v>
       </c>
       <c r="V79" s="32">
         <f t="shared" si="0"/>
-        <v>0.66231699186833271</v>
+        <v>0.65675169658354271</v>
       </c>
       <c r="W79" s="32">
         <f t="shared" si="0"/>
-        <v>0.66471022170077765</v>
+        <v>0.65927996465141303</v>
       </c>
       <c r="X79" s="32">
         <f t="shared" si="0"/>
-        <v>0.66698029741416298</v>
+        <v>0.66178080420779128</v>
       </c>
       <c r="Y79" s="32">
         <f t="shared" si="0"/>
-        <v>0.66921809021175893</v>
+        <v>0.66389140789396761</v>
       </c>
       <c r="Z79" s="32">
         <f t="shared" si="0"/>
-        <v>0.67126874957420257</v>
+        <v>0.66621488869544898</v>
       </c>
       <c r="AA79" s="32">
         <f t="shared" si="0"/>
-        <v>0.6738460709411388</v>
+        <v>0.66818574520894625</v>
       </c>
       <c r="AB79" s="32">
         <f t="shared" si="0"/>
-        <v>0.67584935758739528</v>
+        <v>0.6704236336001389</v>
       </c>
       <c r="AC79" s="32">
         <f t="shared" si="0"/>
-        <v>0.6780526617082987</v>
+        <v>0.67261794700303978</v>
       </c>
       <c r="AD79" s="32">
         <f t="shared" si="0"/>
-        <v>0.68037398747038624</v>
+        <v>0.67515134039946911</v>
       </c>
       <c r="AE79" s="32">
         <f t="shared" si="0"/>
-        <v>0.68255800187401083</v>
+        <v>0.67691915148896309</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
@@ -60319,123 +59386,123 @@
       </c>
       <c r="B80" s="46">
         <f>B66/SUM(B$62:B$68)</f>
-        <v>1.2516858458254324E-2</v>
+        <v>1.2655826956520297E-2</v>
       </c>
       <c r="C80" s="46">
         <f t="shared" ref="C80:AE80" si="1">C66/SUM(C$62:C$68)</f>
-        <v>1.3417675438829152E-2</v>
+        <v>1.3339954236336146E-2</v>
       </c>
       <c r="D80" s="32">
         <f t="shared" si="1"/>
-        <v>2.4356454944941881E-2</v>
+        <v>1.4829788431148653E-2</v>
       </c>
       <c r="E80" s="32">
         <f t="shared" si="1"/>
-        <v>2.8034068678930962E-2</v>
+        <v>1.6582490636013993E-2</v>
       </c>
       <c r="F80" s="32">
         <f t="shared" si="1"/>
-        <v>3.0742973538475382E-2</v>
+        <v>2.0976905937209245E-2</v>
       </c>
       <c r="G80" s="32">
         <f t="shared" si="1"/>
-        <v>2.9176241990220019E-2</v>
+        <v>2.7203715622181067E-2</v>
       </c>
       <c r="H80" s="32">
         <f t="shared" si="1"/>
-        <v>2.7009323561652712E-2</v>
+        <v>2.9745808032194919E-2</v>
       </c>
       <c r="I80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5647310496683423E-2</v>
+        <v>3.0627599933510219E-2</v>
       </c>
       <c r="J80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5049127153949427E-2</v>
+        <v>2.9764585593142528E-2</v>
       </c>
       <c r="K80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5306326287258173E-2</v>
+        <v>2.8451045613682897E-2</v>
       </c>
       <c r="L80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5945181216975831E-2</v>
+        <v>2.7255714317163351E-2</v>
       </c>
       <c r="M80" s="32">
         <f t="shared" si="1"/>
-        <v>2.6345957565014812E-2</v>
+        <v>2.640190549794021E-2</v>
       </c>
       <c r="N80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5432156017531671E-2</v>
+        <v>2.6007086629191857E-2</v>
       </c>
       <c r="O80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5716575895727466E-2</v>
+        <v>2.5905334126556188E-2</v>
       </c>
       <c r="P80" s="32">
         <f t="shared" si="1"/>
-        <v>2.6017128470273276E-2</v>
+        <v>2.5826634612302595E-2</v>
       </c>
       <c r="Q80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5773958055193023E-2</v>
+        <v>2.5615064948532343E-2</v>
       </c>
       <c r="R80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5550446936736405E-2</v>
+        <v>2.5400838171585855E-2</v>
       </c>
       <c r="S80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5323685667854236E-2</v>
+        <v>2.5183553303677709E-2</v>
       </c>
       <c r="T80" s="32">
         <f t="shared" si="1"/>
-        <v>2.5113932189927031E-2</v>
+        <v>2.4982668626345898E-2</v>
       </c>
       <c r="U80" s="32">
         <f t="shared" si="1"/>
-        <v>2.4898717454322049E-2</v>
+        <v>2.4770774411004292E-2</v>
       </c>
       <c r="V80" s="32">
         <f t="shared" si="1"/>
-        <v>2.4686170905066425E-2</v>
+        <v>2.4562557980388346E-2</v>
       </c>
       <c r="W80" s="32">
         <f t="shared" si="1"/>
-        <v>2.448218452324925E-2</v>
+        <v>2.4363005014120222E-2</v>
       </c>
       <c r="X80" s="32">
         <f t="shared" si="1"/>
-        <v>2.4280587152726726E-2</v>
+        <v>2.4161256065421934E-2</v>
       </c>
       <c r="Y80" s="32">
         <f t="shared" si="1"/>
-        <v>2.40698584546312E-2</v>
+        <v>2.3957878045076035E-2</v>
       </c>
       <c r="Z80" s="32">
         <f t="shared" si="1"/>
-        <v>2.3884090380337567E-2</v>
+        <v>2.3752784384046471E-2</v>
       </c>
       <c r="AA80" s="32">
         <f t="shared" si="1"/>
-        <v>2.3661055360940902E-2</v>
+        <v>2.3546262000624013E-2</v>
       </c>
       <c r="AB80" s="32">
         <f t="shared" si="1"/>
-        <v>2.3481773211344193E-2</v>
+        <v>2.3353766155318686E-2</v>
       </c>
       <c r="AC80" s="32">
         <f t="shared" si="1"/>
-        <v>2.328445026105096E-2</v>
+        <v>2.3155828274836698E-2</v>
       </c>
       <c r="AD80" s="32">
         <f t="shared" si="1"/>
-        <v>2.311087515432679E-2</v>
+        <v>2.2978354382912871E-2</v>
       </c>
       <c r="AE80" s="32">
         <f t="shared" si="1"/>
-        <v>2.2917641170700512E-2</v>
+        <v>2.2802051873582804E-2</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
@@ -60444,123 +59511,123 @@
       </c>
       <c r="B81" s="40">
         <f t="shared" ref="B81:AE81" si="2">SUM(B79:B80)</f>
-        <v>4.3551174405403764E-2</v>
+        <v>4.2989087116825836E-2</v>
       </c>
       <c r="C81" s="40">
         <f t="shared" si="2"/>
-        <v>6.7104788529173051E-2</v>
+        <v>6.610634592201016E-2</v>
       </c>
       <c r="D81" s="40">
         <f t="shared" si="2"/>
-        <v>0.13649469183970195</v>
+        <v>8.2048991297294677E-2</v>
       </c>
       <c r="E81" s="40">
         <f t="shared" si="2"/>
-        <v>0.20978307669538482</v>
+        <v>9.7938516213935262E-2</v>
       </c>
       <c r="F81" s="40">
         <f t="shared" si="2"/>
-        <v>0.32700739114471289</v>
+        <v>0.13255343166565225</v>
       </c>
       <c r="G81" s="40">
         <f t="shared" si="2"/>
-        <v>0.43096196814707272</v>
+        <v>0.19259695429008059</v>
       </c>
       <c r="H81" s="40">
         <f t="shared" si="2"/>
-        <v>0.50040999855895896</v>
+        <v>0.25323627728904263</v>
       </c>
       <c r="I81" s="40">
         <f t="shared" si="2"/>
-        <v>0.54200478255815931</v>
+        <v>0.33278584926987881</v>
       </c>
       <c r="J81" s="40">
         <f t="shared" si="2"/>
-        <v>0.57069304951511668</v>
+        <v>0.41798904086565025</v>
       </c>
       <c r="K81" s="40">
         <f t="shared" si="2"/>
-        <v>0.60494930215137077</v>
+        <v>0.49316617269424545</v>
       </c>
       <c r="L81" s="40">
         <f t="shared" si="2"/>
-        <v>0.63154765969033899</v>
+        <v>0.55116113328204885</v>
       </c>
       <c r="M81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65039347382966883</v>
+        <v>0.58951809016318057</v>
       </c>
       <c r="N81" s="40">
         <f t="shared" si="2"/>
-        <v>0.63478548262223933</v>
+        <v>0.61884597837006305</v>
       </c>
       <c r="O81" s="40">
         <f t="shared" si="2"/>
-        <v>0.65397261111995664</v>
+        <v>0.64278872398529041</v>
       </c>
       <c r="P81" s="40">
         <f t="shared" si="2"/>
-        <v>0.67277896695420869</v>
+        <v>0.66542783664592342</v>
       </c>
       <c r="Q81" s="40">
         <f t="shared" si="2"/>
-        <v>0.67538779387587833</v>
+        <v>0.66837396397299065</v>
       </c>
       <c r="R81" s="40">
         <f t="shared" si="2"/>
-        <v>0.67785817788261993</v>
+        <v>0.67114522419821177</v>
       </c>
       <c r="S81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6802128628782359</v>
+        <v>0.67392071280267885</v>
       </c>
       <c r="T81" s="40">
         <f t="shared" si="2"/>
-        <v>0.68263793570440001</v>
+        <v>0.67675528198629942</v>
       </c>
       <c r="U81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6848273883448216</v>
+        <v>0.67906496100671743</v>
       </c>
       <c r="V81" s="40">
         <f t="shared" si="2"/>
-        <v>0.68700316277339912</v>
+        <v>0.68131425456393102</v>
       </c>
       <c r="W81" s="40">
         <f t="shared" si="2"/>
-        <v>0.68919240622402689</v>
+        <v>0.68364296966553328</v>
       </c>
       <c r="X81" s="40">
         <f t="shared" si="2"/>
-        <v>0.69126088456688972</v>
+        <v>0.68594206027321325</v>
       </c>
       <c r="Y81" s="40">
         <f t="shared" si="2"/>
-        <v>0.6932879486663901</v>
+        <v>0.6878492859390436</v>
       </c>
       <c r="Z81" s="40">
         <f t="shared" si="2"/>
-        <v>0.69515283995454014</v>
+        <v>0.68996767307949547</v>
       </c>
       <c r="AA81" s="40">
         <f t="shared" si="2"/>
-        <v>0.69750712630207967</v>
+        <v>0.69173200720957029</v>
       </c>
       <c r="AB81" s="40">
         <f t="shared" si="2"/>
-        <v>0.69933113079873943</v>
+        <v>0.6937773997554576</v>
       </c>
       <c r="AC81" s="40">
         <f t="shared" si="2"/>
-        <v>0.70133711196934967</v>
+        <v>0.69577377527787654</v>
       </c>
       <c r="AD81" s="40">
         <f t="shared" si="2"/>
-        <v>0.70348486262471299</v>
+        <v>0.69812969478238196</v>
       </c>
       <c r="AE81" s="40">
         <f t="shared" si="2"/>
-        <v>0.70547564304471133</v>
+        <v>0.69972120336254584</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
@@ -60569,123 +59636,123 @@
       </c>
       <c r="B83" s="32">
         <f>B71/SUM(B71:B77)</f>
-        <v>1.0901619301798006E-2</v>
+        <v>1.0250016166555022E-2</v>
       </c>
       <c r="C83" s="32">
         <f t="shared" ref="C83:AE83" si="3">C71/SUM(C71:C77)</f>
-        <v>3.065090148397356E-2</v>
+        <v>2.9486432299373585E-2</v>
       </c>
       <c r="D83" s="32">
         <f t="shared" si="3"/>
-        <v>0.10114140760591207</v>
+        <v>3.8428599358307218E-2</v>
       </c>
       <c r="E83" s="32">
         <f t="shared" si="3"/>
-        <v>0.18174893669012401</v>
+        <v>4.913815504905171E-2</v>
       </c>
       <c r="F83" s="32">
         <f t="shared" si="3"/>
-        <v>0.29626428177445036</v>
+        <v>6.8624652951432871E-2</v>
       </c>
       <c r="G83" s="32">
         <f t="shared" si="3"/>
-        <v>0.40178554649437059</v>
+        <v>0.10390701015489053</v>
       </c>
       <c r="H83" s="32">
         <f t="shared" si="3"/>
-        <v>0.47340047991854545</v>
+        <v>0.16235505562662034</v>
       </c>
       <c r="I83" s="32">
         <f t="shared" si="3"/>
-        <v>0.51635754913892906</v>
+        <v>0.243959132876191</v>
       </c>
       <c r="J83" s="32">
         <f t="shared" si="3"/>
-        <v>0.53897035622609801</v>
+        <v>0.33043863217900726</v>
       </c>
       <c r="K83" s="32">
         <f t="shared" si="3"/>
-        <v>0.55363500863801729</v>
+        <v>0.40103611965445884</v>
       </c>
       <c r="L83" s="32">
         <f t="shared" si="3"/>
-        <v>0.56105402098321988</v>
+        <v>0.45210464865222721</v>
       </c>
       <c r="M83" s="32">
         <f t="shared" si="3"/>
-        <v>0.5651897362506868</v>
+        <v>0.48348358430941107</v>
       </c>
       <c r="N83" s="32">
         <f t="shared" si="3"/>
-        <v>0.52421520120260912</v>
+        <v>0.50235052476255049</v>
       </c>
       <c r="O83" s="32">
         <f t="shared" si="3"/>
-        <v>0.5288719692083107</v>
+        <v>0.51371736650878386</v>
       </c>
       <c r="P83" s="32">
         <f t="shared" si="3"/>
-        <v>0.53299104969121036</v>
+        <v>0.52328876680147196</v>
       </c>
       <c r="Q83" s="32">
         <f t="shared" si="3"/>
-        <v>0.53669428770559258</v>
+        <v>0.5274139983199243</v>
       </c>
       <c r="R83" s="32">
         <f t="shared" si="3"/>
-        <v>0.54019475426877739</v>
+        <v>0.53131218134149727</v>
       </c>
       <c r="S83" s="32">
         <f t="shared" si="3"/>
-        <v>0.54355022710679335</v>
+        <v>0.53521734584431013</v>
       </c>
       <c r="T83" s="32">
         <f t="shared" si="3"/>
-        <v>0.54698101176318714</v>
+        <v>0.53918797166736332</v>
       </c>
       <c r="U83" s="32">
         <f t="shared" si="3"/>
-        <v>0.55010352451560807</v>
+        <v>0.54246868704768381</v>
       </c>
       <c r="V83" s="32">
         <f t="shared" si="3"/>
-        <v>0.55320483039491208</v>
+        <v>0.54566251259436049</v>
       </c>
       <c r="W83" s="32">
         <f t="shared" si="3"/>
-        <v>0.55631697035905292</v>
+        <v>0.54895613653351705</v>
       </c>
       <c r="X83" s="32">
         <f t="shared" si="3"/>
-        <v>0.55926788045922282</v>
+        <v>0.55221371237589789</v>
       </c>
       <c r="Y83" s="32">
         <f t="shared" si="3"/>
-        <v>0.56216911573296491</v>
+        <v>0.55494850100081938</v>
       </c>
       <c r="Z83" s="32">
         <f t="shared" si="3"/>
-        <v>0.56483281033149235</v>
+        <v>0.55796855823602176</v>
       </c>
       <c r="AA83" s="32">
         <f t="shared" si="3"/>
-        <v>0.56818548681319758</v>
+        <v>0.56051317132992595</v>
       </c>
       <c r="AB83" s="32">
         <f t="shared" si="3"/>
-        <v>0.57079071254958069</v>
+        <v>0.56342208629735013</v>
       </c>
       <c r="AC83" s="32">
         <f t="shared" si="3"/>
-        <v>0.57365448252188378</v>
+        <v>0.56627525956936753</v>
       </c>
       <c r="AD83" s="32">
         <f t="shared" si="3"/>
-        <v>0.57669021961434441</v>
+        <v>0.56959166169886499</v>
       </c>
       <c r="AE83" s="32">
         <f t="shared" si="3"/>
-        <v>0.57953314129873912</v>
+        <v>0.571881561798261</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
@@ -60694,123 +59761,123 @@
       </c>
       <c r="B84" s="32">
         <f>B75/SUM(B71:B77)</f>
-        <v>4.3968547447678493E-3</v>
+        <v>4.2765877331079572E-3</v>
       </c>
       <c r="C84" s="32">
         <f t="shared" ref="C84:AE84" si="4">C75/SUM(C71:C77)</f>
-        <v>7.6603907620308425E-3</v>
+        <v>7.4545672049260428E-3</v>
       </c>
       <c r="D84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1967996475006857E-2</v>
+        <v>8.4781189010850952E-3</v>
       </c>
       <c r="E84" s="32">
         <f t="shared" si="4"/>
-        <v>2.8034165196062957E-2</v>
+        <v>1.0015649727884593E-2</v>
       </c>
       <c r="F84" s="32">
         <f t="shared" si="4"/>
-        <v>3.0743066565258815E-2</v>
+        <v>1.290182515213238E-2</v>
       </c>
       <c r="G84" s="32">
         <f t="shared" si="4"/>
-        <v>2.9176335309125917E-2</v>
+        <v>1.7090545149709833E-2</v>
       </c>
       <c r="H84" s="32">
         <f t="shared" si="4"/>
-        <v>2.7009365120524792E-2</v>
+        <v>2.1608910109190041E-2</v>
       </c>
       <c r="I84" s="32">
         <f t="shared" si="4"/>
-        <v>2.5647392857359945E-2</v>
+        <v>2.4728412736200987E-2</v>
       </c>
       <c r="J84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4742848870656732E-2</v>
+        <v>2.533423886397752E-2</v>
       </c>
       <c r="K84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4171052959593983E-2</v>
+        <v>2.45524425692564E-2</v>
       </c>
       <c r="L84" s="32">
         <f t="shared" si="4"/>
-        <v>2.4036549247778937E-2</v>
+        <v>2.3520395396050081E-2</v>
       </c>
       <c r="M84" s="32">
         <f t="shared" si="4"/>
-        <v>2.3861101775925833E-2</v>
+        <v>2.2668462547747688E-2</v>
       </c>
       <c r="N84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1878863878592891E-2</v>
+        <v>2.2037491559389073E-2</v>
       </c>
       <c r="O84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1648640481563019E-2</v>
+        <v>2.1573060095698614E-2</v>
       </c>
       <c r="P84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1440469671108846E-2</v>
+        <v>2.1129957096165632E-2</v>
       </c>
       <c r="Q84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1293803832621173E-2</v>
+        <v>2.1018435276652907E-2</v>
       </c>
       <c r="R84" s="32">
         <f t="shared" si="4"/>
-        <v>2.1159259846211337E-2</v>
+        <v>2.0899576075953517E-2</v>
       </c>
       <c r="S84" s="32">
         <f t="shared" si="4"/>
-        <v>2.101820980869492E-2</v>
+        <v>2.0776769995685139E-2</v>
       </c>
       <c r="T84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0891799247287072E-2</v>
+        <v>2.0667390615289667E-2</v>
       </c>
       <c r="U84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0755029834128001E-2</v>
+        <v>2.0537206327236046E-2</v>
       </c>
       <c r="V84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0619263068836529E-2</v>
+        <v>2.0407894131223354E-2</v>
       </c>
       <c r="W84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0490006451919399E-2</v>
+        <v>2.028629198624424E-2</v>
       </c>
       <c r="X84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0359415143190281E-2</v>
+        <v>2.0161217914906038E-2</v>
       </c>
       <c r="Y84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0219637400060962E-2</v>
+        <v>2.0026486877444648E-2</v>
       </c>
       <c r="Z84" s="32">
         <f t="shared" si="4"/>
-        <v>2.0097089202934536E-2</v>
+        <v>1.9893444642334689E-2</v>
       </c>
       <c r="AA84" s="32">
         <f t="shared" si="4"/>
-        <v>1.9951097308320641E-2</v>
+        <v>1.9752001118425358E-2</v>
       </c>
       <c r="AB84" s="32">
         <f t="shared" si="4"/>
-        <v>1.9831688400870507E-2</v>
+        <v>1.9626616534415438E-2</v>
       </c>
       <c r="AC84" s="32">
         <f t="shared" si="4"/>
-        <v>1.9699482115035243E-2</v>
+        <v>1.9494782148833923E-2</v>
       </c>
       <c r="AD84" s="32">
         <f t="shared" si="4"/>
-        <v>1.9589102229860531E-2</v>
+        <v>1.9385814061378702E-2</v>
       </c>
       <c r="AE84" s="32">
         <f t="shared" si="4"/>
-        <v>1.9458577436834622E-2</v>
+        <v>1.9263884523731498E-2</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
@@ -60819,123 +59886,123 @@
       </c>
       <c r="B85" s="40">
         <f>SUM(B83:B84)</f>
-        <v>1.5298474046565855E-2</v>
+        <v>1.4526603899662979E-2</v>
       </c>
       <c r="C85" s="40">
         <f t="shared" ref="C85:AE85" si="5">SUM(C83:C84)</f>
-        <v>3.8311292246004401E-2</v>
+        <v>3.6940999504299625E-2</v>
       </c>
       <c r="D85" s="40">
         <f t="shared" si="5"/>
-        <v>0.12310940408091893</v>
+        <v>4.6906718259392313E-2</v>
       </c>
       <c r="E85" s="40">
         <f t="shared" si="5"/>
-        <v>0.20978310188618698</v>
+        <v>5.9153804776936304E-2</v>
       </c>
       <c r="F85" s="40">
         <f t="shared" si="5"/>
-        <v>0.32700734833970918</v>
+        <v>8.1526478103565253E-2</v>
       </c>
       <c r="G85" s="40">
         <f t="shared" si="5"/>
-        <v>0.43096188180349648</v>
+        <v>0.12099755530460035</v>
       </c>
       <c r="H85" s="40">
         <f t="shared" si="5"/>
-        <v>0.50040984503907027</v>
+        <v>0.18396396573581036</v>
       </c>
       <c r="I85" s="40">
         <f t="shared" si="5"/>
-        <v>0.54200494199628901</v>
+        <v>0.268687545612392</v>
       </c>
       <c r="J85" s="40">
         <f t="shared" si="5"/>
-        <v>0.56371320509675471</v>
+        <v>0.35577287104298477</v>
       </c>
       <c r="K85" s="40">
         <f t="shared" si="5"/>
-        <v>0.57780606159761128</v>
+        <v>0.42558856222371522</v>
       </c>
       <c r="L85" s="40">
         <f t="shared" si="5"/>
-        <v>0.58509057023099886</v>
+        <v>0.47562504404827732</v>
       </c>
       <c r="M85" s="40">
         <f t="shared" si="5"/>
-        <v>0.58905083802661262</v>
+        <v>0.50615204685715875</v>
       </c>
       <c r="N85" s="40">
         <f t="shared" si="5"/>
-        <v>0.54609406508120206</v>
+        <v>0.52438801632193954</v>
       </c>
       <c r="O85" s="40">
         <f t="shared" si="5"/>
-        <v>0.55052060968987371</v>
+        <v>0.53529042660448245</v>
       </c>
       <c r="P85" s="40">
         <f t="shared" si="5"/>
-        <v>0.55443151936231916</v>
+        <v>0.54441872389763757</v>
       </c>
       <c r="Q85" s="40">
         <f t="shared" si="5"/>
-        <v>0.55798809153821372</v>
+        <v>0.54843243359657723</v>
       </c>
       <c r="R85" s="40">
         <f t="shared" si="5"/>
-        <v>0.56135401411498875</v>
+        <v>0.55221175741745077</v>
       </c>
       <c r="S85" s="40">
         <f t="shared" si="5"/>
-        <v>0.5645684369154883</v>
+        <v>0.55599411583999525</v>
       </c>
       <c r="T85" s="40">
         <f t="shared" si="5"/>
-        <v>0.56787281101047427</v>
+        <v>0.55985536228265298</v>
       </c>
       <c r="U85" s="40">
         <f t="shared" si="5"/>
-        <v>0.57085855434973609</v>
+        <v>0.5630058933749198</v>
       </c>
       <c r="V85" s="40">
         <f t="shared" si="5"/>
-        <v>0.57382409346374863</v>
+        <v>0.56607040672558384</v>
       </c>
       <c r="W85" s="40">
         <f t="shared" si="5"/>
-        <v>0.57680697681097237</v>
+        <v>0.56924242851976126</v>
       </c>
       <c r="X85" s="40">
         <f t="shared" si="5"/>
-        <v>0.57962729560241311</v>
+        <v>0.57237493029080388</v>
       </c>
       <c r="Y85" s="40">
         <f t="shared" si="5"/>
-        <v>0.58238875313302585</v>
+        <v>0.57497498787826407</v>
       </c>
       <c r="Z85" s="40">
         <f t="shared" si="5"/>
-        <v>0.58492989953442687</v>
+        <v>0.57786200287835643</v>
       </c>
       <c r="AA85" s="40">
         <f t="shared" si="5"/>
-        <v>0.58813658412151826</v>
+        <v>0.5802651724483513</v>
       </c>
       <c r="AB85" s="40">
         <f t="shared" si="5"/>
-        <v>0.59062240095045115</v>
+        <v>0.58304870283176558</v>
       </c>
       <c r="AC85" s="40">
         <f t="shared" si="5"/>
-        <v>0.59335396463691903</v>
+        <v>0.58577004171820146</v>
       </c>
       <c r="AD85" s="40">
         <f t="shared" si="5"/>
-        <v>0.59627932184420496</v>
+        <v>0.58897747576024373</v>
       </c>
       <c r="AE85" s="40">
         <f t="shared" si="5"/>
-        <v>0.59899171873557377</v>
+        <v>0.59114544632199251</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
@@ -64692,8 +63759,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64766,7 +63833,7 @@
         <v>99</v>
       </c>
       <c r="O3" s="19">
-        <v>-0.9</v>
+        <v>-0.75</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>99</v>
@@ -64789,7 +63856,7 @@
         <v>100</v>
       </c>
       <c r="O4" s="20">
-        <v>-3.5</v>
+        <v>-7</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>100</v>
@@ -65017,46 +64084,51 @@
       </c>
       <c r="K10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>0.13877269058395222</v>
+        <v>5.8459569384324707E-2</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>0.24398859395450184</v>
+        <v>6.9874456154344386E-2</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
-        <v>0.41867144928034067</v>
+        <v>9.3149431265043575E-2</v>
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.62932855071965943</v>
+        <v>0.13877269058395222</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.80401140604549814</v>
+        <v>0.22166909866365125</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.90922730941604779</v>
+        <v>0.35342187838502587</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.96088110315315733</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
+        <v>0.69457812161497412</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
+        <v>0.82633090133634868</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
+        <v>0.90922730941604779</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
+        <v>0.95485056873495655</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
+        <v>0.97812554384565553</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -65543,115 +64615,115 @@
       </c>
       <c r="K14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
-        <v>2.435315217413268E-2</v>
+        <v>9.9918866734578053E-3</v>
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>3.3646847825867326E-2</v>
+        <v>1.2004677525762598E-2</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>4.1353444384360213E-2</v>
+        <v>1.5661871999866968E-2</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>4.5995322474237404E-2</v>
+        <v>2.1474494634633495E-2</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>4.8274166315580479E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>4.9280790600739442E-2</v>
+        <v>3.6525505365366501E-2</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>4.9704589339490207E-2</v>
+        <v>4.2338128000133035E-2</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>4.9879391575460584E-2</v>
+        <v>4.5995322474237404E-2</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>4.9950880568867671E-2</v>
+        <v>4.8008113326542201E-2</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>4.9980015660008786E-2</v>
+        <v>4.9034950463778926E-2</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>4.9991872678821749E-2</v>
+        <v>4.953854840951509E-2</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>4.9996695298304125E-2</v>
+        <v>4.9780754720870554E-2</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>4.9998656345816586E-2</v>
+        <v>4.9896149827421347E-2</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>4.9999453700604407E-2</v>
+        <v>4.9950880568867671E-2</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>4.9999777889526184E-2</v>
+        <v>4.9976783297249215E-2</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>4.9999909696336844E-2</v>
+        <v>4.9989030006597983E-2</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>4.9999963285223548E-2</v>
+        <v>4.9994817427808577E-2</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>4.9999985072878089E-2</v>
+        <v>4.9997551766842237E-2</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>4.9999993931083841E-2</v>
+        <v>4.9998843500973188E-2</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>4.9999997532562616E-2</v>
+        <v>4.9999453700604407E-2</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>4.9999998996814787E-2</v>
+        <v>4.9999741944666706E-2</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>4.999999959213533E-2</v>
+        <v>4.9999878102896626E-2</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>4.9999999834174594E-2</v>
+        <v>4.9999942419797314E-2</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>4.9999999932580426E-2</v>
+        <v>4.9999972801018477E-2</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>4.9999999972589249E-2</v>
+        <v>4.9999987152106469E-2</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>4.9999999988855619E-2</v>
+        <v>4.9999993931083841E-2</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>4.9999999995469037E-2</v>
+        <v>4.9999997133246779E-2</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>4.9999999998157844E-2</v>
+        <v>4.9999998645841613E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -65958,119 +65030,119 @@
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.24557685321089995</v>
+        <v>7.1828501414524334E-2</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.4198927277482391</v>
+        <v>9.505457951868844E-2</v>
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.63010727225176089</v>
+        <v>0.14058199165415403</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.8044231467891001</v>
+        <v>0.22330424761603851</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.90941800834584607</v>
+        <v>0.35478023578337664</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.96096328570955836</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.98373216835005872</v>
+        <v>0.69521976421662335</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.99331809220275458</v>
+        <v>0.82669575238396142</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.99727195230208454</v>
+        <v>0.90941800834584607</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.99888896524819726</v>
+        <v>0.9549454204813117</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.99954797326210354</v>
+        <v>0.97817149858547559</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.99981616773525384</v>
+        <v>0.98956240450093647</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.9999252507949743</v>
+        <v>0.9950408805911195</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.99996960782204181</v>
+        <v>0.9976510080011971</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.99998764322795686</v>
+        <v>0.99888896524819726</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.99999497607261612</v>
+        <v>0.99947486029492261</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.99999795741714281</v>
+        <v>0.9997518691968591</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.99999916954672308</v>
+        <v>0.99988277515281299</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.99999966236271853</v>
+        <v>0.9999446232976219</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.99999986272689645</v>
+        <v>0.99997384109344112</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.99999994418891625</v>
+        <v>0.99998764322795686</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.99999997730890589</v>
+        <v>0.99999416303412791</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.99999999077448953</v>
+        <v>0.99999724280361402</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.99999999624918723</v>
+        <v>0.99999869759065341</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.9999999984750334</v>
+        <v>0.99999938478494166</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99999999937999484</v>
+        <v>0.9999997093928843</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999999974792475</v>
+        <v>0.99999986272689645</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99999999989751387</v>
+        <v>0.99999993515677243</v>
       </c>
       <c r="AL17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99999999995833211</v>
+        <v>0.99999996937022695</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -74570,119 +73642,119 @@
       </c>
       <c r="J80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,J$9))</f>
-        <v>0.20587037180094733</v>
+        <v>2.2977369910025615E-2</v>
       </c>
       <c r="K80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,K$9))</f>
-        <v>0.38936076605077802</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="L80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,L$9))</f>
-        <v>0.61063923394922204</v>
+        <v>9.534946489910949E-2</v>
       </c>
       <c r="M80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,M$9))</f>
-        <v>0.79412962819905275</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="N80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,N$9))</f>
-        <v>0.90465053510089055</v>
+        <v>0.32082130082460703</v>
       </c>
       <c r="O80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,O$9))</f>
-        <v>0.95890872179953501</v>
+        <v>0.5</v>
       </c>
       <c r="P80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,P$9))</f>
-        <v>0.98287596668427235</v>
+        <v>0.67917869917539297</v>
       </c>
       <c r="Q80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Q$9))</f>
-        <v>0.99296641284500486</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="R80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,R$9))</f>
-        <v>0.99712837084429951</v>
+        <v>0.90465053510089055</v>
       </c>
       <c r="S80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,S$9))</f>
-        <v>0.99883048973494448</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="T80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,T$9))</f>
-        <v>0.99952418238116159</v>
+        <v>0.97702263008997436</v>
       </c>
       <c r="U80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,U$9))</f>
-        <v>0.99980649235289876</v>
+        <v>0.98901305736940681</v>
       </c>
       <c r="V80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,V$9))</f>
-        <v>0.99992131662628869</v>
+        <v>0.99477987430644166</v>
       </c>
       <c r="W80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,W$9))</f>
-        <v>0.99996800823372822</v>
+        <v>0.99752737684336534</v>
       </c>
       <c r="X80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,X$9))</f>
-        <v>0.99998699287153348</v>
+        <v>0.99883048973494448</v>
       </c>
       <c r="Y80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Y$9))</f>
-        <v>0.99999471165538534</v>
+        <v>0.9994472213630764</v>
       </c>
       <c r="Z80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Z$9))</f>
-        <v>0.99999784991278184</v>
+        <v>0.99973880968090434</v>
       </c>
       <c r="AA80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AA$9))</f>
-        <v>0.99999912583865591</v>
+        <v>0.99987660542401369</v>
       </c>
       <c r="AB80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AB$9))</f>
-        <v>0.99999964459233537</v>
+        <v>0.99994170873433885</v>
       </c>
       <c r="AC80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AC$9))</f>
-        <v>0.99999985550199622</v>
+        <v>0.99997246430888531</v>
       </c>
       <c r="AD80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AD$9))</f>
-        <v>0.99999994125149072</v>
+        <v>0.99998699287153348</v>
       </c>
       <c r="AE80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AE$9))</f>
-        <v>0.99999997611463776</v>
+        <v>0.99999385582539779</v>
       </c>
       <c r="AF80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AF$9))</f>
-        <v>0.99999999028893638</v>
+        <v>0.99999709768801481</v>
       </c>
       <c r="AG80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AG$9))</f>
-        <v>0.99999999605177603</v>
+        <v>0.99999862904279302</v>
       </c>
       <c r="AH80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AH$9))</f>
-        <v>0.99999999839477205</v>
+        <v>0.99999935240520166</v>
       </c>
       <c r="AI80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AI$9))</f>
-        <v>0.99999999934736294</v>
+        <v>0.99999969409777301</v>
       </c>
       <c r="AJ80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999999973465759</v>
+        <v>0.99999985550199622</v>
       </c>
       <c r="AK80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AK$9))</f>
-        <v>0.99999999989211985</v>
+        <v>0.99999993174397095</v>
       </c>
       <c r="AL80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AL$9))</f>
-        <v>0.99999999995613909</v>
+        <v>0.9999999677581336</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E32EF9-B419-4D97-8C56-1C0A1C0EBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FD464-6630-4FC2-9D91-A6FF915FAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7529,21 +7529,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7551,512 +7551,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="28" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -8075,19 +8075,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8210,12 +8210,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8339,12 +8335,8 @@
         <f>Data!AL10</f>
         <v>1</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8468,12 +8460,8 @@
         <f>Data!AL11</f>
         <v>1.2225974073810479E-3</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8597,12 +8585,8 @@
         <f>Data!AL12</f>
         <v>1</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8726,12 +8710,8 @@
         <f>Data!AL13</f>
         <v>3.0818463927506201E-2</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8855,12 +8835,8 @@
         <f>Data!AL14</f>
         <v>4.9999998645841613E-2</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8984,12 +8960,8 @@
         <f>Data!AL15</f>
         <v>8.6165104068937348E-4</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -9112,10 +9084,6 @@
       <c r="AE8">
         <f>Data!AL16</f>
         <v>3.1062760226311276E-4</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -9128,18 +9096,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9263,12 +9231,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9392,12 +9356,8 @@
         <f>Data!AL17</f>
         <v>0.99999996937022695</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9521,12 +9481,8 @@
         <f>Data!AL18</f>
         <v>1.2353695258898144E-3</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9650,12 +9606,8 @@
         <f>Data!AL19</f>
         <v>1</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9779,12 +9731,8 @@
         <f>Data!AL20</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9908,12 +9856,8 @@
         <f>Data!AL21</f>
         <v>4.9265458207603127E-2</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10037,12 +9981,8 @@
         <f>Data!AL22</f>
         <v>8.6165104068937001E-4</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10165,10 +10105,6 @@
       <c r="AE8">
         <f>Data!AL23</f>
         <v>3.1058892203350341E-4</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -10183,16 +10119,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10317,7 +10253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10442,7 +10378,7 @@
         <v>0.99939952709730528</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10567,7 +10503,7 @@
         <v>0.16062971940956564</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10692,7 +10628,7 @@
         <v>0.30255990331064825</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10817,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10942,7 +10878,7 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11067,7 +11003,7 @@
         <v>0.54238648186291982</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -11204,16 +11140,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11338,7 +11274,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11463,7 +11399,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11588,7 +11524,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11713,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11838,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11963,7 +11899,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12088,7 +12024,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12223,16 +12159,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12356,12 +12294,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12485,12 +12419,8 @@
         <f>Data!AL38</f>
         <v>0</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12614,12 +12544,8 @@
         <f>Data!AL39</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12743,12 +12669,8 @@
         <f>Data!AL40</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12872,12 +12794,8 @@
         <f>Data!AL41</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13001,12 +12919,8 @@
         <f>Data!AL42</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13130,12 +13044,8 @@
         <f>Data!AL43</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13258,10 +13168,6 @@
       <c r="AE8">
         <f>Data!AL44</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -13274,16 +13180,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13407,12 +13315,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13536,12 +13440,8 @@
         <f>Data!AL45</f>
         <v>0</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13665,12 +13565,8 @@
         <f>Data!AL46</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13794,12 +13690,8 @@
         <f>Data!AL47</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13923,12 +13815,8 @@
         <f>Data!AL48</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14052,12 +13940,8 @@
         <f>Data!AL49</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14181,12 +14065,8 @@
         <f>Data!AL50</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14309,10 +14189,6 @@
       <c r="AE8">
         <f>Data!AL51</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -14325,16 +14201,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14458,12 +14336,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14587,12 +14461,8 @@
         <f>Data!AL52</f>
         <v>0.99633854106743935</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14716,12 +14586,8 @@
         <f>Data!AL53</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14845,12 +14711,8 @@
         <f>Data!AL54</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14974,12 +14836,8 @@
         <f>Data!AL55</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15103,12 +14961,8 @@
         <f>Data!AL56</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15232,12 +15086,8 @@
         <f>Data!AL57</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15360,10 +15210,6 @@
       <c r="AE8">
         <f>Data!AL58</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -15376,16 +15222,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15509,12 +15357,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15638,12 +15482,8 @@
         <f>Data!AL59</f>
         <v>0</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15767,12 +15607,8 @@
         <f>Data!AL60</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15896,12 +15732,8 @@
         <f>Data!AL61</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16025,12 +15857,8 @@
         <f>Data!AL62</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16154,12 +15982,8 @@
         <f>Data!AL63</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -16283,12 +16107,8 @@
         <f>Data!AL64</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16411,10 +16231,6 @@
       <c r="AE8">
         <f>Data!AL65</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -16427,16 +16243,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16560,12 +16378,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16689,12 +16503,8 @@
         <f>Data!AL66</f>
         <v>0</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16818,12 +16628,8 @@
         <f>Data!AL67</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16947,12 +16753,8 @@
         <f>Data!AL68</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17076,12 +16878,8 @@
         <f>Data!AL69</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17205,12 +17003,8 @@
         <f>Data!AL70</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17334,12 +17128,8 @@
         <f>Data!AL71</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17462,10 +17252,6 @@
       <c r="AE8">
         <f>Data!AL72</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -17478,16 +17264,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -17611,12 +17399,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17740,12 +17524,8 @@
         <f>Data!AL73</f>
         <v>0</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17869,12 +17649,8 @@
         <f>Data!AL74</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17998,12 +17774,8 @@
         <f>Data!AL75</f>
         <v>0</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18127,12 +17899,8 @@
         <f>Data!AL76</f>
         <v>1</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -18256,12 +18024,8 @@
         <f>Data!AL77</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18385,12 +18149,8 @@
         <f>Data!AL78</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -18513,10 +18273,6 @@
       <c r="AE8">
         <f>Data!AL79</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -18530,9 +18286,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -18630,27 +18386,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -18757,7 +18513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18765,7 +18521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18773,7 +18529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18883,7 +18639,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18993,7 +18749,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -19103,7 +18859,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -19111,7 +18867,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -19221,7 +18977,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -19331,7 +19087,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -19441,7 +19197,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -19551,7 +19307,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -19661,7 +19417,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19771,7 +19527,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19881,7 +19637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19991,7 +19747,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -20101,7 +19857,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -20211,7 +19967,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -20321,7 +20077,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -20431,7 +20187,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -20541,7 +20297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -20651,7 +20407,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20761,7 +20517,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20871,7 +20627,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20981,7 +20737,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20989,7 +20745,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20997,7 +20753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -21107,7 +20863,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -21217,7 +20973,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -21327,7 +21083,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -21335,7 +21091,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -21445,7 +21201,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -21555,7 +21311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -21665,7 +21421,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21775,7 +21531,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21885,7 +21641,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21995,7 +21751,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -22105,7 +21861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -22215,7 +21971,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -22325,7 +22081,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -22435,7 +22191,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -22545,7 +22301,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -22655,7 +22411,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22765,7 +22521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22875,7 +22631,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22985,7 +22741,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -23095,7 +22851,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -23205,7 +22961,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -23315,7 +23071,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -23425,7 +23181,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -23535,7 +23291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -23546,7 +23302,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -23656,7 +23412,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23766,7 +23522,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23876,7 +23632,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23986,7 +23742,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -24096,7 +23852,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -24206,7 +23962,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -24316,7 +24072,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -24426,7 +24182,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -24536,7 +24292,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -24646,7 +24402,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -24756,7 +24512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24876,18 +24632,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25011,12 +24767,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25140,12 +24892,8 @@
         <f>Data!AL80</f>
         <v>0.9999999677581336</v>
       </c>
-      <c r="AF2" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25269,12 +25017,8 @@
         <f>Data!AL81</f>
         <v>0</v>
       </c>
-      <c r="AF3" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25398,12 +25142,8 @@
         <f>Data!AL82</f>
         <v>3</v>
       </c>
-      <c r="AF4" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25527,12 +25267,8 @@
         <f>Data!AL83</f>
         <v>0</v>
       </c>
-      <c r="AF5" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25656,12 +25392,8 @@
         <f>Data!AL84</f>
         <v>0</v>
       </c>
-      <c r="AF6" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25785,12 +25517,8 @@
         <f>Data!AL85</f>
         <v>0</v>
       </c>
-      <c r="AF7" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25913,10 +25641,6 @@
       <c r="AE8">
         <f>Data!AL86</f>
         <v>0</v>
-      </c>
-      <c r="AF8" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -25929,16 +25653,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -26062,12 +25788,8 @@
         <f>Data!AL9</f>
         <v>2050</v>
       </c>
-      <c r="AF1" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -26161,11 +25883,8 @@
       <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -26259,11 +25978,8 @@
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -26357,11 +26073,8 @@
       <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26455,11 +26168,8 @@
       <c r="AE5">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -26553,11 +26263,8 @@
       <c r="AE6">
         <v>1</v>
       </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -26651,11 +26358,8 @@
       <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26747,9 +26451,6 @@
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
         <v>1</v>
       </c>
     </row>
@@ -26769,9 +26470,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26869,27 +26570,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26996,7 +26697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -27004,7 +26705,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -27012,7 +26713,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -27122,7 +26823,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -27232,7 +26933,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -27342,7 +27043,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -27350,7 +27051,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -27460,7 +27161,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -27570,7 +27271,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -27680,7 +27381,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27790,7 +27491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27900,7 +27601,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -28010,7 +27711,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -28120,7 +27821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -28230,7 +27931,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -28340,7 +28041,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -28450,7 +28151,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -28560,7 +28261,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -28670,7 +28371,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28780,7 +28481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28890,7 +28591,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -29000,7 +28701,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -29110,7 +28811,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -29118,7 +28819,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -29126,7 +28827,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -29236,7 +28937,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -29346,7 +29047,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -29456,7 +29157,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -29464,7 +29165,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -29574,7 +29275,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -29684,7 +29385,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29794,7 +29495,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29904,7 +29605,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -30014,7 +29715,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -30124,7 +29825,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -30234,7 +29935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -30344,7 +30045,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -30454,7 +30155,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -30564,7 +30265,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -30674,7 +30375,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30784,7 +30485,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30894,7 +30595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -31004,7 +30705,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -31114,7 +30815,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -31224,7 +30925,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -31348,29 +31049,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>919</v>
       </c>
@@ -31405,7 +31106,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -31440,7 +31141,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -31475,7 +31176,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -31510,7 +31211,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -31545,7 +31246,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -31580,7 +31281,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -31615,7 +31316,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -31650,7 +31351,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -31685,7 +31386,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -31720,7 +31421,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -31755,7 +31456,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31790,7 +31491,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31825,7 +31526,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31860,7 +31561,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31895,7 +31596,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31930,7 +31631,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31965,7 +31666,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -32000,7 +31701,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -32035,7 +31736,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -32070,7 +31771,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -32105,7 +31806,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -32140,7 +31841,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -32175,7 +31876,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -32210,7 +31911,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -32245,7 +31946,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -32280,7 +31981,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -32315,7 +32016,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -32350,7 +32051,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -32385,7 +32086,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -32420,7 +32121,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -32455,7 +32156,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -32490,7 +32191,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -32511,9 +32212,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -32611,27 +32312,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -32738,7 +32439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32746,7 +32447,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -32754,7 +32455,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32762,7 +32463,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32872,7 +32573,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32982,7 +32683,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -33092,7 +32793,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -33202,7 +32903,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -33312,7 +33013,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -33422,7 +33123,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -33532,7 +33233,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -33642,7 +33343,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -33752,7 +33453,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33862,7 +33563,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33870,7 +33571,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33980,7 +33681,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -34090,7 +33791,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -34200,7 +33901,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -34310,7 +34011,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -34420,7 +34121,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -34530,7 +34231,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -34640,7 +34341,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -34750,7 +34451,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34860,7 +34561,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34970,7 +34671,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34978,7 +34679,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -35088,7 +34789,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -35198,7 +34899,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -35308,7 +35009,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -35418,7 +35119,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -35528,7 +35229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -35638,7 +35339,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -35748,7 +35449,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35858,7 +35559,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35968,7 +35669,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -36078,7 +35779,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -36188,7 +35889,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -36196,7 +35897,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -36204,7 +35905,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -36314,7 +36015,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -36424,7 +36125,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -36534,7 +36235,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -36644,7 +36345,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -36754,7 +36455,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36864,7 +36565,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36974,7 +36675,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -37084,7 +36785,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -37194,7 +36895,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -37304,7 +37005,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -37312,7 +37013,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -37422,7 +37123,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -37532,7 +37233,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -37642,7 +37343,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -37752,7 +37453,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37862,7 +37563,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37972,7 +37673,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -38082,7 +37783,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -38192,7 +37893,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -38302,7 +38003,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -38412,7 +38113,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -38420,7 +38121,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -38530,7 +38231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -38640,7 +38341,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -38750,7 +38451,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38860,7 +38561,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38970,7 +38671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -39080,7 +38781,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -39190,7 +38891,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -39300,7 +39001,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -39410,7 +39111,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -39520,7 +39221,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -39531,7 +39232,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -39641,7 +39342,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -39751,7 +39452,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39861,7 +39562,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39971,7 +39672,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -40081,7 +39782,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -40191,7 +39892,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -40301,7 +40002,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -40411,7 +40112,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -40521,7 +40222,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -40631,7 +40332,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -40639,7 +40340,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -40647,7 +40348,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -40757,7 +40458,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40867,7 +40568,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40977,7 +40678,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -41087,7 +40788,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -41197,7 +40898,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -41307,7 +41008,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -41417,7 +41118,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -41527,7 +41228,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -41637,7 +41338,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -41744,7 +41445,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -41752,7 +41453,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41862,7 +41563,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41972,7 +41673,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -42082,7 +41783,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -42192,7 +41893,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -42302,7 +42003,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -42412,7 +42113,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -42522,7 +42223,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -42632,7 +42333,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -42742,7 +42443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42849,7 +42550,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42857,7 +42558,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42967,7 +42668,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -43077,7 +42778,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -43187,7 +42888,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -43297,7 +42998,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -43407,7 +43108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -43517,7 +43218,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -43627,7 +43328,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -43737,7 +43438,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43847,7 +43548,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43954,7 +43655,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -44061,7 +43762,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -44069,7 +43770,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -44077,7 +43778,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -44187,7 +43888,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -44297,7 +43998,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -44407,7 +44108,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -44517,7 +44218,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -44627,7 +44328,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -44737,7 +44438,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44847,7 +44548,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44957,7 +44658,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -45067,7 +44768,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -45177,7 +44878,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -45185,7 +44886,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -45295,7 +44996,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -45405,7 +45106,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -45515,7 +45216,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -45625,7 +45326,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -45735,7 +45436,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45845,7 +45546,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45955,7 +45656,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -46065,7 +45766,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -46175,7 +45876,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -46285,7 +45986,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -46293,7 +45994,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -46403,7 +46104,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -46513,7 +46214,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -46623,7 +46324,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -46733,7 +46434,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46843,7 +46544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46953,7 +46654,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -47063,7 +46764,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -47173,7 +46874,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -47283,7 +46984,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -47393,7 +47094,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -47503,7 +47204,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -47511,7 +47212,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -47519,7 +47220,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -47527,7 +47228,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -47637,7 +47338,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -47747,7 +47448,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47857,7 +47558,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47967,7 +47668,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -48077,7 +47778,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -48187,7 +47888,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -48297,7 +47998,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -48407,7 +48108,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -48517,7 +48218,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -48624,7 +48325,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -48632,7 +48333,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -48742,7 +48443,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48852,7 +48553,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48962,7 +48663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -49072,7 +48773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -49182,7 +48883,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -49292,7 +48993,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -49402,7 +49103,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -49512,7 +49213,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -49622,7 +49323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -49729,7 +49430,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -49737,7 +49438,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49847,7 +49548,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49957,7 +49658,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -50067,7 +49768,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -50177,7 +49878,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -50287,7 +49988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -50397,7 +50098,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -50507,7 +50208,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -50617,7 +50318,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -50727,7 +50428,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50834,7 +50535,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50941,7 +50642,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50949,7 +50650,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50957,7 +50658,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -51067,7 +50768,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -51177,7 +50878,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -51287,7 +50988,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -51397,7 +51098,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -51507,7 +51208,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -51617,7 +51318,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -51727,7 +51428,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51837,7 +51538,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51947,7 +51648,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -52057,7 +51758,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -52065,7 +51766,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -52175,7 +51876,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -52285,7 +51986,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -52395,7 +52096,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -52505,7 +52206,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -52615,7 +52316,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -52725,7 +52426,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52835,7 +52536,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52945,7 +52646,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -53055,7 +52756,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -53165,7 +52866,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -53173,7 +52874,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -53283,7 +52984,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -53393,7 +53094,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -53503,7 +53204,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -53613,7 +53314,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -53723,7 +53424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53833,7 +53534,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53943,7 +53644,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -54053,7 +53754,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -54163,7 +53864,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -54273,7 +53974,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -54383,7 +54084,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -54391,7 +54092,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -54501,7 +54202,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -54611,7 +54312,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -54619,7 +54320,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -54729,7 +54430,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54839,7 +54540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54949,7 +54650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -55059,7 +54760,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -55067,7 +54768,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -55177,7 +54878,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -55287,7 +54988,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -55295,7 +54996,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -55405,7 +55106,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -55515,7 +55216,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -55625,7 +55326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -55735,7 +55436,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -55743,7 +55444,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55853,7 +55554,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55963,7 +55664,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -56073,7 +55774,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -56081,7 +55782,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -56191,7 +55892,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -56301,7 +56002,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -56411,7 +56112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -56535,18 +56236,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56572,7 +56273,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56599,7 +56300,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56627,7 +56328,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56653,7 +56354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56679,7 +56380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56705,7 +56406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56731,7 +56432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -56753,19 +56454,19 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56791,7 +56492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56819,7 +56520,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56846,7 +56547,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56872,7 +56573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56898,7 +56599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56924,7 +56625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56959,85 +56660,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A61" sqref="A61:AE68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.26953125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -57046,13 +56747,13 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -57061,7 +56762,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -57070,7 +56771,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -57079,7 +56780,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -57088,7 +56789,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -57097,7 +56798,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -57106,7 +56807,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -57115,13 +56816,13 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N26" s="36"/>
       <c r="O26" s="38"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>930</v>
       </c>
@@ -57130,13 +56831,13 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N28" s="36"/>
       <c r="O28" s="38"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>945</v>
       </c>
@@ -57145,13 +56846,13 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N30" s="36"/>
       <c r="O30" s="38"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>946</v>
       </c>
@@ -57160,7 +56861,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>947</v>
@@ -57179,7 +56880,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>44947</v>
       </c>
@@ -57200,7 +56901,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>44978</v>
       </c>
@@ -57221,7 +56922,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>45006</v>
       </c>
@@ -57242,7 +56943,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="42">
         <v>45037</v>
       </c>
@@ -57263,7 +56964,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="42">
         <v>45067</v>
       </c>
@@ -57284,7 +56985,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="42">
         <v>45098</v>
       </c>
@@ -57305,7 +57006,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="42">
         <v>45128</v>
       </c>
@@ -57338,7 +57039,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="42">
         <v>45159</v>
       </c>
@@ -57359,7 +57060,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="42">
         <v>45190</v>
       </c>
@@ -57380,7 +57081,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="42">
         <v>45220</v>
       </c>
@@ -57401,7 +57102,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="42">
         <v>45251</v>
       </c>
@@ -57422,7 +57123,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="42">
         <v>45281</v>
       </c>
@@ -57443,7 +57144,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="42">
         <v>44948</v>
       </c>
@@ -57464,7 +57165,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="42">
         <v>44979</v>
       </c>
@@ -57485,7 +57186,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="42">
         <v>45007</v>
       </c>
@@ -57506,7 +57207,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="42">
         <v>45038</v>
       </c>
@@ -57527,7 +57228,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="42">
         <v>45068</v>
       </c>
@@ -57548,7 +57249,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="42">
         <v>45099</v>
       </c>
@@ -57569,7 +57270,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="42">
         <v>45129</v>
       </c>
@@ -57590,7 +57291,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="42">
         <v>45160</v>
       </c>
@@ -57611,7 +57312,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="42">
         <v>45191</v>
       </c>
@@ -57632,7 +57333,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="42">
         <v>45221</v>
       </c>
@@ -57653,7 +57354,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="42">
         <v>45252</v>
       </c>
@@ -57674,7 +57375,7 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="42">
         <v>45282</v>
       </c>
@@ -57695,13 +57396,13 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N57" s="36"/>
       <c r="O57" s="38"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>951</v>
       </c>
@@ -57718,7 +57419,7 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>952</v>
       </c>
@@ -57735,7 +57436,7 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>931</v>
       </c>
@@ -57830,7 +57531,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -57925,7 +57626,7 @@
         <v>15079600</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -58020,7 +57721,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -58115,7 +57816,7 @@
         <v>6490060</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -58210,7 +57911,7 @@
         <v>185550</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -58305,7 +58006,7 @@
         <v>507957</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -58400,7 +58101,7 @@
         <v>5433</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -58495,7 +58196,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>931</v>
       </c>
@@ -58590,7 +58291,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -58685,7 +58386,7 @@
         <v>12739700</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>961</v>
       </c>
@@ -58780,7 +58481,7 @@
         <v>8181.79</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>962</v>
       </c>
@@ -58875,7 +58576,7 @@
         <v>8837860</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -58970,7 +58671,7 @@
         <v>252673</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>964</v>
       </c>
@@ -59065,7 +58766,7 @@
         <v>429138</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>965</v>
       </c>
@@ -59160,7 +58861,7 @@
         <v>7398.52</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>966</v>
       </c>
@@ -59255,7 +58956,7 @@
         <v>1864.12</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>932</v>
       </c>
@@ -59380,7 +59081,7 @@
         <v>0.67691915148896309</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>933</v>
       </c>
@@ -59505,7 +59206,7 @@
         <v>2.2802051873582804E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>934</v>
       </c>
@@ -59630,7 +59331,7 @@
         <v>0.69972120336254584</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>932</v>
       </c>
@@ -59755,7 +59456,7 @@
         <v>0.571881561798261</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>933</v>
       </c>
@@ -59880,7 +59581,7 @@
         <v>1.9263884523731498E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -60005,7 +59706,7 @@
         <v>0.59114544632199251</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
@@ -60037,7 +59738,7 @@
       <c r="AD86" s="40"/>
       <c r="AE86" s="40"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>967</v>
       </c>
@@ -60045,7 +59746,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>976</v>
       </c>
@@ -60053,7 +59754,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -60065,7 +59766,7 @@
         <v>1.0567375886524823E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -60077,7 +59778,7 @@
         <v>1.6308663341138147E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>931</v>
       </c>
@@ -60172,7 +59873,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>969</v>
       </c>
@@ -60267,7 +59968,7 @@
         <v>97356</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>970</v>
       </c>
@@ -60362,7 +60063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>971</v>
       </c>
@@ -60457,7 +60158,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>972</v>
       </c>
@@ -60552,7 +60253,7 @@
         <v>52962</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>973</v>
       </c>
@@ -60647,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>974</v>
       </c>
@@ -60742,7 +60443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>975</v>
       </c>
@@ -60837,7 +60538,7 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>978</v>
       </c>
@@ -60962,7 +60663,7 @@
         <v>0.55742210312961626</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>979</v>
       </c>
@@ -61087,7 +60788,7 @@
         <v>4.7133189048060735E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>999</v>
       </c>
@@ -61212,12 +60913,12 @@
         <v>0.60455529217767701</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>931</v>
       </c>
@@ -61312,7 +61013,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>981</v>
       </c>
@@ -61407,7 +61108,7 @@
         <v>1107250</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>982</v>
       </c>
@@ -61502,7 +61203,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>983</v>
       </c>
@@ -61597,7 +61298,7 @@
         <v>922863</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>984</v>
       </c>
@@ -61692,7 +61393,7 @@
         <v>457686</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>985</v>
       </c>
@@ -61787,7 +61488,7 @@
         <v>34482</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>986</v>
       </c>
@@ -61882,7 +61583,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>987</v>
       </c>
@@ -61977,7 +61678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>978</v>
       </c>
@@ -62102,7 +61803,7 @@
         <v>0.43878976848068768</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>988</v>
       </c>
@@ -62227,7 +61928,7 @@
         <v>1.3664799093927364E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>979</v>
       </c>
@@ -62352,7 +62053,7 @@
         <v>7.1331820570353384E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>989</v>
       </c>
@@ -62477,12 +62178,12 @@
         <v>0.45246170075667208</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>931</v>
       </c>
@@ -62577,7 +62278,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>991</v>
       </c>
@@ -62672,7 +62373,7 @@
         <v>141528</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>992</v>
       </c>
@@ -62767,7 +62468,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>993</v>
       </c>
@@ -62862,7 +62563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>994</v>
       </c>
@@ -62957,7 +62658,7 @@
         <v>130056</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>995</v>
       </c>
@@ -63052,7 +62753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>996</v>
       </c>
@@ -63147,7 +62848,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>997</v>
       </c>
@@ -63242,7 +62943,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>978</v>
       </c>
@@ -63367,7 +63068,7 @@
         <v>0.44366283279884888</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>988</v>
       </c>
@@ -63492,7 +63193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>979</v>
       </c>
@@ -63617,7 +63318,7 @@
         <v>0.14137661873548193</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>989</v>
       </c>
@@ -63763,19 +63464,19 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -63796,7 +63497,7 @@
       </c>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -63819,7 +63520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -63842,7 +63543,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -63865,12 +63566,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63885,7 +63586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63900,7 +63601,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -63911,7 +63612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -64051,7 +63752,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -64179,7 +63880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -64316,7 +64017,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -64451,7 +64152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -64588,7 +64289,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -64726,7 +64427,7 @@
         <v>4.9999998645841613E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -64863,7 +64564,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -65003,7 +64704,7 @@
         <v>3.1062760226311276E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -65145,7 +64846,7 @@
         <v>0.99999996937022695</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -65281,7 +64982,7 @@
         <v>1.2353695258898144E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -65416,7 +65117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -65551,7 +65252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -65688,7 +65389,7 @@
         <v>4.9265458207603127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -65825,7 +65526,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -65965,7 +65666,7 @@
         <v>3.1058892203350341E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -66109,7 +65810,7 @@
         <v>0.99939952709730528</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -66246,7 +65947,7 @@
         <v>0.16062971940956564</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -66383,7 +66084,7 @@
         <v>0.30255990331064825</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -66518,7 +66219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -66655,7 +66356,7 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -66792,7 +66493,7 @@
         <v>0.54238648186291982</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -66931,7 +66632,7 @@
         <v>4.9262568889712796E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -67072,7 +66773,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -67209,7 +66910,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -67344,7 +67045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -67479,7 +67180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -67614,7 +67315,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -67751,7 +67452,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -67889,7 +67590,7 @@
         <v>0.29852259683067267</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -68030,7 +67731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -68165,7 +67866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -68300,7 +68001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -68435,7 +68136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -68570,7 +68271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -68705,7 +68406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -68843,7 +68544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -68984,7 +68685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -69119,7 +68820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -69254,7 +68955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -69389,7 +69090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -69524,7 +69225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -69659,7 +69360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -69797,7 +69498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -69939,7 +69640,7 @@
         <v>0.99633854106743935</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -70074,7 +69775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -70209,7 +69910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -70345,7 +70046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -70480,7 +70181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -70615,7 +70316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -70753,7 +70454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -70894,7 +70595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -71029,7 +70730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -71164,7 +70865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -71299,7 +71000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -71434,7 +71135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -71569,7 +71270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -71707,7 +71408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -71848,7 +71549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -71983,7 +71684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -72118,7 +71819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -72253,7 +71954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -72388,7 +72089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -72523,7 +72224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -72661,7 +72362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -72802,7 +72503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -72937,7 +72638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -73072,7 +72773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -73207,7 +72908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -73342,7 +73043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -73477,7 +73178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -73615,7 +73316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -73757,7 +73458,7 @@
         <v>0.9999999677581336</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -73893,7 +73594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -74028,7 +73729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -74164,7 +73865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -74300,7 +74001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -74436,7 +74137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -74575,7 +74276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -74716,7 +74417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -74851,7 +74552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -74986,7 +74687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -75121,7 +74822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -75256,7 +74957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -75391,7 +75092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464FD464-6630-4FC2-9D91-A6FF915FAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E9D49-3C08-403B-955B-13A3673F78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4668,466 +4668,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>TTS Value</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$I$9:$AL$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$I$10:$AL$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>5.8459569384324707E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>6.9874456154344386E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>9.3149431265043575E-2</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.13877269058395222</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.22166909866365125</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.35342187838502587</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.52400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.69457812161497412</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.82633090133634868</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.90922730941604779</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.95485056873495655</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>0.97812554384565553</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7845-4F26-8099-2F927049CEFA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="343204120"/>
-        <c:axId val="343203464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="343204120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343203464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="343203464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343204120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5180,99 +4720,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$10:$AL$10</c:f>
+              <c:f>Data!$I$17:$AL$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1.7999999999999999E-2</c:v>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.21838189592802051</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>5.8459569384324707E-2</c:v>
+                <c:pt idx="2">
+                  <c:v>0.23794069854205344</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>6.9874456154344386E-2</c:v>
+                <c:pt idx="3">
+                  <c:v>0.27627957191928759</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>9.3149431265043575E-2</c:v>
+                <c:pt idx="4">
+                  <c:v>0.3459404190450851</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.13877269058395222</c:v>
+                <c:pt idx="5">
+                  <c:v>0.45665704065968565</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.22166909866365125</c:v>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.35342187838502587</c:v>
+                <c:pt idx="7">
+                  <c:v>0.74334295934031447</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.52400000000000002</c:v>
+                <c:pt idx="8">
+                  <c:v>0.85405958095491497</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.69457812161497412</c:v>
+                <c:pt idx="9">
+                  <c:v>0.92372042808071253</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.82633090133634868</c:v>
+                <c:pt idx="10">
+                  <c:v>0.9620593014579466</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.90922730941604779</c:v>
+                <c:pt idx="11">
+                  <c:v>0.98161810407197958</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.95485056873495655</c:v>
+                <c:pt idx="12">
+                  <c:v>0.99121044589552554</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>0.97812554384565553</c:v>
+                <c:pt idx="13">
+                  <c:v>0.99582389944515337</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="14">
+                  <c:v>0.99802190147469227</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="15">
+                  <c:v>0.99906439178795559</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="16">
+                  <c:v>0.99955777709046112</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="17">
+                  <c:v>0.9997910477447236</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="18">
+                  <c:v>0.99990128433921099</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="19">
+                  <c:v>0.99995336698747117</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="20">
+                  <c:v>0.99997797144710843</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="21">
+                  <c:v>0.99998959429722678</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="22">
+                  <c:v>0.99999508466031828</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="23">
+                  <c:v>0.99999767815041185</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="24">
+                  <c:v>0.99999890323423446</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="25">
+                  <c:v>0.99999948192416133</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="26">
+                  <c:v>0.99999975527821849</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="27">
+                  <c:v>0.99999988440159693</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="28">
+                  <c:v>0.99999994539517689</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>1</c:v>
+                <c:pt idx="29">
+                  <c:v>0.99999997420650688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,7 +4820,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB5A-4159-9417-DF28BAD9DBA5}"/>
+              <c16:uniqueId val="{00000000-3B56-4178-8258-F69654CF177C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5293,11 +4833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1489141072"/>
-        <c:axId val="908462080"/>
+        <c:axId val="720846560"/>
+        <c:axId val="1290876240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1489141072"/>
+        <c:axId val="720846560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,7 +4879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908462080"/>
+        <c:crossAx val="1290876240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5347,7 +4887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="908462080"/>
+        <c:axId val="1290876240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +4907,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5398,7 +4938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489141072"/>
+        <c:crossAx val="720846560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,46 +5035,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6606,522 +6106,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7167,23 +6151,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57945</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49228D84-E7C9-CF7F-FA1E-0DFE7495F1B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7196,42 +6180,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76711D4E-A789-C8D9-97AA-2C6E9406FC81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7529,7 +6477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -9238,123 +8186,123 @@
       </c>
       <c r="B2">
         <f>Data!I17</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>7.1828501414524334E-2</v>
+        <v>0.21838189592802051</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>9.505457951868844E-2</v>
+        <v>0.23794069854205344</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.14058199165415403</v>
+        <v>0.27627957191928759</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.22330424761603851</v>
+        <v>0.3459404190450851</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.35478023578337664</v>
+        <v>0.45665704065968565</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.52500000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.69521976421662335</v>
+        <v>0.74334295934031447</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.82669575238396142</v>
+        <v>0.85405958095491497</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.90941800834584607</v>
+        <v>0.92372042808071253</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.9549454204813117</v>
+        <v>0.9620593014579466</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.97817149858547559</v>
+        <v>0.98161810407197958</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.98956240450093647</v>
+        <v>0.99121044589552554</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.9950408805911195</v>
+        <v>0.99582389944515337</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.9976510080011971</v>
+        <v>0.99802190147469227</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.99888896524819726</v>
+        <v>0.99906439178795559</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.99947486029492261</v>
+        <v>0.99955777709046112</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.9997518691968591</v>
+        <v>0.9997910477447236</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.99988277515281299</v>
+        <v>0.99990128433921099</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.9999446232976219</v>
+        <v>0.99995336698747117</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.99997384109344112</v>
+        <v>0.99997797144710843</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.99998764322795686</v>
+        <v>0.99998959429722678</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.99999416303412791</v>
+        <v>0.99999508466031828</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.99999724280361402</v>
+        <v>0.99999767815041185</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.99999869759065341</v>
+        <v>0.99999890323423446</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99999938478494166</v>
+        <v>0.99999948192416133</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.9999997093928843</v>
+        <v>0.99999975527821849</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99999986272689645</v>
+        <v>0.99999988440159693</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99999993515677243</v>
+        <v>0.99999994539517689</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99999996937022695</v>
+        <v>0.99999997420650688</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -10267,115 +9215,115 @@
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.60036442047776029</v>
+        <v>0.60439477705223721</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>0.6006004729026948</v>
+        <v>0.60919094796401019</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
-        <v>0.60098904926265384</v>
+        <v>0.61897034927102668</v>
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>0.60162805508635842</v>
+        <v>0.63813978595964382</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.60267714036971387</v>
+        <v>0.6729702095225425</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.60439477705223721</v>
+        <v>0.72832852032984285</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.60719448398483655</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.6117248923005425</v>
+        <v>0.87167147967015723</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.61897034927102668</v>
+        <v>0.92702979047745737</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.63034327200849738</v>
+        <v>0.96186021404035627</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.64768116880884696</v>
+        <v>0.9810296507289733</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.6729702095225425</v>
+        <v>0.99080905203598979</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.707576568547998</v>
+        <v>0.99560522294776277</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.75101626751925821</v>
+        <v>0.99791194972257657</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.8</v>
+        <v>0.99901095073734614</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.84898373248074188</v>
+        <v>0.99953219589397779</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.89242343145200187</v>
+        <v>0.99977888854523056</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.92702979047745737</v>
+        <v>0.99989552387236169</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.95231883119115301</v>
+        <v>0.9999506421696055</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.9696567279915026</v>
+        <v>0.99997668349373559</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.9810296507289733</v>
+        <v>0.99998898572355421</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.98827510769945737</v>
+        <v>0.99999479714861339</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.99280551601516343</v>
+        <v>0.99999754233015903</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.99560522294776277</v>
+        <v>0.99999883907520593</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.99732285963028611</v>
+        <v>0.99999945161711723</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.99837194491364156</v>
+        <v>0.99999974096208066</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.99901095073734614</v>
+        <v>0.99999987763910925</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>0.99939952709730528</v>
+        <v>0.99999994220079846</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -11655,123 +10603,123 @@
       </c>
       <c r="B5">
         <f>Data!I34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
         <f>Data!J34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
         <f>Data!K34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E5">
         <f>Data!L34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F5">
         <f>Data!M34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G5">
         <f>Data!N34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
         <f>Data!O34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
         <f>Data!P34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J5">
         <f>Data!Q34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
         <f>Data!R34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
         <f>Data!S34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
         <f>Data!T34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
         <f>Data!U34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
         <f>Data!V34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
         <f>Data!W34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
         <f>Data!X34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="R5">
         <f>Data!Y34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="S5">
         <f>Data!Z34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
         <f>Data!AA34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <f>Data!AB34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="V5">
         <f>Data!AC34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="W5">
         <f>Data!AD34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <f>Data!AE34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <f>Data!AF34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Z5">
         <f>Data!AG34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AA5">
         <f>Data!AH34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AB5">
         <f>Data!AI34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC5">
         <f>Data!AJ34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AD5">
         <f>Data!AK34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE5">
         <f>Data!AL34</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -12030,123 +10978,123 @@
       </c>
       <c r="B8">
         <f>Data!I37</f>
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C8">
         <f>Data!J37</f>
-        <v>0.20147740316932733</v>
+        <v>7.6108052376995472E-2</v>
       </c>
       <c r="D8">
         <f>Data!K37</f>
-        <v>0.20198403057340777</v>
+        <v>7.6488022930055813E-2</v>
       </c>
       <c r="E8">
         <f>Data!L37</f>
-        <v>0.2026596993576866</v>
+        <v>7.6994774518264933E-2</v>
       </c>
       <c r="F8">
         <f>Data!M37</f>
-        <v>0.20355711892726364</v>
+        <v>7.7667839195447716E-2</v>
       </c>
       <c r="G8">
         <f>Data!N37</f>
-        <v>0.20474258731775669</v>
+        <v>7.8556940488317503E-2</v>
       </c>
       <c r="H8">
         <f>Data!O37</f>
-        <v>0.20629733560569966</v>
+        <v>7.9723001704274737E-2</v>
       </c>
       <c r="I8">
         <f>Data!P37</f>
-        <v>0.20831726964939223</v>
+        <v>8.1237952237044178E-2</v>
       </c>
       <c r="J8">
         <f>Data!Q37</f>
-        <v>0.21090968211956129</v>
+        <v>8.3182261589670958E-2</v>
       </c>
       <c r="K8">
         <f>Data!R37</f>
-        <v>0.21418510649004879</v>
+        <v>8.5638829867536584E-2</v>
       </c>
       <c r="L8">
         <f>Data!S37</f>
-        <v>0.21824255238063564</v>
+        <v>8.8681914285476726E-2</v>
       </c>
       <c r="M8">
         <f>Data!T37</f>
-        <v>0.22314752165009824</v>
+        <v>9.2360641237573676E-2</v>
       </c>
       <c r="N8">
         <f>Data!U37</f>
-        <v>0.22890504973749962</v>
+        <v>9.6678787303124708E-2</v>
       </c>
       <c r="O8">
         <f>Data!V37</f>
-        <v>0.23543436937742046</v>
+        <v>0.10157577703306533</v>
       </c>
       <c r="P8">
         <f>Data!W37</f>
-        <v>0.24255574831883409</v>
+        <v>0.10691681123912558</v>
       </c>
       <c r="Q8">
         <f>Data!X37</f>
-        <v>0.25</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="R8">
         <f>Data!Y37</f>
-        <v>0.25744425168116591</v>
+        <v>0.11808318876087442</v>
       </c>
       <c r="S8">
         <f>Data!Z37</f>
-        <v>0.26456563062257954</v>
+        <v>0.12342422296693464</v>
       </c>
       <c r="T8">
         <f>Data!AA37</f>
-        <v>0.27109495026250041</v>
+        <v>0.1283212126968753</v>
       </c>
       <c r="U8">
         <f>Data!AB37</f>
-        <v>0.27685247834990179</v>
+        <v>0.13263935876242633</v>
       </c>
       <c r="V8">
         <f>Data!AC37</f>
-        <v>0.28175744761936439</v>
+        <v>0.13631808571452325</v>
       </c>
       <c r="W8">
         <f>Data!AD37</f>
-        <v>0.28581489350995121</v>
+        <v>0.13936117013246341</v>
       </c>
       <c r="X8">
         <f>Data!AE37</f>
-        <v>0.28909031788043871</v>
+        <v>0.14181773841032902</v>
       </c>
       <c r="Y8">
         <f>Data!AF37</f>
-        <v>0.29168273035060777</v>
+        <v>0.14376204776295581</v>
       </c>
       <c r="Z8">
         <f>Data!AG37</f>
-        <v>0.29370266439430037</v>
+        <v>0.14527699829572527</v>
       </c>
       <c r="AA8">
         <f>Data!AH37</f>
-        <v>0.29525741268224331</v>
+        <v>0.14644305951168249</v>
       </c>
       <c r="AB8">
         <f>Data!AI37</f>
-        <v>0.29644288107273636</v>
+        <v>0.1473321608045523</v>
       </c>
       <c r="AC8">
         <f>Data!AJ37</f>
-        <v>0.29734030064231343</v>
+        <v>0.14800522548173506</v>
       </c>
       <c r="AD8">
         <f>Data!AK37</f>
-        <v>0.29801596942659225</v>
+        <v>0.14851197706994418</v>
       </c>
       <c r="AE8">
         <f>Data!AL37</f>
-        <v>0.29852259683067267</v>
+        <v>0.14889194762300451</v>
       </c>
     </row>
   </sheetData>
@@ -56660,8 +55608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:AE68"/>
+    <sheetView topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63460,8 +62408,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64715,7 +63663,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -64727,123 +63675,123 @@
       </c>
       <c r="I17" s="22">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>7.1828501414524334E-2</v>
+        <v>0.21838189592802051</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>9.505457951868844E-2</v>
+        <v>0.23794069854205344</v>
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.14058199165415403</v>
+        <v>0.27627957191928759</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.22330424761603851</v>
+        <v>0.3459404190450851</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.35478023578337664</v>
+        <v>0.45665704065968565</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.52500000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.69521976421662335</v>
+        <v>0.74334295934031447</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.82669575238396142</v>
+        <v>0.85405958095491497</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.90941800834584607</v>
+        <v>0.92372042808071253</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.9549454204813117</v>
+        <v>0.9620593014579466</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.97817149858547559</v>
+        <v>0.98161810407197958</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.98956240450093647</v>
+        <v>0.99121044589552554</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.9950408805911195</v>
+        <v>0.99582389944515337</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.9976510080011971</v>
+        <v>0.99802190147469227</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.99888896524819726</v>
+        <v>0.99906439178795559</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.99947486029492261</v>
+        <v>0.99955777709046112</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.9997518691968591</v>
+        <v>0.9997910477447236</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.99988277515281299</v>
+        <v>0.99990128433921099</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.9999446232976219</v>
+        <v>0.99995336698747117</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.99997384109344112</v>
+        <v>0.99997797144710843</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.99998764322795686</v>
+        <v>0.99998959429722678</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.99999416303412791</v>
+        <v>0.99999508466031828</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.99999724280361402</v>
+        <v>0.99999767815041185</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.99999869759065341</v>
+        <v>0.99999890323423446</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99999938478494166</v>
+        <v>0.99999948192416133</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.9999997093928843</v>
+        <v>0.99999975527821849</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999986272689645</v>
+        <v>0.99999988440159693</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99999993515677243</v>
+        <v>0.99999994539517689</v>
       </c>
       <c r="AL17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99999996937022695</v>
+        <v>0.99999997420650688</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
@@ -65698,116 +64646,116 @@
         <v>0.6</v>
       </c>
       <c r="K24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:K$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.60036442047776029</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
+        <v>0.60439477705223721</v>
       </c>
       <c r="L24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:L$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>0.6006004729026948</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
+        <v>0.60919094796401019</v>
       </c>
       <c r="M24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:M$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
-        <v>0.60098904926265384</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
+        <v>0.61897034927102668</v>
       </c>
       <c r="N24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:N$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>0.60162805508635842</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
+        <v>0.63813978595964382</v>
       </c>
       <c r="O24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:O$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.60267714036971387</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
+        <v>0.6729702095225425</v>
       </c>
       <c r="P24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:P$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.60439477705223721</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
+        <v>0.72832852032984285</v>
       </c>
       <c r="Q24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Q$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.60719448398483655</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
+        <v>0.8</v>
       </c>
       <c r="R24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:R$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.6117248923005425</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
+        <v>0.87167147967015723</v>
       </c>
       <c r="S24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:S$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.61897034927102668</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
+        <v>0.92702979047745737</v>
       </c>
       <c r="T24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:T$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.63034327200849738</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
+        <v>0.96186021404035627</v>
       </c>
       <c r="U24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:U$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.64768116880884696</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
+        <v>0.9810296507289733</v>
       </c>
       <c r="V24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:V$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.6729702095225425</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
+        <v>0.99080905203598979</v>
       </c>
       <c r="W24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:W$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.707576568547998</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
+        <v>0.99560522294776277</v>
       </c>
       <c r="X24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:X$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.75101626751925821</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
+        <v>0.99791194972257657</v>
       </c>
       <c r="Y24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Y$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.8</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
+        <v>0.99901095073734614</v>
       </c>
       <c r="Z24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:Z$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.84898373248074188</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
+        <v>0.99953219589397779</v>
       </c>
       <c r="AA24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AA$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.89242343145200187</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
+        <v>0.99977888854523056</v>
       </c>
       <c r="AB24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AB$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.92702979047745737</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
+        <v>0.99989552387236169</v>
       </c>
       <c r="AC24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AC$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.95231883119115301</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
+        <v>0.9999506421696055</v>
       </c>
       <c r="AD24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AD$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.9696567279915026</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
+        <v>0.99997668349373559</v>
       </c>
       <c r="AE24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AE$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.9810296507289733</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
+        <v>0.99998898572355421</v>
       </c>
       <c r="AF24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AF$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.98827510769945737</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
+        <v>0.99999479714861339</v>
       </c>
       <c r="AG24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AG$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.99280551601516343</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
+        <v>0.99999754233015903</v>
       </c>
       <c r="AH24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AH$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.99560522294776277</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
+        <v>0.99999883907520593</v>
       </c>
       <c r="AI24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AI$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.99732285963028611</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
+        <v>0.99999945161711723</v>
       </c>
       <c r="AJ24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AJ$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.99837194491364156</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
+        <v>0.99999974096208066</v>
       </c>
       <c r="AK24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AK$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.99901095073734614</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
+        <v>0.99999987763910925</v>
       </c>
       <c r="AL24">
-        <f>IF($G24="s-curve",$E24+($F24-$E24)*$R$2/(1+EXP($R$3*(COUNT($K$9:AL$9)+$R$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.99939952709730528</v>
+        <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
+        <v>0.99999994220079846</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
@@ -67050,10 +65998,10 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>IF(E34=F34,"n/a",IF(OR(C34="battery electric vehicle",C34="natural gas vehicle",C34="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -67061,123 +66009,123 @@
       </c>
       <c r="I34" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,J$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,K$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="L34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,L$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,M$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="N34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,N$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,O$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,P$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Q34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Q$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="R34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,R$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="S34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,S$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="T34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,T$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,U$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,V$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="W34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,W$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,X$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Y$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Z34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,Z$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AA34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AA$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AB34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AB$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AC$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AD34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AD$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AE$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AF$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AG34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AG$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AH34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AH$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AI34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AI$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AJ34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AJ$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AK34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AK$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AL34">
         <f>IF($G34="s-curve",$E34+($F34-$E34)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E34:$F34,$E$9:$F$9,AL$9))</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
@@ -67460,10 +66408,10 @@
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="26">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F37" s="26">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G37" s="8" t="str">
         <f>IF(E37=F37,"n/a",IF(OR(C37="battery electric vehicle",C37="natural gas vehicle",C37="plugin hybrid vehicle",C37="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -67471,123 +66419,123 @@
       </c>
       <c r="I37" s="22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,J$9))</f>
-        <v>0.20147740316932733</v>
+        <v>7.6108052376995472E-2</v>
       </c>
       <c r="K37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,K$9))</f>
-        <v>0.20198403057340777</v>
+        <v>7.6488022930055813E-2</v>
       </c>
       <c r="L37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,L$9))</f>
-        <v>0.2026596993576866</v>
+        <v>7.6994774518264933E-2</v>
       </c>
       <c r="M37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,M$9))</f>
-        <v>0.20355711892726364</v>
+        <v>7.7667839195447716E-2</v>
       </c>
       <c r="N37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,N$9))</f>
-        <v>0.20474258731775669</v>
+        <v>7.8556940488317503E-2</v>
       </c>
       <c r="O37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,O$9))</f>
-        <v>0.20629733560569966</v>
+        <v>7.9723001704274737E-2</v>
       </c>
       <c r="P37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,P$9))</f>
-        <v>0.20831726964939223</v>
+        <v>8.1237952237044178E-2</v>
       </c>
       <c r="Q37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Q$9))</f>
-        <v>0.21090968211956129</v>
+        <v>8.3182261589670958E-2</v>
       </c>
       <c r="R37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,R$9))</f>
-        <v>0.21418510649004879</v>
+        <v>8.5638829867536584E-2</v>
       </c>
       <c r="S37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,S$9))</f>
-        <v>0.21824255238063564</v>
+        <v>8.8681914285476726E-2</v>
       </c>
       <c r="T37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,T$9))</f>
-        <v>0.22314752165009824</v>
+        <v>9.2360641237573676E-2</v>
       </c>
       <c r="U37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,U$9))</f>
-        <v>0.22890504973749962</v>
+        <v>9.6678787303124708E-2</v>
       </c>
       <c r="V37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,V$9))</f>
-        <v>0.23543436937742046</v>
+        <v>0.10157577703306533</v>
       </c>
       <c r="W37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,W$9))</f>
-        <v>0.24255574831883409</v>
+        <v>0.10691681123912558</v>
       </c>
       <c r="X37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,X$9))</f>
-        <v>0.25</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="Y37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Y$9))</f>
-        <v>0.25744425168116591</v>
+        <v>0.11808318876087442</v>
       </c>
       <c r="Z37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,Z$9))</f>
-        <v>0.26456563062257954</v>
+        <v>0.12342422296693464</v>
       </c>
       <c r="AA37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AA$9))</f>
-        <v>0.27109495026250041</v>
+        <v>0.1283212126968753</v>
       </c>
       <c r="AB37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AB$9))</f>
-        <v>0.27685247834990179</v>
+        <v>0.13263935876242633</v>
       </c>
       <c r="AC37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AC$9))</f>
-        <v>0.28175744761936439</v>
+        <v>0.13631808571452325</v>
       </c>
       <c r="AD37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AD$9))</f>
-        <v>0.28581489350995121</v>
+        <v>0.13936117013246341</v>
       </c>
       <c r="AE37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AE$9))</f>
-        <v>0.28909031788043871</v>
+        <v>0.14181773841032902</v>
       </c>
       <c r="AF37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AF$9))</f>
-        <v>0.29168273035060777</v>
+        <v>0.14376204776295581</v>
       </c>
       <c r="AG37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AG$9))</f>
-        <v>0.29370266439430037</v>
+        <v>0.14527699829572527</v>
       </c>
       <c r="AH37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AH$9))</f>
-        <v>0.29525741268224331</v>
+        <v>0.14644305951168249</v>
       </c>
       <c r="AI37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AI$9))</f>
-        <v>0.29644288107273636</v>
+        <v>0.1473321608045523</v>
       </c>
       <c r="AJ37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AJ$9))</f>
-        <v>0.29734030064231343</v>
+        <v>0.14800522548173506</v>
       </c>
       <c r="AK37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AK$9))</f>
-        <v>0.29801596942659225</v>
+        <v>0.14851197706994418</v>
       </c>
       <c r="AL37">
         <f>IF($G37="s-curve",$E37+($F37-$E37)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E37:$F37,$E$9:$F$9,AL$9))</f>
-        <v>0.29852259683067267</v>
+        <v>0.14889194762300451</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.35">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1690D90-B88A-4916-A6CE-CC1A8F7A5860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BDD29-EC86-4915-AF7D-B83420DC4912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7414,17 +7414,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7432,512 +7432,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -7958,17 +7958,17 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0.99913267926293059</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>4.9982798179070587E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8983,12 +8983,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>0.99967234626801127</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1.2353695258898144E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>4.9265458207603127E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10004,12 +10004,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10259,257 +10259,257 @@
         <v>0.9996355795222398</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f>Data!I25</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="C3">
         <f>Data!J25</f>
-        <v>0.30043157833481504</v>
+        <v>0.29596244960239987</v>
       </c>
       <c r="D3">
         <f>Data!K25</f>
-        <v>0.2997017384509349</v>
+        <v>0.29525559107671612</v>
       </c>
       <c r="E3">
         <f>Data!L25</f>
-        <v>0.29872838007535607</v>
+        <v>0.29431288202296346</v>
       </c>
       <c r="F3">
         <f>Data!M25</f>
-        <v>0.29743557082505373</v>
+        <v>0.2930607810336332</v>
       </c>
       <c r="G3">
         <f>Data!N25</f>
-        <v>0.29572780273850224</v>
+        <v>0.29140678752282123</v>
       </c>
       <c r="H3">
         <f>Data!O25</f>
-        <v>0.29348805553810225</v>
+        <v>0.28923756597307232</v>
       </c>
       <c r="I3">
         <f>Data!P25</f>
-        <v>0.29057816867446151</v>
+        <v>0.28641930626464923</v>
       </c>
       <c r="J3">
         <f>Data!Q25</f>
-        <v>0.28684357792599674</v>
+        <v>0.28280231112804816</v>
       </c>
       <c r="K3">
         <f>Data!R25</f>
-        <v>0.28212505041848135</v>
+        <v>0.27823236164867954</v>
       </c>
       <c r="L3">
         <f>Data!S25</f>
-        <v>0.27627995437001424</v>
+        <v>0.2725713172654462</v>
       </c>
       <c r="M3">
         <f>Data!T25</f>
-        <v>0.26921392877955547</v>
+        <v>0.26572778823718668</v>
       </c>
       <c r="N3">
         <f>Data!U25</f>
-        <v>0.26091971966867544</v>
+        <v>0.25769474900033379</v>
       </c>
       <c r="O3">
         <f>Data!V25</f>
-        <v>0.25151367915559786</v>
+        <v>0.24858488795211589</v>
       </c>
       <c r="P3">
         <f>Data!W25</f>
-        <v>0.24125472684112267</v>
+        <v>0.23864897177620478</v>
       </c>
       <c r="Q3">
         <f>Data!X25</f>
-        <v>0.23053064887219032</v>
+        <v>0.22826257592436899</v>
       </c>
       <c r="R3">
         <f>Data!Y25</f>
-        <v>0.219806570903258</v>
+        <v>0.21787618007253318</v>
       </c>
       <c r="S3">
         <f>Data!Z25</f>
-        <v>0.20954761858878282</v>
+        <v>0.20794026389662207</v>
       </c>
       <c r="T3">
         <f>Data!AA25</f>
-        <v>0.20014157807570523</v>
+        <v>0.19883040284840414</v>
       </c>
       <c r="U3">
         <f>Data!AB25</f>
-        <v>0.19184736896482521</v>
+        <v>0.19079736361155128</v>
       </c>
       <c r="V3">
         <f>Data!AC25</f>
-        <v>0.18478134337436644</v>
+        <v>0.18395383458329176</v>
       </c>
       <c r="W3">
         <f>Data!AD25</f>
-        <v>0.1789362473258993</v>
+        <v>0.17829279020005839</v>
       </c>
       <c r="X3">
         <f>Data!AE25</f>
-        <v>0.17421771981838394</v>
+        <v>0.17372284072068978</v>
       </c>
       <c r="Y3">
         <f>Data!AF25</f>
-        <v>0.17048312906991916</v>
+        <v>0.17010584558408873</v>
       </c>
       <c r="Z3">
         <f>Data!AG25</f>
-        <v>0.16757324220627842</v>
+        <v>0.16728758587566564</v>
       </c>
       <c r="AA3">
         <f>Data!AH25</f>
-        <v>0.16533349500587841</v>
+        <v>0.1651183643259167</v>
       </c>
       <c r="AB3">
         <f>Data!AI25</f>
-        <v>0.16362572691932695</v>
+        <v>0.16346437081510473</v>
       </c>
       <c r="AC3">
         <f>Data!AJ25</f>
-        <v>0.16233291766902463</v>
+        <v>0.1622122698257745</v>
       </c>
       <c r="AD3">
         <f>Data!AK25</f>
-        <v>0.16135955929344575</v>
+        <v>0.16126956077202181</v>
       </c>
       <c r="AE3">
         <f>Data!AL25</f>
-        <v>0.16062971940956564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.16056270224633809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>Data!I26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="C4">
         <f>Data!J26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="D4">
         <f>Data!K26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="E4">
         <f>Data!L26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F4">
         <f>Data!M26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="G4">
         <f>Data!N26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="H4">
         <f>Data!O26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="I4">
         <f>Data!P26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J4">
         <f>Data!Q26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="K4">
         <f>Data!R26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="L4">
         <f>Data!S26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="M4">
         <f>Data!T26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="N4">
         <f>Data!U26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="O4">
         <f>Data!V26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="P4">
         <f>Data!W26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Q4">
         <f>Data!X26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="R4">
         <f>Data!Y26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="S4">
         <f>Data!Z26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="T4">
         <f>Data!AA26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="U4">
         <f>Data!AB26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="V4">
         <f>Data!AC26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="W4">
         <f>Data!AD26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="X4">
         <f>Data!AE26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Y4">
         <f>Data!AF26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Z4">
         <f>Data!AG26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AA4">
         <f>Data!AH26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AB4">
         <f>Data!AI26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AC4">
         <f>Data!AJ26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AD4">
         <f>Data!AK26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AE4">
         <f>Data!AL26</f>
-        <v>0.30255990331064825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.29802375741500553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10759,254 +10759,254 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
       <c r="B7">
         <f>Data!I29</f>
-        <v>2.1823637453696615E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="C7">
         <f>Data!J29</f>
-        <v>2.1823637453692868E-2</v>
+        <v>2.1496445375760231E-2</v>
       </c>
       <c r="D7">
         <f>Data!K29</f>
-        <v>4.0415167611165259E-2</v>
+        <v>3.9809241000682505E-2</v>
       </c>
       <c r="E7">
         <f>Data!L29</f>
-        <v>5.900669776863765E-2</v>
+        <v>5.8122036625604778E-2</v>
       </c>
       <c r="F7">
         <f>Data!M29</f>
-        <v>7.7598227926110042E-2</v>
+        <v>7.6434832250534157E-2</v>
       </c>
       <c r="G7">
         <f>Data!N29</f>
-        <v>9.6189758083582433E-2</v>
+        <v>9.4747627875456431E-2</v>
       </c>
       <c r="H7">
         <f>Data!O29</f>
-        <v>0.11478128824105482</v>
+        <v>0.1130604235003787</v>
       </c>
       <c r="I7">
         <f>Data!P29</f>
-        <v>0.13337281839852722</v>
+        <v>0.13137321912530098</v>
       </c>
       <c r="J7">
         <f>Data!Q29</f>
-        <v>0.15196434855599961</v>
+        <v>0.14968601475022325</v>
       </c>
       <c r="K7">
         <f>Data!R29</f>
-        <v>0.170555878713472</v>
+        <v>0.16799881037514552</v>
       </c>
       <c r="L7">
         <f>Data!S29</f>
-        <v>0.18914740887094439</v>
+        <v>0.1863116060000678</v>
       </c>
       <c r="M7">
         <f>Data!T29</f>
-        <v>0.20773893902841678</v>
+        <v>0.20462440162499007</v>
       </c>
       <c r="N7">
         <f>Data!U29</f>
-        <v>0.22633046918588917</v>
+        <v>0.22293719724991234</v>
       </c>
       <c r="O7">
         <f>Data!V29</f>
-        <v>0.24492199934336156</v>
+        <v>0.24124999287483462</v>
       </c>
       <c r="P7">
         <f>Data!W29</f>
-        <v>0.26351352950083395</v>
+        <v>0.25956278849975689</v>
       </c>
       <c r="Q7">
         <f>Data!X29</f>
-        <v>0.28210505965830635</v>
+        <v>0.27787558412467916</v>
       </c>
       <c r="R7">
         <f>Data!Y29</f>
-        <v>0.30069658981577874</v>
+        <v>0.29618837974960144</v>
       </c>
       <c r="S7">
         <f>Data!Z29</f>
-        <v>0.31928811997325113</v>
+        <v>0.31450117537452371</v>
       </c>
       <c r="T7">
         <f>Data!AA29</f>
-        <v>0.33787965013072352</v>
+        <v>0.33281397099944598</v>
       </c>
       <c r="U7">
         <f>Data!AB29</f>
-        <v>0.35647118028819591</v>
+        <v>0.35112676662436826</v>
       </c>
       <c r="V7">
         <f>Data!AC29</f>
-        <v>0.3750627104456683</v>
+        <v>0.36943956224929764</v>
       </c>
       <c r="W7">
         <f>Data!AD29</f>
-        <v>0.39365424060314069</v>
+        <v>0.38775235787421991</v>
       </c>
       <c r="X7">
         <f>Data!AE29</f>
-        <v>0.41224577076061308</v>
+        <v>0.40606515349914218</v>
       </c>
       <c r="Y7">
         <f>Data!AF29</f>
-        <v>0.43083730091808548</v>
+        <v>0.42437794912406446</v>
       </c>
       <c r="Z7">
         <f>Data!AG29</f>
-        <v>0.44942883107555787</v>
+        <v>0.44269074474898673</v>
       </c>
       <c r="AA7">
         <f>Data!AH29</f>
-        <v>0.46802036123303026</v>
+        <v>0.461003540373909</v>
       </c>
       <c r="AB7">
         <f>Data!AI29</f>
-        <v>0.48661189139050265</v>
+        <v>0.47931633599883128</v>
       </c>
       <c r="AC7">
         <f>Data!AJ29</f>
-        <v>0.50520342154797504</v>
+        <v>0.49762913162375355</v>
       </c>
       <c r="AD7">
         <f>Data!AK29</f>
-        <v>0.52379495170544743</v>
+        <v>0.51594192724867582</v>
       </c>
       <c r="AE7">
         <f>Data!AL29</f>
-        <v>0.54238648186291982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.5342547228735981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
       <c r="B8">
         <f>Data!I30</f>
-        <v>8.5993749223261043E-5</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="C8">
         <f>Data!J30</f>
-        <v>8.2342485951046606E-4</v>
+        <v>8.2215464117929744E-4</v>
       </c>
       <c r="D8">
         <f>Data!K30</f>
-        <v>1.0763028936513275E-3</v>
+        <v>1.0750392070949643E-3</v>
       </c>
       <c r="E8">
         <f>Data!L30</f>
-        <v>1.4135562528708127E-3</v>
+        <v>1.4123012774822749E-3</v>
       </c>
       <c r="F8">
         <f>Data!M30</f>
-        <v>1.861494312925186E-3</v>
+        <v>1.860250907661926E-3</v>
       </c>
       <c r="G8">
         <f>Data!N30</f>
-        <v>2.4532090794568743E-3</v>
+        <v>2.4519809580343683E-3</v>
       </c>
       <c r="H8">
         <f>Data!O30</f>
-        <v>3.229246237084574E-3</v>
+        <v>3.2280381605029394E-3</v>
       </c>
       <c r="I8">
         <f>Data!P30</f>
-        <v>4.2374762419148592E-3</v>
+        <v>4.2362942076558247E-3</v>
       </c>
       <c r="J8">
         <f>Data!Q30</f>
-        <v>5.5314531643209574E-3</v>
+        <v>5.530304553154162E-3</v>
       </c>
       <c r="K8">
         <f>Data!R30</f>
-        <v>7.1663486893455471E-3</v>
+        <v>7.1652423071111148E-3</v>
       </c>
       <c r="L8">
         <f>Data!S30</f>
-        <v>9.1915824847949544E-3</v>
+        <v>9.1905284138303605E-3</v>
       </c>
       <c r="M8">
         <f>Data!T30</f>
-        <v>1.1639849152553195E-2</v>
+        <v>1.1638858319689102E-2</v>
       </c>
       <c r="N8">
         <f>Data!U30</f>
-        <v>1.4513662081988942E-2</v>
+        <v>1.4512745478976212E-2</v>
       </c>
       <c r="O8">
         <f>Data!V30</f>
-        <v>1.7772707095192228E-2</v>
+        <v>1.7771874672476845E-2</v>
       </c>
       <c r="P8">
         <f>Data!W30</f>
-        <v>2.1327272625150932E-2</v>
+        <v>2.1326532015952099E-2</v>
       </c>
       <c r="Q8">
         <f>Data!X30</f>
-        <v>2.5042996874611631E-2</v>
+        <v>2.5042352241617768E-2</v>
       </c>
       <c r="R8">
         <f>Data!Y30</f>
-        <v>2.8758721124072337E-2</v>
+        <v>2.8758172467283436E-2</v>
       </c>
       <c r="S8">
         <f>Data!Z30</f>
-        <v>3.2313286654031034E-2</v>
+        <v>3.2312829810758684E-2</v>
       </c>
       <c r="T8">
         <f>Data!AA30</f>
-        <v>3.5572331667234322E-2</v>
+        <v>3.5571959004259315E-2</v>
       </c>
       <c r="U8">
         <f>Data!AB30</f>
-        <v>3.8446144596670069E-2</v>
+        <v>3.8445846163546425E-2</v>
       </c>
       <c r="V8">
         <f>Data!AC30</f>
-        <v>4.0894411264428311E-2</v>
+        <v>4.0894176069405173E-2</v>
       </c>
       <c r="W8">
         <f>Data!AD30</f>
-        <v>4.291964505987772E-2</v>
+        <v>4.2919462176124419E-2</v>
       </c>
       <c r="X8">
         <f>Data!AE30</f>
-        <v>4.4554540584902311E-2</v>
+        <v>4.4554399930081368E-2</v>
       </c>
       <c r="Y8">
         <f>Data!AF30</f>
-        <v>4.5848517507308409E-2</v>
+        <v>4.5848410275579711E-2</v>
       </c>
       <c r="Z8">
         <f>Data!AG30</f>
-        <v>4.685674751213869E-2</v>
+        <v>4.6856666322732596E-2</v>
       </c>
       <c r="AA8">
         <f>Data!AH30</f>
-        <v>4.7632784669766393E-2</v>
+        <v>4.7632723525201169E-2</v>
       </c>
       <c r="AB8">
         <f>Data!AI30</f>
-        <v>4.8224499436298078E-2</v>
+        <v>4.822445357557361E-2</v>
       </c>
       <c r="AC8">
         <f>Data!AJ30</f>
-        <v>4.8672437496352451E-2</v>
+        <v>4.8672403205753251E-2</v>
       </c>
       <c r="AD8">
         <f>Data!AK30</f>
-        <v>4.9009690855571941E-2</v>
+        <v>4.900966527614057E-2</v>
       </c>
       <c r="AE8">
         <f>Data!AL30</f>
-        <v>4.9262568889712796E-2</v>
+        <v>4.9262549842056233E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11025,12 +11025,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12046,12 +12046,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13067,12 +13067,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14084,16 +14084,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14218,132 +14218,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!I52</f>
-        <v>0.75216927859794647</v>
+        <v>0.93664816809218165</v>
       </c>
       <c r="C2">
         <f>Data!J52</f>
-        <v>0.75583073753050711</v>
+        <v>0.93758413006461472</v>
       </c>
       <c r="D2">
         <f>Data!K52</f>
-        <v>0.75708631588086017</v>
+        <v>0.93790508780604664</v>
       </c>
       <c r="E2">
         <f>Data!L52</f>
-        <v>0.75876083070322697</v>
+        <v>0.93833313635851656</v>
       </c>
       <c r="F2">
         <f>Data!M52</f>
-        <v>0.76098491209651287</v>
+        <v>0.93890166809574294</v>
       </c>
       <c r="G2">
         <f>Data!N52</f>
-        <v>0.76392286696066514</v>
+        <v>0.93965268403780833</v>
       </c>
       <c r="H2">
         <f>Data!O52</f>
-        <v>0.76777601085866032</v>
+        <v>0.94063764555977569</v>
       </c>
       <c r="I2">
         <f>Data!P52</f>
-        <v>0.77278202797098927</v>
+        <v>0.94191731077978458</v>
       </c>
       <c r="J2">
         <f>Data!Q52</f>
-        <v>0.77920682249752604</v>
+        <v>0.94355965157024346</v>
       </c>
       <c r="K2">
         <f>Data!R52</f>
-        <v>0.78732433034388383</v>
+        <v>0.94563469291170243</v>
       </c>
       <c r="L2">
         <f>Data!S52</f>
-        <v>0.79737992776502331</v>
+        <v>0.94820515921205761</v>
       </c>
       <c r="M2">
         <f>Data!T52</f>
-        <v>0.80953594849008148</v>
+        <v>0.95131254709877777</v>
       </c>
       <c r="N2">
         <f>Data!U52</f>
-        <v>0.82380487188401408</v>
+        <v>0.95496004661475364</v>
       </c>
       <c r="O2">
         <f>Data!V52</f>
-        <v>0.83998653185027594</v>
+        <v>0.95909649021776056</v>
       </c>
       <c r="P2">
         <f>Data!W52</f>
-        <v>0.8576354966545553</v>
+        <v>0.96360801423424369</v>
       </c>
       <c r="Q2">
         <f>Data!X52</f>
-        <v>0.87608463929897318</v>
+        <v>0.96832408404609083</v>
       </c>
       <c r="R2">
         <f>Data!Y52</f>
-        <v>0.89453378194339117</v>
+        <v>0.97304015385793796</v>
       </c>
       <c r="S2">
         <f>Data!Z52</f>
-        <v>0.91218274674767053</v>
+        <v>0.9775516778744211</v>
       </c>
       <c r="T2">
         <f>Data!AA52</f>
-        <v>0.92836440671393228</v>
+        <v>0.98168812147742801</v>
       </c>
       <c r="U2">
         <f>Data!AB52</f>
-        <v>0.94263333010786499</v>
+        <v>0.98533562099340388</v>
       </c>
       <c r="V2">
         <f>Data!AC52</f>
-        <v>0.95478935083292327</v>
+        <v>0.98844300888012404</v>
       </c>
       <c r="W2">
         <f>Data!AD52</f>
-        <v>0.96484494825406264</v>
+        <v>0.99101347518047922</v>
       </c>
       <c r="X2">
         <f>Data!AE52</f>
-        <v>0.97296245610042043</v>
+        <v>0.99308851652193819</v>
       </c>
       <c r="Y2">
         <f>Data!AF52</f>
-        <v>0.9793872506269572</v>
+        <v>0.99473085731239708</v>
       </c>
       <c r="Z2">
         <f>Data!AG52</f>
-        <v>0.98439326773928615</v>
+        <v>0.99601052253240596</v>
       </c>
       <c r="AA2">
         <f>Data!AH52</f>
-        <v>0.98824641163728133</v>
+        <v>0.99699548405437333</v>
       </c>
       <c r="AB2">
         <f>Data!AI52</f>
-        <v>0.9911843665014336</v>
+        <v>0.99774649999643872</v>
       </c>
       <c r="AC2">
         <f>Data!AJ52</f>
-        <v>0.99340844789471949</v>
+        <v>0.99831503173366509</v>
       </c>
       <c r="AD2">
         <f>Data!AK52</f>
-        <v>0.99508296271708629</v>
+        <v>0.99874308028613501</v>
       </c>
       <c r="AE2">
         <f>Data!AL52</f>
-        <v>0.99633854106743935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.99906403802756694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14593,132 +14593,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f>Data!I55</f>
-        <v>0.24783072140205353</v>
+        <v>6.3351831907818346E-2</v>
       </c>
       <c r="C5">
         <f>Data!J55</f>
-        <v>0.2478307214020532</v>
+        <v>6.3351831907809242E-2</v>
       </c>
       <c r="D5">
         <f>Data!K55</f>
-        <v>0.27469390992341403</v>
+        <v>9.6803552196817577E-2</v>
       </c>
       <c r="E5">
         <f>Data!L55</f>
-        <v>0.30155709844476775</v>
+        <v>0.13025527248582591</v>
       </c>
       <c r="F5">
         <f>Data!M55</f>
-        <v>0.32842028696612147</v>
+        <v>0.16370699277483425</v>
       </c>
       <c r="G5">
         <f>Data!N55</f>
-        <v>0.35528347548747519</v>
+        <v>0.19715871306384258</v>
       </c>
       <c r="H5">
         <f>Data!O55</f>
-        <v>0.38214666400883601</v>
+        <v>0.23061043335285092</v>
       </c>
       <c r="I5">
         <f>Data!P55</f>
-        <v>0.40900985253018973</v>
+        <v>0.26406215364185925</v>
       </c>
       <c r="J5">
         <f>Data!Q55</f>
-        <v>0.43587304105154345</v>
+        <v>0.29751387393085338</v>
       </c>
       <c r="K5">
         <f>Data!R55</f>
-        <v>0.46273622957289717</v>
+        <v>0.33096559421986171</v>
       </c>
       <c r="L5">
         <f>Data!S55</f>
-        <v>0.48959941809425089</v>
+        <v>0.36441731450887005</v>
       </c>
       <c r="M5">
         <f>Data!T55</f>
-        <v>0.51646260661561172</v>
+        <v>0.39786903479787838</v>
       </c>
       <c r="N5">
         <f>Data!U55</f>
-        <v>0.54332579513696544</v>
+        <v>0.43132075508688672</v>
       </c>
       <c r="O5">
         <f>Data!V55</f>
-        <v>0.57018898365831916</v>
+        <v>0.46477247537589506</v>
       </c>
       <c r="P5">
         <f>Data!W55</f>
-        <v>0.59705217217967288</v>
+        <v>0.49822419566490339</v>
       </c>
       <c r="Q5">
         <f>Data!X55</f>
-        <v>0.6239153607010266</v>
+        <v>0.53167591595391173</v>
       </c>
       <c r="R5">
         <f>Data!Y55</f>
-        <v>0.65077854922238743</v>
+        <v>0.56512763624290585</v>
       </c>
       <c r="S5">
         <f>Data!Z55</f>
-        <v>0.67764173774374115</v>
+        <v>0.59857935653191419</v>
       </c>
       <c r="T5">
         <f>Data!AA55</f>
-        <v>0.70450492626509487</v>
+        <v>0.63203107682092252</v>
       </c>
       <c r="U5">
         <f>Data!AB55</f>
-        <v>0.73136811478644859</v>
+        <v>0.66548279710993086</v>
       </c>
       <c r="V5">
         <f>Data!AC55</f>
-        <v>0.75823130330780941</v>
+        <v>0.69893451739893919</v>
       </c>
       <c r="W5">
         <f>Data!AD55</f>
-        <v>0.78509449182916313</v>
+        <v>0.73238623768794753</v>
       </c>
       <c r="X5">
         <f>Data!AE55</f>
-        <v>0.81195768035051685</v>
+        <v>0.76583795797695586</v>
       </c>
       <c r="Y5">
         <f>Data!AF55</f>
-        <v>0.83882086887187057</v>
+        <v>0.7992896782659642</v>
       </c>
       <c r="Z5">
         <f>Data!AG55</f>
-        <v>0.86568405739322429</v>
+        <v>0.83274139855495832</v>
       </c>
       <c r="AA5">
         <f>Data!AH55</f>
-        <v>0.89254724591458512</v>
+        <v>0.86619311884396666</v>
       </c>
       <c r="AB5">
         <f>Data!AI55</f>
-        <v>0.91941043443593884</v>
+        <v>0.89964483913297499</v>
       </c>
       <c r="AC5">
         <f>Data!AJ55</f>
-        <v>0.94627362295729256</v>
+        <v>0.93309655942198333</v>
       </c>
       <c r="AD5">
         <f>Data!AK55</f>
-        <v>0.97313681147864628</v>
+        <v>0.96654827971099166</v>
       </c>
       <c r="AE5">
         <f>Data!AL55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15109,12 +15109,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16130,12 +16130,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17151,12 +17151,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -18167,9 +18167,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -18267,27 +18267,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21632,7 +21632,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -23172,7 +23172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -24063,7 +24063,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24519,12 +24519,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -24649,7 +24649,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>0.99959043283501392</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25540,12 +25540,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26050,7 +26050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26351,9 +26351,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26451,27 +26451,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -26594,7 +26594,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -27592,7 +27592,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -27922,7 +27922,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -28032,7 +28032,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -28142,7 +28142,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28362,7 +28362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -28582,7 +28582,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -29038,7 +29038,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -29046,7 +29046,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -29706,7 +29706,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30476,7 +30476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -30696,7 +30696,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -30806,7 +30806,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30930,29 +30930,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>919</v>
       </c>
@@ -30987,7 +30987,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -31022,7 +31022,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -31092,7 +31092,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -31127,7 +31127,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -31197,7 +31197,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -31267,7 +31267,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -31302,7 +31302,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31372,7 +31372,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31407,7 +31407,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31442,7 +31442,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31477,7 +31477,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31512,7 +31512,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31547,7 +31547,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -31652,7 +31652,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -31687,7 +31687,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -31722,7 +31722,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -31757,7 +31757,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -31827,7 +31827,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -31862,7 +31862,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31932,7 +31932,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31967,7 +31967,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -32037,7 +32037,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -32072,7 +32072,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -32093,9 +32093,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -32193,27 +32193,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32344,7 +32344,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32454,7 +32454,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -32674,7 +32674,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -32784,7 +32784,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -33114,7 +33114,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -33224,7 +33224,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -33334,7 +33334,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33444,7 +33444,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -33782,7 +33782,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -33892,7 +33892,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -34002,7 +34002,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -34112,7 +34112,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -34222,7 +34222,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -34332,7 +34332,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34552,7 +34552,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -34780,7 +34780,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -34890,7 +34890,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -35000,7 +35000,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -35110,7 +35110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -35220,7 +35220,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35550,7 +35550,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -35786,7 +35786,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -35896,7 +35896,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -36006,7 +36006,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -36116,7 +36116,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -36226,7 +36226,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -36336,7 +36336,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36446,7 +36446,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36556,7 +36556,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -36666,7 +36666,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -36776,7 +36776,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -36886,7 +36886,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -36894,7 +36894,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -37004,7 +37004,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -37114,7 +37114,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -37224,7 +37224,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -37334,7 +37334,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37554,7 +37554,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -37664,7 +37664,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -37774,7 +37774,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -37884,7 +37884,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -37994,7 +37994,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -38002,7 +38002,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -38112,7 +38112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -38222,7 +38222,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -38332,7 +38332,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -38662,7 +38662,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -38992,7 +38992,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -39113,7 +39113,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -39223,7 +39223,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -39333,7 +39333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39553,7 +39553,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -39663,7 +39663,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -39773,7 +39773,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -39883,7 +39883,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -39993,7 +39993,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -40103,7 +40103,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -40213,7 +40213,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -40221,7 +40221,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -40229,7 +40229,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -40339,7 +40339,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -40669,7 +40669,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -40779,7 +40779,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -40889,7 +40889,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -40999,7 +40999,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -41219,7 +41219,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -41326,7 +41326,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -41334,7 +41334,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41444,7 +41444,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41554,7 +41554,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -41664,7 +41664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -41774,7 +41774,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -41994,7 +41994,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -42104,7 +42104,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -42214,7 +42214,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -42324,7 +42324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42431,7 +42431,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42439,7 +42439,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42549,7 +42549,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -42659,7 +42659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -42769,7 +42769,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -42879,7 +42879,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -43099,7 +43099,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -43209,7 +43209,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -43319,7 +43319,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43429,7 +43429,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43536,7 +43536,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -43643,7 +43643,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -43659,7 +43659,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -43769,7 +43769,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -43879,7 +43879,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -44099,7 +44099,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -44209,7 +44209,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -44319,7 +44319,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44429,7 +44429,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44539,7 +44539,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -44649,7 +44649,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -44759,7 +44759,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -44767,7 +44767,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -44877,7 +44877,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -44987,7 +44987,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -45097,7 +45097,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -45207,7 +45207,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -45317,7 +45317,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45427,7 +45427,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45537,7 +45537,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -45647,7 +45647,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -45757,7 +45757,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -45867,7 +45867,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -45875,7 +45875,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -45985,7 +45985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -46095,7 +46095,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -46205,7 +46205,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -46315,7 +46315,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46425,7 +46425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46535,7 +46535,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -46645,7 +46645,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -46755,7 +46755,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -46865,7 +46865,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -46975,7 +46975,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -47085,7 +47085,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -47093,7 +47093,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -47101,7 +47101,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -47109,7 +47109,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -47219,7 +47219,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -47329,7 +47329,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47439,7 +47439,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47549,7 +47549,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -47659,7 +47659,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -47769,7 +47769,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -47879,7 +47879,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -47989,7 +47989,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -48099,7 +48099,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -48206,7 +48206,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -48214,7 +48214,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -48324,7 +48324,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48434,7 +48434,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48544,7 +48544,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -48764,7 +48764,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -48874,7 +48874,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -48984,7 +48984,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -49094,7 +49094,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -49204,7 +49204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -49311,7 +49311,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -49319,7 +49319,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49429,7 +49429,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49539,7 +49539,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -49649,7 +49649,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -49759,7 +49759,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -49869,7 +49869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -50089,7 +50089,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -50199,7 +50199,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -50309,7 +50309,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50416,7 +50416,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50523,7 +50523,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50531,7 +50531,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50539,7 +50539,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -50649,7 +50649,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -50759,7 +50759,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -50869,7 +50869,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -50979,7 +50979,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -51089,7 +51089,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -51199,7 +51199,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -51309,7 +51309,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51419,7 +51419,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51529,7 +51529,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -51639,7 +51639,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -51647,7 +51647,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -51757,7 +51757,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -51977,7 +51977,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -52087,7 +52087,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -52197,7 +52197,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -52307,7 +52307,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52417,7 +52417,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -52637,7 +52637,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -52747,7 +52747,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -52755,7 +52755,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -52865,7 +52865,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -52975,7 +52975,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -53085,7 +53085,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -53195,7 +53195,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -53305,7 +53305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53415,7 +53415,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53525,7 +53525,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -53635,7 +53635,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -53745,7 +53745,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -53855,7 +53855,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -53965,7 +53965,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53973,7 +53973,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -54083,7 +54083,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -54193,7 +54193,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -54201,7 +54201,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -54311,7 +54311,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54421,7 +54421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54531,7 +54531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -54641,7 +54641,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -54649,7 +54649,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -54759,7 +54759,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -54869,7 +54869,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -54877,7 +54877,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -54987,7 +54987,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -55097,7 +55097,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -55207,7 +55207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -55317,7 +55317,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -55325,7 +55325,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55435,7 +55435,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55545,7 +55545,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -55655,7 +55655,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -55663,7 +55663,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -55773,7 +55773,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -55883,7 +55883,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -55993,7 +55993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -56114,21 +56114,21 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56154,7 +56154,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56181,7 +56181,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56189,7 +56189,7 @@
         <v>300</v>
       </c>
       <c r="C3" s="5">
-        <v>127466.0117345309</v>
+        <v>142618.8307345309</v>
       </c>
       <c r="D3" s="5">
         <v>100403.17008274974</v>
@@ -56209,7 +56209,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56223,7 +56223,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>2120.6909179999998</v>
+        <v>5561.7944340000004</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -56235,12 +56235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>1897.4974391190394</v>
+        <v>2563.6060360683009</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -56249,7 +56249,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>625.20256088096039</v>
+        <v>173.39396393169866</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -56261,7 +56261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56287,7 +56287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -56331,23 +56331,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56373,7 +56371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56401,7 +56399,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56428,7 +56426,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56454,7 +56452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56480,7 +56478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56494,7 +56492,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>10518</v>
+        <v>10524</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -56506,7 +56504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56545,81 +56543,81 @@
       <selection activeCell="A27" sqref="A27:XFD138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.26953125" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -56628,13 +56626,13 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -56643,7 +56641,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -56652,7 +56650,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -56661,7 +56659,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -56670,7 +56668,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -56679,7 +56677,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -56688,7 +56686,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -56697,13 +56695,13 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N26" s="36"/>
       <c r="O26" s="38"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>930</v>
       </c>
@@ -56712,13 +56710,13 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N28" s="36"/>
       <c r="O28" s="38"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>945</v>
       </c>
@@ -56727,13 +56725,13 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N30" s="36"/>
       <c r="O30" s="38"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>946</v>
       </c>
@@ -56742,7 +56740,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>947</v>
@@ -56761,7 +56759,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>44947</v>
       </c>
@@ -56782,7 +56780,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>44978</v>
       </c>
@@ -56803,7 +56801,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>45006</v>
       </c>
@@ -56824,7 +56822,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>45037</v>
       </c>
@@ -56845,7 +56843,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>45067</v>
       </c>
@@ -56866,7 +56864,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>45098</v>
       </c>
@@ -56887,7 +56885,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>45128</v>
       </c>
@@ -56920,7 +56918,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>45159</v>
       </c>
@@ -56941,7 +56939,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>45190</v>
       </c>
@@ -56962,7 +56960,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>45220</v>
       </c>
@@ -56983,7 +56981,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>45251</v>
       </c>
@@ -57004,7 +57002,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>45281</v>
       </c>
@@ -57025,7 +57023,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>44948</v>
       </c>
@@ -57046,7 +57044,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>44979</v>
       </c>
@@ -57067,7 +57065,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>45007</v>
       </c>
@@ -57088,7 +57086,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>45038</v>
       </c>
@@ -57109,7 +57107,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>45068</v>
       </c>
@@ -57130,7 +57128,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>45099</v>
       </c>
@@ -57151,7 +57149,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>45129</v>
       </c>
@@ -57172,7 +57170,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>45160</v>
       </c>
@@ -57193,7 +57191,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>45191</v>
       </c>
@@ -57214,7 +57212,7 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>45221</v>
       </c>
@@ -57235,7 +57233,7 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>45252</v>
       </c>
@@ -57256,7 +57254,7 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>45282</v>
       </c>
@@ -57277,13 +57275,13 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N57" s="36"/>
       <c r="O57" s="38"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>951</v>
       </c>
@@ -57300,7 +57298,7 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>952</v>
       </c>
@@ -57317,7 +57315,7 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>931</v>
       </c>
@@ -57412,7 +57410,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -57507,7 +57505,7 @@
         <v>15079600</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -57602,7 +57600,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -57697,7 +57695,7 @@
         <v>6490060</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -57792,7 +57790,7 @@
         <v>185550</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -57887,7 +57885,7 @@
         <v>507957</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -57982,7 +57980,7 @@
         <v>5433</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -58077,7 +58075,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>931</v>
       </c>
@@ -58172,7 +58170,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>960</v>
       </c>
@@ -58267,7 +58265,7 @@
         <v>12739700</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>961</v>
       </c>
@@ -58362,7 +58360,7 @@
         <v>8181.79</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>962</v>
       </c>
@@ -58457,7 +58455,7 @@
         <v>8837860</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -58552,7 +58550,7 @@
         <v>252673</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>964</v>
       </c>
@@ -58647,7 +58645,7 @@
         <v>429138</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>965</v>
       </c>
@@ -58742,7 +58740,7 @@
         <v>7398.52</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>966</v>
       </c>
@@ -58837,7 +58835,7 @@
         <v>1864.12</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>932</v>
       </c>
@@ -58962,7 +58960,7 @@
         <v>0.67691915148896309</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>933</v>
       </c>
@@ -59087,7 +59085,7 @@
         <v>2.2802051873582804E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>934</v>
       </c>
@@ -59212,7 +59210,7 @@
         <v>0.69972120336254584</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>932</v>
       </c>
@@ -59337,7 +59335,7 @@
         <v>0.571881561798261</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>933</v>
       </c>
@@ -59462,7 +59460,7 @@
         <v>1.9263884523731498E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -59587,7 +59585,7 @@
         <v>0.59114544632199251</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
@@ -59619,7 +59617,7 @@
       <c r="AD86" s="40"/>
       <c r="AE86" s="40"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>967</v>
       </c>
@@ -59627,7 +59625,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>976</v>
       </c>
@@ -59635,7 +59633,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -59647,7 +59645,7 @@
         <v>1.0567375886524823E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -59659,7 +59657,7 @@
         <v>1.6308663341138147E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>931</v>
       </c>
@@ -59754,7 +59752,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>969</v>
       </c>
@@ -59849,7 +59847,7 @@
         <v>97356</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>970</v>
       </c>
@@ -59944,7 +59942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>971</v>
       </c>
@@ -60039,7 +60037,7 @@
         <v>16023</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>972</v>
       </c>
@@ -60134,7 +60132,7 @@
         <v>52962</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>973</v>
       </c>
@@ -60229,7 +60227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>974</v>
       </c>
@@ -60324,7 +60322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>975</v>
       </c>
@@ -60419,7 +60417,7 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>978</v>
       </c>
@@ -60544,7 +60542,7 @@
         <v>0.55742210312961626</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>979</v>
       </c>
@@ -60669,7 +60667,7 @@
         <v>4.7133189048060735E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>999</v>
       </c>
@@ -60794,12 +60792,12 @@
         <v>0.60455529217767701</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>931</v>
       </c>
@@ -60894,7 +60892,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>981</v>
       </c>
@@ -60989,7 +60987,7 @@
         <v>1107250</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>982</v>
       </c>
@@ -61084,7 +61082,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>983</v>
       </c>
@@ -61179,7 +61177,7 @@
         <v>922863</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>984</v>
       </c>
@@ -61274,7 +61272,7 @@
         <v>457686</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>985</v>
       </c>
@@ -61369,7 +61367,7 @@
         <v>34482</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>986</v>
       </c>
@@ -61464,7 +61462,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>987</v>
       </c>
@@ -61559,7 +61557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>978</v>
       </c>
@@ -61684,7 +61682,7 @@
         <v>0.43878976848068768</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>988</v>
       </c>
@@ -61809,7 +61807,7 @@
         <v>1.3664799093927364E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>979</v>
       </c>
@@ -61934,7 +61932,7 @@
         <v>7.1331820570353384E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>989</v>
       </c>
@@ -62059,12 +62057,12 @@
         <v>0.45246170075667208</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>931</v>
       </c>
@@ -62159,7 +62157,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>991</v>
       </c>
@@ -62254,7 +62252,7 @@
         <v>141528</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>992</v>
       </c>
@@ -62349,7 +62347,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>993</v>
       </c>
@@ -62444,7 +62442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>994</v>
       </c>
@@ -62539,7 +62537,7 @@
         <v>130056</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>995</v>
       </c>
@@ -62634,7 +62632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>996</v>
       </c>
@@ -62729,7 +62727,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>997</v>
       </c>
@@ -62824,7 +62822,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>978</v>
       </c>
@@ -62949,7 +62947,7 @@
         <v>0.44366283279884888</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>988</v>
       </c>
@@ -63074,7 +63072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>979</v>
       </c>
@@ -63199,7 +63197,7 @@
         <v>0.14137661873548193</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>989</v>
       </c>
@@ -63341,23 +63339,23 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -63378,7 +63376,7 @@
       </c>
       <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -63401,7 +63399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -63424,7 +63422,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -63447,12 +63445,12 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -63467,7 +63465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63482,7 +63480,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -63493,7 +63491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -63633,7 +63631,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -63777,7 +63775,7 @@
         <v>0.99913267926293059</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -63914,7 +63912,7 @@
         <v>1.2225974073810479E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -64049,7 +64047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -64186,7 +64184,7 @@
         <v>3.0818463927506201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -64324,7 +64322,7 @@
         <v>4.9982798179070587E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -64461,7 +64459,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -64601,7 +64599,7 @@
         <v>3.1062760226311276E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -64743,7 +64741,7 @@
         <v>0.99967234626801127</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -64879,7 +64877,7 @@
         <v>1.2353695258898144E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -65014,7 +65012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -65149,7 +65147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -65286,7 +65284,7 @@
         <v>4.9265458207603127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -65423,7 +65421,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -65563,7 +65561,7 @@
         <v>3.1058892203350341E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -65707,13 +65705,13 @@
         <v>0.9996355795222398</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="22">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F25" s="22">
         <f>F32*3</f>
@@ -65725,136 +65723,136 @@
       </c>
       <c r="I25" s="22">
         <f t="shared" si="1"/>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,J$9))</f>
-        <v>0.30043157833481504</v>
+        <v>0.29596244960239987</v>
       </c>
       <c r="K25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,K$9))</f>
-        <v>0.2997017384509349</v>
+        <v>0.29525559107671612</v>
       </c>
       <c r="L25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,L$9))</f>
-        <v>0.29872838007535607</v>
+        <v>0.29431288202296346</v>
       </c>
       <c r="M25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,M$9))</f>
-        <v>0.29743557082505373</v>
+        <v>0.2930607810336332</v>
       </c>
       <c r="N25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,N$9))</f>
-        <v>0.29572780273850224</v>
+        <v>0.29140678752282123</v>
       </c>
       <c r="O25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,O$9))</f>
-        <v>0.29348805553810225</v>
+        <v>0.28923756597307232</v>
       </c>
       <c r="P25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,P$9))</f>
-        <v>0.29057816867446151</v>
+        <v>0.28641930626464923</v>
       </c>
       <c r="Q25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Q$9))</f>
-        <v>0.28684357792599674</v>
+        <v>0.28280231112804816</v>
       </c>
       <c r="R25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,R$9))</f>
-        <v>0.28212505041848135</v>
+        <v>0.27823236164867954</v>
       </c>
       <c r="S25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,S$9))</f>
-        <v>0.27627995437001424</v>
+        <v>0.2725713172654462</v>
       </c>
       <c r="T25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,T$9))</f>
-        <v>0.26921392877955547</v>
+        <v>0.26572778823718668</v>
       </c>
       <c r="U25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,U$9))</f>
-        <v>0.26091971966867544</v>
+        <v>0.25769474900033379</v>
       </c>
       <c r="V25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,V$9))</f>
-        <v>0.25151367915559786</v>
+        <v>0.24858488795211589</v>
       </c>
       <c r="W25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,W$9))</f>
-        <v>0.24125472684112267</v>
+        <v>0.23864897177620478</v>
       </c>
       <c r="X25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,X$9))</f>
-        <v>0.23053064887219032</v>
+        <v>0.22826257592436899</v>
       </c>
       <c r="Y25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Y$9))</f>
-        <v>0.219806570903258</v>
+        <v>0.21787618007253318</v>
       </c>
       <c r="Z25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,Z$9))</f>
-        <v>0.20954761858878282</v>
+        <v>0.20794026389662207</v>
       </c>
       <c r="AA25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AA$9))</f>
-        <v>0.20014157807570523</v>
+        <v>0.19883040284840414</v>
       </c>
       <c r="AB25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AB$9))</f>
-        <v>0.19184736896482521</v>
+        <v>0.19079736361155128</v>
       </c>
       <c r="AC25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AC$9))</f>
-        <v>0.18478134337436644</v>
+        <v>0.18395383458329176</v>
       </c>
       <c r="AD25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AD$9))</f>
-        <v>0.1789362473258993</v>
+        <v>0.17829279020005839</v>
       </c>
       <c r="AE25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AE$9))</f>
-        <v>0.17421771981838394</v>
+        <v>0.17372284072068978</v>
       </c>
       <c r="AF25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AF$9))</f>
-        <v>0.17048312906991916</v>
+        <v>0.17010584558408873</v>
       </c>
       <c r="AG25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AG$9))</f>
-        <v>0.16757324220627842</v>
+        <v>0.16728758587566564</v>
       </c>
       <c r="AH25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AH$9))</f>
-        <v>0.16533349500587841</v>
+        <v>0.1651183643259167</v>
       </c>
       <c r="AI25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AI$9))</f>
-        <v>0.16362572691932695</v>
+        <v>0.16346437081510473</v>
       </c>
       <c r="AJ25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AJ$9))</f>
-        <v>0.16233291766902463</v>
+        <v>0.1622122698257745</v>
       </c>
       <c r="AK25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AK$9))</f>
-        <v>0.16135955929344575</v>
+        <v>0.16126956077202181</v>
       </c>
       <c r="AL25">
         <f>IF($G25="s-curve",$E25+($F25-$E25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E25:$F25,$E$9:$F$9,AL$9))</f>
-        <v>0.16062971940956564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.16056270224633809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="22">
         <f>'SYVbT-passenger'!D3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="F26" s="22">
         <f>E26</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>IF(E26=F26,"n/a",IF(OR(C26="battery electric vehicle",C26="natural gas vehicle",C26="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65862,126 +65860,126 @@
       </c>
       <c r="I26" s="22">
         <f t="shared" si="1"/>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="J26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,J$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="K26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,K$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="L26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,L$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="M26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,M$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="N26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,N$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="O26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,O$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="P26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,P$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Q26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Q$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="R26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,R$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="S26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,S$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="T26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,T$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="U26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,U$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="V26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,V$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="W26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,W$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="X26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,X$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Y26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Y$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="Z26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,Z$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AA26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AA$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AB26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AB$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AC26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AC$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AD26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AD$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AE26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AE$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AF26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AF$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AG26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AG$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AH26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AH$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AI26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AI$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AJ26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AJ$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AK26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AK$9))</f>
-        <v>0.30255990331064825</v>
+        <v>0.29802375741500553</v>
       </c>
       <c r="AL26">
         <f>IF($G26="s-curve",$E26+($F26-$E26)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E26:$F26,$E$9:$F$9,AL$9))</f>
-        <v>0.30255990331064825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.29802375741500553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -66116,7 +66114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -66253,17 +66251,17 @@
         <v>5.9113558098403615E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="22">
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>2.1823637453696615E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="F29" s="22">
         <f>F36*($E$29/$E$36)*3</f>
-        <v>0.54238648186292071</v>
+        <v>0.53425472287359943</v>
       </c>
       <c r="G29" s="7" t="str">
         <f>IF(E29=F29,"n/a",IF(OR(C29="battery electric vehicle",C29="natural gas vehicle",C29="plugin hybrid vehicle",C29="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -66271,126 +66269,126 @@
       </c>
       <c r="I29" s="22">
         <f t="shared" si="1"/>
-        <v>2.1823637453696615E-2</v>
+        <v>2.1496445375763083E-2</v>
       </c>
       <c r="J29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,J$9))</f>
-        <v>2.1823637453692868E-2</v>
+        <v>2.1496445375760231E-2</v>
       </c>
       <c r="K29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,K$9))</f>
-        <v>4.0415167611165259E-2</v>
+        <v>3.9809241000682505E-2</v>
       </c>
       <c r="L29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,L$9))</f>
-        <v>5.900669776863765E-2</v>
+        <v>5.8122036625604778E-2</v>
       </c>
       <c r="M29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,M$9))</f>
-        <v>7.7598227926110042E-2</v>
+        <v>7.6434832250534157E-2</v>
       </c>
       <c r="N29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,N$9))</f>
-        <v>9.6189758083582433E-2</v>
+        <v>9.4747627875456431E-2</v>
       </c>
       <c r="O29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,O$9))</f>
-        <v>0.11478128824105482</v>
+        <v>0.1130604235003787</v>
       </c>
       <c r="P29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,P$9))</f>
-        <v>0.13337281839852722</v>
+        <v>0.13137321912530098</v>
       </c>
       <c r="Q29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Q$9))</f>
-        <v>0.15196434855599961</v>
+        <v>0.14968601475022325</v>
       </c>
       <c r="R29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,R$9))</f>
-        <v>0.170555878713472</v>
+        <v>0.16799881037514552</v>
       </c>
       <c r="S29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,S$9))</f>
-        <v>0.18914740887094439</v>
+        <v>0.1863116060000678</v>
       </c>
       <c r="T29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,T$9))</f>
-        <v>0.20773893902841678</v>
+        <v>0.20462440162499007</v>
       </c>
       <c r="U29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,U$9))</f>
-        <v>0.22633046918588917</v>
+        <v>0.22293719724991234</v>
       </c>
       <c r="V29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,V$9))</f>
-        <v>0.24492199934336156</v>
+        <v>0.24124999287483462</v>
       </c>
       <c r="W29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,W$9))</f>
-        <v>0.26351352950083395</v>
+        <v>0.25956278849975689</v>
       </c>
       <c r="X29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,X$9))</f>
-        <v>0.28210505965830635</v>
+        <v>0.27787558412467916</v>
       </c>
       <c r="Y29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Y$9))</f>
-        <v>0.30069658981577874</v>
+        <v>0.29618837974960144</v>
       </c>
       <c r="Z29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,Z$9))</f>
-        <v>0.31928811997325113</v>
+        <v>0.31450117537452371</v>
       </c>
       <c r="AA29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AA$9))</f>
-        <v>0.33787965013072352</v>
+        <v>0.33281397099944598</v>
       </c>
       <c r="AB29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AB$9))</f>
-        <v>0.35647118028819591</v>
+        <v>0.35112676662436826</v>
       </c>
       <c r="AC29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AC$9))</f>
-        <v>0.3750627104456683</v>
+        <v>0.36943956224929764</v>
       </c>
       <c r="AD29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AD$9))</f>
-        <v>0.39365424060314069</v>
+        <v>0.38775235787421991</v>
       </c>
       <c r="AE29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AE$9))</f>
-        <v>0.41224577076061308</v>
+        <v>0.40606515349914218</v>
       </c>
       <c r="AF29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AF$9))</f>
-        <v>0.43083730091808548</v>
+        <v>0.42437794912406446</v>
       </c>
       <c r="AG29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AG$9))</f>
-        <v>0.44942883107555787</v>
+        <v>0.44269074474898673</v>
       </c>
       <c r="AH29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AH$9))</f>
-        <v>0.46802036123303026</v>
+        <v>0.461003540373909</v>
       </c>
       <c r="AI29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AI$9))</f>
-        <v>0.48661189139050265</v>
+        <v>0.47931633599883128</v>
       </c>
       <c r="AJ29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AJ$9))</f>
-        <v>0.50520342154797504</v>
+        <v>0.49762913162375355</v>
       </c>
       <c r="AK29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AK$9))</f>
-        <v>0.52379495170544743</v>
+        <v>0.51594192724867582</v>
       </c>
       <c r="AL29">
         <f>IF($G29="s-curve",$E29+($F29-$E29)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E29:$F29,$E$9:$F$9,AL$9))</f>
-        <v>0.54238648186291982</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.5342547228735981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -66399,7 +66397,7 @@
       <c r="D30" s="23"/>
       <c r="E30" s="26">
         <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>8.5993749223261043E-5</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="F30" s="26">
         <v>0.05</v>
@@ -66410,126 +66408,126 @@
       </c>
       <c r="I30" s="22">
         <f t="shared" si="1"/>
-        <v>8.5993749223261043E-5</v>
+        <v>8.470448323552864E-5</v>
       </c>
       <c r="J30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,J$9))</f>
-        <v>8.2342485951046606E-4</v>
+        <v>8.2215464117929744E-4</v>
       </c>
       <c r="K30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,K$9))</f>
-        <v>1.0763028936513275E-3</v>
+        <v>1.0750392070949643E-3</v>
       </c>
       <c r="L30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,L$9))</f>
-        <v>1.4135562528708127E-3</v>
+        <v>1.4123012774822749E-3</v>
       </c>
       <c r="M30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,M$9))</f>
-        <v>1.861494312925186E-3</v>
+        <v>1.860250907661926E-3</v>
       </c>
       <c r="N30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,N$9))</f>
-        <v>2.4532090794568743E-3</v>
+        <v>2.4519809580343683E-3</v>
       </c>
       <c r="O30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,O$9))</f>
-        <v>3.229246237084574E-3</v>
+        <v>3.2280381605029394E-3</v>
       </c>
       <c r="P30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,P$9))</f>
-        <v>4.2374762419148592E-3</v>
+        <v>4.2362942076558247E-3</v>
       </c>
       <c r="Q30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Q$9))</f>
-        <v>5.5314531643209574E-3</v>
+        <v>5.530304553154162E-3</v>
       </c>
       <c r="R30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,R$9))</f>
-        <v>7.1663486893455471E-3</v>
+        <v>7.1652423071111148E-3</v>
       </c>
       <c r="S30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,S$9))</f>
-        <v>9.1915824847949544E-3</v>
+        <v>9.1905284138303605E-3</v>
       </c>
       <c r="T30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,T$9))</f>
-        <v>1.1639849152553195E-2</v>
+        <v>1.1638858319689102E-2</v>
       </c>
       <c r="U30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,U$9))</f>
-        <v>1.4513662081988942E-2</v>
+        <v>1.4512745478976212E-2</v>
       </c>
       <c r="V30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,V$9))</f>
-        <v>1.7772707095192228E-2</v>
+        <v>1.7771874672476845E-2</v>
       </c>
       <c r="W30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,W$9))</f>
-        <v>2.1327272625150932E-2</v>
+        <v>2.1326532015952099E-2</v>
       </c>
       <c r="X30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,X$9))</f>
-        <v>2.5042996874611631E-2</v>
+        <v>2.5042352241617768E-2</v>
       </c>
       <c r="Y30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Y$9))</f>
-        <v>2.8758721124072337E-2</v>
+        <v>2.8758172467283436E-2</v>
       </c>
       <c r="Z30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,Z$9))</f>
-        <v>3.2313286654031034E-2</v>
+        <v>3.2312829810758684E-2</v>
       </c>
       <c r="AA30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AA$9))</f>
-        <v>3.5572331667234322E-2</v>
+        <v>3.5571959004259315E-2</v>
       </c>
       <c r="AB30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AB$9))</f>
-        <v>3.8446144596670069E-2</v>
+        <v>3.8445846163546425E-2</v>
       </c>
       <c r="AC30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AC$9))</f>
-        <v>4.0894411264428311E-2</v>
+        <v>4.0894176069405173E-2</v>
       </c>
       <c r="AD30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AD$9))</f>
-        <v>4.291964505987772E-2</v>
+        <v>4.2919462176124419E-2</v>
       </c>
       <c r="AE30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AE$9))</f>
-        <v>4.4554540584902311E-2</v>
+        <v>4.4554399930081368E-2</v>
       </c>
       <c r="AF30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AF$9))</f>
-        <v>4.5848517507308409E-2</v>
+        <v>4.5848410275579711E-2</v>
       </c>
       <c r="AG30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AG$9))</f>
-        <v>4.685674751213869E-2</v>
+        <v>4.6856666322732596E-2</v>
       </c>
       <c r="AH30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AH$9))</f>
-        <v>4.7632784669766393E-2</v>
+        <v>4.7632723525201169E-2</v>
       </c>
       <c r="AI30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AI$9))</f>
-        <v>4.8224499436298078E-2</v>
+        <v>4.822445357557361E-2</v>
       </c>
       <c r="AJ30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AJ$9))</f>
-        <v>4.8672437496352451E-2</v>
+        <v>4.8672403205753251E-2</v>
       </c>
       <c r="AK30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AK$9))</f>
-        <v>4.9009690855571941E-2</v>
+        <v>4.900966527614057E-2</v>
       </c>
       <c r="AL30">
         <f>IF($G30="s-curve",$E30+($F30-$E30)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E30:$F30,$E$9:$F$9,AL$9))</f>
-        <v>4.9262568889712796E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+        <v>4.9262549842056233E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -66670,7 +66668,7 @@
         <v>0.99924940887163149</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -66807,7 +66805,7 @@
         <v>5.2146832307325378E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -66942,7 +66940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -67077,7 +67075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -67212,7 +67210,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -67349,7 +67347,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -67487,7 +67485,7 @@
         <v>0.14889194762300451</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -67628,7 +67626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -67763,7 +67761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -67898,7 +67896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -68033,7 +68031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -68168,7 +68166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -68303,7 +68301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -68441,7 +68439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -68582,7 +68580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -68717,7 +68715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -68852,7 +68850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -68987,7 +68985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -69122,7 +69120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -69257,7 +69255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -69395,7 +69393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -69407,7 +69405,7 @@
       </c>
       <c r="E52" s="22">
         <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.75216927859794647</v>
+        <v>0.93664816809218165</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -69418,126 +69416,126 @@
       </c>
       <c r="I52" s="22">
         <f t="shared" si="2"/>
-        <v>0.75216927859794647</v>
+        <v>0.93664816809218165</v>
       </c>
       <c r="J52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,J$9))</f>
-        <v>0.75583073753050711</v>
+        <v>0.93758413006461472</v>
       </c>
       <c r="K52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,K$9))</f>
-        <v>0.75708631588086017</v>
+        <v>0.93790508780604664</v>
       </c>
       <c r="L52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,L$9))</f>
-        <v>0.75876083070322697</v>
+        <v>0.93833313635851656</v>
       </c>
       <c r="M52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,M$9))</f>
-        <v>0.76098491209651287</v>
+        <v>0.93890166809574294</v>
       </c>
       <c r="N52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,N$9))</f>
-        <v>0.76392286696066514</v>
+        <v>0.93965268403780833</v>
       </c>
       <c r="O52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,O$9))</f>
-        <v>0.76777601085866032</v>
+        <v>0.94063764555977569</v>
       </c>
       <c r="P52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,P$9))</f>
-        <v>0.77278202797098927</v>
+        <v>0.94191731077978458</v>
       </c>
       <c r="Q52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Q$9))</f>
-        <v>0.77920682249752604</v>
+        <v>0.94355965157024346</v>
       </c>
       <c r="R52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,R$9))</f>
-        <v>0.78732433034388383</v>
+        <v>0.94563469291170243</v>
       </c>
       <c r="S52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,S$9))</f>
-        <v>0.79737992776502331</v>
+        <v>0.94820515921205761</v>
       </c>
       <c r="T52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,T$9))</f>
-        <v>0.80953594849008148</v>
+        <v>0.95131254709877777</v>
       </c>
       <c r="U52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,U$9))</f>
-        <v>0.82380487188401408</v>
+        <v>0.95496004661475364</v>
       </c>
       <c r="V52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,V$9))</f>
-        <v>0.83998653185027594</v>
+        <v>0.95909649021776056</v>
       </c>
       <c r="W52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,W$9))</f>
-        <v>0.8576354966545553</v>
+        <v>0.96360801423424369</v>
       </c>
       <c r="X52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,X$9))</f>
-        <v>0.87608463929897318</v>
+        <v>0.96832408404609083</v>
       </c>
       <c r="Y52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Y$9))</f>
-        <v>0.89453378194339117</v>
+        <v>0.97304015385793796</v>
       </c>
       <c r="Z52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,Z$9))</f>
-        <v>0.91218274674767053</v>
+        <v>0.9775516778744211</v>
       </c>
       <c r="AA52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AA$9))</f>
-        <v>0.92836440671393228</v>
+        <v>0.98168812147742801</v>
       </c>
       <c r="AB52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AB$9))</f>
-        <v>0.94263333010786499</v>
+        <v>0.98533562099340388</v>
       </c>
       <c r="AC52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AC$9))</f>
-        <v>0.95478935083292327</v>
+        <v>0.98844300888012404</v>
       </c>
       <c r="AD52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AD$9))</f>
-        <v>0.96484494825406264</v>
+        <v>0.99101347518047922</v>
       </c>
       <c r="AE52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AE$9))</f>
-        <v>0.97296245610042043</v>
+        <v>0.99308851652193819</v>
       </c>
       <c r="AF52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AF$9))</f>
-        <v>0.9793872506269572</v>
+        <v>0.99473085731239708</v>
       </c>
       <c r="AG52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AG$9))</f>
-        <v>0.98439326773928615</v>
+        <v>0.99601052253240596</v>
       </c>
       <c r="AH52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AH$9))</f>
-        <v>0.98824641163728133</v>
+        <v>0.99699548405437333</v>
       </c>
       <c r="AI52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AI$9))</f>
-        <v>0.9911843665014336</v>
+        <v>0.99774649999643872</v>
       </c>
       <c r="AJ52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AJ$9))</f>
-        <v>0.99340844789471949</v>
+        <v>0.99831503173366509</v>
       </c>
       <c r="AK52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AK$9))</f>
-        <v>0.99508296271708629</v>
+        <v>0.99874308028613501</v>
       </c>
       <c r="AL52">
         <f>IF($G52="s-curve",$E52+($F52-$E52)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E52:$F52,$E$9:$F$9,AL$9))</f>
-        <v>0.99633854106743935</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
+        <v>0.99906403802756694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -69672,7 +69670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -69807,13 +69805,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="22">
         <f>1-E52</f>
-        <v>0.24783072140205353</v>
+        <v>6.3351831907818346E-2</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -69824,126 +69822,126 @@
       </c>
       <c r="I55" s="22">
         <f t="shared" si="2"/>
-        <v>0.24783072140205353</v>
+        <v>6.3351831907818346E-2</v>
       </c>
       <c r="J55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,J$9))</f>
-        <v>0.2478307214020532</v>
+        <v>6.3351831907809242E-2</v>
       </c>
       <c r="K55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,K$9))</f>
-        <v>0.27469390992341403</v>
+        <v>9.6803552196817577E-2</v>
       </c>
       <c r="L55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,L$9))</f>
-        <v>0.30155709844476775</v>
+        <v>0.13025527248582591</v>
       </c>
       <c r="M55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,M$9))</f>
-        <v>0.32842028696612147</v>
+        <v>0.16370699277483425</v>
       </c>
       <c r="N55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,N$9))</f>
-        <v>0.35528347548747519</v>
+        <v>0.19715871306384258</v>
       </c>
       <c r="O55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,O$9))</f>
-        <v>0.38214666400883601</v>
+        <v>0.23061043335285092</v>
       </c>
       <c r="P55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,P$9))</f>
-        <v>0.40900985253018973</v>
+        <v>0.26406215364185925</v>
       </c>
       <c r="Q55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Q$9))</f>
-        <v>0.43587304105154345</v>
+        <v>0.29751387393085338</v>
       </c>
       <c r="R55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,R$9))</f>
-        <v>0.46273622957289717</v>
+        <v>0.33096559421986171</v>
       </c>
       <c r="S55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,S$9))</f>
-        <v>0.48959941809425089</v>
+        <v>0.36441731450887005</v>
       </c>
       <c r="T55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,T$9))</f>
-        <v>0.51646260661561172</v>
+        <v>0.39786903479787838</v>
       </c>
       <c r="U55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,U$9))</f>
-        <v>0.54332579513696544</v>
+        <v>0.43132075508688672</v>
       </c>
       <c r="V55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,V$9))</f>
-        <v>0.57018898365831916</v>
+        <v>0.46477247537589506</v>
       </c>
       <c r="W55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,W$9))</f>
-        <v>0.59705217217967288</v>
+        <v>0.49822419566490339</v>
       </c>
       <c r="X55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,X$9))</f>
-        <v>0.6239153607010266</v>
+        <v>0.53167591595391173</v>
       </c>
       <c r="Y55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Y$9))</f>
-        <v>0.65077854922238743</v>
+        <v>0.56512763624290585</v>
       </c>
       <c r="Z55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,Z$9))</f>
-        <v>0.67764173774374115</v>
+        <v>0.59857935653191419</v>
       </c>
       <c r="AA55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AA$9))</f>
-        <v>0.70450492626509487</v>
+        <v>0.63203107682092252</v>
       </c>
       <c r="AB55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AB$9))</f>
-        <v>0.73136811478644859</v>
+        <v>0.66548279710993086</v>
       </c>
       <c r="AC55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AC$9))</f>
-        <v>0.75823130330780941</v>
+        <v>0.69893451739893919</v>
       </c>
       <c r="AD55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AD$9))</f>
-        <v>0.78509449182916313</v>
+        <v>0.73238623768794753</v>
       </c>
       <c r="AE55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AE$9))</f>
-        <v>0.81195768035051685</v>
+        <v>0.76583795797695586</v>
       </c>
       <c r="AF55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AF$9))</f>
-        <v>0.83882086887187057</v>
+        <v>0.7992896782659642</v>
       </c>
       <c r="AG55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AG$9))</f>
-        <v>0.86568405739322429</v>
+        <v>0.83274139855495832</v>
       </c>
       <c r="AH55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AH$9))</f>
-        <v>0.89254724591458512</v>
+        <v>0.86619311884396666</v>
       </c>
       <c r="AI55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AI$9))</f>
-        <v>0.91941043443593884</v>
+        <v>0.89964483913297499</v>
       </c>
       <c r="AJ55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AJ$9))</f>
-        <v>0.94627362295729256</v>
+        <v>0.93309655942198333</v>
       </c>
       <c r="AK55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AK$9))</f>
-        <v>0.97313681147864628</v>
+        <v>0.96654827971099166</v>
       </c>
       <c r="AL55">
         <f>IF($G55="s-curve",$E55+($F55-$E55)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E55:$F55,$E$9:$F$9,AL$9))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -70078,7 +70076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -70213,7 +70211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -70351,7 +70349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -70492,7 +70490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -70627,7 +70625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -70762,7 +70760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -70897,7 +70895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -71032,7 +71030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -71167,7 +71165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -71305,7 +71303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -71446,7 +71444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -71581,7 +71579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -71716,7 +71714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -71851,7 +71849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -71986,7 +71984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -72121,7 +72119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -72259,7 +72257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -72400,7 +72398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -72535,7 +72533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -72670,7 +72668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -72805,7 +72803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -72940,7 +72938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -73075,7 +73073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -73213,7 +73211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -73355,7 +73353,7 @@
         <v>0.99959043283501392</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -73491,7 +73489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -73626,7 +73624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -73762,7 +73760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -73898,7 +73896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -74034,7 +74032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -74173,7 +74171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -74314,7 +74312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -74449,7 +74447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -74584,7 +74582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -74719,7 +74717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -74854,7 +74852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -74989,7 +74987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADFAEA9-4DE2-4E51-8EC4-8481039509F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC53A5-C5F7-4C86-A85B-F3095DE5179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1004">
   <si>
     <t>Source:</t>
   </si>
@@ -3051,6 +3051,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Sigmoidal Curve Values for PHEV passenger LDV Technologies</t>
+  </si>
+  <si>
+    <t>2027-2032, LDV PHEVs</t>
+  </si>
+  <si>
+    <t>2023, LDV BEVs</t>
+  </si>
+  <si>
+    <t>2033, LDV PHEVs</t>
   </si>
 </sst>
 </file>
@@ -3849,7 +3861,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3925,6 +3937,10 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -5061,10 +5077,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$10:$AL$10</c:f>
+              <c:f>Data!$I$10:$AM$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -5161,7 +5177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CD7-4B7A-BC10-BFBD94963D9F}"/>
+              <c16:uniqueId val="{00000000-64A9-40DF-B5F6-DC2BB01C190E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5174,11 +5190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="584510703"/>
-        <c:axId val="589151247"/>
+        <c:axId val="145905919"/>
+        <c:axId val="145909759"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="584510703"/>
+        <c:axId val="145905919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589151247"/>
+        <c:crossAx val="145909759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5228,7 +5244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589151247"/>
+        <c:axId val="145909759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,7 +5295,348 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584510703"/>
+        <c:crossAx val="145905919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$14:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8679140068700261E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0151128112044503E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6021242730178792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4401430729338323E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17702858227261439</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19652431808271453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21198289652972047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22359856927066168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2319787572698212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23784887188795553</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24187624796588125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24460014783483416</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24642468433022793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2476388869188586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24844342975100567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24897499940691589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24932554691499179</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24955642877591674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24970836961542547</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.24980830595850836</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24987401381406515</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24991720639498693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D32E-4CC5-851D-14400ED7F077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144440415"/>
+        <c:axId val="144438495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144440415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144438495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144438495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144440415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5416,6 +5773,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7003,6 +7400,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7084,23 +7997,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37611677-E89A-3C1B-D779-903087F49626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA4F8C5-6199-A6FD-10AB-7EDD21735E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7113,6 +8026,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FEF526-BD1E-EFFF-D20B-034FBCB5C98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8610,111 +9559,111 @@
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>2.1949976116990642E-2</v>
+        <v>2.0151128112044503E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>2.6044202352577546E-2</v>
+        <v>2.6021242730178792E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>3.1057481641706103E-2</v>
+        <v>3.4401430729338323E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>3.7033211291598749E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>4.3931985692355985E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>5.1608405797687135E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>5.9807857321500048E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>6.8192142678499934E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>7.6391594202312868E-2</v>
+        <v>0.15</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>8.406801430764399E-2</v>
+        <v>0.17702858227261439</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>9.0966788708401247E-2</v>
+        <v>0.19652431808271453</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>9.6942518358293872E-2</v>
+        <v>0.21198289652972047</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>0.10195579764742244</v>
+        <v>0.22359856927066168</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>0.10605002388300935</v>
+        <v>0.2319787572698212</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>0.10932085993129972</v>
+        <v>0.23784887188795553</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>0.11188823363951</v>
+        <v>0.24187624796588125</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>0.11387569247181462</v>
+        <v>0.24460014783483416</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>0.11539777684154792</v>
+        <v>0.24642468433022793</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>0.1165538877519994</v>
+        <v>0.2476388869188586</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>0.11742653457007712</v>
+        <v>0.24844342975100567</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>0.11808210826863849</v>
+        <v>0.24897499940691589</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>0.11857285686001948</v>
+        <v>0.24932554691499179</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>0.11893924311882201</v>
+        <v>0.24955642877591674</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>0.11921223823864052</v>
+        <v>0.24970836961542547</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>0.11941534592232145</v>
+        <v>0.24980830595850836</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>0.11956629081464482</v>
+        <v>0.24987401381406515</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>0.11967837753456154</v>
+        <v>0.24991720639498693</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9623,119 +10572,119 @@
       </c>
       <c r="C6">
         <f>Data!J21</f>
-        <v>2.0502850873563008E-3</v>
+        <v>3.9709092074817981E-3</v>
       </c>
       <c r="D6">
         <f>Data!K21</f>
-        <v>2.6568115066804157E-3</v>
+        <v>5.2360512521104916E-3</v>
       </c>
       <c r="E6">
         <f>Data!L21</f>
-        <v>3.4657116275128991E-3</v>
+        <v>6.9233207925054616E-3</v>
       </c>
       <c r="F6">
         <f>Data!M21</f>
-        <v>4.5400883268051397E-3</v>
+        <v>9.1643429322478421E-3</v>
       </c>
       <c r="G6">
         <f>Data!N21</f>
-        <v>5.9593125778357988E-3</v>
+        <v>1.2124676090919479E-2</v>
       </c>
       <c r="H6">
         <f>Data!O21</f>
-        <v>7.820632957352051E-3</v>
+        <v>1.6007169244761595E-2</v>
       </c>
       <c r="I6">
         <f>Data!P21</f>
-        <v>1.0238866461746552E-2</v>
+        <v>2.1051317005956457E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q21</f>
-        <v>1.3342462201492896E-2</v>
+        <v>2.7525048956922572E-2</v>
       </c>
       <c r="K6">
         <f>Data!R21</f>
-        <v>1.7263749125962676E-2</v>
+        <v>3.5704387563026088E-2</v>
       </c>
       <c r="L6">
         <f>Data!S21</f>
-        <v>2.2121260006341788E-2</v>
+        <v>4.5836578101168111E-2</v>
       </c>
       <c r="M6">
         <f>Data!T21</f>
-        <v>2.7993412645423234E-2</v>
+        <v>5.8085190790550939E-2</v>
       </c>
       <c r="N6">
         <f>Data!U21</f>
-        <v>3.4886235392246209E-2</v>
+        <v>7.2462800050995702E-2</v>
       </c>
       <c r="O6">
         <f>Data!V21</f>
-        <v>4.270303493748949E-2</v>
+        <v>8.8767715128136082E-2</v>
       </c>
       <c r="P6">
         <f>Data!W21</f>
-        <v>5.1228638635981739E-2</v>
+        <v>0.10655111145046607</v>
       </c>
       <c r="Q6">
         <f>Data!X21</f>
-        <v>6.0140780538215151E-2</v>
+        <v>0.12514078053821515</v>
       </c>
       <c r="R6">
         <f>Data!Y21</f>
-        <v>6.9052922440448555E-2</v>
+        <v>0.14373044962596424</v>
       </c>
       <c r="S6">
         <f>Data!Z21</f>
-        <v>7.7578526138940798E-2</v>
+        <v>0.16151384594829421</v>
       </c>
       <c r="T6">
         <f>Data!AA21</f>
-        <v>8.5395325684184079E-2</v>
+        <v>0.17781876102543459</v>
       </c>
       <c r="U6">
         <f>Data!AB21</f>
-        <v>9.2288148431007064E-2</v>
+        <v>0.19219637028587935</v>
       </c>
       <c r="V6">
         <f>Data!AC21</f>
-        <v>9.816030107008851E-2</v>
+        <v>0.20444498297526217</v>
       </c>
       <c r="W6">
         <f>Data!AD21</f>
-        <v>0.10301781195046764</v>
+        <v>0.21457717351340425</v>
       </c>
       <c r="X6">
         <f>Data!AE21</f>
-        <v>0.10693909887493741</v>
+        <v>0.22275651211950773</v>
       </c>
       <c r="Y6">
         <f>Data!AF21</f>
-        <v>0.11004269461468376</v>
+        <v>0.22923024407047385</v>
       </c>
       <c r="Z6">
         <f>Data!AG21</f>
-        <v>0.11246092811907826</v>
+        <v>0.23427439183166873</v>
       </c>
       <c r="AA6">
         <f>Data!AH21</f>
-        <v>0.11432224849859451</v>
+        <v>0.23815688498551085</v>
       </c>
       <c r="AB6">
         <f>Data!AI21</f>
-        <v>0.11574147274962517</v>
+        <v>0.24111721814418247</v>
       </c>
       <c r="AC6">
         <f>Data!AJ21</f>
-        <v>0.1168158494489174</v>
+        <v>0.24335824028392483</v>
       </c>
       <c r="AD6">
         <f>Data!AK21</f>
-        <v>0.1176247495697499</v>
+        <v>0.24504550982431983</v>
       </c>
       <c r="AE6">
         <f>Data!AL21</f>
-        <v>0.118231275989074</v>
+        <v>0.24631065186894852</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -63339,8 +64288,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63353,6 +64302,7 @@
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -63375,6 +64325,10 @@
         <v>998</v>
       </c>
       <c r="R1" s="17"/>
+      <c r="T1" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -63398,6 +64352,12 @@
       <c r="R2" s="19">
         <v>1</v>
       </c>
+      <c r="T2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -63421,6 +64381,12 @@
       <c r="R3" s="19">
         <v>-0.5</v>
       </c>
+      <c r="T3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="19">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -63443,6 +64409,12 @@
       </c>
       <c r="R4" s="20">
         <v>-15</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="20">
+        <v>-11</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -63464,14 +64436,14 @@
       <c r="G6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="12">
-        <v>2023</v>
+      <c r="N6" s="49" t="s">
+        <v>1002</v>
       </c>
       <c r="O6" s="22">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -63485,6 +64457,12 @@
         <v>2050</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="N7" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O7">
+        <v>1.8679140068700261E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -63496,6 +64474,27 @@
       <c r="G8" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="N8" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q8">
+        <v>7.8E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.09</v>
+      </c>
+      <c r="S8">
+        <v>0.12</v>
+      </c>
+      <c r="T8">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -63660,15 +64659,15 @@
         <f>IF(E10=F10,"n/a",IF(OR(C10="battery electric vehicle",C10="natural gas vehicle",C10="plugin hybrid vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="15">
         <f>D10</f>
         <v>0.02</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="50">
         <f>E10</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="50">
         <f>O6</f>
         <v>9.9000000000000005E-2</v>
       </c>
@@ -64201,131 +65200,126 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F14" s="41">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="15">
         <f>D14</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="15">
         <f>E14</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,K$9))</f>
+      <c r="K14" s="15">
+        <f>O7</f>
         <v>1.8679140068700261E-2</v>
       </c>
       <c r="L14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>2.1949976116990642E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:L$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
+        <v>2.0151128112044503E-2</v>
       </c>
       <c r="M14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>2.6044202352577546E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:M$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
+        <v>2.6021242730178792E-2</v>
       </c>
       <c r="N14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>3.1057481641706103E-2</v>
-      </c>
-      <c r="O14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>3.7033211291598749E-2</v>
-      </c>
-      <c r="P14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>4.3931985692355985E-2</v>
-      </c>
-      <c r="Q14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>5.1608405797687135E-2</v>
-      </c>
-      <c r="R14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>5.9807857321500048E-2</v>
-      </c>
-      <c r="S14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>6.8192142678499934E-2</v>
-      </c>
-      <c r="T14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>7.6391594202312868E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:N$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
+        <v>3.4401430729338323E-2</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R14" s="15">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" ref="T14" si="2">T8</f>
+        <v>0.15</v>
       </c>
       <c r="U14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>8.406801430764399E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:U$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
+        <v>0.17702858227261439</v>
       </c>
       <c r="V14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>9.0966788708401247E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:V$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
+        <v>0.19652431808271453</v>
       </c>
       <c r="W14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>9.6942518358293872E-2</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:W$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
+        <v>0.21198289652972047</v>
       </c>
       <c r="X14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>0.10195579764742244</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:X$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
+        <v>0.22359856927066168</v>
       </c>
       <c r="Y14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>0.10605002388300935</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:Y$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
+        <v>0.2319787572698212</v>
       </c>
       <c r="Z14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>0.10932085993129972</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:Z$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
+        <v>0.23784887188795553</v>
       </c>
       <c r="AA14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>0.11188823363951</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AA$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
+        <v>0.24187624796588125</v>
       </c>
       <c r="AB14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>0.11387569247181462</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AB$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
+        <v>0.24460014783483416</v>
       </c>
       <c r="AC14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>0.11539777684154792</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AC$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
+        <v>0.24642468433022793</v>
       </c>
       <c r="AD14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>0.1165538877519994</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AD$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
+        <v>0.2476388869188586</v>
       </c>
       <c r="AE14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>0.11742653457007712</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AE$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
+        <v>0.24844342975100567</v>
       </c>
       <c r="AF14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>0.11808210826863849</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AF$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
+        <v>0.24897499940691589</v>
       </c>
       <c r="AG14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>0.11857285686001948</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AG$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
+        <v>0.24932554691499179</v>
       </c>
       <c r="AH14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>0.11893924311882201</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AH$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
+        <v>0.24955642877591674</v>
       </c>
       <c r="AI14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>0.11921223823864052</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AI$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
+        <v>0.24970836961542547</v>
       </c>
       <c r="AJ14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>0.11941534592232145</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AJ$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
+        <v>0.24980830595850836</v>
       </c>
       <c r="AK14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>0.11956629081464482</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AK$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
+        <v>0.24987401381406515</v>
       </c>
       <c r="AL14">
-        <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>0.11967837753456154</v>
+        <f>IF($G14="s-curve",$E14+($F14-$E14)*$U$2/(1+EXP($U$3*(COUNT($I$9:AL$9)+$U$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
+        <v>0.24991720639498693</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -65163,7 +66157,7 @@
       </c>
       <c r="F21" s="22">
         <f>F14</f>
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>IF(E21=F21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -65175,119 +66169,119 @@
       </c>
       <c r="J21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,J$9))</f>
-        <v>2.0502850873563008E-3</v>
+        <v>3.9709092074817981E-3</v>
       </c>
       <c r="K21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,K$9))</f>
-        <v>2.6568115066804157E-3</v>
+        <v>5.2360512521104916E-3</v>
       </c>
       <c r="L21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,L$9))</f>
-        <v>3.4657116275128991E-3</v>
+        <v>6.9233207925054616E-3</v>
       </c>
       <c r="M21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,M$9))</f>
-        <v>4.5400883268051397E-3</v>
+        <v>9.1643429322478421E-3</v>
       </c>
       <c r="N21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,N$9))</f>
-        <v>5.9593125778357988E-3</v>
+        <v>1.2124676090919479E-2</v>
       </c>
       <c r="O21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,O$9))</f>
-        <v>7.820632957352051E-3</v>
+        <v>1.6007169244761595E-2</v>
       </c>
       <c r="P21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,P$9))</f>
-        <v>1.0238866461746552E-2</v>
+        <v>2.1051317005956457E-2</v>
       </c>
       <c r="Q21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Q$9))</f>
-        <v>1.3342462201492896E-2</v>
+        <v>2.7525048956922572E-2</v>
       </c>
       <c r="R21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,R$9))</f>
-        <v>1.7263749125962676E-2</v>
+        <v>3.5704387563026088E-2</v>
       </c>
       <c r="S21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,S$9))</f>
-        <v>2.2121260006341788E-2</v>
+        <v>4.5836578101168111E-2</v>
       </c>
       <c r="T21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,T$9))</f>
-        <v>2.7993412645423234E-2</v>
+        <v>5.8085190790550939E-2</v>
       </c>
       <c r="U21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,U$9))</f>
-        <v>3.4886235392246209E-2</v>
+        <v>7.2462800050995702E-2</v>
       </c>
       <c r="V21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,V$9))</f>
-        <v>4.270303493748949E-2</v>
+        <v>8.8767715128136082E-2</v>
       </c>
       <c r="W21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,W$9))</f>
-        <v>5.1228638635981739E-2</v>
+        <v>0.10655111145046607</v>
       </c>
       <c r="X21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,X$9))</f>
-        <v>6.0140780538215151E-2</v>
+        <v>0.12514078053821515</v>
       </c>
       <c r="Y21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Y$9))</f>
-        <v>6.9052922440448555E-2</v>
+        <v>0.14373044962596424</v>
       </c>
       <c r="Z21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,Z$9))</f>
-        <v>7.7578526138940798E-2</v>
+        <v>0.16151384594829421</v>
       </c>
       <c r="AA21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AA$9))</f>
-        <v>8.5395325684184079E-2</v>
+        <v>0.17781876102543459</v>
       </c>
       <c r="AB21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AB$9))</f>
-        <v>9.2288148431007064E-2</v>
+        <v>0.19219637028587935</v>
       </c>
       <c r="AC21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AC$9))</f>
-        <v>9.816030107008851E-2</v>
+        <v>0.20444498297526217</v>
       </c>
       <c r="AD21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AD$9))</f>
-        <v>0.10301781195046764</v>
+        <v>0.21457717351340425</v>
       </c>
       <c r="AE21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AE$9))</f>
-        <v>0.10693909887493741</v>
+        <v>0.22275651211950773</v>
       </c>
       <c r="AF21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AF$9))</f>
-        <v>0.11004269461468376</v>
+        <v>0.22923024407047385</v>
       </c>
       <c r="AG21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AG$9))</f>
-        <v>0.11246092811907826</v>
+        <v>0.23427439183166873</v>
       </c>
       <c r="AH21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AH$9))</f>
-        <v>0.11432224849859451</v>
+        <v>0.23815688498551085</v>
       </c>
       <c r="AI21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AI$9))</f>
-        <v>0.11574147274962517</v>
+        <v>0.24111721814418247</v>
       </c>
       <c r="AJ21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AJ$9))</f>
-        <v>0.1168158494489174</v>
+        <v>0.24335824028392483</v>
       </c>
       <c r="AK21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AK$9))</f>
-        <v>0.1176247495697499</v>
+        <v>0.24504550982431983</v>
       </c>
       <c r="AL21">
         <f>IF($G21="s-curve",$E21+($F21-$E21)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($E21:$F21,$E$9:$F$9,AL$9))</f>
-        <v>0.118231275989074</v>
+        <v>0.24631065186894852</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -67917,7 +68911,7 @@
         <v>n/a</v>
       </c>
       <c r="I41" s="22">
-        <f t="shared" ref="I41:I72" si="2">E41</f>
+        <f t="shared" ref="I41:I72" si="3">E41</f>
         <v>1</v>
       </c>
       <c r="J41">
@@ -68052,7 +69046,7 @@
         <v>n/a</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -68187,7 +69181,7 @@
         <v>n/a</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -68325,7 +69319,7 @@
         <v>n/a</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -68466,7 +69460,7 @@
         <v>n/a</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -68601,7 +69595,7 @@
         <v>n/a</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -68736,7 +69730,7 @@
         <v>n/a</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -68871,7 +69865,7 @@
         <v>n/a</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J48">
@@ -69006,7 +70000,7 @@
         <v>n/a</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -69141,7 +70135,7 @@
         <v>n/a</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -69279,7 +70273,7 @@
         <v>n/a</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -69421,7 +70415,7 @@
         <v>s-curve</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93664816809218165</v>
       </c>
       <c r="J52">
@@ -69556,7 +70550,7 @@
         <v>n/a</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -69691,7 +70685,7 @@
         <v>n/a</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -69827,7 +70821,7 @@
         <v>linear</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3351831907818346E-2</v>
       </c>
       <c r="J55">
@@ -69962,7 +70956,7 @@
         <v>n/a</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -70097,7 +71091,7 @@
         <v>n/a</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J57">
@@ -70235,7 +71229,7 @@
         <v>n/a</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -70376,7 +71370,7 @@
         <v>n/a</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -70511,7 +71505,7 @@
         <v>n/a</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -70646,7 +71640,7 @@
         <v>n/a</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -70781,7 +71775,7 @@
         <v>n/a</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J62">
@@ -70916,7 +71910,7 @@
         <v>n/a</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -71051,7 +72045,7 @@
         <v>n/a</v>
       </c>
       <c r="I64" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -71189,7 +72183,7 @@
         <v>n/a</v>
       </c>
       <c r="I65" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -71330,7 +72324,7 @@
         <v>n/a</v>
       </c>
       <c r="I66" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J66">
@@ -71465,7 +72459,7 @@
         <v>n/a</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -71600,7 +72594,7 @@
         <v>n/a</v>
       </c>
       <c r="I68" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -71735,7 +72729,7 @@
         <v>n/a</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J69">
@@ -71870,7 +72864,7 @@
         <v>n/a</v>
       </c>
       <c r="I70" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -72005,7 +72999,7 @@
         <v>n/a</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -72143,7 +73137,7 @@
         <v>n/a</v>
       </c>
       <c r="I72" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -72284,7 +73278,7 @@
         <v>n/a</v>
       </c>
       <c r="I73" s="22">
-        <f t="shared" ref="I73:I93" si="3">E73</f>
+        <f t="shared" ref="I73:I93" si="4">E73</f>
         <v>0</v>
       </c>
       <c r="J73">
@@ -72419,7 +73413,7 @@
         <v>n/a</v>
       </c>
       <c r="I74" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -72554,7 +73548,7 @@
         <v>n/a</v>
       </c>
       <c r="I75" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -72689,7 +73683,7 @@
         <v>n/a</v>
       </c>
       <c r="I76" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J76">
@@ -72824,7 +73818,7 @@
         <v>n/a</v>
       </c>
       <c r="I77" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -72959,7 +73953,7 @@
         <v>n/a</v>
       </c>
       <c r="I78" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -73097,7 +74091,7 @@
         <v>n/a</v>
       </c>
       <c r="I79" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -73239,7 +74233,7 @@
         <v>s-curve</v>
       </c>
       <c r="I80" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -73375,7 +74369,7 @@
         <v>n/a</v>
       </c>
       <c r="I81" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -73510,7 +74504,7 @@
         <v>n/a</v>
       </c>
       <c r="I82" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J82">
@@ -73646,7 +74640,7 @@
         <v>n/a</v>
       </c>
       <c r="I83" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -73782,7 +74776,7 @@
         <v>n/a</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -73918,7 +74912,7 @@
         <v>n/a</v>
       </c>
       <c r="I85" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -74057,7 +75051,7 @@
         <v>n/a</v>
       </c>
       <c r="I86" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -74198,7 +75192,7 @@
         <v>n/a</v>
       </c>
       <c r="I87" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -74333,7 +75327,7 @@
         <v>n/a</v>
       </c>
       <c r="I88" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -74468,7 +75462,7 @@
         <v>n/a</v>
       </c>
       <c r="I89" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -74603,7 +75597,7 @@
         <v>n/a</v>
       </c>
       <c r="I90" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -74738,7 +75732,7 @@
         <v>n/a</v>
       </c>
       <c r="I91" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -74873,7 +75867,7 @@
         <v>n/a</v>
       </c>
       <c r="I92" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -75011,7 +76005,7 @@
         <v>n/a</v>
       </c>
       <c r="I93" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J93">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC53A5-C5F7-4C86-A85B-F3095DE5179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE2570-F505-44B1-9FF4-BC2CA26D0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1005">
   <si>
     <t>Source:</t>
   </si>
@@ -3063,6 +3063,9 @@
   </si>
   <si>
     <t>2033, LDV PHEVs</t>
+  </si>
+  <si>
+    <t>2023, freight LDV BEVs</t>
   </si>
 </sst>
 </file>
@@ -4741,94 +4744,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0.2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2579411882892142</c:v>
+                  <c:v>0.17745114499368292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27627957191928759</c:v>
+                  <c:v>0.19031199220093176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2996426865499332</c:v>
+                  <c:v>0.20876765729184479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32888715966126825</c:v>
+                  <c:v>0.23478791575173236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36469629744075793</c:v>
+                  <c:v>0.27057340516541462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40738008065427683</c:v>
+                  <c:v>0.31814369472520548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45665704065968565</c:v>
+                  <c:v>0.37860020816449586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51148861284062241</c:v>
+                  <c:v>0.45119213970807381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57005612372500036</c:v>
+                  <c:v>0.53264110228439376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62994387627499959</c:v>
+                  <c:v>0.61735889771560626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68851138715937765</c:v>
+                  <c:v>0.6988078602919261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74334295934031447</c:v>
+                  <c:v>0.77139979183550411</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79261991934572329</c:v>
+                  <c:v>0.83185630527479459</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83530370255924202</c:v>
+                  <c:v>0.87942659483458541</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87111284033873182</c:v>
+                  <c:v>0.91521208424826761</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90035731345006687</c:v>
+                  <c:v>0.94123234270815526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92372042808071253</c:v>
+                  <c:v>0.95968800779906827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94205881171078576</c:v>
+                  <c:v>0.97254885500631716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95625494622724738</c:v>
+                  <c:v>0.981400919704289</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96712697743962805</c:v>
+                  <c:v>0.98744207306071796</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97538491251428172</c:v>
+                  <c:v>0.99154096841313133</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98161810407197958</c:v>
+                  <c:v>0.99431107671435792</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98630077334741784</c:v>
+                  <c:v>0.99617816781320001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98980612042871075</c:v>
+                  <c:v>0.99743434612399795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99242316513444306</c:v>
+                  <c:v>0.99827847766930755</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99437313027600394</c:v>
+                  <c:v>0.99884525804213542</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99582389944515337</c:v>
+                  <c:v>0.99922560648475944</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99690207724746327</c:v>
+                  <c:v>0.99948075254448077</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99770269667543965</c:v>
+                  <c:v>0.9996518679097619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5692,6 +5695,347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$17:$AL$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17745114499368292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19031199220093176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20876765729184479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23478791575173236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27057340516541462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31814369472520548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37860020816449586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45119213970807381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53264110228439376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61735889771560626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6988078602919261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77139979183550411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83185630527479459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87942659483458541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91521208424826761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94123234270815526</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95968800779906827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97254885500631716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.981400919704289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98744207306071796</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99154096841313133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99431107671435792</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99617816781320001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99743434612399795</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99827847766930755</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99884525804213542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99922560648475944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99948075254448077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9996518679097619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B905-4226-A18C-07289D02ECCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1637983919"/>
+        <c:axId val="1637988239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1637983919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637988239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637988239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637983919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5813,6 +6157,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7916,6 +8300,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8033,16 +8933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8062,6 +8962,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7531E0B0-E8D0-FDE4-AA2E-6B666C6B162E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10068,123 +11004,123 @@
       </c>
       <c r="B2">
         <f>Data!I17</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.2579411882892142</v>
+        <v>0.17745114499368292</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
-        <v>0.27627957191928759</v>
+        <v>0.19031199220093176</v>
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.2996426865499332</v>
+        <v>0.20876765729184479</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.32888715966126825</v>
+        <v>0.23478791575173236</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.36469629744075793</v>
+        <v>0.27057340516541462</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.40738008065427683</v>
+        <v>0.31814369472520548</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.45665704065968565</v>
+        <v>0.37860020816449586</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.51148861284062241</v>
+        <v>0.45119213970807381</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.57005612372500036</v>
+        <v>0.53264110228439376</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.62994387627499959</v>
+        <v>0.61735889771560626</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.68851138715937765</v>
+        <v>0.6988078602919261</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.74334295934031447</v>
+        <v>0.77139979183550411</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.79261991934572329</v>
+        <v>0.83185630527479459</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.83530370255924202</v>
+        <v>0.87942659483458541</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.87111284033873182</v>
+        <v>0.91521208424826761</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.90035731345006687</v>
+        <v>0.94123234270815526</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.92372042808071253</v>
+        <v>0.95968800779906827</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.94205881171078576</v>
+        <v>0.97254885500631716</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.95625494622724738</v>
+        <v>0.981400919704289</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.96712697743962805</v>
+        <v>0.98744207306071796</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.97538491251428172</v>
+        <v>0.99154096841313133</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.98161810407197958</v>
+        <v>0.99431107671435792</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.98630077334741784</v>
+        <v>0.99617816781320001</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.98980612042871075</v>
+        <v>0.99743434612399795</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99242316513444306</v>
+        <v>0.99827847766930755</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99437313027600394</v>
+        <v>0.99884525804213542</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99582389944515337</v>
+        <v>0.99922560648475944</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99690207724746327</v>
+        <v>0.99948075254448077</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99770269667543965</v>
+        <v>0.9996518679097619</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -64288,8 +65224,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64329,6 +65265,10 @@
         <v>1000</v>
       </c>
       <c r="U1" s="17"/>
+      <c r="W1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -64358,6 +65298,12 @@
       <c r="U2" s="19">
         <v>1</v>
       </c>
+      <c r="W2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -64387,6 +65333,12 @@
       <c r="U3" s="19">
         <v>-0.42</v>
       </c>
+      <c r="W3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="19">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -64416,13 +65368,19 @@
       <c r="U4" s="20">
         <v>-11</v>
       </c>
+      <c r="W4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" s="20">
+        <v>-10.5</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -64441,6 +65399,27 @@
       </c>
       <c r="O6" s="22">
         <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S6">
+        <v>0.05</v>
+      </c>
+      <c r="T6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="U6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V6">
+        <v>0.09</v>
+      </c>
+      <c r="W6">
+        <v>0.12</v>
+      </c>
+      <c r="X6">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
@@ -64474,26 +65453,8 @@
       <c r="G8" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="N8" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O8">
-        <v>0.05</v>
-      </c>
-      <c r="P8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="Q8">
-        <v>7.8E-2</v>
-      </c>
-      <c r="R8">
-        <v>0.09</v>
-      </c>
-      <c r="S8">
-        <v>0.12</v>
-      </c>
-      <c r="T8">
-        <v>0.15</v>
+      <c r="N8" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -65246,7 +66207,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" ref="T14" si="2">T8</f>
+        <f>X6</f>
         <v>0.15</v>
       </c>
       <c r="U14">
@@ -65610,7 +66571,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F17">
         <f>F10</f>
@@ -65622,123 +66583,123 @@
       </c>
       <c r="I17" s="22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.2579411882892142</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:J$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
+        <v>0.17745114499368292</v>
       </c>
       <c r="K17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
-        <v>0.27627957191928759</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:K$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
+        <v>0.19031199220093176</v>
       </c>
       <c r="L17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.2996426865499332</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:L$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
+        <v>0.20876765729184479</v>
       </c>
       <c r="M17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.32888715966126825</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:M$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
+        <v>0.23478791575173236</v>
       </c>
       <c r="N17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.36469629744075793</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:N$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
+        <v>0.27057340516541462</v>
       </c>
       <c r="O17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.40738008065427683</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:O$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
+        <v>0.31814369472520548</v>
       </c>
       <c r="P17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.45665704065968565</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:P$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
+        <v>0.37860020816449586</v>
       </c>
       <c r="Q17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.51148861284062241</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Q$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
+        <v>0.45119213970807381</v>
       </c>
       <c r="R17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.57005612372500036</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:R$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
+        <v>0.53264110228439376</v>
       </c>
       <c r="S17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.62994387627499959</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:S$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
+        <v>0.61735889771560626</v>
       </c>
       <c r="T17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.68851138715937765</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:T$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
+        <v>0.6988078602919261</v>
       </c>
       <c r="U17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.74334295934031447</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:U$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
+        <v>0.77139979183550411</v>
       </c>
       <c r="V17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.79261991934572329</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:V$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
+        <v>0.83185630527479459</v>
       </c>
       <c r="W17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.83530370255924202</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:W$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
+        <v>0.87942659483458541</v>
       </c>
       <c r="X17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.87111284033873182</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:X$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
+        <v>0.91521208424826761</v>
       </c>
       <c r="Y17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.90035731345006687</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Y$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
+        <v>0.94123234270815526</v>
       </c>
       <c r="Z17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.92372042808071253</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:Z$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
+        <v>0.95968800779906827</v>
       </c>
       <c r="AA17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.94205881171078576</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AA$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
+        <v>0.97254885500631716</v>
       </c>
       <c r="AB17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.95625494622724738</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AB$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
+        <v>0.981400919704289</v>
       </c>
       <c r="AC17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.96712697743962805</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AC$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
+        <v>0.98744207306071796</v>
       </c>
       <c r="AD17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.97538491251428172</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AD$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
+        <v>0.99154096841313133</v>
       </c>
       <c r="AE17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.98161810407197958</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AE$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
+        <v>0.99431107671435792</v>
       </c>
       <c r="AF17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.98630077334741784</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AF$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
+        <v>0.99617816781320001</v>
       </c>
       <c r="AG17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.98980612042871075</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AG$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
+        <v>0.99743434612399795</v>
       </c>
       <c r="AH17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99242316513444306</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AH$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
+        <v>0.99827847766930755</v>
       </c>
       <c r="AI17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99437313027600394</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AI$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
+        <v>0.99884525804213542</v>
       </c>
       <c r="AJ17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99582389944515337</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AJ$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
+        <v>0.99922560648475944</v>
       </c>
       <c r="AK17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99690207724746327</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AK$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
+        <v>0.99948075254448077</v>
       </c>
       <c r="AL17">
-        <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99770269667543965</v>
+        <f>IF($G17="s-curve",$E17+($F17-$E17)*$X$2/(1+EXP($X$3*(COUNT($I$9:AL$9)+$X$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
+        <v>0.9996518679097619</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -66019,7 +66980,7 @@
       <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="29">
         <v>1</v>
       </c>
       <c r="G20" s="7" t="str">
@@ -68911,7 +69872,7 @@
         <v>n/a</v>
       </c>
       <c r="I41" s="22">
-        <f t="shared" ref="I41:I72" si="3">E41</f>
+        <f t="shared" ref="I41:I72" si="2">E41</f>
         <v>1</v>
       </c>
       <c r="J41">
@@ -69046,7 +70007,7 @@
         <v>n/a</v>
       </c>
       <c r="I42" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -69181,7 +70142,7 @@
         <v>n/a</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -69319,7 +70280,7 @@
         <v>n/a</v>
       </c>
       <c r="I44" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -69460,7 +70421,7 @@
         <v>n/a</v>
       </c>
       <c r="I45" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -69595,7 +70556,7 @@
         <v>n/a</v>
       </c>
       <c r="I46" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -69730,7 +70691,7 @@
         <v>n/a</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -69865,7 +70826,7 @@
         <v>n/a</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J48">
@@ -70000,7 +70961,7 @@
         <v>n/a</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -70135,7 +71096,7 @@
         <v>n/a</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -70273,7 +71234,7 @@
         <v>n/a</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -70415,7 +71376,7 @@
         <v>s-curve</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.93664816809218165</v>
       </c>
       <c r="J52">
@@ -70550,7 +71511,7 @@
         <v>n/a</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -70685,7 +71646,7 @@
         <v>n/a</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -70821,7 +71782,7 @@
         <v>linear</v>
       </c>
       <c r="I55" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3351831907818346E-2</v>
       </c>
       <c r="J55">
@@ -70956,7 +71917,7 @@
         <v>n/a</v>
       </c>
       <c r="I56" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -71091,7 +72052,7 @@
         <v>n/a</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57">
@@ -71229,7 +72190,7 @@
         <v>n/a</v>
       </c>
       <c r="I58" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -71370,7 +72331,7 @@
         <v>n/a</v>
       </c>
       <c r="I59" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -71505,7 +72466,7 @@
         <v>n/a</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -71640,7 +72601,7 @@
         <v>n/a</v>
       </c>
       <c r="I61" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -71775,7 +72736,7 @@
         <v>n/a</v>
       </c>
       <c r="I62" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J62">
@@ -71910,7 +72871,7 @@
         <v>n/a</v>
       </c>
       <c r="I63" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -72045,7 +73006,7 @@
         <v>n/a</v>
       </c>
       <c r="I64" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -72183,7 +73144,7 @@
         <v>n/a</v>
       </c>
       <c r="I65" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -72324,7 +73285,7 @@
         <v>n/a</v>
       </c>
       <c r="I66" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66">
@@ -72459,7 +73420,7 @@
         <v>n/a</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -72594,7 +73555,7 @@
         <v>n/a</v>
       </c>
       <c r="I68" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -72729,7 +73690,7 @@
         <v>n/a</v>
       </c>
       <c r="I69" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J69">
@@ -72864,7 +73825,7 @@
         <v>n/a</v>
       </c>
       <c r="I70" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -72999,7 +73960,7 @@
         <v>n/a</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -73137,7 +74098,7 @@
         <v>n/a</v>
       </c>
       <c r="I72" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -73278,7 +74239,7 @@
         <v>n/a</v>
       </c>
       <c r="I73" s="22">
-        <f t="shared" ref="I73:I93" si="4">E73</f>
+        <f t="shared" ref="I73:I93" si="3">E73</f>
         <v>0</v>
       </c>
       <c r="J73">
@@ -73413,7 +74374,7 @@
         <v>n/a</v>
       </c>
       <c r="I74" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -73548,7 +74509,7 @@
         <v>n/a</v>
       </c>
       <c r="I75" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75">
@@ -73683,7 +74644,7 @@
         <v>n/a</v>
       </c>
       <c r="I76" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J76">
@@ -73818,7 +74779,7 @@
         <v>n/a</v>
       </c>
       <c r="I77" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -73953,7 +74914,7 @@
         <v>n/a</v>
       </c>
       <c r="I78" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -74091,7 +75052,7 @@
         <v>n/a</v>
       </c>
       <c r="I79" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -74233,7 +75194,7 @@
         <v>s-curve</v>
       </c>
       <c r="I80" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -74369,7 +75330,7 @@
         <v>n/a</v>
       </c>
       <c r="I81" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -74504,7 +75465,7 @@
         <v>n/a</v>
       </c>
       <c r="I82" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J82">
@@ -74640,7 +75601,7 @@
         <v>n/a</v>
       </c>
       <c r="I83" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -74776,7 +75737,7 @@
         <v>n/a</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -74912,7 +75873,7 @@
         <v>n/a</v>
       </c>
       <c r="I85" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -75051,7 +76012,7 @@
         <v>n/a</v>
       </c>
       <c r="I86" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -75192,7 +76153,7 @@
         <v>n/a</v>
       </c>
       <c r="I87" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -75327,7 +76288,7 @@
         <v>n/a</v>
       </c>
       <c r="I88" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -75462,7 +76423,7 @@
         <v>n/a</v>
       </c>
       <c r="I89" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -75597,7 +76558,7 @@
         <v>n/a</v>
       </c>
       <c r="I90" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -75732,7 +76693,7 @@
         <v>n/a</v>
       </c>
       <c r="I91" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -75867,7 +76828,7 @@
         <v>n/a</v>
       </c>
       <c r="I92" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -76005,7 +76966,7 @@
         <v>n/a</v>
       </c>
       <c r="I93" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93">
